--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6CC432-4AFF-4302-9ECA-DE004BF0D30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF65460-9D62-4B0D-A18F-B8DE1839F982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9761,8 +9761,149 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="34" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -9872,84 +10013,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="34" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9957,69 +10020,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10905,12 +10905,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="249" t="str">
+      <c r="I25" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="249"/>
-      <c r="K25" s="249"/>
+      <c r="J25" s="270"/>
+      <c r="K25" s="270"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -11470,57 +11470,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="303" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="259" t="s">
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="306" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="265" t="s">
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="267"/>
-      <c r="S1" s="274" t="s">
+      <c r="P1" s="313"/>
+      <c r="Q1" s="313"/>
+      <c r="R1" s="314"/>
+      <c r="S1" s="321" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="256" t="s">
+      <c r="T1" s="322"/>
+      <c r="U1" s="322"/>
+      <c r="V1" s="322"/>
+      <c r="W1" s="322"/>
+      <c r="X1" s="322"/>
+      <c r="Y1" s="322"/>
+      <c r="Z1" s="323"/>
+      <c r="AA1" s="303" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="283" t="str">
+      <c r="AB1" s="305"/>
+      <c r="AC1" s="330" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="284"/>
-      <c r="AE1" s="284"/>
-      <c r="AF1" s="285"/>
-      <c r="AG1" s="250" t="str">
+      <c r="AD1" s="331"/>
+      <c r="AE1" s="331"/>
+      <c r="AF1" s="332"/>
+      <c r="AG1" s="297" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="299"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11528,53 +11528,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259" t="s">
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="306" t="s">
         <v>563</v>
       </c>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="256" t="s">
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
+      <c r="M2" s="307"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="317"/>
+      <c r="S2" s="324"/>
+      <c r="T2" s="325"/>
+      <c r="U2" s="325"/>
+      <c r="V2" s="325"/>
+      <c r="W2" s="325"/>
+      <c r="X2" s="325"/>
+      <c r="Y2" s="325"/>
+      <c r="Z2" s="326"/>
+      <c r="AA2" s="303" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="262" t="str">
+      <c r="AB2" s="305"/>
+      <c r="AC2" s="309" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="263"/>
-      <c r="AE2" s="263"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="250" t="str">
+      <c r="AD2" s="310"/>
+      <c r="AE2" s="310"/>
+      <c r="AF2" s="311"/>
+      <c r="AG2" s="297" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="298"/>
+      <c r="AI2" s="299"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11582,45 +11582,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="303" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="306" t="s">
         <v>564</v>
       </c>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="260"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="283"/>
-      <c r="AD3" s="284"/>
-      <c r="AE3" s="284"/>
-      <c r="AF3" s="285"/>
-      <c r="AG3" s="250"/>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="307"/>
+      <c r="L3" s="307"/>
+      <c r="M3" s="307"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="319"/>
+      <c r="R3" s="320"/>
+      <c r="S3" s="327"/>
+      <c r="T3" s="328"/>
+      <c r="U3" s="328"/>
+      <c r="V3" s="328"/>
+      <c r="W3" s="328"/>
+      <c r="X3" s="328"/>
+      <c r="Y3" s="328"/>
+      <c r="Z3" s="329"/>
+      <c r="AA3" s="303"/>
+      <c r="AB3" s="305"/>
+      <c r="AC3" s="330"/>
+      <c r="AD3" s="331"/>
+      <c r="AE3" s="331"/>
+      <c r="AF3" s="332"/>
+      <c r="AG3" s="297"/>
+      <c r="AH3" s="298"/>
+      <c r="AI3" s="299"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11657,1176 +11657,1020 @@
       <c r="A7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="300" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="253" t="s">
+      <c r="C7" s="301"/>
+      <c r="D7" s="300" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="255"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="253" t="s">
+      <c r="E7" s="302"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="255"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="253" t="s">
+      <c r="H7" s="302"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="300" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="253" t="s">
+      <c r="K7" s="302"/>
+      <c r="L7" s="302"/>
+      <c r="M7" s="302"/>
+      <c r="N7" s="302"/>
+      <c r="O7" s="302"/>
+      <c r="P7" s="301"/>
+      <c r="Q7" s="300" t="s">
         <v>68</v>
       </c>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="255"/>
-      <c r="Z7" s="255"/>
-      <c r="AA7" s="255"/>
-      <c r="AB7" s="255"/>
-      <c r="AC7" s="255"/>
-      <c r="AD7" s="255"/>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="253" t="s">
+      <c r="R7" s="302"/>
+      <c r="S7" s="302"/>
+      <c r="T7" s="302"/>
+      <c r="U7" s="302"/>
+      <c r="V7" s="302"/>
+      <c r="W7" s="302"/>
+      <c r="X7" s="302"/>
+      <c r="Y7" s="302"/>
+      <c r="Z7" s="302"/>
+      <c r="AA7" s="302"/>
+      <c r="AB7" s="302"/>
+      <c r="AC7" s="302"/>
+      <c r="AD7" s="302"/>
+      <c r="AE7" s="301"/>
+      <c r="AF7" s="300" t="s">
         <v>69</v>
       </c>
-      <c r="AG7" s="255"/>
-      <c r="AH7" s="255"/>
-      <c r="AI7" s="254"/>
+      <c r="AG7" s="302"/>
+      <c r="AH7" s="302"/>
+      <c r="AI7" s="301"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="298"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="305"/>
-      <c r="K8" s="306"/>
-      <c r="L8" s="306"/>
-      <c r="M8" s="306"/>
-      <c r="N8" s="306"/>
-      <c r="O8" s="306"/>
-      <c r="P8" s="307"/>
-      <c r="Q8" s="308"/>
-      <c r="R8" s="309"/>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="309"/>
-      <c r="V8" s="309"/>
-      <c r="W8" s="309"/>
-      <c r="X8" s="309"/>
-      <c r="Y8" s="309"/>
-      <c r="Z8" s="309"/>
-      <c r="AA8" s="309"/>
-      <c r="AB8" s="309"/>
-      <c r="AC8" s="309"/>
-      <c r="AD8" s="309"/>
-      <c r="AE8" s="310"/>
-      <c r="AF8" s="305"/>
-      <c r="AG8" s="306"/>
-      <c r="AH8" s="306"/>
-      <c r="AI8" s="307"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="291"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="292"/>
+      <c r="O8" s="292"/>
+      <c r="P8" s="293"/>
+      <c r="Q8" s="294"/>
+      <c r="R8" s="295"/>
+      <c r="S8" s="295"/>
+      <c r="T8" s="295"/>
+      <c r="U8" s="295"/>
+      <c r="V8" s="295"/>
+      <c r="W8" s="295"/>
+      <c r="X8" s="295"/>
+      <c r="Y8" s="295"/>
+      <c r="Z8" s="295"/>
+      <c r="AA8" s="295"/>
+      <c r="AB8" s="295"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="295"/>
+      <c r="AE8" s="296"/>
+      <c r="AF8" s="291"/>
+      <c r="AG8" s="292"/>
+      <c r="AH8" s="292"/>
+      <c r="AI8" s="293"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="286"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="287"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="294"/>
-      <c r="Q9" s="295"/>
-      <c r="R9" s="296"/>
-      <c r="S9" s="296"/>
-      <c r="T9" s="296"/>
-      <c r="U9" s="296"/>
-      <c r="V9" s="296"/>
-      <c r="W9" s="296"/>
-      <c r="X9" s="296"/>
-      <c r="Y9" s="296"/>
-      <c r="Z9" s="296"/>
-      <c r="AA9" s="296"/>
-      <c r="AB9" s="296"/>
-      <c r="AC9" s="296"/>
-      <c r="AD9" s="296"/>
-      <c r="AE9" s="297"/>
-      <c r="AF9" s="292"/>
-      <c r="AG9" s="293"/>
-      <c r="AH9" s="293"/>
-      <c r="AI9" s="294"/>
+      <c r="B9" s="271"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="273"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="276"/>
+      <c r="I9" s="272"/>
+      <c r="J9" s="277"/>
+      <c r="K9" s="278"/>
+      <c r="L9" s="278"/>
+      <c r="M9" s="278"/>
+      <c r="N9" s="278"/>
+      <c r="O9" s="278"/>
+      <c r="P9" s="279"/>
+      <c r="Q9" s="280"/>
+      <c r="R9" s="281"/>
+      <c r="S9" s="281"/>
+      <c r="T9" s="281"/>
+      <c r="U9" s="281"/>
+      <c r="V9" s="281"/>
+      <c r="W9" s="281"/>
+      <c r="X9" s="281"/>
+      <c r="Y9" s="281"/>
+      <c r="Z9" s="281"/>
+      <c r="AA9" s="281"/>
+      <c r="AB9" s="281"/>
+      <c r="AC9" s="281"/>
+      <c r="AD9" s="281"/>
+      <c r="AE9" s="282"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="278"/>
+      <c r="AH9" s="278"/>
+      <c r="AI9" s="279"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="292"/>
-      <c r="K10" s="293"/>
-      <c r="L10" s="293"/>
-      <c r="M10" s="293"/>
-      <c r="N10" s="293"/>
-      <c r="O10" s="293"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="295"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="296"/>
-      <c r="V10" s="296"/>
-      <c r="W10" s="296"/>
-      <c r="X10" s="296"/>
-      <c r="Y10" s="296"/>
-      <c r="Z10" s="296"/>
-      <c r="AA10" s="296"/>
-      <c r="AB10" s="296"/>
-      <c r="AC10" s="296"/>
-      <c r="AD10" s="296"/>
-      <c r="AE10" s="297"/>
-      <c r="AF10" s="292"/>
-      <c r="AG10" s="293"/>
-      <c r="AH10" s="293"/>
-      <c r="AI10" s="294"/>
+      <c r="B10" s="271"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="274"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="272"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="278"/>
+      <c r="O10" s="278"/>
+      <c r="P10" s="279"/>
+      <c r="Q10" s="280"/>
+      <c r="R10" s="281"/>
+      <c r="S10" s="281"/>
+      <c r="T10" s="281"/>
+      <c r="U10" s="281"/>
+      <c r="V10" s="281"/>
+      <c r="W10" s="281"/>
+      <c r="X10" s="281"/>
+      <c r="Y10" s="281"/>
+      <c r="Z10" s="281"/>
+      <c r="AA10" s="281"/>
+      <c r="AB10" s="281"/>
+      <c r="AC10" s="281"/>
+      <c r="AD10" s="281"/>
+      <c r="AE10" s="282"/>
+      <c r="AF10" s="277"/>
+      <c r="AG10" s="278"/>
+      <c r="AH10" s="278"/>
+      <c r="AI10" s="279"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="286"/>
-      <c r="C11" s="287"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="286"/>
-      <c r="H11" s="291"/>
-      <c r="I11" s="287"/>
-      <c r="J11" s="292"/>
-      <c r="K11" s="293"/>
-      <c r="L11" s="293"/>
-      <c r="M11" s="293"/>
-      <c r="N11" s="293"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="295"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="296"/>
-      <c r="U11" s="296"/>
-      <c r="V11" s="296"/>
-      <c r="W11" s="296"/>
-      <c r="X11" s="296"/>
-      <c r="Y11" s="296"/>
-      <c r="Z11" s="296"/>
-      <c r="AA11" s="296"/>
-      <c r="AB11" s="296"/>
-      <c r="AC11" s="296"/>
-      <c r="AD11" s="296"/>
-      <c r="AE11" s="297"/>
-      <c r="AF11" s="292"/>
-      <c r="AG11" s="293"/>
-      <c r="AH11" s="293"/>
-      <c r="AI11" s="294"/>
+      <c r="B11" s="271"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="274"/>
+      <c r="F11" s="275"/>
+      <c r="G11" s="271"/>
+      <c r="H11" s="276"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="277"/>
+      <c r="K11" s="278"/>
+      <c r="L11" s="278"/>
+      <c r="M11" s="278"/>
+      <c r="N11" s="278"/>
+      <c r="O11" s="278"/>
+      <c r="P11" s="279"/>
+      <c r="Q11" s="280"/>
+      <c r="R11" s="281"/>
+      <c r="S11" s="281"/>
+      <c r="T11" s="281"/>
+      <c r="U11" s="281"/>
+      <c r="V11" s="281"/>
+      <c r="W11" s="281"/>
+      <c r="X11" s="281"/>
+      <c r="Y11" s="281"/>
+      <c r="Z11" s="281"/>
+      <c r="AA11" s="281"/>
+      <c r="AB11" s="281"/>
+      <c r="AC11" s="281"/>
+      <c r="AD11" s="281"/>
+      <c r="AE11" s="282"/>
+      <c r="AF11" s="277"/>
+      <c r="AG11" s="278"/>
+      <c r="AH11" s="278"/>
+      <c r="AI11" s="279"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="286"/>
-      <c r="C12" s="287"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="291"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="292"/>
-      <c r="K12" s="293"/>
-      <c r="L12" s="293"/>
-      <c r="M12" s="293"/>
-      <c r="N12" s="293"/>
-      <c r="O12" s="293"/>
-      <c r="P12" s="294"/>
-      <c r="Q12" s="295"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="296"/>
-      <c r="V12" s="296"/>
-      <c r="W12" s="296"/>
-      <c r="X12" s="296"/>
-      <c r="Y12" s="296"/>
-      <c r="Z12" s="296"/>
-      <c r="AA12" s="296"/>
-      <c r="AB12" s="296"/>
-      <c r="AC12" s="296"/>
-      <c r="AD12" s="296"/>
-      <c r="AE12" s="297"/>
-      <c r="AF12" s="292"/>
-      <c r="AG12" s="293"/>
-      <c r="AH12" s="293"/>
-      <c r="AI12" s="294"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="274"/>
+      <c r="F12" s="275"/>
+      <c r="G12" s="271"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="272"/>
+      <c r="J12" s="277"/>
+      <c r="K12" s="278"/>
+      <c r="L12" s="278"/>
+      <c r="M12" s="278"/>
+      <c r="N12" s="278"/>
+      <c r="O12" s="278"/>
+      <c r="P12" s="279"/>
+      <c r="Q12" s="280"/>
+      <c r="R12" s="281"/>
+      <c r="S12" s="281"/>
+      <c r="T12" s="281"/>
+      <c r="U12" s="281"/>
+      <c r="V12" s="281"/>
+      <c r="W12" s="281"/>
+      <c r="X12" s="281"/>
+      <c r="Y12" s="281"/>
+      <c r="Z12" s="281"/>
+      <c r="AA12" s="281"/>
+      <c r="AB12" s="281"/>
+      <c r="AC12" s="281"/>
+      <c r="AD12" s="281"/>
+      <c r="AE12" s="282"/>
+      <c r="AF12" s="277"/>
+      <c r="AG12" s="278"/>
+      <c r="AH12" s="278"/>
+      <c r="AI12" s="279"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="286"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="292"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="293"/>
-      <c r="M13" s="293"/>
-      <c r="N13" s="293"/>
-      <c r="O13" s="293"/>
-      <c r="P13" s="294"/>
-      <c r="Q13" s="295"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="296"/>
-      <c r="T13" s="296"/>
-      <c r="U13" s="296"/>
-      <c r="V13" s="296"/>
-      <c r="W13" s="296"/>
-      <c r="X13" s="296"/>
-      <c r="Y13" s="296"/>
-      <c r="Z13" s="296"/>
-      <c r="AA13" s="296"/>
-      <c r="AB13" s="296"/>
-      <c r="AC13" s="296"/>
-      <c r="AD13" s="296"/>
-      <c r="AE13" s="297"/>
-      <c r="AF13" s="292"/>
-      <c r="AG13" s="293"/>
-      <c r="AH13" s="293"/>
-      <c r="AI13" s="294"/>
+      <c r="B13" s="271"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="273"/>
+      <c r="E13" s="274"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="276"/>
+      <c r="I13" s="272"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="278"/>
+      <c r="L13" s="278"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="278"/>
+      <c r="O13" s="278"/>
+      <c r="P13" s="279"/>
+      <c r="Q13" s="280"/>
+      <c r="R13" s="281"/>
+      <c r="S13" s="281"/>
+      <c r="T13" s="281"/>
+      <c r="U13" s="281"/>
+      <c r="V13" s="281"/>
+      <c r="W13" s="281"/>
+      <c r="X13" s="281"/>
+      <c r="Y13" s="281"/>
+      <c r="Z13" s="281"/>
+      <c r="AA13" s="281"/>
+      <c r="AB13" s="281"/>
+      <c r="AC13" s="281"/>
+      <c r="AD13" s="281"/>
+      <c r="AE13" s="282"/>
+      <c r="AF13" s="277"/>
+      <c r="AG13" s="278"/>
+      <c r="AH13" s="278"/>
+      <c r="AI13" s="279"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="286"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="288"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="291"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="292"/>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
-      <c r="M14" s="293"/>
-      <c r="N14" s="293"/>
-      <c r="O14" s="293"/>
-      <c r="P14" s="294"/>
-      <c r="Q14" s="295"/>
-      <c r="R14" s="296"/>
-      <c r="S14" s="296"/>
-      <c r="T14" s="296"/>
-      <c r="U14" s="296"/>
-      <c r="V14" s="296"/>
-      <c r="W14" s="296"/>
-      <c r="X14" s="296"/>
-      <c r="Y14" s="296"/>
-      <c r="Z14" s="296"/>
-      <c r="AA14" s="296"/>
-      <c r="AB14" s="296"/>
-      <c r="AC14" s="296"/>
-      <c r="AD14" s="296"/>
-      <c r="AE14" s="297"/>
-      <c r="AF14" s="292"/>
-      <c r="AG14" s="293"/>
-      <c r="AH14" s="293"/>
-      <c r="AI14" s="294"/>
+      <c r="B14" s="271"/>
+      <c r="C14" s="272"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="274"/>
+      <c r="F14" s="275"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="276"/>
+      <c r="I14" s="272"/>
+      <c r="J14" s="277"/>
+      <c r="K14" s="278"/>
+      <c r="L14" s="278"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="278"/>
+      <c r="O14" s="278"/>
+      <c r="P14" s="279"/>
+      <c r="Q14" s="280"/>
+      <c r="R14" s="281"/>
+      <c r="S14" s="281"/>
+      <c r="T14" s="281"/>
+      <c r="U14" s="281"/>
+      <c r="V14" s="281"/>
+      <c r="W14" s="281"/>
+      <c r="X14" s="281"/>
+      <c r="Y14" s="281"/>
+      <c r="Z14" s="281"/>
+      <c r="AA14" s="281"/>
+      <c r="AB14" s="281"/>
+      <c r="AC14" s="281"/>
+      <c r="AD14" s="281"/>
+      <c r="AE14" s="282"/>
+      <c r="AF14" s="277"/>
+      <c r="AG14" s="278"/>
+      <c r="AH14" s="278"/>
+      <c r="AI14" s="279"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="286"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="291"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="292"/>
-      <c r="K15" s="293"/>
-      <c r="L15" s="293"/>
-      <c r="M15" s="293"/>
-      <c r="N15" s="293"/>
-      <c r="O15" s="293"/>
-      <c r="P15" s="294"/>
-      <c r="Q15" s="295"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="296"/>
-      <c r="U15" s="296"/>
-      <c r="V15" s="296"/>
-      <c r="W15" s="296"/>
-      <c r="X15" s="296"/>
-      <c r="Y15" s="296"/>
-      <c r="Z15" s="296"/>
-      <c r="AA15" s="296"/>
-      <c r="AB15" s="296"/>
-      <c r="AC15" s="296"/>
-      <c r="AD15" s="296"/>
-      <c r="AE15" s="297"/>
-      <c r="AF15" s="292"/>
-      <c r="AG15" s="293"/>
-      <c r="AH15" s="293"/>
-      <c r="AI15" s="294"/>
+      <c r="B15" s="271"/>
+      <c r="C15" s="272"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="274"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="272"/>
+      <c r="J15" s="277"/>
+      <c r="K15" s="278"/>
+      <c r="L15" s="278"/>
+      <c r="M15" s="278"/>
+      <c r="N15" s="278"/>
+      <c r="O15" s="278"/>
+      <c r="P15" s="279"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="281"/>
+      <c r="S15" s="281"/>
+      <c r="T15" s="281"/>
+      <c r="U15" s="281"/>
+      <c r="V15" s="281"/>
+      <c r="W15" s="281"/>
+      <c r="X15" s="281"/>
+      <c r="Y15" s="281"/>
+      <c r="Z15" s="281"/>
+      <c r="AA15" s="281"/>
+      <c r="AB15" s="281"/>
+      <c r="AC15" s="281"/>
+      <c r="AD15" s="281"/>
+      <c r="AE15" s="282"/>
+      <c r="AF15" s="277"/>
+      <c r="AG15" s="278"/>
+      <c r="AH15" s="278"/>
+      <c r="AI15" s="279"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="286"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="291"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="292"/>
-      <c r="K16" s="293"/>
-      <c r="L16" s="293"/>
-      <c r="M16" s="293"/>
-      <c r="N16" s="293"/>
-      <c r="O16" s="293"/>
-      <c r="P16" s="294"/>
-      <c r="Q16" s="295"/>
-      <c r="R16" s="296"/>
-      <c r="S16" s="296"/>
-      <c r="T16" s="296"/>
-      <c r="U16" s="296"/>
-      <c r="V16" s="296"/>
-      <c r="W16" s="296"/>
-      <c r="X16" s="296"/>
-      <c r="Y16" s="296"/>
-      <c r="Z16" s="296"/>
-      <c r="AA16" s="296"/>
-      <c r="AB16" s="296"/>
-      <c r="AC16" s="296"/>
-      <c r="AD16" s="296"/>
-      <c r="AE16" s="297"/>
-      <c r="AF16" s="292"/>
-      <c r="AG16" s="293"/>
-      <c r="AH16" s="293"/>
-      <c r="AI16" s="294"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="273"/>
+      <c r="E16" s="274"/>
+      <c r="F16" s="275"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="276"/>
+      <c r="I16" s="272"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="278"/>
+      <c r="M16" s="278"/>
+      <c r="N16" s="278"/>
+      <c r="O16" s="278"/>
+      <c r="P16" s="279"/>
+      <c r="Q16" s="280"/>
+      <c r="R16" s="281"/>
+      <c r="S16" s="281"/>
+      <c r="T16" s="281"/>
+      <c r="U16" s="281"/>
+      <c r="V16" s="281"/>
+      <c r="W16" s="281"/>
+      <c r="X16" s="281"/>
+      <c r="Y16" s="281"/>
+      <c r="Z16" s="281"/>
+      <c r="AA16" s="281"/>
+      <c r="AB16" s="281"/>
+      <c r="AC16" s="281"/>
+      <c r="AD16" s="281"/>
+      <c r="AE16" s="282"/>
+      <c r="AF16" s="277"/>
+      <c r="AG16" s="278"/>
+      <c r="AH16" s="278"/>
+      <c r="AI16" s="279"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="287"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="291"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="292"/>
-      <c r="K17" s="293"/>
-      <c r="L17" s="293"/>
-      <c r="M17" s="293"/>
-      <c r="N17" s="293"/>
-      <c r="O17" s="293"/>
-      <c r="P17" s="294"/>
-      <c r="Q17" s="295"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="296"/>
-      <c r="T17" s="296"/>
-      <c r="U17" s="296"/>
-      <c r="V17" s="296"/>
-      <c r="W17" s="296"/>
-      <c r="X17" s="296"/>
-      <c r="Y17" s="296"/>
-      <c r="Z17" s="296"/>
-      <c r="AA17" s="296"/>
-      <c r="AB17" s="296"/>
-      <c r="AC17" s="296"/>
-      <c r="AD17" s="296"/>
-      <c r="AE17" s="297"/>
-      <c r="AF17" s="292"/>
-      <c r="AG17" s="293"/>
-      <c r="AH17" s="293"/>
-      <c r="AI17" s="294"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="275"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="276"/>
+      <c r="I17" s="272"/>
+      <c r="J17" s="277"/>
+      <c r="K17" s="278"/>
+      <c r="L17" s="278"/>
+      <c r="M17" s="278"/>
+      <c r="N17" s="278"/>
+      <c r="O17" s="278"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="280"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
+      <c r="Z17" s="281"/>
+      <c r="AA17" s="281"/>
+      <c r="AB17" s="281"/>
+      <c r="AC17" s="281"/>
+      <c r="AD17" s="281"/>
+      <c r="AE17" s="282"/>
+      <c r="AF17" s="277"/>
+      <c r="AG17" s="278"/>
+      <c r="AH17" s="278"/>
+      <c r="AI17" s="279"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="286"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="291"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="292"/>
-      <c r="K18" s="293"/>
-      <c r="L18" s="293"/>
-      <c r="M18" s="293"/>
-      <c r="N18" s="293"/>
-      <c r="O18" s="293"/>
-      <c r="P18" s="294"/>
-      <c r="Q18" s="295"/>
-      <c r="R18" s="296"/>
-      <c r="S18" s="296"/>
-      <c r="T18" s="296"/>
-      <c r="U18" s="296"/>
-      <c r="V18" s="296"/>
-      <c r="W18" s="296"/>
-      <c r="X18" s="296"/>
-      <c r="Y18" s="296"/>
-      <c r="Z18" s="296"/>
-      <c r="AA18" s="296"/>
-      <c r="AB18" s="296"/>
-      <c r="AC18" s="296"/>
-      <c r="AD18" s="296"/>
-      <c r="AE18" s="297"/>
-      <c r="AF18" s="292"/>
-      <c r="AG18" s="293"/>
-      <c r="AH18" s="293"/>
-      <c r="AI18" s="294"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="275"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="276"/>
+      <c r="I18" s="272"/>
+      <c r="J18" s="277"/>
+      <c r="K18" s="278"/>
+      <c r="L18" s="278"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="278"/>
+      <c r="O18" s="278"/>
+      <c r="P18" s="279"/>
+      <c r="Q18" s="280"/>
+      <c r="R18" s="281"/>
+      <c r="S18" s="281"/>
+      <c r="T18" s="281"/>
+      <c r="U18" s="281"/>
+      <c r="V18" s="281"/>
+      <c r="W18" s="281"/>
+      <c r="X18" s="281"/>
+      <c r="Y18" s="281"/>
+      <c r="Z18" s="281"/>
+      <c r="AA18" s="281"/>
+      <c r="AB18" s="281"/>
+      <c r="AC18" s="281"/>
+      <c r="AD18" s="281"/>
+      <c r="AE18" s="282"/>
+      <c r="AF18" s="277"/>
+      <c r="AG18" s="278"/>
+      <c r="AH18" s="278"/>
+      <c r="AI18" s="279"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="286"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="291"/>
-      <c r="I19" s="287"/>
-      <c r="J19" s="292"/>
-      <c r="K19" s="293"/>
-      <c r="L19" s="293"/>
-      <c r="M19" s="293"/>
-      <c r="N19" s="293"/>
-      <c r="O19" s="293"/>
-      <c r="P19" s="294"/>
-      <c r="Q19" s="295"/>
-      <c r="R19" s="296"/>
-      <c r="S19" s="296"/>
-      <c r="T19" s="296"/>
-      <c r="U19" s="296"/>
-      <c r="V19" s="296"/>
-      <c r="W19" s="296"/>
-      <c r="X19" s="296"/>
-      <c r="Y19" s="296"/>
-      <c r="Z19" s="296"/>
-      <c r="AA19" s="296"/>
-      <c r="AB19" s="296"/>
-      <c r="AC19" s="296"/>
-      <c r="AD19" s="296"/>
-      <c r="AE19" s="297"/>
-      <c r="AF19" s="292"/>
-      <c r="AG19" s="293"/>
-      <c r="AH19" s="293"/>
-      <c r="AI19" s="294"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="276"/>
+      <c r="I19" s="272"/>
+      <c r="J19" s="277"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="278"/>
+      <c r="M19" s="278"/>
+      <c r="N19" s="278"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="279"/>
+      <c r="Q19" s="280"/>
+      <c r="R19" s="281"/>
+      <c r="S19" s="281"/>
+      <c r="T19" s="281"/>
+      <c r="U19" s="281"/>
+      <c r="V19" s="281"/>
+      <c r="W19" s="281"/>
+      <c r="X19" s="281"/>
+      <c r="Y19" s="281"/>
+      <c r="Z19" s="281"/>
+      <c r="AA19" s="281"/>
+      <c r="AB19" s="281"/>
+      <c r="AC19" s="281"/>
+      <c r="AD19" s="281"/>
+      <c r="AE19" s="282"/>
+      <c r="AF19" s="277"/>
+      <c r="AG19" s="278"/>
+      <c r="AH19" s="278"/>
+      <c r="AI19" s="279"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="286"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="291"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="292"/>
-      <c r="K20" s="293"/>
-      <c r="L20" s="293"/>
-      <c r="M20" s="293"/>
-      <c r="N20" s="293"/>
-      <c r="O20" s="293"/>
-      <c r="P20" s="294"/>
-      <c r="Q20" s="295"/>
-      <c r="R20" s="296"/>
-      <c r="S20" s="296"/>
-      <c r="T20" s="296"/>
-      <c r="U20" s="296"/>
-      <c r="V20" s="296"/>
-      <c r="W20" s="296"/>
-      <c r="X20" s="296"/>
-      <c r="Y20" s="296"/>
-      <c r="Z20" s="296"/>
-      <c r="AA20" s="296"/>
-      <c r="AB20" s="296"/>
-      <c r="AC20" s="296"/>
-      <c r="AD20" s="296"/>
-      <c r="AE20" s="297"/>
-      <c r="AF20" s="292"/>
-      <c r="AG20" s="293"/>
-      <c r="AH20" s="293"/>
-      <c r="AI20" s="294"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="274"/>
+      <c r="F20" s="275"/>
+      <c r="G20" s="271"/>
+      <c r="H20" s="276"/>
+      <c r="I20" s="272"/>
+      <c r="J20" s="277"/>
+      <c r="K20" s="278"/>
+      <c r="L20" s="278"/>
+      <c r="M20" s="278"/>
+      <c r="N20" s="278"/>
+      <c r="O20" s="278"/>
+      <c r="P20" s="279"/>
+      <c r="Q20" s="280"/>
+      <c r="R20" s="281"/>
+      <c r="S20" s="281"/>
+      <c r="T20" s="281"/>
+      <c r="U20" s="281"/>
+      <c r="V20" s="281"/>
+      <c r="W20" s="281"/>
+      <c r="X20" s="281"/>
+      <c r="Y20" s="281"/>
+      <c r="Z20" s="281"/>
+      <c r="AA20" s="281"/>
+      <c r="AB20" s="281"/>
+      <c r="AC20" s="281"/>
+      <c r="AD20" s="281"/>
+      <c r="AE20" s="282"/>
+      <c r="AF20" s="277"/>
+      <c r="AG20" s="278"/>
+      <c r="AH20" s="278"/>
+      <c r="AI20" s="279"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="286"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="291"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="292"/>
-      <c r="K21" s="293"/>
-      <c r="L21" s="293"/>
-      <c r="M21" s="293"/>
-      <c r="N21" s="293"/>
-      <c r="O21" s="293"/>
-      <c r="P21" s="294"/>
-      <c r="Q21" s="295"/>
-      <c r="R21" s="296"/>
-      <c r="S21" s="296"/>
-      <c r="T21" s="296"/>
-      <c r="U21" s="296"/>
-      <c r="V21" s="296"/>
-      <c r="W21" s="296"/>
-      <c r="X21" s="296"/>
-      <c r="Y21" s="296"/>
-      <c r="Z21" s="296"/>
-      <c r="AA21" s="296"/>
-      <c r="AB21" s="296"/>
-      <c r="AC21" s="296"/>
-      <c r="AD21" s="296"/>
-      <c r="AE21" s="297"/>
-      <c r="AF21" s="292"/>
-      <c r="AG21" s="293"/>
-      <c r="AH21" s="293"/>
-      <c r="AI21" s="294"/>
+      <c r="B21" s="271"/>
+      <c r="C21" s="272"/>
+      <c r="D21" s="273"/>
+      <c r="E21" s="274"/>
+      <c r="F21" s="275"/>
+      <c r="G21" s="271"/>
+      <c r="H21" s="276"/>
+      <c r="I21" s="272"/>
+      <c r="J21" s="277"/>
+      <c r="K21" s="278"/>
+      <c r="L21" s="278"/>
+      <c r="M21" s="278"/>
+      <c r="N21" s="278"/>
+      <c r="O21" s="278"/>
+      <c r="P21" s="279"/>
+      <c r="Q21" s="280"/>
+      <c r="R21" s="281"/>
+      <c r="S21" s="281"/>
+      <c r="T21" s="281"/>
+      <c r="U21" s="281"/>
+      <c r="V21" s="281"/>
+      <c r="W21" s="281"/>
+      <c r="X21" s="281"/>
+      <c r="Y21" s="281"/>
+      <c r="Z21" s="281"/>
+      <c r="AA21" s="281"/>
+      <c r="AB21" s="281"/>
+      <c r="AC21" s="281"/>
+      <c r="AD21" s="281"/>
+      <c r="AE21" s="282"/>
+      <c r="AF21" s="277"/>
+      <c r="AG21" s="278"/>
+      <c r="AH21" s="278"/>
+      <c r="AI21" s="279"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="286"/>
-      <c r="C22" s="287"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="290"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="291"/>
-      <c r="I22" s="287"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="293"/>
-      <c r="L22" s="293"/>
-      <c r="M22" s="293"/>
-      <c r="N22" s="293"/>
-      <c r="O22" s="293"/>
-      <c r="P22" s="294"/>
-      <c r="Q22" s="295"/>
-      <c r="R22" s="296"/>
-      <c r="S22" s="296"/>
-      <c r="T22" s="296"/>
-      <c r="U22" s="296"/>
-      <c r="V22" s="296"/>
-      <c r="W22" s="296"/>
-      <c r="X22" s="296"/>
-      <c r="Y22" s="296"/>
-      <c r="Z22" s="296"/>
-      <c r="AA22" s="296"/>
-      <c r="AB22" s="296"/>
-      <c r="AC22" s="296"/>
-      <c r="AD22" s="296"/>
-      <c r="AE22" s="297"/>
-      <c r="AF22" s="292"/>
-      <c r="AG22" s="293"/>
-      <c r="AH22" s="293"/>
-      <c r="AI22" s="294"/>
+      <c r="B22" s="271"/>
+      <c r="C22" s="272"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="274"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="271"/>
+      <c r="H22" s="276"/>
+      <c r="I22" s="272"/>
+      <c r="J22" s="277"/>
+      <c r="K22" s="278"/>
+      <c r="L22" s="278"/>
+      <c r="M22" s="278"/>
+      <c r="N22" s="278"/>
+      <c r="O22" s="278"/>
+      <c r="P22" s="279"/>
+      <c r="Q22" s="280"/>
+      <c r="R22" s="281"/>
+      <c r="S22" s="281"/>
+      <c r="T22" s="281"/>
+      <c r="U22" s="281"/>
+      <c r="V22" s="281"/>
+      <c r="W22" s="281"/>
+      <c r="X22" s="281"/>
+      <c r="Y22" s="281"/>
+      <c r="Z22" s="281"/>
+      <c r="AA22" s="281"/>
+      <c r="AB22" s="281"/>
+      <c r="AC22" s="281"/>
+      <c r="AD22" s="281"/>
+      <c r="AE22" s="282"/>
+      <c r="AF22" s="277"/>
+      <c r="AG22" s="278"/>
+      <c r="AH22" s="278"/>
+      <c r="AI22" s="279"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="286"/>
-      <c r="C23" s="287"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="291"/>
-      <c r="I23" s="287"/>
-      <c r="J23" s="292"/>
-      <c r="K23" s="293"/>
-      <c r="L23" s="293"/>
-      <c r="M23" s="293"/>
-      <c r="N23" s="293"/>
-      <c r="O23" s="293"/>
-      <c r="P23" s="294"/>
-      <c r="Q23" s="295"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="296"/>
-      <c r="T23" s="296"/>
-      <c r="U23" s="296"/>
-      <c r="V23" s="296"/>
-      <c r="W23" s="296"/>
-      <c r="X23" s="296"/>
-      <c r="Y23" s="296"/>
-      <c r="Z23" s="296"/>
-      <c r="AA23" s="296"/>
-      <c r="AB23" s="296"/>
-      <c r="AC23" s="296"/>
-      <c r="AD23" s="296"/>
-      <c r="AE23" s="297"/>
-      <c r="AF23" s="292"/>
-      <c r="AG23" s="293"/>
-      <c r="AH23" s="293"/>
-      <c r="AI23" s="294"/>
+      <c r="B23" s="271"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="275"/>
+      <c r="G23" s="271"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="272"/>
+      <c r="J23" s="277"/>
+      <c r="K23" s="278"/>
+      <c r="L23" s="278"/>
+      <c r="M23" s="278"/>
+      <c r="N23" s="278"/>
+      <c r="O23" s="278"/>
+      <c r="P23" s="279"/>
+      <c r="Q23" s="280"/>
+      <c r="R23" s="281"/>
+      <c r="S23" s="281"/>
+      <c r="T23" s="281"/>
+      <c r="U23" s="281"/>
+      <c r="V23" s="281"/>
+      <c r="W23" s="281"/>
+      <c r="X23" s="281"/>
+      <c r="Y23" s="281"/>
+      <c r="Z23" s="281"/>
+      <c r="AA23" s="281"/>
+      <c r="AB23" s="281"/>
+      <c r="AC23" s="281"/>
+      <c r="AD23" s="281"/>
+      <c r="AE23" s="282"/>
+      <c r="AF23" s="277"/>
+      <c r="AG23" s="278"/>
+      <c r="AH23" s="278"/>
+      <c r="AI23" s="279"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="286"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="291"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="292"/>
-      <c r="K24" s="293"/>
-      <c r="L24" s="293"/>
-      <c r="M24" s="293"/>
-      <c r="N24" s="293"/>
-      <c r="O24" s="293"/>
-      <c r="P24" s="294"/>
-      <c r="Q24" s="295"/>
-      <c r="R24" s="296"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="296"/>
-      <c r="U24" s="296"/>
-      <c r="V24" s="296"/>
-      <c r="W24" s="296"/>
-      <c r="X24" s="296"/>
-      <c r="Y24" s="296"/>
-      <c r="Z24" s="296"/>
-      <c r="AA24" s="296"/>
-      <c r="AB24" s="296"/>
-      <c r="AC24" s="296"/>
-      <c r="AD24" s="296"/>
-      <c r="AE24" s="297"/>
-      <c r="AF24" s="292"/>
-      <c r="AG24" s="293"/>
-      <c r="AH24" s="293"/>
-      <c r="AI24" s="294"/>
+      <c r="B24" s="271"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="274"/>
+      <c r="F24" s="275"/>
+      <c r="G24" s="271"/>
+      <c r="H24" s="276"/>
+      <c r="I24" s="272"/>
+      <c r="J24" s="277"/>
+      <c r="K24" s="278"/>
+      <c r="L24" s="278"/>
+      <c r="M24" s="278"/>
+      <c r="N24" s="278"/>
+      <c r="O24" s="278"/>
+      <c r="P24" s="279"/>
+      <c r="Q24" s="280"/>
+      <c r="R24" s="281"/>
+      <c r="S24" s="281"/>
+      <c r="T24" s="281"/>
+      <c r="U24" s="281"/>
+      <c r="V24" s="281"/>
+      <c r="W24" s="281"/>
+      <c r="X24" s="281"/>
+      <c r="Y24" s="281"/>
+      <c r="Z24" s="281"/>
+      <c r="AA24" s="281"/>
+      <c r="AB24" s="281"/>
+      <c r="AC24" s="281"/>
+      <c r="AD24" s="281"/>
+      <c r="AE24" s="282"/>
+      <c r="AF24" s="277"/>
+      <c r="AG24" s="278"/>
+      <c r="AH24" s="278"/>
+      <c r="AI24" s="279"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="286"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="291"/>
-      <c r="I25" s="287"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="293"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="293"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="294"/>
-      <c r="Q25" s="295"/>
-      <c r="R25" s="296"/>
-      <c r="S25" s="296"/>
-      <c r="T25" s="296"/>
-      <c r="U25" s="296"/>
-      <c r="V25" s="296"/>
-      <c r="W25" s="296"/>
-      <c r="X25" s="296"/>
-      <c r="Y25" s="296"/>
-      <c r="Z25" s="296"/>
-      <c r="AA25" s="296"/>
-      <c r="AB25" s="296"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="296"/>
-      <c r="AE25" s="297"/>
-      <c r="AF25" s="292"/>
-      <c r="AG25" s="293"/>
-      <c r="AH25" s="293"/>
-      <c r="AI25" s="294"/>
+      <c r="B25" s="271"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="273"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="275"/>
+      <c r="G25" s="271"/>
+      <c r="H25" s="276"/>
+      <c r="I25" s="272"/>
+      <c r="J25" s="277"/>
+      <c r="K25" s="278"/>
+      <c r="L25" s="278"/>
+      <c r="M25" s="278"/>
+      <c r="N25" s="278"/>
+      <c r="O25" s="278"/>
+      <c r="P25" s="279"/>
+      <c r="Q25" s="280"/>
+      <c r="R25" s="281"/>
+      <c r="S25" s="281"/>
+      <c r="T25" s="281"/>
+      <c r="U25" s="281"/>
+      <c r="V25" s="281"/>
+      <c r="W25" s="281"/>
+      <c r="X25" s="281"/>
+      <c r="Y25" s="281"/>
+      <c r="Z25" s="281"/>
+      <c r="AA25" s="281"/>
+      <c r="AB25" s="281"/>
+      <c r="AC25" s="281"/>
+      <c r="AD25" s="281"/>
+      <c r="AE25" s="282"/>
+      <c r="AF25" s="277"/>
+      <c r="AG25" s="278"/>
+      <c r="AH25" s="278"/>
+      <c r="AI25" s="279"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="286"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="286"/>
-      <c r="H26" s="291"/>
-      <c r="I26" s="287"/>
-      <c r="J26" s="292"/>
-      <c r="K26" s="293"/>
-      <c r="L26" s="293"/>
-      <c r="M26" s="293"/>
-      <c r="N26" s="293"/>
-      <c r="O26" s="293"/>
-      <c r="P26" s="294"/>
-      <c r="Q26" s="295"/>
-      <c r="R26" s="296"/>
-      <c r="S26" s="296"/>
-      <c r="T26" s="296"/>
-      <c r="U26" s="296"/>
-      <c r="V26" s="296"/>
-      <c r="W26" s="296"/>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="296"/>
-      <c r="Z26" s="296"/>
-      <c r="AA26" s="296"/>
-      <c r="AB26" s="296"/>
-      <c r="AC26" s="296"/>
-      <c r="AD26" s="296"/>
-      <c r="AE26" s="297"/>
-      <c r="AF26" s="292"/>
-      <c r="AG26" s="293"/>
-      <c r="AH26" s="293"/>
-      <c r="AI26" s="294"/>
+      <c r="B26" s="271"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="273"/>
+      <c r="E26" s="274"/>
+      <c r="F26" s="275"/>
+      <c r="G26" s="271"/>
+      <c r="H26" s="276"/>
+      <c r="I26" s="272"/>
+      <c r="J26" s="277"/>
+      <c r="K26" s="278"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="278"/>
+      <c r="O26" s="278"/>
+      <c r="P26" s="279"/>
+      <c r="Q26" s="280"/>
+      <c r="R26" s="281"/>
+      <c r="S26" s="281"/>
+      <c r="T26" s="281"/>
+      <c r="U26" s="281"/>
+      <c r="V26" s="281"/>
+      <c r="W26" s="281"/>
+      <c r="X26" s="281"/>
+      <c r="Y26" s="281"/>
+      <c r="Z26" s="281"/>
+      <c r="AA26" s="281"/>
+      <c r="AB26" s="281"/>
+      <c r="AC26" s="281"/>
+      <c r="AD26" s="281"/>
+      <c r="AE26" s="282"/>
+      <c r="AF26" s="277"/>
+      <c r="AG26" s="278"/>
+      <c r="AH26" s="278"/>
+      <c r="AI26" s="279"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="286"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="291"/>
-      <c r="I27" s="287"/>
-      <c r="J27" s="292"/>
-      <c r="K27" s="293"/>
-      <c r="L27" s="293"/>
-      <c r="M27" s="293"/>
-      <c r="N27" s="293"/>
-      <c r="O27" s="293"/>
-      <c r="P27" s="294"/>
-      <c r="Q27" s="295"/>
-      <c r="R27" s="296"/>
-      <c r="S27" s="296"/>
-      <c r="T27" s="296"/>
-      <c r="U27" s="296"/>
-      <c r="V27" s="296"/>
-      <c r="W27" s="296"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
-      <c r="AC27" s="296"/>
-      <c r="AD27" s="296"/>
-      <c r="AE27" s="297"/>
-      <c r="AF27" s="292"/>
-      <c r="AG27" s="293"/>
-      <c r="AH27" s="293"/>
-      <c r="AI27" s="294"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="275"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="276"/>
+      <c r="I27" s="272"/>
+      <c r="J27" s="277"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="278"/>
+      <c r="O27" s="278"/>
+      <c r="P27" s="279"/>
+      <c r="Q27" s="280"/>
+      <c r="R27" s="281"/>
+      <c r="S27" s="281"/>
+      <c r="T27" s="281"/>
+      <c r="U27" s="281"/>
+      <c r="V27" s="281"/>
+      <c r="W27" s="281"/>
+      <c r="X27" s="281"/>
+      <c r="Y27" s="281"/>
+      <c r="Z27" s="281"/>
+      <c r="AA27" s="281"/>
+      <c r="AB27" s="281"/>
+      <c r="AC27" s="281"/>
+      <c r="AD27" s="281"/>
+      <c r="AE27" s="282"/>
+      <c r="AF27" s="277"/>
+      <c r="AG27" s="278"/>
+      <c r="AH27" s="278"/>
+      <c r="AI27" s="279"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="286"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="286"/>
-      <c r="H28" s="291"/>
-      <c r="I28" s="287"/>
-      <c r="J28" s="292"/>
-      <c r="K28" s="293"/>
-      <c r="L28" s="293"/>
-      <c r="M28" s="293"/>
-      <c r="N28" s="293"/>
-      <c r="O28" s="293"/>
-      <c r="P28" s="294"/>
-      <c r="Q28" s="295"/>
-      <c r="R28" s="296"/>
-      <c r="S28" s="296"/>
-      <c r="T28" s="296"/>
-      <c r="U28" s="296"/>
-      <c r="V28" s="296"/>
-      <c r="W28" s="296"/>
-      <c r="X28" s="296"/>
-      <c r="Y28" s="296"/>
-      <c r="Z28" s="296"/>
-      <c r="AA28" s="296"/>
-      <c r="AB28" s="296"/>
-      <c r="AC28" s="296"/>
-      <c r="AD28" s="296"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="292"/>
-      <c r="AG28" s="293"/>
-      <c r="AH28" s="293"/>
-      <c r="AI28" s="294"/>
+      <c r="B28" s="271"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="273"/>
+      <c r="E28" s="274"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="271"/>
+      <c r="H28" s="276"/>
+      <c r="I28" s="272"/>
+      <c r="J28" s="277"/>
+      <c r="K28" s="278"/>
+      <c r="L28" s="278"/>
+      <c r="M28" s="278"/>
+      <c r="N28" s="278"/>
+      <c r="O28" s="278"/>
+      <c r="P28" s="279"/>
+      <c r="Q28" s="280"/>
+      <c r="R28" s="281"/>
+      <c r="S28" s="281"/>
+      <c r="T28" s="281"/>
+      <c r="U28" s="281"/>
+      <c r="V28" s="281"/>
+      <c r="W28" s="281"/>
+      <c r="X28" s="281"/>
+      <c r="Y28" s="281"/>
+      <c r="Z28" s="281"/>
+      <c r="AA28" s="281"/>
+      <c r="AB28" s="281"/>
+      <c r="AC28" s="281"/>
+      <c r="AD28" s="281"/>
+      <c r="AE28" s="282"/>
+      <c r="AF28" s="277"/>
+      <c r="AG28" s="278"/>
+      <c r="AH28" s="278"/>
+      <c r="AI28" s="279"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="286"/>
-      <c r="C29" s="287"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="291"/>
-      <c r="I29" s="287"/>
-      <c r="J29" s="292"/>
-      <c r="K29" s="293"/>
-      <c r="L29" s="293"/>
-      <c r="M29" s="293"/>
-      <c r="N29" s="293"/>
-      <c r="O29" s="293"/>
-      <c r="P29" s="294"/>
-      <c r="Q29" s="295"/>
-      <c r="R29" s="296"/>
-      <c r="S29" s="296"/>
-      <c r="T29" s="296"/>
-      <c r="U29" s="296"/>
-      <c r="V29" s="296"/>
-      <c r="W29" s="296"/>
-      <c r="X29" s="296"/>
-      <c r="Y29" s="296"/>
-      <c r="Z29" s="296"/>
-      <c r="AA29" s="296"/>
-      <c r="AB29" s="296"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="296"/>
-      <c r="AE29" s="297"/>
-      <c r="AF29" s="292"/>
-      <c r="AG29" s="293"/>
-      <c r="AH29" s="293"/>
-      <c r="AI29" s="294"/>
+      <c r="B29" s="271"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="273"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="275"/>
+      <c r="G29" s="271"/>
+      <c r="H29" s="276"/>
+      <c r="I29" s="272"/>
+      <c r="J29" s="277"/>
+      <c r="K29" s="278"/>
+      <c r="L29" s="278"/>
+      <c r="M29" s="278"/>
+      <c r="N29" s="278"/>
+      <c r="O29" s="278"/>
+      <c r="P29" s="279"/>
+      <c r="Q29" s="280"/>
+      <c r="R29" s="281"/>
+      <c r="S29" s="281"/>
+      <c r="T29" s="281"/>
+      <c r="U29" s="281"/>
+      <c r="V29" s="281"/>
+      <c r="W29" s="281"/>
+      <c r="X29" s="281"/>
+      <c r="Y29" s="281"/>
+      <c r="Z29" s="281"/>
+      <c r="AA29" s="281"/>
+      <c r="AB29" s="281"/>
+      <c r="AC29" s="281"/>
+      <c r="AD29" s="281"/>
+      <c r="AE29" s="282"/>
+      <c r="AF29" s="277"/>
+      <c r="AG29" s="278"/>
+      <c r="AH29" s="278"/>
+      <c r="AI29" s="279"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="286"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="289"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="286"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="292"/>
-      <c r="K30" s="293"/>
-      <c r="L30" s="293"/>
-      <c r="M30" s="293"/>
-      <c r="N30" s="293"/>
-      <c r="O30" s="293"/>
-      <c r="P30" s="294"/>
-      <c r="Q30" s="295"/>
-      <c r="R30" s="296"/>
-      <c r="S30" s="296"/>
-      <c r="T30" s="296"/>
-      <c r="U30" s="296"/>
-      <c r="V30" s="296"/>
-      <c r="W30" s="296"/>
-      <c r="X30" s="296"/>
-      <c r="Y30" s="296"/>
-      <c r="Z30" s="296"/>
-      <c r="AA30" s="296"/>
-      <c r="AB30" s="296"/>
-      <c r="AC30" s="296"/>
-      <c r="AD30" s="296"/>
-      <c r="AE30" s="297"/>
-      <c r="AF30" s="292"/>
-      <c r="AG30" s="293"/>
-      <c r="AH30" s="293"/>
-      <c r="AI30" s="294"/>
+      <c r="B30" s="271"/>
+      <c r="C30" s="272"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="271"/>
+      <c r="H30" s="276"/>
+      <c r="I30" s="272"/>
+      <c r="J30" s="277"/>
+      <c r="K30" s="278"/>
+      <c r="L30" s="278"/>
+      <c r="M30" s="278"/>
+      <c r="N30" s="278"/>
+      <c r="O30" s="278"/>
+      <c r="P30" s="279"/>
+      <c r="Q30" s="280"/>
+      <c r="R30" s="281"/>
+      <c r="S30" s="281"/>
+      <c r="T30" s="281"/>
+      <c r="U30" s="281"/>
+      <c r="V30" s="281"/>
+      <c r="W30" s="281"/>
+      <c r="X30" s="281"/>
+      <c r="Y30" s="281"/>
+      <c r="Z30" s="281"/>
+      <c r="AA30" s="281"/>
+      <c r="AB30" s="281"/>
+      <c r="AC30" s="281"/>
+      <c r="AD30" s="281"/>
+      <c r="AE30" s="282"/>
+      <c r="AF30" s="277"/>
+      <c r="AG30" s="278"/>
+      <c r="AH30" s="278"/>
+      <c r="AI30" s="279"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="286"/>
-      <c r="C31" s="287"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="289"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="286"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="292"/>
-      <c r="K31" s="293"/>
-      <c r="L31" s="293"/>
-      <c r="M31" s="293"/>
-      <c r="N31" s="293"/>
-      <c r="O31" s="293"/>
-      <c r="P31" s="294"/>
-      <c r="Q31" s="295"/>
-      <c r="R31" s="296"/>
-      <c r="S31" s="296"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="296"/>
-      <c r="V31" s="296"/>
-      <c r="W31" s="296"/>
-      <c r="X31" s="296"/>
-      <c r="Y31" s="296"/>
-      <c r="Z31" s="296"/>
-      <c r="AA31" s="296"/>
-      <c r="AB31" s="296"/>
-      <c r="AC31" s="296"/>
-      <c r="AD31" s="296"/>
-      <c r="AE31" s="297"/>
-      <c r="AF31" s="292"/>
-      <c r="AG31" s="293"/>
-      <c r="AH31" s="293"/>
-      <c r="AI31" s="294"/>
+      <c r="B31" s="271"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="273"/>
+      <c r="E31" s="274"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="276"/>
+      <c r="I31" s="272"/>
+      <c r="J31" s="277"/>
+      <c r="K31" s="278"/>
+      <c r="L31" s="278"/>
+      <c r="M31" s="278"/>
+      <c r="N31" s="278"/>
+      <c r="O31" s="278"/>
+      <c r="P31" s="279"/>
+      <c r="Q31" s="280"/>
+      <c r="R31" s="281"/>
+      <c r="S31" s="281"/>
+      <c r="T31" s="281"/>
+      <c r="U31" s="281"/>
+      <c r="V31" s="281"/>
+      <c r="W31" s="281"/>
+      <c r="X31" s="281"/>
+      <c r="Y31" s="281"/>
+      <c r="Z31" s="281"/>
+      <c r="AA31" s="281"/>
+      <c r="AB31" s="281"/>
+      <c r="AC31" s="281"/>
+      <c r="AD31" s="281"/>
+      <c r="AE31" s="282"/>
+      <c r="AF31" s="277"/>
+      <c r="AG31" s="278"/>
+      <c r="AH31" s="278"/>
+      <c r="AI31" s="279"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="286"/>
-      <c r="C32" s="287"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="286"/>
-      <c r="H32" s="291"/>
-      <c r="I32" s="287"/>
-      <c r="J32" s="292"/>
-      <c r="K32" s="311"/>
-      <c r="L32" s="293"/>
-      <c r="M32" s="293"/>
-      <c r="N32" s="293"/>
-      <c r="O32" s="293"/>
-      <c r="P32" s="294"/>
-      <c r="Q32" s="295"/>
-      <c r="R32" s="296"/>
-      <c r="S32" s="296"/>
-      <c r="T32" s="296"/>
-      <c r="U32" s="296"/>
-      <c r="V32" s="296"/>
-      <c r="W32" s="296"/>
-      <c r="X32" s="296"/>
-      <c r="Y32" s="296"/>
-      <c r="Z32" s="296"/>
-      <c r="AA32" s="296"/>
-      <c r="AB32" s="296"/>
-      <c r="AC32" s="296"/>
-      <c r="AD32" s="296"/>
-      <c r="AE32" s="297"/>
-      <c r="AF32" s="292"/>
-      <c r="AG32" s="293"/>
-      <c r="AH32" s="293"/>
-      <c r="AI32" s="294"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="272"/>
+      <c r="D32" s="273"/>
+      <c r="E32" s="274"/>
+      <c r="F32" s="275"/>
+      <c r="G32" s="271"/>
+      <c r="H32" s="276"/>
+      <c r="I32" s="272"/>
+      <c r="J32" s="277"/>
+      <c r="K32" s="283"/>
+      <c r="L32" s="278"/>
+      <c r="M32" s="278"/>
+      <c r="N32" s="278"/>
+      <c r="O32" s="278"/>
+      <c r="P32" s="279"/>
+      <c r="Q32" s="280"/>
+      <c r="R32" s="281"/>
+      <c r="S32" s="281"/>
+      <c r="T32" s="281"/>
+      <c r="U32" s="281"/>
+      <c r="V32" s="281"/>
+      <c r="W32" s="281"/>
+      <c r="X32" s="281"/>
+      <c r="Y32" s="281"/>
+      <c r="Z32" s="281"/>
+      <c r="AA32" s="281"/>
+      <c r="AB32" s="281"/>
+      <c r="AC32" s="281"/>
+      <c r="AD32" s="281"/>
+      <c r="AE32" s="282"/>
+      <c r="AF32" s="277"/>
+      <c r="AG32" s="278"/>
+      <c r="AH32" s="278"/>
+      <c r="AI32" s="279"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="286"/>
-      <c r="C33" s="287"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="286"/>
-      <c r="H33" s="291"/>
-      <c r="I33" s="287"/>
-      <c r="J33" s="292"/>
-      <c r="K33" s="293"/>
-      <c r="L33" s="293"/>
-      <c r="M33" s="293"/>
-      <c r="N33" s="293"/>
-      <c r="O33" s="293"/>
-      <c r="P33" s="294"/>
-      <c r="Q33" s="295"/>
-      <c r="R33" s="296"/>
-      <c r="S33" s="296"/>
-      <c r="T33" s="296"/>
-      <c r="U33" s="296"/>
-      <c r="V33" s="296"/>
-      <c r="W33" s="296"/>
-      <c r="X33" s="296"/>
-      <c r="Y33" s="296"/>
-      <c r="Z33" s="296"/>
-      <c r="AA33" s="296"/>
-      <c r="AB33" s="296"/>
-      <c r="AC33" s="296"/>
-      <c r="AD33" s="296"/>
-      <c r="AE33" s="297"/>
-      <c r="AF33" s="292"/>
-      <c r="AG33" s="293"/>
-      <c r="AH33" s="293"/>
-      <c r="AI33" s="294"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="275"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="276"/>
+      <c r="I33" s="272"/>
+      <c r="J33" s="277"/>
+      <c r="K33" s="278"/>
+      <c r="L33" s="278"/>
+      <c r="M33" s="278"/>
+      <c r="N33" s="278"/>
+      <c r="O33" s="278"/>
+      <c r="P33" s="279"/>
+      <c r="Q33" s="280"/>
+      <c r="R33" s="281"/>
+      <c r="S33" s="281"/>
+      <c r="T33" s="281"/>
+      <c r="U33" s="281"/>
+      <c r="V33" s="281"/>
+      <c r="W33" s="281"/>
+      <c r="X33" s="281"/>
+      <c r="Y33" s="281"/>
+      <c r="Z33" s="281"/>
+      <c r="AA33" s="281"/>
+      <c r="AB33" s="281"/>
+      <c r="AC33" s="281"/>
+      <c r="AD33" s="281"/>
+      <c r="AE33" s="282"/>
+      <c r="AF33" s="277"/>
+      <c r="AG33" s="278"/>
+      <c r="AH33" s="278"/>
+      <c r="AI33" s="279"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12850,6 +12694,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12888,7 +12888,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>24</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -16693,7 +16693,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="312" t="s">
+      <c r="B112" s="333" t="s">
         <v>230</v>
       </c>
       <c r="C112" s="140"/>
@@ -16728,7 +16728,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="312"/>
+      <c r="B113" s="333"/>
       <c r="C113" s="140"/>
       <c r="D113" s="112"/>
       <c r="E113" s="145"/>
@@ -17393,7 +17393,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="312" t="s">
+      <c r="B132" s="333" t="s">
         <v>257</v>
       </c>
       <c r="C132" s="140"/>
@@ -17430,7 +17430,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="312"/>
+      <c r="B133" s="333"/>
       <c r="C133" s="140"/>
       <c r="D133" s="159"/>
       <c r="E133" s="159"/>
@@ -23259,7 +23259,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>24</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -23406,7 +23406,7 @@
       <c r="F11" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="315" t="s">
+      <c r="G11" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H11" s="161"/>
@@ -23443,7 +23443,7 @@
       <c r="F12" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="315" t="s">
+      <c r="G12" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H12" s="161"/>
@@ -23482,7 +23482,7 @@
       <c r="F13" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="315" t="s">
+      <c r="G13" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H13" s="161"/>
@@ -23517,7 +23517,7 @@
       <c r="F14" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="315" t="s">
+      <c r="G14" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H14" s="161"/>
@@ -23552,7 +23552,7 @@
       <c r="F15" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="315" t="s">
+      <c r="G15" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H15" s="161"/>
@@ -23587,7 +23587,7 @@
       <c r="F16" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="315" t="s">
+      <c r="G16" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H16" s="161"/>
@@ -23622,7 +23622,7 @@
       <c r="F17" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="315" t="s">
+      <c r="G17" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H17" s="161"/>
@@ -23661,7 +23661,7 @@
       <c r="F18" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="315" t="s">
+      <c r="G18" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H18" s="161"/>
@@ -23696,7 +23696,7 @@
       <c r="F19" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="315" t="s">
+      <c r="G19" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H19" s="161"/>
@@ -23731,7 +23731,7 @@
       <c r="F20" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="315" t="s">
+      <c r="G20" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H20" s="161"/>
@@ -23768,7 +23768,7 @@
       <c r="F21" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="315" t="s">
+      <c r="G21" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H21" s="161"/>
@@ -23803,7 +23803,7 @@
       <c r="F22" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="315" t="s">
+      <c r="G22" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H22" s="161"/>
@@ -23838,7 +23838,7 @@
       <c r="F23" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="315" t="s">
+      <c r="G23" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H23" s="161"/>
@@ -23873,7 +23873,7 @@
       <c r="F24" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="315" t="s">
+      <c r="G24" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H24" s="161"/>
@@ -23912,7 +23912,7 @@
       <c r="F25" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="315" t="s">
+      <c r="G25" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H25" s="161"/>
@@ -23947,7 +23947,7 @@
       <c r="F26" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="315" t="s">
+      <c r="G26" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H26" s="161"/>
@@ -23986,7 +23986,7 @@
       <c r="F27" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="315" t="s">
+      <c r="G27" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H27" s="161"/>
@@ -24021,7 +24021,7 @@
       <c r="F28" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="315" t="s">
+      <c r="G28" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H28" s="161"/>
@@ -24058,7 +24058,7 @@
       <c r="F29" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="315" t="s">
+      <c r="G29" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H29" s="161"/>
@@ -24093,7 +24093,7 @@
       <c r="F30" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="315" t="s">
+      <c r="G30" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H30" s="161"/>
@@ -24128,7 +24128,7 @@
       <c r="F31" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="315" t="s">
+      <c r="G31" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H31" s="161"/>
@@ -24163,7 +24163,7 @@
       <c r="F32" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="315" t="s">
+      <c r="G32" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H32" s="161"/>
@@ -24200,7 +24200,7 @@
       <c r="F33" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="G33" s="315" t="s">
+      <c r="G33" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H33" s="161"/>
@@ -24235,7 +24235,7 @@
       <c r="F34" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="315" t="s">
+      <c r="G34" s="249" t="s">
         <v>603</v>
       </c>
       <c r="H34" s="161"/>
@@ -24272,7 +24272,7 @@
       <c r="F35" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="315" t="s">
+      <c r="G35" s="249" t="s">
         <v>604</v>
       </c>
       <c r="H35" s="160"/>
@@ -24313,7 +24313,7 @@
       <c r="F36" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="316" t="s">
+      <c r="G36" s="250" t="s">
         <v>604</v>
       </c>
       <c r="H36" s="160"/>
@@ -24348,7 +24348,7 @@
       <c r="F37" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="G37" s="316" t="s">
+      <c r="G37" s="250" t="s">
         <v>604</v>
       </c>
       <c r="H37" s="160"/>
@@ -24383,7 +24383,7 @@
       <c r="F38" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="316" t="s">
+      <c r="G38" s="250" t="s">
         <v>604</v>
       </c>
       <c r="H38" s="160"/>
@@ -24418,7 +24418,7 @@
       <c r="F39" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="G39" s="316" t="s">
+      <c r="G39" s="250" t="s">
         <v>604</v>
       </c>
       <c r="H39" s="160"/>
@@ -24457,7 +24457,7 @@
       <c r="F40" s="160" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="316" t="s">
+      <c r="G40" s="250" t="s">
         <v>604</v>
       </c>
       <c r="H40" s="160"/>
@@ -24492,7 +24492,7 @@
       <c r="F41" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="G41" s="316" t="s">
+      <c r="G41" s="250" t="s">
         <v>604</v>
       </c>
       <c r="H41" s="160"/>
@@ -24535,7 +24535,7 @@
       <c r="F42" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="317"/>
+      <c r="G42" s="251"/>
       <c r="H42" s="99"/>
       <c r="I42" s="99"/>
       <c r="J42" s="34"/>
@@ -24568,7 +24568,7 @@
       <c r="F43" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="317"/>
+      <c r="G43" s="251"/>
       <c r="H43" s="99"/>
       <c r="I43" s="99"/>
       <c r="J43" s="34"/>
@@ -24601,7 +24601,7 @@
       <c r="F44" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="G44" s="317"/>
+      <c r="G44" s="251"/>
       <c r="H44" s="99"/>
       <c r="I44" s="99"/>
       <c r="J44" s="34"/>
@@ -24636,7 +24636,7 @@
       <c r="F45" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="317"/>
+      <c r="G45" s="251"/>
       <c r="H45" s="99"/>
       <c r="I45" s="99"/>
       <c r="J45" s="34"/>
@@ -24669,7 +24669,7 @@
       <c r="F46" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="G46" s="317"/>
+      <c r="G46" s="251"/>
       <c r="H46" s="99"/>
       <c r="I46" s="99"/>
       <c r="J46" s="34"/>
@@ -24702,7 +24702,7 @@
       <c r="F47" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="317"/>
+      <c r="G47" s="251"/>
       <c r="H47" s="99"/>
       <c r="I47" s="99"/>
       <c r="J47" s="34"/>
@@ -24737,7 +24737,7 @@
       <c r="F48" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="G48" s="317"/>
+      <c r="G48" s="251"/>
       <c r="H48" s="99"/>
       <c r="I48" s="99"/>
       <c r="J48" s="34"/>
@@ -24770,7 +24770,7 @@
       <c r="F49" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="317"/>
+      <c r="G49" s="251"/>
       <c r="H49" s="99"/>
       <c r="I49" s="99"/>
       <c r="J49" s="34"/>
@@ -24805,7 +24805,7 @@
       <c r="F50" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="317"/>
+      <c r="G50" s="251"/>
       <c r="H50" s="99"/>
       <c r="I50" s="99"/>
       <c r="J50" s="34"/>
@@ -24838,7 +24838,7 @@
       <c r="F51" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="G51" s="317"/>
+      <c r="G51" s="251"/>
       <c r="H51" s="99"/>
       <c r="I51" s="99"/>
       <c r="J51" s="34"/>
@@ -24871,7 +24871,7 @@
       <c r="F52" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="317"/>
+      <c r="G52" s="251"/>
       <c r="H52" s="99"/>
       <c r="I52" s="99"/>
       <c r="J52" s="34"/>
@@ -24904,7 +24904,7 @@
       <c r="F53" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="G53" s="317"/>
+      <c r="G53" s="251"/>
       <c r="H53" s="99"/>
       <c r="I53" s="99"/>
       <c r="J53" s="34"/>
@@ -24937,7 +24937,7 @@
       <c r="F54" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="G54" s="317"/>
+      <c r="G54" s="251"/>
       <c r="H54" s="99"/>
       <c r="I54" s="99"/>
       <c r="J54" s="34"/>
@@ -24970,7 +24970,7 @@
       <c r="F55" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="G55" s="317"/>
+      <c r="G55" s="251"/>
       <c r="H55" s="99"/>
       <c r="I55" s="99"/>
       <c r="J55" s="34"/>
@@ -25005,7 +25005,7 @@
       <c r="F56" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="317"/>
+      <c r="G56" s="251"/>
       <c r="H56" s="99"/>
       <c r="I56" s="99"/>
       <c r="J56" s="34"/>
@@ -25040,7 +25040,7 @@
       <c r="F57" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G57" s="317"/>
+      <c r="G57" s="251"/>
       <c r="H57" s="99"/>
       <c r="I57" s="99"/>
       <c r="J57" s="34"/>
@@ -25075,7 +25075,7 @@
       <c r="F58" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="G58" s="317"/>
+      <c r="G58" s="251"/>
       <c r="H58" s="99"/>
       <c r="I58" s="99"/>
       <c r="J58" s="34"/>
@@ -25112,7 +25112,7 @@
       <c r="F59" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="G59" s="317"/>
+      <c r="G59" s="251"/>
       <c r="H59" s="99"/>
       <c r="I59" s="99"/>
       <c r="J59" s="34"/>
@@ -25145,7 +25145,7 @@
       <c r="F60" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G60" s="317"/>
+      <c r="G60" s="251"/>
       <c r="H60" s="99"/>
       <c r="I60" s="99"/>
       <c r="J60" s="34"/>
@@ -25178,7 +25178,7 @@
       <c r="F61" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="G61" s="317"/>
+      <c r="G61" s="251"/>
       <c r="H61" s="99"/>
       <c r="I61" s="99"/>
       <c r="J61" s="34"/>
@@ -25211,7 +25211,7 @@
       <c r="F62" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="G62" s="317"/>
+      <c r="G62" s="251"/>
       <c r="H62" s="99"/>
       <c r="I62" s="99"/>
       <c r="J62" s="34"/>
@@ -25244,7 +25244,7 @@
       <c r="F63" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="317"/>
+      <c r="G63" s="251"/>
       <c r="H63" s="99"/>
       <c r="I63" s="99"/>
       <c r="J63" s="34"/>
@@ -25279,7 +25279,7 @@
       <c r="F64" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="G64" s="317"/>
+      <c r="G64" s="251"/>
       <c r="H64" s="99"/>
       <c r="I64" s="99"/>
       <c r="J64" s="34"/>
@@ -25312,7 +25312,7 @@
       <c r="F65" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="G65" s="317"/>
+      <c r="G65" s="251"/>
       <c r="H65" s="99"/>
       <c r="I65" s="99"/>
       <c r="J65" s="34"/>
@@ -25345,7 +25345,7 @@
       <c r="F66" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="G66" s="317"/>
+      <c r="G66" s="251"/>
       <c r="H66" s="99"/>
       <c r="I66" s="99"/>
       <c r="J66" s="34"/>
@@ -25378,7 +25378,7 @@
       <c r="F67" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="G67" s="317"/>
+      <c r="G67" s="251"/>
       <c r="H67" s="99"/>
       <c r="I67" s="99"/>
       <c r="J67" s="34"/>
@@ -25411,7 +25411,7 @@
       <c r="F68" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="G68" s="317"/>
+      <c r="G68" s="251"/>
       <c r="H68" s="99"/>
       <c r="I68" s="99"/>
       <c r="J68" s="34"/>
@@ -25444,7 +25444,7 @@
       <c r="F69" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="G69" s="317"/>
+      <c r="G69" s="251"/>
       <c r="H69" s="99"/>
       <c r="I69" s="99"/>
       <c r="J69" s="34"/>
@@ -25477,7 +25477,7 @@
       <c r="F70" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="G70" s="317"/>
+      <c r="G70" s="251"/>
       <c r="H70" s="99"/>
       <c r="I70" s="99"/>
       <c r="J70" s="34"/>
@@ -25510,7 +25510,7 @@
       <c r="F71" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="317"/>
+      <c r="G71" s="251"/>
       <c r="H71" s="100"/>
       <c r="I71" s="100"/>
       <c r="J71" s="39"/>
@@ -25545,7 +25545,7 @@
       <c r="F72" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="G72" s="318"/>
+      <c r="G72" s="252"/>
       <c r="H72" s="99"/>
       <c r="I72" s="76"/>
       <c r="J72" s="42"/>
@@ -25580,7 +25580,7 @@
       <c r="F73" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="G73" s="317"/>
+      <c r="G73" s="251"/>
       <c r="H73" s="99"/>
       <c r="I73" s="81"/>
       <c r="J73" s="42"/>
@@ -25613,7 +25613,7 @@
       <c r="F74" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="G74" s="317"/>
+      <c r="G74" s="251"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
       <c r="J74" s="34"/>
@@ -25646,7 +25646,7 @@
       <c r="F75" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="G75" s="317"/>
+      <c r="G75" s="251"/>
       <c r="H75" s="99"/>
       <c r="I75" s="99"/>
       <c r="J75" s="34"/>
@@ -25679,7 +25679,7 @@
       <c r="F76" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="G76" s="317"/>
+      <c r="G76" s="251"/>
       <c r="H76" s="99"/>
       <c r="I76" s="99"/>
       <c r="J76" s="34"/>
@@ -25712,7 +25712,7 @@
       <c r="F77" s="160" t="s">
         <v>177</v>
       </c>
-      <c r="G77" s="315" t="s">
+      <c r="G77" s="249" t="s">
         <v>569</v>
       </c>
       <c r="H77" s="160"/>
@@ -25753,7 +25753,7 @@
       <c r="F78" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="G78" s="317"/>
+      <c r="G78" s="251"/>
       <c r="H78" s="99"/>
       <c r="I78" s="99"/>
       <c r="J78" s="34"/>
@@ -25786,7 +25786,7 @@
       <c r="F79" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="G79" s="317"/>
+      <c r="G79" s="251"/>
       <c r="H79" s="99"/>
       <c r="I79" s="99"/>
       <c r="J79" s="34"/>
@@ -25821,7 +25821,7 @@
       <c r="F80" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="G80" s="317"/>
+      <c r="G80" s="251"/>
       <c r="H80" s="99"/>
       <c r="I80" s="99"/>
       <c r="J80" s="34"/>
@@ -25856,7 +25856,7 @@
       <c r="F81" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="G81" s="317"/>
+      <c r="G81" s="251"/>
       <c r="H81" s="99"/>
       <c r="I81" s="99"/>
       <c r="J81" s="34"/>
@@ -25889,7 +25889,7 @@
       <c r="F82" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="G82" s="317"/>
+      <c r="G82" s="251"/>
       <c r="H82" s="99"/>
       <c r="I82" s="99"/>
       <c r="J82" s="34"/>
@@ -25924,7 +25924,7 @@
       <c r="F83" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="G83" s="317"/>
+      <c r="G83" s="251"/>
       <c r="H83" s="99"/>
       <c r="I83" s="99"/>
       <c r="J83" s="34"/>
@@ -25959,7 +25959,7 @@
       <c r="F84" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="G84" s="317"/>
+      <c r="G84" s="251"/>
       <c r="H84" s="99"/>
       <c r="I84" s="99"/>
       <c r="J84" s="34"/>
@@ -25998,7 +25998,7 @@
       <c r="F85" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="G85" s="317"/>
+      <c r="G85" s="251"/>
       <c r="H85" s="99"/>
       <c r="I85" s="92"/>
       <c r="J85" s="34"/>
@@ -26033,7 +26033,7 @@
       <c r="F86" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="G86" s="317"/>
+      <c r="G86" s="251"/>
       <c r="H86" s="99"/>
       <c r="I86" s="92"/>
       <c r="J86" s="34"/>
@@ -26068,7 +26068,7 @@
       <c r="F87" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="G87" s="317"/>
+      <c r="G87" s="251"/>
       <c r="H87" s="99"/>
       <c r="I87" s="99"/>
       <c r="J87" s="34"/>
@@ -26107,7 +26107,7 @@
       <c r="F88" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="G88" s="317"/>
+      <c r="G88" s="251"/>
       <c r="H88" s="99"/>
       <c r="I88" s="92"/>
       <c r="J88" s="34"/>
@@ -26140,7 +26140,7 @@
       <c r="F89" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="G89" s="317"/>
+      <c r="G89" s="251"/>
       <c r="H89" s="99"/>
       <c r="I89" s="92"/>
       <c r="J89" s="34"/>
@@ -26175,7 +26175,7 @@
       <c r="F90" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="G90" s="317"/>
+      <c r="G90" s="251"/>
       <c r="H90" s="99"/>
       <c r="I90" s="92"/>
       <c r="J90" s="34"/>
@@ -26210,7 +26210,7 @@
       <c r="F91" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="G91" s="317"/>
+      <c r="G91" s="251"/>
       <c r="H91" s="99"/>
       <c r="I91" s="99"/>
       <c r="J91" s="34"/>
@@ -26243,7 +26243,7 @@
       <c r="F92" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="G92" s="317"/>
+      <c r="G92" s="251"/>
       <c r="H92" s="99"/>
       <c r="I92" s="99"/>
       <c r="J92" s="34"/>
@@ -26278,7 +26278,7 @@
       <c r="F93" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="G93" s="317"/>
+      <c r="G93" s="251"/>
       <c r="H93" s="99"/>
       <c r="I93" s="99"/>
       <c r="J93" s="34"/>
@@ -26317,7 +26317,7 @@
       <c r="F94" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="G94" s="317"/>
+      <c r="G94" s="251"/>
       <c r="H94" s="99"/>
       <c r="I94" s="99"/>
       <c r="J94" s="34"/>
@@ -26350,7 +26350,7 @@
       <c r="F95" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="G95" s="317"/>
+      <c r="G95" s="251"/>
       <c r="H95" s="99"/>
       <c r="I95" s="99"/>
       <c r="J95" s="34"/>
@@ -26383,7 +26383,7 @@
       <c r="F96" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="G96" s="317"/>
+      <c r="G96" s="251"/>
       <c r="H96" s="99"/>
       <c r="I96" s="99"/>
       <c r="J96" s="34"/>
@@ -26416,7 +26416,7 @@
       <c r="F97" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="G97" s="317"/>
+      <c r="G97" s="251"/>
       <c r="H97" s="99"/>
       <c r="I97" s="99"/>
       <c r="J97" s="34"/>
@@ -26449,7 +26449,7 @@
       <c r="F98" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="G98" s="317"/>
+      <c r="G98" s="251"/>
       <c r="H98" s="99"/>
       <c r="I98" s="99"/>
       <c r="J98" s="34"/>
@@ -26484,7 +26484,7 @@
       <c r="F99" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="G99" s="317"/>
+      <c r="G99" s="251"/>
       <c r="H99" s="99"/>
       <c r="I99" s="92"/>
       <c r="J99" s="34"/>
@@ -26517,7 +26517,7 @@
       <c r="F100" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="G100" s="317"/>
+      <c r="G100" s="251"/>
       <c r="H100" s="99"/>
       <c r="I100" s="99"/>
       <c r="J100" s="34"/>
@@ -26550,7 +26550,7 @@
       <c r="F101" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="G101" s="317"/>
+      <c r="G101" s="251"/>
       <c r="H101" s="99"/>
       <c r="I101" s="92"/>
       <c r="J101" s="34"/>
@@ -26583,7 +26583,7 @@
       <c r="F102" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="G102" s="317"/>
+      <c r="G102" s="251"/>
       <c r="H102" s="99"/>
       <c r="I102" s="99"/>
       <c r="J102" s="34"/>
@@ -26616,7 +26616,7 @@
       <c r="F103" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="G103" s="317"/>
+      <c r="G103" s="251"/>
       <c r="H103" s="100"/>
       <c r="I103" s="100"/>
       <c r="J103" s="39"/>
@@ -26651,7 +26651,7 @@
       <c r="F104" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="G104" s="317"/>
+      <c r="G104" s="251"/>
       <c r="H104" s="99"/>
       <c r="I104" s="99"/>
       <c r="J104" s="34"/>
@@ -26692,7 +26692,7 @@
       <c r="F105" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="G105" s="317"/>
+      <c r="G105" s="251"/>
       <c r="H105" s="99"/>
       <c r="I105" s="99"/>
       <c r="J105" s="35"/>
@@ -26731,7 +26731,7 @@
       <c r="F106" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="G106" s="317"/>
+      <c r="G106" s="251"/>
       <c r="H106" s="99"/>
       <c r="I106" s="99"/>
       <c r="J106" s="35"/>
@@ -26764,7 +26764,7 @@
       <c r="F107" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="G107" s="317"/>
+      <c r="G107" s="251"/>
       <c r="H107" s="99"/>
       <c r="I107" s="99"/>
       <c r="J107" s="35"/>
@@ -26803,7 +26803,7 @@
       <c r="F108" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="G108" s="317"/>
+      <c r="G108" s="251"/>
       <c r="H108" s="99"/>
       <c r="I108" s="99"/>
       <c r="J108" s="35"/>
@@ -26842,7 +26842,7 @@
       <c r="F109" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="G109" s="317"/>
+      <c r="G109" s="251"/>
       <c r="H109" s="99"/>
       <c r="I109" s="99"/>
       <c r="J109" s="35"/>
@@ -26875,7 +26875,7 @@
       <c r="F110" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="G110" s="317"/>
+      <c r="G110" s="251"/>
       <c r="H110" s="99"/>
       <c r="I110" s="99"/>
       <c r="J110" s="35"/>
@@ -26916,7 +26916,7 @@
       <c r="F111" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="G111" s="317"/>
+      <c r="G111" s="251"/>
       <c r="H111" s="99"/>
       <c r="I111" s="99"/>
       <c r="J111" s="35"/>
@@ -26942,7 +26942,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="312" t="s">
+      <c r="B112" s="333" t="s">
         <v>230</v>
       </c>
       <c r="C112" s="140"/>
@@ -26951,7 +26951,7 @@
       <c r="F112" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="G112" s="317"/>
+      <c r="G112" s="251"/>
       <c r="H112" s="99"/>
       <c r="I112" s="99"/>
       <c r="J112" s="35"/>
@@ -26977,14 +26977,14 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="312"/>
+      <c r="B113" s="333"/>
       <c r="C113" s="140"/>
       <c r="D113" s="112"/>
       <c r="E113" s="145"/>
       <c r="F113" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="G113" s="317"/>
+      <c r="G113" s="251"/>
       <c r="H113" s="99"/>
       <c r="I113" s="99"/>
       <c r="J113" s="35"/>
@@ -27017,7 +27017,7 @@
       <c r="F114" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="G114" s="317"/>
+      <c r="G114" s="251"/>
       <c r="H114" s="99"/>
       <c r="I114" s="99"/>
       <c r="J114" s="35"/>
@@ -27052,7 +27052,7 @@
       <c r="F115" s="160" t="s">
         <v>234</v>
       </c>
-      <c r="G115" s="315" t="s">
+      <c r="G115" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H115" s="160"/>
@@ -27087,7 +27087,7 @@
       <c r="F116" s="160" t="s">
         <v>235</v>
       </c>
-      <c r="G116" s="315" t="s">
+      <c r="G116" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H116" s="160"/>
@@ -27122,7 +27122,7 @@
       <c r="F117" s="160" t="s">
         <v>236</v>
       </c>
-      <c r="G117" s="315" t="s">
+      <c r="G117" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H117" s="160"/>
@@ -27157,7 +27157,7 @@
       <c r="F118" s="160" t="s">
         <v>237</v>
       </c>
-      <c r="G118" s="315" t="s">
+      <c r="G118" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H118" s="160"/>
@@ -27192,7 +27192,7 @@
       <c r="F119" s="160" t="s">
         <v>238</v>
       </c>
-      <c r="G119" s="315" t="s">
+      <c r="G119" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H119" s="160"/>
@@ -27229,7 +27229,7 @@
       <c r="F120" s="160" t="s">
         <v>240</v>
       </c>
-      <c r="G120" s="315" t="s">
+      <c r="G120" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H120" s="160"/>
@@ -27264,7 +27264,7 @@
       <c r="F121" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="G121" s="315" t="s">
+      <c r="G121" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H121" s="160"/>
@@ -27299,7 +27299,7 @@
       <c r="F122" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="G122" s="319" t="s">
+      <c r="G122" s="253" t="s">
         <v>570</v>
       </c>
       <c r="H122" s="160"/>
@@ -27334,7 +27334,7 @@
       <c r="F123" s="160" t="s">
         <v>243</v>
       </c>
-      <c r="G123" s="319" t="s">
+      <c r="G123" s="253" t="s">
         <v>570</v>
       </c>
       <c r="H123" s="160"/>
@@ -27369,7 +27369,7 @@
       <c r="F124" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="G124" s="319" t="s">
+      <c r="G124" s="253" t="s">
         <v>570</v>
       </c>
       <c r="H124" s="160"/>
@@ -27406,7 +27406,7 @@
       <c r="F125" s="160" t="s">
         <v>246</v>
       </c>
-      <c r="G125" s="315" t="s">
+      <c r="G125" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H125" s="160"/>
@@ -27445,7 +27445,7 @@
       <c r="F126" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="G126" s="317"/>
+      <c r="G126" s="251"/>
       <c r="H126" s="99"/>
       <c r="I126" s="99"/>
       <c r="J126" s="35"/>
@@ -27484,7 +27484,7 @@
       <c r="F127" s="160" t="s">
         <v>250</v>
       </c>
-      <c r="G127" s="319" t="s">
+      <c r="G127" s="253" t="s">
         <v>570</v>
       </c>
       <c r="H127" s="160"/>
@@ -27521,7 +27521,7 @@
       <c r="F128" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="G128" s="315" t="s">
+      <c r="G128" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H128" s="160"/>
@@ -27556,7 +27556,7 @@
       <c r="F129" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="G129" s="315" t="s">
+      <c r="G129" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H129" s="160"/>
@@ -27591,7 +27591,7 @@
       <c r="F130" s="160" t="s">
         <v>254</v>
       </c>
-      <c r="G130" s="315" t="s">
+      <c r="G130" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H130" s="160"/>
@@ -27634,7 +27634,7 @@
       <c r="F131" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="G131" s="318"/>
+      <c r="G131" s="252"/>
       <c r="H131" s="99"/>
       <c r="I131" s="99"/>
       <c r="J131" s="35"/>
@@ -27660,7 +27660,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="312" t="s">
+      <c r="B132" s="333" t="s">
         <v>257</v>
       </c>
       <c r="C132" s="140"/>
@@ -27669,7 +27669,7 @@
       <c r="F132" s="160" t="s">
         <v>258</v>
       </c>
-      <c r="G132" s="319" t="s">
+      <c r="G132" s="253" t="s">
         <v>571</v>
       </c>
       <c r="H132" s="160"/>
@@ -27697,14 +27697,14 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="312"/>
+      <c r="B133" s="333"/>
       <c r="C133" s="140"/>
       <c r="D133" s="112"/>
       <c r="E133" s="112"/>
       <c r="F133" s="160" t="s">
         <v>259</v>
       </c>
-      <c r="G133" s="319" t="s">
+      <c r="G133" s="253" t="s">
         <v>571</v>
       </c>
       <c r="H133" s="160"/>
@@ -27739,7 +27739,7 @@
       <c r="F134" s="160" t="s">
         <v>260</v>
       </c>
-      <c r="G134" s="319" t="s">
+      <c r="G134" s="253" t="s">
         <v>571</v>
       </c>
       <c r="H134" s="160"/>
@@ -27776,7 +27776,7 @@
       <c r="F135" s="99" t="s">
         <v>262</v>
       </c>
-      <c r="G135" s="318"/>
+      <c r="G135" s="252"/>
       <c r="H135" s="99"/>
       <c r="I135" s="99"/>
       <c r="J135" s="35"/>
@@ -27809,7 +27809,7 @@
       <c r="F136" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="G136" s="318"/>
+      <c r="G136" s="252"/>
       <c r="H136" s="99"/>
       <c r="I136" s="99"/>
       <c r="J136" s="35"/>
@@ -27846,7 +27846,7 @@
       <c r="F137" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="G137" s="317"/>
+      <c r="G137" s="251"/>
       <c r="H137" s="99"/>
       <c r="I137" s="99"/>
       <c r="J137" s="35"/>
@@ -27885,7 +27885,7 @@
       <c r="F138" s="160" t="s">
         <v>267</v>
       </c>
-      <c r="G138" s="315" t="s">
+      <c r="G138" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H138" s="160"/>
@@ -27922,7 +27922,7 @@
       <c r="F139" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="G139" s="315" t="s">
+      <c r="G139" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H139" s="160"/>
@@ -27959,7 +27959,7 @@
       <c r="F140" s="160" t="s">
         <v>271</v>
       </c>
-      <c r="G140" s="315" t="s">
+      <c r="G140" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H140" s="160"/>
@@ -27996,7 +27996,7 @@
       <c r="F141" s="160" t="s">
         <v>272</v>
       </c>
-      <c r="G141" s="319" t="s">
+      <c r="G141" s="253" t="s">
         <v>573</v>
       </c>
       <c r="H141" s="160"/>
@@ -28033,7 +28033,7 @@
       <c r="F142" s="160" t="s">
         <v>274</v>
       </c>
-      <c r="G142" s="315" t="s">
+      <c r="G142" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H142" s="160"/>
@@ -28070,7 +28070,7 @@
       <c r="F143" s="160" t="s">
         <v>276</v>
       </c>
-      <c r="G143" s="319" t="s">
+      <c r="G143" s="253" t="s">
         <v>574</v>
       </c>
       <c r="H143" s="160"/>
@@ -28105,7 +28105,7 @@
       <c r="F144" s="160" t="s">
         <v>277</v>
       </c>
-      <c r="G144" s="319" t="s">
+      <c r="G144" s="253" t="s">
         <v>574</v>
       </c>
       <c r="H144" s="160"/>
@@ -28140,7 +28140,7 @@
       <c r="F145" s="160" t="s">
         <v>278</v>
       </c>
-      <c r="G145" s="319" t="s">
+      <c r="G145" s="253" t="s">
         <v>574</v>
       </c>
       <c r="H145" s="160"/>
@@ -28175,7 +28175,7 @@
       <c r="F146" s="160" t="s">
         <v>279</v>
       </c>
-      <c r="G146" s="319" t="s">
+      <c r="G146" s="253" t="s">
         <v>574</v>
       </c>
       <c r="H146" s="160"/>
@@ -28210,7 +28210,7 @@
       <c r="F147" s="160" t="s">
         <v>280</v>
       </c>
-      <c r="G147" s="319" t="s">
+      <c r="G147" s="253" t="s">
         <v>574</v>
       </c>
       <c r="H147" s="160"/>
@@ -28245,7 +28245,7 @@
       <c r="F148" s="160" t="s">
         <v>281</v>
       </c>
-      <c r="G148" s="319" t="s">
+      <c r="G148" s="253" t="s">
         <v>574</v>
       </c>
       <c r="H148" s="160"/>
@@ -28284,7 +28284,7 @@
       <c r="F149" s="160" t="s">
         <v>283</v>
       </c>
-      <c r="G149" s="315" t="s">
+      <c r="G149" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H149" s="160"/>
@@ -28319,7 +28319,7 @@
       <c r="F150" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="G150" s="315" t="s">
+      <c r="G150" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H150" s="160"/>
@@ -28356,7 +28356,7 @@
       <c r="F151" s="160" t="s">
         <v>285</v>
       </c>
-      <c r="G151" s="315" t="s">
+      <c r="G151" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H151" s="160"/>
@@ -28391,7 +28391,7 @@
       <c r="F152" s="160" t="s">
         <v>286</v>
       </c>
-      <c r="G152" s="315" t="s">
+      <c r="G152" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H152" s="160"/>
@@ -28426,7 +28426,7 @@
       <c r="F153" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="G153" s="315" t="s">
+      <c r="G153" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H153" s="160"/>
@@ -28461,7 +28461,7 @@
       <c r="F154" s="160" t="s">
         <v>288</v>
       </c>
-      <c r="G154" s="315" t="s">
+      <c r="G154" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H154" s="160"/>
@@ -28496,7 +28496,7 @@
       <c r="F155" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="G155" s="315" t="s">
+      <c r="G155" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H155" s="160"/>
@@ -28531,7 +28531,7 @@
       <c r="F156" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="G156" s="315" t="s">
+      <c r="G156" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H156" s="160"/>
@@ -28566,7 +28566,7 @@
       <c r="F157" s="160" t="s">
         <v>291</v>
       </c>
-      <c r="G157" s="315" t="s">
+      <c r="G157" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H157" s="160"/>
@@ -28601,7 +28601,7 @@
       <c r="F158" s="160" t="s">
         <v>292</v>
       </c>
-      <c r="G158" s="315" t="s">
+      <c r="G158" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H158" s="160"/>
@@ -28636,7 +28636,7 @@
       <c r="F159" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="G159" s="315" t="s">
+      <c r="G159" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H159" s="160"/>
@@ -28671,7 +28671,7 @@
       <c r="F160" s="160" t="s">
         <v>294</v>
       </c>
-      <c r="G160" s="315" t="s">
+      <c r="G160" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H160" s="160"/>
@@ -28706,7 +28706,7 @@
       <c r="F161" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="G161" s="315" t="s">
+      <c r="G161" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H161" s="160"/>
@@ -28743,7 +28743,7 @@
       <c r="F162" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="G162" s="315" t="s">
+      <c r="G162" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H162" s="160"/>
@@ -28778,7 +28778,7 @@
       <c r="F163" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="G163" s="315" t="s">
+      <c r="G163" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H163" s="160"/>
@@ -28813,7 +28813,7 @@
       <c r="F164" s="160" t="s">
         <v>298</v>
       </c>
-      <c r="G164" s="315" t="s">
+      <c r="G164" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H164" s="160"/>
@@ -28848,7 +28848,7 @@
       <c r="F165" s="160" t="s">
         <v>299</v>
       </c>
-      <c r="G165" s="315" t="s">
+      <c r="G165" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H165" s="160"/>
@@ -28883,7 +28883,7 @@
       <c r="F166" s="160" t="s">
         <v>300</v>
       </c>
-      <c r="G166" s="315" t="s">
+      <c r="G166" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H166" s="160"/>
@@ -28918,7 +28918,7 @@
       <c r="F167" s="160" t="s">
         <v>301</v>
       </c>
-      <c r="G167" s="315" t="s">
+      <c r="G167" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H167" s="160"/>
@@ -28953,7 +28953,7 @@
       <c r="F168" s="160" t="s">
         <v>302</v>
       </c>
-      <c r="G168" s="319" t="s">
+      <c r="G168" s="253" t="s">
         <v>574</v>
       </c>
       <c r="H168" s="160"/>
@@ -28990,7 +28990,7 @@
       <c r="F169" s="160" t="s">
         <v>303</v>
       </c>
-      <c r="G169" s="315" t="s">
+      <c r="G169" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H169" s="160"/>
@@ -29025,7 +29025,7 @@
       <c r="F170" s="160" t="s">
         <v>304</v>
       </c>
-      <c r="G170" s="315" t="s">
+      <c r="G170" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H170" s="160"/>
@@ -29060,7 +29060,7 @@
       <c r="F171" s="160" t="s">
         <v>305</v>
       </c>
-      <c r="G171" s="315" t="s">
+      <c r="G171" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H171" s="160"/>
@@ -29095,7 +29095,7 @@
       <c r="F172" s="160" t="s">
         <v>306</v>
       </c>
-      <c r="G172" s="315" t="s">
+      <c r="G172" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H172" s="160"/>
@@ -29130,7 +29130,7 @@
       <c r="F173" s="160" t="s">
         <v>307</v>
       </c>
-      <c r="G173" s="315" t="s">
+      <c r="G173" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H173" s="160"/>
@@ -29165,7 +29165,7 @@
       <c r="F174" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="G174" s="317"/>
+      <c r="G174" s="251"/>
       <c r="H174" s="99"/>
       <c r="I174" s="99"/>
       <c r="J174" s="35"/>
@@ -29198,7 +29198,7 @@
       <c r="F175" s="160" t="s">
         <v>309</v>
       </c>
-      <c r="G175" s="319" t="s">
+      <c r="G175" s="253" t="s">
         <v>573</v>
       </c>
       <c r="H175" s="160"/>
@@ -29233,7 +29233,7 @@
       <c r="F176" s="160" t="s">
         <v>310</v>
       </c>
-      <c r="G176" s="319" t="s">
+      <c r="G176" s="253" t="s">
         <v>573</v>
       </c>
       <c r="H176" s="160"/>
@@ -29268,7 +29268,7 @@
       <c r="F177" s="160" t="s">
         <v>311</v>
       </c>
-      <c r="G177" s="319" t="s">
+      <c r="G177" s="253" t="s">
         <v>573</v>
       </c>
       <c r="H177" s="160"/>
@@ -29305,7 +29305,7 @@
       <c r="F178" s="160" t="s">
         <v>312</v>
       </c>
-      <c r="G178" s="315" t="s">
+      <c r="G178" s="249" t="s">
         <v>605</v>
       </c>
       <c r="H178" s="160"/>
@@ -29342,7 +29342,7 @@
       <c r="F179" s="160" t="s">
         <v>314</v>
       </c>
-      <c r="G179" s="319" t="s">
+      <c r="G179" s="253" t="s">
         <v>575</v>
       </c>
       <c r="H179" s="160"/>
@@ -29385,7 +29385,7 @@
       <c r="F180" s="160" t="s">
         <v>317</v>
       </c>
-      <c r="G180" s="319" t="s">
+      <c r="G180" s="253" t="s">
         <v>576</v>
       </c>
       <c r="H180" s="160"/>
@@ -29424,7 +29424,7 @@
       <c r="F181" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="G181" s="319" t="s">
+      <c r="G181" s="253" t="s">
         <v>576</v>
       </c>
       <c r="H181" s="160"/>
@@ -29463,7 +29463,7 @@
       <c r="F182" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="G182" s="319" t="s">
+      <c r="G182" s="253" t="s">
         <v>576</v>
       </c>
       <c r="H182" s="160"/>
@@ -29506,7 +29506,7 @@
       <c r="F183" s="160" t="s">
         <v>324</v>
       </c>
-      <c r="G183" s="316" t="s">
+      <c r="G183" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H183" s="160"/>
@@ -29543,7 +29543,7 @@
       <c r="F184" s="160" t="s">
         <v>325</v>
       </c>
-      <c r="G184" s="316" t="s">
+      <c r="G184" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H184" s="160"/>
@@ -29578,7 +29578,7 @@
       <c r="F185" s="160" t="s">
         <v>326</v>
       </c>
-      <c r="G185" s="316" t="s">
+      <c r="G185" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H185" s="160"/>
@@ -29615,7 +29615,7 @@
       <c r="F186" s="160" t="s">
         <v>328</v>
       </c>
-      <c r="G186" s="316" t="s">
+      <c r="G186" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H186" s="160"/>
@@ -29650,7 +29650,7 @@
       <c r="F187" s="160" t="s">
         <v>329</v>
       </c>
-      <c r="G187" s="316" t="s">
+      <c r="G187" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H187" s="160"/>
@@ -29689,7 +29689,7 @@
       <c r="F188" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="G188" s="316" t="s">
+      <c r="G188" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H188" s="160"/>
@@ -29730,7 +29730,7 @@
       <c r="F189" s="160" t="s">
         <v>334</v>
       </c>
-      <c r="G189" s="316" t="s">
+      <c r="G189" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H189" s="160"/>
@@ -29765,7 +29765,7 @@
       <c r="F190" s="160" t="s">
         <v>335</v>
       </c>
-      <c r="G190" s="316" t="s">
+      <c r="G190" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H190" s="160"/>
@@ -29800,7 +29800,7 @@
       <c r="F191" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="G191" s="316" t="s">
+      <c r="G191" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H191" s="160"/>
@@ -29835,7 +29835,7 @@
       <c r="F192" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="G192" s="316" t="s">
+      <c r="G192" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H192" s="160"/>
@@ -29870,7 +29870,7 @@
       <c r="F193" s="160" t="s">
         <v>338</v>
       </c>
-      <c r="G193" s="316" t="s">
+      <c r="G193" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H193" s="160"/>
@@ -29905,7 +29905,7 @@
       <c r="F194" s="160" t="s">
         <v>339</v>
       </c>
-      <c r="G194" s="316" t="s">
+      <c r="G194" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H194" s="160"/>
@@ -29940,7 +29940,7 @@
       <c r="F195" s="160" t="s">
         <v>340</v>
       </c>
-      <c r="G195" s="316" t="s">
+      <c r="G195" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H195" s="160"/>
@@ -29977,7 +29977,7 @@
       <c r="F196" s="160" t="s">
         <v>342</v>
       </c>
-      <c r="G196" s="316" t="s">
+      <c r="G196" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H196" s="160"/>
@@ -30016,7 +30016,7 @@
       <c r="F197" s="160" t="s">
         <v>344</v>
       </c>
-      <c r="G197" s="316" t="s">
+      <c r="G197" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H197" s="160"/>
@@ -30051,7 +30051,7 @@
       <c r="F198" s="160" t="s">
         <v>345</v>
       </c>
-      <c r="G198" s="316" t="s">
+      <c r="G198" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H198" s="160"/>
@@ -30086,7 +30086,7 @@
       <c r="F199" s="160" t="s">
         <v>346</v>
       </c>
-      <c r="G199" s="316" t="s">
+      <c r="G199" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H199" s="160"/>
@@ -30121,7 +30121,7 @@
       <c r="F200" s="160" t="s">
         <v>347</v>
       </c>
-      <c r="G200" s="316" t="s">
+      <c r="G200" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H200" s="160"/>
@@ -30156,7 +30156,7 @@
       <c r="F201" s="160" t="s">
         <v>348</v>
       </c>
-      <c r="G201" s="316" t="s">
+      <c r="G201" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H201" s="160"/>
@@ -30191,7 +30191,7 @@
       <c r="F202" s="160" t="s">
         <v>349</v>
       </c>
-      <c r="G202" s="316" t="s">
+      <c r="G202" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H202" s="160"/>
@@ -30226,7 +30226,7 @@
       <c r="F203" s="160" t="s">
         <v>350</v>
       </c>
-      <c r="G203" s="316" t="s">
+      <c r="G203" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H203" s="160"/>
@@ -30261,7 +30261,7 @@
       <c r="F204" s="160" t="s">
         <v>351</v>
       </c>
-      <c r="G204" s="316" t="s">
+      <c r="G204" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H204" s="160"/>
@@ -30296,7 +30296,7 @@
       <c r="F205" s="160" t="s">
         <v>352</v>
       </c>
-      <c r="G205" s="316" t="s">
+      <c r="G205" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H205" s="160"/>
@@ -30331,7 +30331,7 @@
       <c r="F206" s="160" t="s">
         <v>353</v>
       </c>
-      <c r="G206" s="316" t="s">
+      <c r="G206" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H206" s="160"/>
@@ -30366,7 +30366,7 @@
       <c r="F207" s="160" t="s">
         <v>354</v>
       </c>
-      <c r="G207" s="316" t="s">
+      <c r="G207" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H207" s="160"/>
@@ -30401,7 +30401,7 @@
       <c r="F208" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="G208" s="316" t="s">
+      <c r="G208" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H208" s="160"/>
@@ -30436,7 +30436,7 @@
       <c r="F209" s="160" t="s">
         <v>356</v>
       </c>
-      <c r="G209" s="316" t="s">
+      <c r="G209" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H209" s="160"/>
@@ -30475,7 +30475,7 @@
       <c r="F210" s="160" t="s">
         <v>358</v>
       </c>
-      <c r="G210" s="316" t="s">
+      <c r="G210" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H210" s="160"/>
@@ -30510,7 +30510,7 @@
       <c r="F211" s="160" t="s">
         <v>359</v>
       </c>
-      <c r="G211" s="316" t="s">
+      <c r="G211" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H211" s="160"/>
@@ -30545,7 +30545,7 @@
       <c r="F212" s="160" t="s">
         <v>360</v>
       </c>
-      <c r="G212" s="316" t="s">
+      <c r="G212" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H212" s="160"/>
@@ -30580,7 +30580,7 @@
       <c r="F213" s="160" t="s">
         <v>346</v>
       </c>
-      <c r="G213" s="316" t="s">
+      <c r="G213" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H213" s="160"/>
@@ -30615,7 +30615,7 @@
       <c r="F214" s="160" t="s">
         <v>347</v>
       </c>
-      <c r="G214" s="316" t="s">
+      <c r="G214" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H214" s="160"/>
@@ -30650,7 +30650,7 @@
       <c r="F215" s="160" t="s">
         <v>361</v>
       </c>
-      <c r="G215" s="316" t="s">
+      <c r="G215" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H215" s="160"/>
@@ -30685,7 +30685,7 @@
       <c r="F216" s="160" t="s">
         <v>362</v>
       </c>
-      <c r="G216" s="316" t="s">
+      <c r="G216" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H216" s="160"/>
@@ -30720,7 +30720,7 @@
       <c r="F217" s="160" t="s">
         <v>363</v>
       </c>
-      <c r="G217" s="316" t="s">
+      <c r="G217" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H217" s="160"/>
@@ -30755,7 +30755,7 @@
       <c r="F218" s="160" t="s">
         <v>364</v>
       </c>
-      <c r="G218" s="316" t="s">
+      <c r="G218" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H218" s="160"/>
@@ -30790,7 +30790,7 @@
       <c r="F219" s="160" t="s">
         <v>365</v>
       </c>
-      <c r="G219" s="316" t="s">
+      <c r="G219" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H219" s="160"/>
@@ -30825,7 +30825,7 @@
       <c r="F220" s="160" t="s">
         <v>366</v>
       </c>
-      <c r="G220" s="316" t="s">
+      <c r="G220" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H220" s="160"/>
@@ -30860,7 +30860,7 @@
       <c r="F221" s="160" t="s">
         <v>367</v>
       </c>
-      <c r="G221" s="316" t="s">
+      <c r="G221" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H221" s="160"/>
@@ -30895,7 +30895,7 @@
       <c r="F222" s="160" t="s">
         <v>368</v>
       </c>
-      <c r="G222" s="316" t="s">
+      <c r="G222" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H222" s="160"/>
@@ -30930,7 +30930,7 @@
       <c r="F223" s="160" t="s">
         <v>369</v>
       </c>
-      <c r="G223" s="316" t="s">
+      <c r="G223" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H223" s="160"/>
@@ -30965,7 +30965,7 @@
       <c r="F224" s="160" t="s">
         <v>356</v>
       </c>
-      <c r="G224" s="316" t="s">
+      <c r="G224" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H224" s="160"/>
@@ -31002,7 +31002,7 @@
       <c r="F225" s="160" t="s">
         <v>371</v>
       </c>
-      <c r="G225" s="316" t="s">
+      <c r="G225" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H225" s="160"/>
@@ -31037,7 +31037,7 @@
       <c r="F226" s="160" t="s">
         <v>372</v>
       </c>
-      <c r="G226" s="316" t="s">
+      <c r="G226" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H226" s="160"/>
@@ -31072,7 +31072,7 @@
       <c r="F227" s="160" t="s">
         <v>373</v>
       </c>
-      <c r="G227" s="316" t="s">
+      <c r="G227" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H227" s="160"/>
@@ -31109,7 +31109,7 @@
       <c r="F228" s="160" t="s">
         <v>374</v>
       </c>
-      <c r="G228" s="316" t="s">
+      <c r="G228" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H228" s="160"/>
@@ -31146,7 +31146,7 @@
       <c r="F229" s="160" t="s">
         <v>376</v>
       </c>
-      <c r="G229" s="316" t="s">
+      <c r="G229" s="250" t="s">
         <v>606</v>
       </c>
       <c r="H229" s="160"/>
@@ -31189,7 +31189,7 @@
       <c r="F230" s="160" t="s">
         <v>378</v>
       </c>
-      <c r="G230" s="316" t="s">
+      <c r="G230" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H230" s="160"/>
@@ -31226,7 +31226,7 @@
       <c r="F231" s="160" t="s">
         <v>379</v>
       </c>
-      <c r="G231" s="316" t="s">
+      <c r="G231" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H231" s="160"/>
@@ -31261,7 +31261,7 @@
       <c r="F232" s="160" t="s">
         <v>380</v>
       </c>
-      <c r="G232" s="316" t="s">
+      <c r="G232" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H232" s="160"/>
@@ -31296,7 +31296,7 @@
       <c r="F233" s="160" t="s">
         <v>381</v>
       </c>
-      <c r="G233" s="316" t="s">
+      <c r="G233" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H233" s="160"/>
@@ -31331,7 +31331,7 @@
       <c r="F234" s="160" t="s">
         <v>382</v>
       </c>
-      <c r="G234" s="316" t="s">
+      <c r="G234" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H234" s="160"/>
@@ -31366,7 +31366,7 @@
       <c r="F235" s="160" t="s">
         <v>383</v>
       </c>
-      <c r="G235" s="316" t="s">
+      <c r="G235" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H235" s="160"/>
@@ -31403,7 +31403,7 @@
       <c r="F236" s="160" t="s">
         <v>384</v>
       </c>
-      <c r="G236" s="316" t="s">
+      <c r="G236" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H236" s="160"/>
@@ -31438,7 +31438,7 @@
       <c r="F237" s="160" t="s">
         <v>385</v>
       </c>
-      <c r="G237" s="316" t="s">
+      <c r="G237" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H237" s="160"/>
@@ -31473,7 +31473,7 @@
       <c r="F238" s="160" t="s">
         <v>386</v>
       </c>
-      <c r="G238" s="316" t="s">
+      <c r="G238" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H238" s="160"/>
@@ -31508,7 +31508,7 @@
       <c r="F239" s="160" t="s">
         <v>387</v>
       </c>
-      <c r="G239" s="316" t="s">
+      <c r="G239" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H239" s="160"/>
@@ -31543,7 +31543,7 @@
       <c r="F240" s="160" t="s">
         <v>388</v>
       </c>
-      <c r="G240" s="316" t="s">
+      <c r="G240" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H240" s="160"/>
@@ -31580,7 +31580,7 @@
       <c r="F241" s="160" t="s">
         <v>389</v>
       </c>
-      <c r="G241" s="316" t="s">
+      <c r="G241" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H241" s="160"/>
@@ -31621,7 +31621,7 @@
       <c r="F242" s="160" t="s">
         <v>390</v>
       </c>
-      <c r="G242" s="316" t="s">
+      <c r="G242" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H242" s="160"/>
@@ -31664,7 +31664,7 @@
       <c r="F243" s="160" t="s">
         <v>393</v>
       </c>
-      <c r="G243" s="316" t="s">
+      <c r="G243" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H243" s="160"/>
@@ -31699,7 +31699,7 @@
       <c r="F244" s="160" t="s">
         <v>394</v>
       </c>
-      <c r="G244" s="316" t="s">
+      <c r="G244" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H244" s="160"/>
@@ -31738,7 +31738,7 @@
       <c r="F245" s="160" t="s">
         <v>395</v>
       </c>
-      <c r="G245" s="316" t="s">
+      <c r="G245" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H245" s="160"/>
@@ -31773,7 +31773,7 @@
       <c r="F246" s="160" t="s">
         <v>396</v>
       </c>
-      <c r="G246" s="316" t="s">
+      <c r="G246" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H246" s="160"/>
@@ -31814,7 +31814,7 @@
       <c r="F247" s="160" t="s">
         <v>398</v>
       </c>
-      <c r="G247" s="316" t="s">
+      <c r="G247" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H247" s="160"/>
@@ -31851,7 +31851,7 @@
       <c r="F248" s="160" t="s">
         <v>399</v>
       </c>
-      <c r="G248" s="316" t="s">
+      <c r="G248" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H248" s="160"/>
@@ -31888,7 +31888,7 @@
       <c r="F249" s="160" t="s">
         <v>400</v>
       </c>
-      <c r="G249" s="316" t="s">
+      <c r="G249" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H249" s="160"/>
@@ -31925,7 +31925,7 @@
       <c r="F250" s="160" t="s">
         <v>401</v>
       </c>
-      <c r="G250" s="316" t="s">
+      <c r="G250" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H250" s="160"/>
@@ -31964,7 +31964,7 @@
       <c r="F251" s="160" t="s">
         <v>402</v>
       </c>
-      <c r="G251" s="316" t="s">
+      <c r="G251" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H251" s="160"/>
@@ -31999,7 +31999,7 @@
       <c r="F252" s="160" t="s">
         <v>403</v>
       </c>
-      <c r="G252" s="316" t="s">
+      <c r="G252" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H252" s="160"/>
@@ -32036,7 +32036,7 @@
       <c r="F253" s="160" t="s">
         <v>404</v>
       </c>
-      <c r="G253" s="316" t="s">
+      <c r="G253" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H253" s="160"/>
@@ -32071,7 +32071,7 @@
       <c r="F254" s="160" t="s">
         <v>405</v>
       </c>
-      <c r="G254" s="316" t="s">
+      <c r="G254" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H254" s="160"/>
@@ -32106,7 +32106,7 @@
       <c r="F255" s="160" t="s">
         <v>406</v>
       </c>
-      <c r="G255" s="316" t="s">
+      <c r="G255" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H255" s="160"/>
@@ -32141,7 +32141,7 @@
       <c r="F256" s="160" t="s">
         <v>407</v>
       </c>
-      <c r="G256" s="316" t="s">
+      <c r="G256" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H256" s="160"/>
@@ -32176,7 +32176,7 @@
       <c r="F257" s="160" t="s">
         <v>408</v>
       </c>
-      <c r="G257" s="316" t="s">
+      <c r="G257" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H257" s="160"/>
@@ -32211,7 +32211,7 @@
       <c r="F258" s="160" t="s">
         <v>409</v>
       </c>
-      <c r="G258" s="316" t="s">
+      <c r="G258" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H258" s="160"/>
@@ -32246,7 +32246,7 @@
       <c r="F259" s="160" t="s">
         <v>410</v>
       </c>
-      <c r="G259" s="316" t="s">
+      <c r="G259" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H259" s="160"/>
@@ -32281,7 +32281,7 @@
       <c r="F260" s="160" t="s">
         <v>411</v>
       </c>
-      <c r="G260" s="316" t="s">
+      <c r="G260" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H260" s="160"/>
@@ -32316,7 +32316,7 @@
       <c r="F261" s="160" t="s">
         <v>412</v>
       </c>
-      <c r="G261" s="316" t="s">
+      <c r="G261" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H261" s="160"/>
@@ -32351,7 +32351,7 @@
       <c r="F262" s="160" t="s">
         <v>413</v>
       </c>
-      <c r="G262" s="316" t="s">
+      <c r="G262" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H262" s="160"/>
@@ -32386,7 +32386,7 @@
       <c r="F263" s="160" t="s">
         <v>414</v>
       </c>
-      <c r="G263" s="316" t="s">
+      <c r="G263" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H263" s="160"/>
@@ -32423,7 +32423,7 @@
       <c r="F264" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="G264" s="316" t="s">
+      <c r="G264" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H264" s="160"/>
@@ -32458,7 +32458,7 @@
       <c r="F265" s="160" t="s">
         <v>416</v>
       </c>
-      <c r="G265" s="316" t="s">
+      <c r="G265" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H265" s="160"/>
@@ -32493,7 +32493,7 @@
       <c r="F266" s="160" t="s">
         <v>417</v>
       </c>
-      <c r="G266" s="316" t="s">
+      <c r="G266" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H266" s="160"/>
@@ -32528,7 +32528,7 @@
       <c r="F267" s="160" t="s">
         <v>418</v>
       </c>
-      <c r="G267" s="316" t="s">
+      <c r="G267" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H267" s="160"/>
@@ -32563,7 +32563,7 @@
       <c r="F268" s="160" t="s">
         <v>419</v>
       </c>
-      <c r="G268" s="316" t="s">
+      <c r="G268" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H268" s="160"/>
@@ -32598,7 +32598,7 @@
       <c r="F269" s="160" t="s">
         <v>420</v>
       </c>
-      <c r="G269" s="316" t="s">
+      <c r="G269" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H269" s="160"/>
@@ -32635,7 +32635,7 @@
       <c r="F270" s="160" t="s">
         <v>421</v>
       </c>
-      <c r="G270" s="316" t="s">
+      <c r="G270" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H270" s="160"/>
@@ -32670,7 +32670,7 @@
       <c r="F271" s="160" t="s">
         <v>422</v>
       </c>
-      <c r="G271" s="316" t="s">
+      <c r="G271" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H271" s="160"/>
@@ -32705,7 +32705,7 @@
       <c r="F272" s="160" t="s">
         <v>423</v>
       </c>
-      <c r="G272" s="316" t="s">
+      <c r="G272" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H272" s="160"/>
@@ -32740,7 +32740,7 @@
       <c r="F273" s="160" t="s">
         <v>424</v>
       </c>
-      <c r="G273" s="316" t="s">
+      <c r="G273" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H273" s="160"/>
@@ -32775,7 +32775,7 @@
       <c r="F274" s="160" t="s">
         <v>425</v>
       </c>
-      <c r="G274" s="316" t="s">
+      <c r="G274" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H274" s="160"/>
@@ -32810,7 +32810,7 @@
       <c r="F275" s="160" t="s">
         <v>426</v>
       </c>
-      <c r="G275" s="316" t="s">
+      <c r="G275" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H275" s="160"/>
@@ -32845,7 +32845,7 @@
       <c r="F276" s="160" t="s">
         <v>427</v>
       </c>
-      <c r="G276" s="316" t="s">
+      <c r="G276" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H276" s="160"/>
@@ -32880,7 +32880,7 @@
       <c r="F277" s="160" t="s">
         <v>428</v>
       </c>
-      <c r="G277" s="316" t="s">
+      <c r="G277" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H277" s="160"/>
@@ -32917,7 +32917,7 @@
       <c r="F278" s="160" t="s">
         <v>429</v>
       </c>
-      <c r="G278" s="316" t="s">
+      <c r="G278" s="250" t="s">
         <v>578</v>
       </c>
       <c r="H278" s="160"/>
@@ -32960,7 +32960,7 @@
       <c r="F279" s="99" t="s">
         <v>432</v>
       </c>
-      <c r="G279" s="317"/>
+      <c r="G279" s="251"/>
       <c r="H279" s="99"/>
       <c r="I279" s="99"/>
       <c r="J279" s="35"/>
@@ -32993,7 +32993,7 @@
       <c r="F280" s="99" t="s">
         <v>433</v>
       </c>
-      <c r="G280" s="317"/>
+      <c r="G280" s="251"/>
       <c r="H280" s="99"/>
       <c r="I280" s="99"/>
       <c r="J280" s="35"/>
@@ -33026,7 +33026,7 @@
       <c r="F281" s="99" t="s">
         <v>434</v>
       </c>
-      <c r="G281" s="317"/>
+      <c r="G281" s="251"/>
       <c r="H281" s="99"/>
       <c r="I281" s="99"/>
       <c r="J281" s="35"/>
@@ -33059,7 +33059,7 @@
       <c r="F282" s="99" t="s">
         <v>435</v>
       </c>
-      <c r="G282" s="317"/>
+      <c r="G282" s="251"/>
       <c r="H282" s="99"/>
       <c r="I282" s="99"/>
       <c r="J282" s="35"/>
@@ -33098,7 +33098,7 @@
       <c r="F283" s="99" t="s">
         <v>437</v>
       </c>
-      <c r="G283" s="317"/>
+      <c r="G283" s="251"/>
       <c r="H283" s="99"/>
       <c r="I283" s="99"/>
       <c r="J283" s="35"/>
@@ -33133,7 +33133,7 @@
       <c r="F284" s="99" t="s">
         <v>438</v>
       </c>
-      <c r="G284" s="317"/>
+      <c r="G284" s="251"/>
       <c r="H284" s="99"/>
       <c r="I284" s="99"/>
       <c r="J284" s="35"/>
@@ -33168,7 +33168,7 @@
       <c r="F285" s="99" t="s">
         <v>439</v>
       </c>
-      <c r="G285" s="317"/>
+      <c r="G285" s="251"/>
       <c r="H285" s="99"/>
       <c r="I285" s="99"/>
       <c r="J285" s="35"/>
@@ -33203,7 +33203,7 @@
       <c r="F286" s="99" t="s">
         <v>440</v>
       </c>
-      <c r="G286" s="317"/>
+      <c r="G286" s="251"/>
       <c r="H286" s="99"/>
       <c r="I286" s="99"/>
       <c r="J286" s="35"/>
@@ -33240,7 +33240,7 @@
       <c r="F287" s="99" t="s">
         <v>443</v>
       </c>
-      <c r="G287" s="317"/>
+      <c r="G287" s="251"/>
       <c r="H287" s="99"/>
       <c r="I287" s="99"/>
       <c r="J287" s="35"/>
@@ -33273,7 +33273,7 @@
       <c r="F288" s="99" t="s">
         <v>444</v>
       </c>
-      <c r="G288" s="317"/>
+      <c r="G288" s="251"/>
       <c r="H288" s="99"/>
       <c r="I288" s="99"/>
       <c r="J288" s="35"/>
@@ -33306,7 +33306,7 @@
       <c r="F289" s="99" t="s">
         <v>445</v>
       </c>
-      <c r="G289" s="317"/>
+      <c r="G289" s="251"/>
       <c r="H289" s="99"/>
       <c r="I289" s="99"/>
       <c r="J289" s="35"/>
@@ -33339,7 +33339,7 @@
       <c r="F290" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="G290" s="317"/>
+      <c r="G290" s="251"/>
       <c r="H290" s="99"/>
       <c r="I290" s="99"/>
       <c r="J290" s="35"/>
@@ -33372,7 +33372,7 @@
       <c r="F291" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="G291" s="317"/>
+      <c r="G291" s="251"/>
       <c r="H291" s="99"/>
       <c r="I291" s="99"/>
       <c r="J291" s="35"/>
@@ -33405,7 +33405,7 @@
       <c r="F292" s="99" t="s">
         <v>288</v>
       </c>
-      <c r="G292" s="317"/>
+      <c r="G292" s="251"/>
       <c r="H292" s="99"/>
       <c r="I292" s="99"/>
       <c r="J292" s="35"/>
@@ -33438,7 +33438,7 @@
       <c r="F293" s="99" t="s">
         <v>446</v>
       </c>
-      <c r="G293" s="317"/>
+      <c r="G293" s="251"/>
       <c r="H293" s="99"/>
       <c r="I293" s="99"/>
       <c r="J293" s="35"/>
@@ -33471,7 +33471,7 @@
       <c r="F294" s="99" t="s">
         <v>447</v>
       </c>
-      <c r="G294" s="317"/>
+      <c r="G294" s="251"/>
       <c r="H294" s="99"/>
       <c r="I294" s="99"/>
       <c r="J294" s="35"/>
@@ -33504,7 +33504,7 @@
       <c r="F295" s="99" t="s">
         <v>448</v>
       </c>
-      <c r="G295" s="317"/>
+      <c r="G295" s="251"/>
       <c r="H295" s="99"/>
       <c r="I295" s="99"/>
       <c r="J295" s="35"/>
@@ -33542,7 +33542,7 @@
       <c r="E296" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="F296" s="326" t="s">
+      <c r="F296" s="260" t="s">
         <v>454</v>
       </c>
       <c r="G296" s="169" t="s">
@@ -33551,8 +33551,8 @@
       <c r="H296" s="169"/>
       <c r="I296" s="169"/>
       <c r="J296" s="169"/>
-      <c r="K296" s="327"/>
-      <c r="L296" s="327"/>
+      <c r="K296" s="261"/>
+      <c r="L296" s="261"/>
       <c r="M296" s="165"/>
       <c r="N296" s="165"/>
       <c r="O296" s="165"/>
@@ -33577,7 +33577,7 @@
       <c r="C297" s="109"/>
       <c r="D297" s="105"/>
       <c r="E297" s="105"/>
-      <c r="F297" s="326" t="s">
+      <c r="F297" s="260" t="s">
         <v>455</v>
       </c>
       <c r="G297" s="169" t="s">
@@ -33586,8 +33586,8 @@
       <c r="H297" s="169"/>
       <c r="I297" s="169"/>
       <c r="J297" s="169"/>
-      <c r="K297" s="327"/>
-      <c r="L297" s="327"/>
+      <c r="K297" s="261"/>
+      <c r="L297" s="261"/>
       <c r="M297" s="165"/>
       <c r="N297" s="165"/>
       <c r="O297" s="165"/>
@@ -33615,7 +33615,7 @@
       <c r="F298" s="97" t="s">
         <v>456</v>
       </c>
-      <c r="G298" s="320"/>
+      <c r="G298" s="254"/>
       <c r="H298" s="99"/>
       <c r="I298" s="99"/>
       <c r="J298" s="99"/>
@@ -33648,7 +33648,7 @@
       <c r="F299" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="G299" s="320"/>
+      <c r="G299" s="254"/>
       <c r="H299" s="99"/>
       <c r="I299" s="99"/>
       <c r="J299" s="99"/>
@@ -33681,7 +33681,7 @@
       <c r="F300" s="97" t="s">
         <v>458</v>
       </c>
-      <c r="G300" s="320"/>
+      <c r="G300" s="254"/>
       <c r="H300" s="99"/>
       <c r="I300" s="99"/>
       <c r="J300" s="99"/>
@@ -33714,7 +33714,7 @@
       <c r="F301" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="G301" s="318"/>
+      <c r="G301" s="252"/>
       <c r="H301" s="99"/>
       <c r="I301" s="99"/>
       <c r="J301" s="99"/>
@@ -33747,7 +33747,7 @@
       <c r="F302" s="97" t="s">
         <v>460</v>
       </c>
-      <c r="G302" s="320"/>
+      <c r="G302" s="254"/>
       <c r="H302" s="99"/>
       <c r="I302" s="99"/>
       <c r="J302" s="99"/>
@@ -33780,7 +33780,7 @@
       <c r="F303" s="97" t="s">
         <v>461</v>
       </c>
-      <c r="G303" s="320"/>
+      <c r="G303" s="254"/>
       <c r="H303" s="99"/>
       <c r="I303" s="99"/>
       <c r="J303" s="99"/>
@@ -33813,7 +33813,7 @@
       <c r="F304" s="97" t="s">
         <v>462</v>
       </c>
-      <c r="G304" s="320"/>
+      <c r="G304" s="254"/>
       <c r="H304" s="99"/>
       <c r="I304" s="99"/>
       <c r="J304" s="99"/>
@@ -33846,7 +33846,7 @@
       <c r="F305" s="97" t="s">
         <v>463</v>
       </c>
-      <c r="G305" s="320"/>
+      <c r="G305" s="254"/>
       <c r="H305" s="99"/>
       <c r="I305" s="99"/>
       <c r="J305" s="99"/>
@@ -33879,7 +33879,7 @@
       <c r="F306" s="97" t="s">
         <v>464</v>
       </c>
-      <c r="G306" s="320"/>
+      <c r="G306" s="254"/>
       <c r="H306" s="99"/>
       <c r="I306" s="99"/>
       <c r="J306" s="99"/>
@@ -33912,7 +33912,7 @@
       <c r="F307" s="97" t="s">
         <v>465</v>
       </c>
-      <c r="G307" s="320"/>
+      <c r="G307" s="254"/>
       <c r="H307" s="99"/>
       <c r="I307" s="99"/>
       <c r="J307" s="99"/>
@@ -33945,7 +33945,7 @@
       <c r="F308" s="97" t="s">
         <v>466</v>
       </c>
-      <c r="G308" s="320"/>
+      <c r="G308" s="254"/>
       <c r="H308" s="99"/>
       <c r="I308" s="99"/>
       <c r="J308" s="99"/>
@@ -33978,7 +33978,7 @@
       <c r="F309" s="96" t="s">
         <v>467</v>
       </c>
-      <c r="G309" s="320"/>
+      <c r="G309" s="254"/>
       <c r="H309" s="81"/>
       <c r="I309" s="81"/>
       <c r="J309" s="42"/>
@@ -34011,7 +34011,7 @@
       <c r="F310" s="97" t="s">
         <v>468</v>
       </c>
-      <c r="G310" s="320"/>
+      <c r="G310" s="254"/>
       <c r="H310" s="81"/>
       <c r="I310" s="81"/>
       <c r="J310" s="99"/>
@@ -34044,7 +34044,7 @@
       <c r="F311" s="97" t="s">
         <v>469</v>
       </c>
-      <c r="G311" s="320"/>
+      <c r="G311" s="254"/>
       <c r="H311" s="81"/>
       <c r="I311" s="81"/>
       <c r="J311" s="99"/>
@@ -34077,7 +34077,7 @@
       <c r="F312" s="96" t="s">
         <v>470</v>
       </c>
-      <c r="G312" s="320"/>
+      <c r="G312" s="254"/>
       <c r="H312" s="81"/>
       <c r="I312" s="81"/>
       <c r="J312" s="99"/>
@@ -34110,7 +34110,7 @@
       <c r="F313" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="G313" s="320"/>
+      <c r="G313" s="254"/>
       <c r="H313" s="81"/>
       <c r="I313" s="81"/>
       <c r="J313" s="99"/>
@@ -34143,7 +34143,7 @@
       <c r="F314" s="96" t="s">
         <v>472</v>
       </c>
-      <c r="G314" s="320"/>
+      <c r="G314" s="254"/>
       <c r="H314" s="81"/>
       <c r="I314" s="81"/>
       <c r="J314" s="99"/>
@@ -34176,7 +34176,7 @@
       <c r="F315" s="97" t="s">
         <v>473</v>
       </c>
-      <c r="G315" s="320"/>
+      <c r="G315" s="254"/>
       <c r="H315" s="81"/>
       <c r="I315" s="81"/>
       <c r="J315" s="42"/>
@@ -34206,7 +34206,7 @@
       <c r="C316" s="109"/>
       <c r="D316" s="105"/>
       <c r="E316" s="105"/>
-      <c r="F316" s="326" t="s">
+      <c r="F316" s="260" t="s">
         <v>474</v>
       </c>
       <c r="G316" s="169" t="s">
@@ -34215,8 +34215,8 @@
       <c r="H316" s="160"/>
       <c r="I316" s="169"/>
       <c r="J316" s="169"/>
-      <c r="K316" s="327"/>
-      <c r="L316" s="327"/>
+      <c r="K316" s="261"/>
+      <c r="L316" s="261"/>
       <c r="M316" s="165"/>
       <c r="N316" s="165"/>
       <c r="O316" s="165"/>
@@ -34246,7 +34246,7 @@
       <c r="F317" s="97" t="s">
         <v>476</v>
       </c>
-      <c r="G317" s="320"/>
+      <c r="G317" s="254"/>
       <c r="H317" s="99"/>
       <c r="I317" s="42"/>
       <c r="J317" s="42"/>
@@ -34279,7 +34279,7 @@
       <c r="F318" s="97" t="s">
         <v>477</v>
       </c>
-      <c r="G318" s="320"/>
+      <c r="G318" s="254"/>
       <c r="H318" s="99"/>
       <c r="I318" s="42"/>
       <c r="J318" s="42"/>
@@ -34314,7 +34314,7 @@
       <c r="F319" s="97" t="s">
         <v>479</v>
       </c>
-      <c r="G319" s="321"/>
+      <c r="G319" s="255"/>
       <c r="H319" s="99"/>
       <c r="I319" s="99"/>
       <c r="J319" s="35"/>
@@ -34347,7 +34347,7 @@
       <c r="F320" s="97" t="s">
         <v>480</v>
       </c>
-      <c r="G320" s="321"/>
+      <c r="G320" s="255"/>
       <c r="H320" s="99"/>
       <c r="I320" s="99"/>
       <c r="J320" s="35"/>
@@ -34382,7 +34382,7 @@
       <c r="F321" s="97" t="s">
         <v>482</v>
       </c>
-      <c r="G321" s="320"/>
+      <c r="G321" s="254"/>
       <c r="H321" s="99"/>
       <c r="I321" s="42"/>
       <c r="J321" s="35"/>
@@ -34417,7 +34417,7 @@
       <c r="F322" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="G322" s="320"/>
+      <c r="G322" s="254"/>
       <c r="H322" s="99"/>
       <c r="I322" s="99"/>
       <c r="J322" s="99"/>
@@ -34450,7 +34450,7 @@
       <c r="F323" s="97" t="s">
         <v>484</v>
       </c>
-      <c r="G323" s="317"/>
+      <c r="G323" s="251"/>
       <c r="H323" s="35"/>
       <c r="I323" s="35"/>
       <c r="J323" s="77"/>
@@ -34483,7 +34483,7 @@
       <c r="F324" s="97" t="s">
         <v>485</v>
       </c>
-      <c r="G324" s="317"/>
+      <c r="G324" s="251"/>
       <c r="H324" s="99"/>
       <c r="I324" s="99"/>
       <c r="J324" s="99"/>
@@ -34516,7 +34516,7 @@
       <c r="F325" s="97" t="s">
         <v>486</v>
       </c>
-      <c r="G325" s="317"/>
+      <c r="G325" s="251"/>
       <c r="H325" s="35"/>
       <c r="I325" s="35"/>
       <c r="J325" s="33"/>
@@ -34549,7 +34549,7 @@
       <c r="F326" s="97" t="s">
         <v>487</v>
       </c>
-      <c r="G326" s="317"/>
+      <c r="G326" s="251"/>
       <c r="H326" s="35"/>
       <c r="I326" s="35"/>
       <c r="J326" s="33"/>
@@ -34582,7 +34582,7 @@
       <c r="F327" s="97" t="s">
         <v>488</v>
       </c>
-      <c r="G327" s="317"/>
+      <c r="G327" s="251"/>
       <c r="H327" s="35"/>
       <c r="I327" s="35"/>
       <c r="J327" s="33"/>
@@ -34615,7 +34615,7 @@
       <c r="F328" s="97" t="s">
         <v>489</v>
       </c>
-      <c r="G328" s="317"/>
+      <c r="G328" s="251"/>
       <c r="H328" s="35"/>
       <c r="I328" s="35"/>
       <c r="J328" s="33"/>
@@ -34648,7 +34648,7 @@
       <c r="F329" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="G329" s="317"/>
+      <c r="G329" s="251"/>
       <c r="H329" s="35"/>
       <c r="I329" s="35"/>
       <c r="J329" s="33"/>
@@ -34681,7 +34681,7 @@
       <c r="F330" s="97" t="s">
         <v>491</v>
       </c>
-      <c r="G330" s="317"/>
+      <c r="G330" s="251"/>
       <c r="H330" s="35"/>
       <c r="I330" s="35"/>
       <c r="J330" s="101"/>
@@ -34716,7 +34716,7 @@
       <c r="F331" s="97" t="s">
         <v>493</v>
       </c>
-      <c r="G331" s="317"/>
+      <c r="G331" s="251"/>
       <c r="H331" s="99"/>
       <c r="I331" s="99"/>
       <c r="J331" s="99"/>
@@ -34751,7 +34751,7 @@
       <c r="F332" s="97" t="s">
         <v>495</v>
       </c>
-      <c r="G332" s="317"/>
+      <c r="G332" s="251"/>
       <c r="H332" s="99"/>
       <c r="I332" s="99"/>
       <c r="J332" s="99"/>
@@ -34788,7 +34788,7 @@
       <c r="F333" s="96" t="s">
         <v>497</v>
       </c>
-      <c r="G333" s="317"/>
+      <c r="G333" s="251"/>
       <c r="H333" s="99"/>
       <c r="I333" s="99"/>
       <c r="J333" s="42"/>
@@ -34823,7 +34823,7 @@
       <c r="F334" s="97" t="s">
         <v>499</v>
       </c>
-      <c r="G334" s="317"/>
+      <c r="G334" s="251"/>
       <c r="H334" s="99"/>
       <c r="I334" s="99"/>
       <c r="J334" s="99"/>
@@ -34856,7 +34856,7 @@
       <c r="F335" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G335" s="317"/>
+      <c r="G335" s="251"/>
       <c r="H335" s="99"/>
       <c r="I335" s="99"/>
       <c r="J335" s="42"/>
@@ -34889,7 +34889,7 @@
       <c r="F336" s="97" t="s">
         <v>501</v>
       </c>
-      <c r="G336" s="317"/>
+      <c r="G336" s="251"/>
       <c r="H336" s="99"/>
       <c r="I336" s="99"/>
       <c r="J336" s="42"/>
@@ -34922,7 +34922,7 @@
       <c r="F337" s="97" t="s">
         <v>502</v>
       </c>
-      <c r="G337" s="317"/>
+      <c r="G337" s="251"/>
       <c r="H337" s="99"/>
       <c r="I337" s="99"/>
       <c r="J337" s="42"/>
@@ -34959,7 +34959,7 @@
       <c r="F338" s="97" t="s">
         <v>504</v>
       </c>
-      <c r="G338" s="317"/>
+      <c r="G338" s="251"/>
       <c r="H338" s="35"/>
       <c r="I338" s="35"/>
       <c r="J338" s="33"/>
@@ -34992,7 +34992,7 @@
       <c r="F339" s="97" t="s">
         <v>505</v>
       </c>
-      <c r="G339" s="317"/>
+      <c r="G339" s="251"/>
       <c r="H339" s="35"/>
       <c r="I339" s="35"/>
       <c r="J339" s="33"/>
@@ -35025,7 +35025,7 @@
       <c r="F340" s="97" t="s">
         <v>506</v>
       </c>
-      <c r="G340" s="317"/>
+      <c r="G340" s="251"/>
       <c r="H340" s="35"/>
       <c r="I340" s="35"/>
       <c r="J340" s="33"/>
@@ -35062,7 +35062,7 @@
       <c r="F341" s="96" t="s">
         <v>508</v>
       </c>
-      <c r="G341" s="317"/>
+      <c r="G341" s="251"/>
       <c r="H341" s="35"/>
       <c r="I341" s="35"/>
       <c r="J341" s="42"/>
@@ -35095,7 +35095,7 @@
       <c r="F342" s="96" t="s">
         <v>509</v>
       </c>
-      <c r="G342" s="317"/>
+      <c r="G342" s="251"/>
       <c r="H342" s="35"/>
       <c r="I342" s="35"/>
       <c r="J342" s="99"/>
@@ -35128,7 +35128,7 @@
       <c r="F343" s="96" t="s">
         <v>510</v>
       </c>
-      <c r="G343" s="317"/>
+      <c r="G343" s="251"/>
       <c r="H343" s="35"/>
       <c r="I343" s="35"/>
       <c r="J343" s="99"/>
@@ -35161,7 +35161,7 @@
       <c r="F344" s="97" t="s">
         <v>511</v>
       </c>
-      <c r="G344" s="317"/>
+      <c r="G344" s="251"/>
       <c r="H344" s="35"/>
       <c r="I344" s="35"/>
       <c r="J344" s="97"/>
@@ -35194,7 +35194,7 @@
       <c r="F345" s="97" t="s">
         <v>512</v>
       </c>
-      <c r="G345" s="317"/>
+      <c r="G345" s="251"/>
       <c r="H345" s="35"/>
       <c r="I345" s="35"/>
       <c r="J345" s="77"/>
@@ -35224,10 +35224,10 @@
       <c r="C346" s="109"/>
       <c r="D346" s="105"/>
       <c r="E346" s="105"/>
-      <c r="F346" s="326" t="s">
+      <c r="F346" s="260" t="s">
         <v>513</v>
       </c>
-      <c r="G346" s="315" t="s">
+      <c r="G346" s="249" t="s">
         <v>569</v>
       </c>
       <c r="H346" s="165"/>
@@ -35262,7 +35262,7 @@
       <c r="F347" s="97" t="s">
         <v>514</v>
       </c>
-      <c r="G347" s="317"/>
+      <c r="G347" s="251"/>
       <c r="H347" s="35"/>
       <c r="I347" s="35"/>
       <c r="J347" s="33"/>
@@ -35295,7 +35295,7 @@
       <c r="F348" s="97" t="s">
         <v>515</v>
       </c>
-      <c r="G348" s="317"/>
+      <c r="G348" s="251"/>
       <c r="H348" s="35"/>
       <c r="I348" s="35"/>
       <c r="J348" s="33"/>
@@ -35328,7 +35328,7 @@
       <c r="F349" s="97" t="s">
         <v>516</v>
       </c>
-      <c r="G349" s="317"/>
+      <c r="G349" s="251"/>
       <c r="H349" s="35"/>
       <c r="I349" s="35"/>
       <c r="J349" s="33"/>
@@ -35361,7 +35361,7 @@
       <c r="F350" s="97" t="s">
         <v>517</v>
       </c>
-      <c r="G350" s="317"/>
+      <c r="G350" s="251"/>
       <c r="H350" s="35"/>
       <c r="I350" s="35"/>
       <c r="J350" s="33"/>
@@ -35394,7 +35394,7 @@
       <c r="F351" s="97" t="s">
         <v>518</v>
       </c>
-      <c r="G351" s="317"/>
+      <c r="G351" s="251"/>
       <c r="H351" s="35"/>
       <c r="I351" s="35"/>
       <c r="J351" s="77"/>
@@ -35427,7 +35427,7 @@
       <c r="F352" s="97" t="s">
         <v>519</v>
       </c>
-      <c r="G352" s="317"/>
+      <c r="G352" s="251"/>
       <c r="H352" s="35"/>
       <c r="I352" s="35"/>
       <c r="J352" s="118"/>
@@ -35460,7 +35460,7 @@
       <c r="F353" s="97" t="s">
         <v>520</v>
       </c>
-      <c r="G353" s="317"/>
+      <c r="G353" s="251"/>
       <c r="H353" s="35"/>
       <c r="I353" s="35"/>
       <c r="J353" s="33"/>
@@ -35493,7 +35493,7 @@
       <c r="F354" s="97" t="s">
         <v>521</v>
       </c>
-      <c r="G354" s="317"/>
+      <c r="G354" s="251"/>
       <c r="H354" s="35"/>
       <c r="I354" s="35"/>
       <c r="J354" s="33"/>
@@ -35528,7 +35528,7 @@
       <c r="F355" s="97" t="s">
         <v>522</v>
       </c>
-      <c r="G355" s="317"/>
+      <c r="G355" s="251"/>
       <c r="H355" s="99"/>
       <c r="I355" s="81"/>
       <c r="J355" s="42"/>
@@ -35561,7 +35561,7 @@
       <c r="F356" s="97" t="s">
         <v>523</v>
       </c>
-      <c r="G356" s="317"/>
+      <c r="G356" s="251"/>
       <c r="H356" s="35"/>
       <c r="I356" s="35"/>
       <c r="J356" s="33"/>
@@ -35594,7 +35594,7 @@
       <c r="F357" s="97" t="s">
         <v>524</v>
       </c>
-      <c r="G357" s="317"/>
+      <c r="G357" s="251"/>
       <c r="H357" s="35"/>
       <c r="I357" s="35"/>
       <c r="J357" s="33"/>
@@ -35627,7 +35627,7 @@
       <c r="F358" s="97" t="s">
         <v>525</v>
       </c>
-      <c r="G358" s="317"/>
+      <c r="G358" s="251"/>
       <c r="H358" s="35"/>
       <c r="I358" s="35"/>
       <c r="J358" s="33"/>
@@ -35660,7 +35660,7 @@
       <c r="F359" s="97" t="s">
         <v>526</v>
       </c>
-      <c r="G359" s="317"/>
+      <c r="G359" s="251"/>
       <c r="H359" s="35"/>
       <c r="I359" s="35"/>
       <c r="J359" s="33"/>
@@ -35693,7 +35693,7 @@
       <c r="F360" s="97" t="s">
         <v>527</v>
       </c>
-      <c r="G360" s="317"/>
+      <c r="G360" s="251"/>
       <c r="H360" s="35"/>
       <c r="I360" s="35"/>
       <c r="J360" s="33"/>
@@ -35726,7 +35726,7 @@
       <c r="F361" s="97" t="s">
         <v>528</v>
       </c>
-      <c r="G361" s="317"/>
+      <c r="G361" s="251"/>
       <c r="H361" s="35"/>
       <c r="I361" s="35"/>
       <c r="J361" s="33"/>
@@ -35767,7 +35767,7 @@
       <c r="F362" s="96" t="s">
         <v>531</v>
       </c>
-      <c r="G362" s="322"/>
+      <c r="G362" s="256"/>
       <c r="H362" s="41"/>
       <c r="I362" s="41"/>
       <c r="J362" s="35"/>
@@ -35800,7 +35800,7 @@
       <c r="F363" s="126" t="s">
         <v>532</v>
       </c>
-      <c r="G363" s="323"/>
+      <c r="G363" s="257"/>
       <c r="H363" s="41"/>
       <c r="I363" s="41"/>
       <c r="J363" s="35"/>
@@ -35833,7 +35833,7 @@
       <c r="F364" s="126" t="s">
         <v>533</v>
       </c>
-      <c r="G364" s="323"/>
+      <c r="G364" s="257"/>
       <c r="H364" s="81"/>
       <c r="I364" s="81"/>
       <c r="J364" s="77"/>
@@ -35866,7 +35866,7 @@
       <c r="F365" s="126" t="s">
         <v>534</v>
       </c>
-      <c r="G365" s="323"/>
+      <c r="G365" s="257"/>
       <c r="H365" s="81"/>
       <c r="I365" s="81"/>
       <c r="J365" s="77"/>
@@ -35896,23 +35896,23 @@
       <c r="C366" s="105"/>
       <c r="D366" s="105"/>
       <c r="E366" s="117"/>
-      <c r="F366" s="324" t="s">
+      <c r="F366" s="258" t="s">
         <v>535</v>
       </c>
-      <c r="G366" s="324" t="s">
+      <c r="G366" s="258" t="s">
         <v>609</v>
       </c>
       <c r="H366" s="177"/>
       <c r="I366" s="177"/>
       <c r="J366" s="165"/>
-      <c r="K366" s="328"/>
-      <c r="L366" s="329"/>
-      <c r="M366" s="330"/>
-      <c r="N366" s="331"/>
-      <c r="O366" s="331"/>
-      <c r="P366" s="331"/>
-      <c r="Q366" s="331"/>
-      <c r="R366" s="331"/>
+      <c r="K366" s="262"/>
+      <c r="L366" s="263"/>
+      <c r="M366" s="264"/>
+      <c r="N366" s="265"/>
+      <c r="O366" s="265"/>
+      <c r="P366" s="265"/>
+      <c r="Q366" s="265"/>
+      <c r="R366" s="265"/>
     </row>
     <row r="367" spans="1:18" s="32" customFormat="1">
       <c r="A367" s="55" t="str" cm="1">
@@ -35938,7 +35938,7 @@
       <c r="F367" s="126" t="s">
         <v>537</v>
       </c>
-      <c r="G367" s="323"/>
+      <c r="G367" s="257"/>
       <c r="H367" s="99"/>
       <c r="I367" s="99"/>
       <c r="J367" s="41"/>
@@ -35971,7 +35971,7 @@
       <c r="F368" s="126" t="s">
         <v>538</v>
       </c>
-      <c r="G368" s="323"/>
+      <c r="G368" s="257"/>
       <c r="H368" s="41"/>
       <c r="I368" s="41"/>
       <c r="J368" s="99"/>
@@ -36001,23 +36001,23 @@
       <c r="C369" s="105"/>
       <c r="D369" s="105"/>
       <c r="E369" s="117"/>
-      <c r="F369" s="324" t="s">
+      <c r="F369" s="258" t="s">
         <v>539</v>
       </c>
-      <c r="G369" s="324" t="s">
+      <c r="G369" s="258" t="s">
         <v>610</v>
       </c>
       <c r="H369" s="177"/>
       <c r="I369" s="177"/>
       <c r="J369" s="165"/>
-      <c r="K369" s="328"/>
-      <c r="L369" s="329"/>
-      <c r="M369" s="330"/>
-      <c r="N369" s="331"/>
-      <c r="O369" s="331"/>
-      <c r="P369" s="331"/>
-      <c r="Q369" s="331"/>
-      <c r="R369" s="331"/>
+      <c r="K369" s="262"/>
+      <c r="L369" s="263"/>
+      <c r="M369" s="264"/>
+      <c r="N369" s="265"/>
+      <c r="O369" s="265"/>
+      <c r="P369" s="265"/>
+      <c r="Q369" s="265"/>
+      <c r="R369" s="265"/>
     </row>
     <row r="370" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A370" s="55" t="str" cm="1">
@@ -36039,7 +36039,7 @@
       <c r="F370" s="126" t="s">
         <v>540</v>
       </c>
-      <c r="G370" s="323"/>
+      <c r="G370" s="257"/>
       <c r="H370" s="99"/>
       <c r="I370" s="99"/>
       <c r="J370" s="99"/>
@@ -36072,7 +36072,7 @@
       <c r="F371" s="130" t="s">
         <v>541</v>
       </c>
-      <c r="G371" s="323"/>
+      <c r="G371" s="257"/>
       <c r="H371" s="41"/>
       <c r="I371" s="41"/>
       <c r="J371" s="101"/>
@@ -36240,23 +36240,23 @@
       <c r="C376" s="44"/>
       <c r="D376" s="109"/>
       <c r="E376" s="105"/>
-      <c r="F376" s="325" t="s">
+      <c r="F376" s="259" t="s">
         <v>548</v>
       </c>
-      <c r="G376" s="325" t="s">
+      <c r="G376" s="259" t="s">
         <v>611</v>
       </c>
       <c r="H376" s="177"/>
       <c r="I376" s="177"/>
       <c r="J376" s="161"/>
-      <c r="K376" s="332"/>
-      <c r="L376" s="333"/>
-      <c r="M376" s="334"/>
-      <c r="N376" s="335"/>
-      <c r="O376" s="335"/>
-      <c r="P376" s="335"/>
-      <c r="Q376" s="335"/>
-      <c r="R376" s="335"/>
+      <c r="K376" s="266"/>
+      <c r="L376" s="267"/>
+      <c r="M376" s="268"/>
+      <c r="N376" s="269"/>
+      <c r="O376" s="269"/>
+      <c r="P376" s="269"/>
+      <c r="Q376" s="269"/>
+      <c r="R376" s="269"/>
     </row>
     <row r="377" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A377" s="55" t="str" cm="1">
@@ -36905,10 +36905,10 @@
       </c>
       <c r="B21" s="217"/>
       <c r="C21" s="217"/>
-      <c r="D21" s="313" t="s">
+      <c r="D21" s="334" t="s">
         <v>580</v>
       </c>
-      <c r="E21" s="314"/>
+      <c r="E21" s="335"/>
       <c r="F21" s="165" t="s">
         <v>581</v>
       </c>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
@@ -3,28 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F3ED1-9CC0-4B00-9652-B75668F8423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9234597-1D4B-4BEA-A661-46506A7B4BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="20" r:id="rId2"/>
-    <sheet name="【テストターゲット名】_クラス単体" sheetId="26" r:id="rId3"/>
-    <sheet name="【リクエストID】_リクエスト単体" sheetId="25" r:id="rId4"/>
-    <sheet name="取引単体" sheetId="24" r:id="rId5"/>
+    <sheet name="【リクエストID】_クラス単体テスト" sheetId="26" r:id="rId3"/>
+    <sheet name="【リクエストID】_リクエスト単体テスト" sheetId="25" r:id="rId4"/>
+    <sheet name="取引単体テスト" sheetId="24" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体!$A$1:$Q$382</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体!$A$1:$Q$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【リクエストID】_クラス単体テスト!$A$10:$Q$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体テスト!$A$10:$Q$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">【リクエストID】_クラス単体テスト!$A$1:$Q$295</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体テスト!$A$1:$Q$382</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体テスト!$A$1:$Q$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">【リクエストID】_クラス単体テスト!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体テスト!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体テスト!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,8 +60,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -88,8 +88,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -8100,19 +8100,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5-2-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5-2-3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テストコード</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エビデンスNo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5-4-1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9771,84 +9771,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9955,6 +9877,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11414,57 +11414,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="300" t="s">
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="274" t="s">
         <v>560</v>
       </c>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="302"/>
-      <c r="O1" s="306" t="s">
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="280" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="315" t="s">
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="282"/>
+      <c r="S1" s="289" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="316"/>
-      <c r="U1" s="316"/>
-      <c r="V1" s="316"/>
-      <c r="W1" s="316"/>
-      <c r="X1" s="316"/>
-      <c r="Y1" s="316"/>
-      <c r="Z1" s="317"/>
-      <c r="AA1" s="297" t="s">
+      <c r="T1" s="290"/>
+      <c r="U1" s="290"/>
+      <c r="V1" s="290"/>
+      <c r="W1" s="290"/>
+      <c r="X1" s="290"/>
+      <c r="Y1" s="290"/>
+      <c r="Z1" s="291"/>
+      <c r="AA1" s="271" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="299"/>
-      <c r="AC1" s="324" t="str">
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="298" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="325"/>
-      <c r="AE1" s="325"/>
-      <c r="AF1" s="326"/>
-      <c r="AG1" s="291" t="str">
+      <c r="AD1" s="299"/>
+      <c r="AE1" s="299"/>
+      <c r="AF1" s="300"/>
+      <c r="AG1" s="265" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="292"/>
-      <c r="AI1" s="293"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11472,53 +11472,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="300" t="s">
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="274" t="s">
         <v>561</v>
       </c>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="302"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="318"/>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
-      <c r="X2" s="319"/>
-      <c r="Y2" s="319"/>
-      <c r="Z2" s="320"/>
-      <c r="AA2" s="297" t="s">
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="284"/>
+      <c r="Q2" s="284"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="292"/>
+      <c r="T2" s="293"/>
+      <c r="U2" s="293"/>
+      <c r="V2" s="293"/>
+      <c r="W2" s="293"/>
+      <c r="X2" s="293"/>
+      <c r="Y2" s="293"/>
+      <c r="Z2" s="294"/>
+      <c r="AA2" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="299"/>
-      <c r="AC2" s="303" t="str">
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="277" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="304"/>
-      <c r="AE2" s="304"/>
-      <c r="AF2" s="305"/>
-      <c r="AG2" s="291" t="str">
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="279"/>
+      <c r="AG2" s="265" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="292"/>
-      <c r="AI2" s="293"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11526,45 +11526,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="300" t="s">
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="274" t="s">
         <v>562</v>
       </c>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="321"/>
-      <c r="T3" s="322"/>
-      <c r="U3" s="322"/>
-      <c r="V3" s="322"/>
-      <c r="W3" s="322"/>
-      <c r="X3" s="322"/>
-      <c r="Y3" s="322"/>
-      <c r="Z3" s="323"/>
-      <c r="AA3" s="297"/>
-      <c r="AB3" s="299"/>
-      <c r="AC3" s="324"/>
-      <c r="AD3" s="325"/>
-      <c r="AE3" s="325"/>
-      <c r="AF3" s="326"/>
-      <c r="AG3" s="291"/>
-      <c r="AH3" s="292"/>
-      <c r="AI3" s="293"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="275"/>
+      <c r="M3" s="275"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="287"/>
+      <c r="Q3" s="287"/>
+      <c r="R3" s="288"/>
+      <c r="S3" s="295"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="296"/>
+      <c r="X3" s="296"/>
+      <c r="Y3" s="296"/>
+      <c r="Z3" s="297"/>
+      <c r="AA3" s="271"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="298"/>
+      <c r="AD3" s="299"/>
+      <c r="AE3" s="299"/>
+      <c r="AF3" s="300"/>
+      <c r="AG3" s="265"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11601,1020 +11601,1176 @@
       <c r="A7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="294" t="s">
+      <c r="B7" s="268" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="295"/>
-      <c r="D7" s="294" t="s">
+      <c r="C7" s="269"/>
+      <c r="D7" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="296"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="294" t="s">
+      <c r="E7" s="270"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="296"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="294" t="s">
+      <c r="H7" s="270"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="268" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="296"/>
-      <c r="L7" s="296"/>
-      <c r="M7" s="296"/>
-      <c r="N7" s="296"/>
-      <c r="O7" s="296"/>
-      <c r="P7" s="295"/>
-      <c r="Q7" s="294" t="s">
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="269"/>
+      <c r="Q7" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="296"/>
-      <c r="S7" s="296"/>
-      <c r="T7" s="296"/>
-      <c r="U7" s="296"/>
-      <c r="V7" s="296"/>
-      <c r="W7" s="296"/>
-      <c r="X7" s="296"/>
-      <c r="Y7" s="296"/>
-      <c r="Z7" s="296"/>
-      <c r="AA7" s="296"/>
-      <c r="AB7" s="296"/>
-      <c r="AC7" s="296"/>
-      <c r="AD7" s="296"/>
-      <c r="AE7" s="295"/>
-      <c r="AF7" s="294" t="s">
+      <c r="R7" s="270"/>
+      <c r="S7" s="270"/>
+      <c r="T7" s="270"/>
+      <c r="U7" s="270"/>
+      <c r="V7" s="270"/>
+      <c r="W7" s="270"/>
+      <c r="X7" s="270"/>
+      <c r="Y7" s="270"/>
+      <c r="Z7" s="270"/>
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="270"/>
+      <c r="AC7" s="270"/>
+      <c r="AD7" s="270"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="296"/>
-      <c r="AH7" s="296"/>
-      <c r="AI7" s="295"/>
+      <c r="AG7" s="270"/>
+      <c r="AH7" s="270"/>
+      <c r="AI7" s="269"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="279"/>
-      <c r="D8" s="280"/>
-      <c r="E8" s="281"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="279"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="286"/>
-      <c r="N8" s="286"/>
-      <c r="O8" s="286"/>
-      <c r="P8" s="287"/>
-      <c r="Q8" s="288"/>
-      <c r="R8" s="289"/>
-      <c r="S8" s="289"/>
-      <c r="T8" s="289"/>
-      <c r="U8" s="289"/>
-      <c r="V8" s="289"/>
-      <c r="W8" s="289"/>
-      <c r="X8" s="289"/>
-      <c r="Y8" s="289"/>
-      <c r="Z8" s="289"/>
-      <c r="AA8" s="289"/>
-      <c r="AB8" s="289"/>
-      <c r="AC8" s="289"/>
-      <c r="AD8" s="289"/>
-      <c r="AE8" s="290"/>
-      <c r="AF8" s="285"/>
-      <c r="AG8" s="286"/>
-      <c r="AH8" s="286"/>
-      <c r="AI8" s="287"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="315"/>
+      <c r="E8" s="316"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="318"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="314"/>
+      <c r="J8" s="320"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="321"/>
+      <c r="O8" s="321"/>
+      <c r="P8" s="322"/>
+      <c r="Q8" s="323"/>
+      <c r="R8" s="324"/>
+      <c r="S8" s="324"/>
+      <c r="T8" s="324"/>
+      <c r="U8" s="324"/>
+      <c r="V8" s="324"/>
+      <c r="W8" s="324"/>
+      <c r="X8" s="324"/>
+      <c r="Y8" s="324"/>
+      <c r="Z8" s="324"/>
+      <c r="AA8" s="324"/>
+      <c r="AB8" s="324"/>
+      <c r="AC8" s="324"/>
+      <c r="AD8" s="324"/>
+      <c r="AE8" s="325"/>
+      <c r="AF8" s="320"/>
+      <c r="AG8" s="321"/>
+      <c r="AH8" s="321"/>
+      <c r="AI8" s="322"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="270"/>
-      <c r="I9" s="266"/>
-      <c r="J9" s="271"/>
-      <c r="K9" s="272"/>
-      <c r="L9" s="272"/>
-      <c r="M9" s="272"/>
-      <c r="N9" s="272"/>
-      <c r="O9" s="272"/>
-      <c r="P9" s="273"/>
-      <c r="Q9" s="274"/>
-      <c r="R9" s="275"/>
-      <c r="S9" s="275"/>
-      <c r="T9" s="275"/>
-      <c r="U9" s="275"/>
-      <c r="V9" s="275"/>
-      <c r="W9" s="275"/>
-      <c r="X9" s="275"/>
-      <c r="Y9" s="275"/>
-      <c r="Z9" s="275"/>
-      <c r="AA9" s="275"/>
-      <c r="AB9" s="275"/>
-      <c r="AC9" s="275"/>
-      <c r="AD9" s="275"/>
-      <c r="AE9" s="276"/>
-      <c r="AF9" s="271"/>
-      <c r="AG9" s="272"/>
-      <c r="AH9" s="272"/>
-      <c r="AI9" s="273"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="302"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="304"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="307"/>
+      <c r="K9" s="308"/>
+      <c r="L9" s="308"/>
+      <c r="M9" s="308"/>
+      <c r="N9" s="308"/>
+      <c r="O9" s="308"/>
+      <c r="P9" s="309"/>
+      <c r="Q9" s="310"/>
+      <c r="R9" s="311"/>
+      <c r="S9" s="311"/>
+      <c r="T9" s="311"/>
+      <c r="U9" s="311"/>
+      <c r="V9" s="311"/>
+      <c r="W9" s="311"/>
+      <c r="X9" s="311"/>
+      <c r="Y9" s="311"/>
+      <c r="Z9" s="311"/>
+      <c r="AA9" s="311"/>
+      <c r="AB9" s="311"/>
+      <c r="AC9" s="311"/>
+      <c r="AD9" s="311"/>
+      <c r="AE9" s="312"/>
+      <c r="AF9" s="307"/>
+      <c r="AG9" s="308"/>
+      <c r="AH9" s="308"/>
+      <c r="AI9" s="309"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="265"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="270"/>
-      <c r="I10" s="266"/>
-      <c r="J10" s="271"/>
-      <c r="K10" s="272"/>
-      <c r="L10" s="272"/>
-      <c r="M10" s="272"/>
-      <c r="N10" s="272"/>
-      <c r="O10" s="272"/>
-      <c r="P10" s="273"/>
-      <c r="Q10" s="274"/>
-      <c r="R10" s="275"/>
-      <c r="S10" s="275"/>
-      <c r="T10" s="275"/>
-      <c r="U10" s="275"/>
-      <c r="V10" s="275"/>
-      <c r="W10" s="275"/>
-      <c r="X10" s="275"/>
-      <c r="Y10" s="275"/>
-      <c r="Z10" s="275"/>
-      <c r="AA10" s="275"/>
-      <c r="AB10" s="275"/>
-      <c r="AC10" s="275"/>
-      <c r="AD10" s="275"/>
-      <c r="AE10" s="276"/>
-      <c r="AF10" s="271"/>
-      <c r="AG10" s="272"/>
-      <c r="AH10" s="272"/>
-      <c r="AI10" s="273"/>
+      <c r="B10" s="301"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="302"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="308"/>
+      <c r="L10" s="308"/>
+      <c r="M10" s="308"/>
+      <c r="N10" s="308"/>
+      <c r="O10" s="308"/>
+      <c r="P10" s="309"/>
+      <c r="Q10" s="310"/>
+      <c r="R10" s="311"/>
+      <c r="S10" s="311"/>
+      <c r="T10" s="311"/>
+      <c r="U10" s="311"/>
+      <c r="V10" s="311"/>
+      <c r="W10" s="311"/>
+      <c r="X10" s="311"/>
+      <c r="Y10" s="311"/>
+      <c r="Z10" s="311"/>
+      <c r="AA10" s="311"/>
+      <c r="AB10" s="311"/>
+      <c r="AC10" s="311"/>
+      <c r="AD10" s="311"/>
+      <c r="AE10" s="312"/>
+      <c r="AF10" s="307"/>
+      <c r="AG10" s="308"/>
+      <c r="AH10" s="308"/>
+      <c r="AI10" s="309"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="265"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="268"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="265"/>
-      <c r="H11" s="270"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="271"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="272"/>
-      <c r="M11" s="272"/>
-      <c r="N11" s="272"/>
-      <c r="O11" s="272"/>
-      <c r="P11" s="273"/>
-      <c r="Q11" s="274"/>
-      <c r="R11" s="275"/>
-      <c r="S11" s="275"/>
-      <c r="T11" s="275"/>
-      <c r="U11" s="275"/>
-      <c r="V11" s="275"/>
-      <c r="W11" s="275"/>
-      <c r="X11" s="275"/>
-      <c r="Y11" s="275"/>
-      <c r="Z11" s="275"/>
-      <c r="AA11" s="275"/>
-      <c r="AB11" s="275"/>
-      <c r="AC11" s="275"/>
-      <c r="AD11" s="275"/>
-      <c r="AE11" s="276"/>
-      <c r="AF11" s="271"/>
-      <c r="AG11" s="272"/>
-      <c r="AH11" s="272"/>
-      <c r="AI11" s="273"/>
+      <c r="B11" s="301"/>
+      <c r="C11" s="302"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="305"/>
+      <c r="G11" s="301"/>
+      <c r="H11" s="306"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="308"/>
+      <c r="L11" s="308"/>
+      <c r="M11" s="308"/>
+      <c r="N11" s="308"/>
+      <c r="O11" s="308"/>
+      <c r="P11" s="309"/>
+      <c r="Q11" s="310"/>
+      <c r="R11" s="311"/>
+      <c r="S11" s="311"/>
+      <c r="T11" s="311"/>
+      <c r="U11" s="311"/>
+      <c r="V11" s="311"/>
+      <c r="W11" s="311"/>
+      <c r="X11" s="311"/>
+      <c r="Y11" s="311"/>
+      <c r="Z11" s="311"/>
+      <c r="AA11" s="311"/>
+      <c r="AB11" s="311"/>
+      <c r="AC11" s="311"/>
+      <c r="AD11" s="311"/>
+      <c r="AE11" s="312"/>
+      <c r="AF11" s="307"/>
+      <c r="AG11" s="308"/>
+      <c r="AH11" s="308"/>
+      <c r="AI11" s="309"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="269"/>
-      <c r="G12" s="265"/>
-      <c r="H12" s="270"/>
-      <c r="I12" s="266"/>
-      <c r="J12" s="271"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="272"/>
-      <c r="M12" s="272"/>
-      <c r="N12" s="272"/>
-      <c r="O12" s="272"/>
-      <c r="P12" s="273"/>
-      <c r="Q12" s="274"/>
-      <c r="R12" s="275"/>
-      <c r="S12" s="275"/>
-      <c r="T12" s="275"/>
-      <c r="U12" s="275"/>
-      <c r="V12" s="275"/>
-      <c r="W12" s="275"/>
-      <c r="X12" s="275"/>
-      <c r="Y12" s="275"/>
-      <c r="Z12" s="275"/>
-      <c r="AA12" s="275"/>
-      <c r="AB12" s="275"/>
-      <c r="AC12" s="275"/>
-      <c r="AD12" s="275"/>
-      <c r="AE12" s="276"/>
-      <c r="AF12" s="271"/>
-      <c r="AG12" s="272"/>
-      <c r="AH12" s="272"/>
-      <c r="AI12" s="273"/>
+      <c r="B12" s="301"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="304"/>
+      <c r="F12" s="305"/>
+      <c r="G12" s="301"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="307"/>
+      <c r="K12" s="308"/>
+      <c r="L12" s="308"/>
+      <c r="M12" s="308"/>
+      <c r="N12" s="308"/>
+      <c r="O12" s="308"/>
+      <c r="P12" s="309"/>
+      <c r="Q12" s="310"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="311"/>
+      <c r="T12" s="311"/>
+      <c r="U12" s="311"/>
+      <c r="V12" s="311"/>
+      <c r="W12" s="311"/>
+      <c r="X12" s="311"/>
+      <c r="Y12" s="311"/>
+      <c r="Z12" s="311"/>
+      <c r="AA12" s="311"/>
+      <c r="AB12" s="311"/>
+      <c r="AC12" s="311"/>
+      <c r="AD12" s="311"/>
+      <c r="AE12" s="312"/>
+      <c r="AF12" s="307"/>
+      <c r="AG12" s="308"/>
+      <c r="AH12" s="308"/>
+      <c r="AI12" s="309"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="265"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="267"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="271"/>
-      <c r="K13" s="272"/>
-      <c r="L13" s="272"/>
-      <c r="M13" s="272"/>
-      <c r="N13" s="272"/>
-      <c r="O13" s="272"/>
-      <c r="P13" s="273"/>
-      <c r="Q13" s="274"/>
-      <c r="R13" s="275"/>
-      <c r="S13" s="275"/>
-      <c r="T13" s="275"/>
-      <c r="U13" s="275"/>
-      <c r="V13" s="275"/>
-      <c r="W13" s="275"/>
-      <c r="X13" s="275"/>
-      <c r="Y13" s="275"/>
-      <c r="Z13" s="275"/>
-      <c r="AA13" s="275"/>
-      <c r="AB13" s="275"/>
-      <c r="AC13" s="275"/>
-      <c r="AD13" s="275"/>
-      <c r="AE13" s="276"/>
-      <c r="AF13" s="271"/>
-      <c r="AG13" s="272"/>
-      <c r="AH13" s="272"/>
-      <c r="AI13" s="273"/>
+      <c r="B13" s="301"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="303"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="306"/>
+      <c r="I13" s="302"/>
+      <c r="J13" s="307"/>
+      <c r="K13" s="308"/>
+      <c r="L13" s="308"/>
+      <c r="M13" s="308"/>
+      <c r="N13" s="308"/>
+      <c r="O13" s="308"/>
+      <c r="P13" s="309"/>
+      <c r="Q13" s="310"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="311"/>
+      <c r="T13" s="311"/>
+      <c r="U13" s="311"/>
+      <c r="V13" s="311"/>
+      <c r="W13" s="311"/>
+      <c r="X13" s="311"/>
+      <c r="Y13" s="311"/>
+      <c r="Z13" s="311"/>
+      <c r="AA13" s="311"/>
+      <c r="AB13" s="311"/>
+      <c r="AC13" s="311"/>
+      <c r="AD13" s="311"/>
+      <c r="AE13" s="312"/>
+      <c r="AF13" s="307"/>
+      <c r="AG13" s="308"/>
+      <c r="AH13" s="308"/>
+      <c r="AI13" s="309"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="265"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="267"/>
-      <c r="E14" s="268"/>
-      <c r="F14" s="269"/>
-      <c r="G14" s="265"/>
-      <c r="H14" s="270"/>
-      <c r="I14" s="266"/>
-      <c r="J14" s="271"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="272"/>
-      <c r="M14" s="272"/>
-      <c r="N14" s="272"/>
-      <c r="O14" s="272"/>
-      <c r="P14" s="273"/>
-      <c r="Q14" s="274"/>
-      <c r="R14" s="275"/>
-      <c r="S14" s="275"/>
-      <c r="T14" s="275"/>
-      <c r="U14" s="275"/>
-      <c r="V14" s="275"/>
-      <c r="W14" s="275"/>
-      <c r="X14" s="275"/>
-      <c r="Y14" s="275"/>
-      <c r="Z14" s="275"/>
-      <c r="AA14" s="275"/>
-      <c r="AB14" s="275"/>
-      <c r="AC14" s="275"/>
-      <c r="AD14" s="275"/>
-      <c r="AE14" s="276"/>
-      <c r="AF14" s="271"/>
-      <c r="AG14" s="272"/>
-      <c r="AH14" s="272"/>
-      <c r="AI14" s="273"/>
+      <c r="B14" s="301"/>
+      <c r="C14" s="302"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="304"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="301"/>
+      <c r="H14" s="306"/>
+      <c r="I14" s="302"/>
+      <c r="J14" s="307"/>
+      <c r="K14" s="308"/>
+      <c r="L14" s="308"/>
+      <c r="M14" s="308"/>
+      <c r="N14" s="308"/>
+      <c r="O14" s="308"/>
+      <c r="P14" s="309"/>
+      <c r="Q14" s="310"/>
+      <c r="R14" s="311"/>
+      <c r="S14" s="311"/>
+      <c r="T14" s="311"/>
+      <c r="U14" s="311"/>
+      <c r="V14" s="311"/>
+      <c r="W14" s="311"/>
+      <c r="X14" s="311"/>
+      <c r="Y14" s="311"/>
+      <c r="Z14" s="311"/>
+      <c r="AA14" s="311"/>
+      <c r="AB14" s="311"/>
+      <c r="AC14" s="311"/>
+      <c r="AD14" s="311"/>
+      <c r="AE14" s="312"/>
+      <c r="AF14" s="307"/>
+      <c r="AG14" s="308"/>
+      <c r="AH14" s="308"/>
+      <c r="AI14" s="309"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="265"/>
-      <c r="C15" s="266"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="269"/>
-      <c r="G15" s="265"/>
-      <c r="H15" s="270"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="272"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="272"/>
-      <c r="N15" s="272"/>
-      <c r="O15" s="272"/>
-      <c r="P15" s="273"/>
-      <c r="Q15" s="274"/>
-      <c r="R15" s="275"/>
-      <c r="S15" s="275"/>
-      <c r="T15" s="275"/>
-      <c r="U15" s="275"/>
-      <c r="V15" s="275"/>
-      <c r="W15" s="275"/>
-      <c r="X15" s="275"/>
-      <c r="Y15" s="275"/>
-      <c r="Z15" s="275"/>
-      <c r="AA15" s="275"/>
-      <c r="AB15" s="275"/>
-      <c r="AC15" s="275"/>
-      <c r="AD15" s="275"/>
-      <c r="AE15" s="276"/>
-      <c r="AF15" s="271"/>
-      <c r="AG15" s="272"/>
-      <c r="AH15" s="272"/>
-      <c r="AI15" s="273"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="304"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="301"/>
+      <c r="H15" s="306"/>
+      <c r="I15" s="302"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
+      <c r="M15" s="308"/>
+      <c r="N15" s="308"/>
+      <c r="O15" s="308"/>
+      <c r="P15" s="309"/>
+      <c r="Q15" s="310"/>
+      <c r="R15" s="311"/>
+      <c r="S15" s="311"/>
+      <c r="T15" s="311"/>
+      <c r="U15" s="311"/>
+      <c r="V15" s="311"/>
+      <c r="W15" s="311"/>
+      <c r="X15" s="311"/>
+      <c r="Y15" s="311"/>
+      <c r="Z15" s="311"/>
+      <c r="AA15" s="311"/>
+      <c r="AB15" s="311"/>
+      <c r="AC15" s="311"/>
+      <c r="AD15" s="311"/>
+      <c r="AE15" s="312"/>
+      <c r="AF15" s="307"/>
+      <c r="AG15" s="308"/>
+      <c r="AH15" s="308"/>
+      <c r="AI15" s="309"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="265"/>
-      <c r="C16" s="266"/>
-      <c r="D16" s="267"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="270"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="272"/>
-      <c r="M16" s="272"/>
-      <c r="N16" s="272"/>
-      <c r="O16" s="272"/>
-      <c r="P16" s="273"/>
-      <c r="Q16" s="274"/>
-      <c r="R16" s="275"/>
-      <c r="S16" s="275"/>
-      <c r="T16" s="275"/>
-      <c r="U16" s="275"/>
-      <c r="V16" s="275"/>
-      <c r="W16" s="275"/>
-      <c r="X16" s="275"/>
-      <c r="Y16" s="275"/>
-      <c r="Z16" s="275"/>
-      <c r="AA16" s="275"/>
-      <c r="AB16" s="275"/>
-      <c r="AC16" s="275"/>
-      <c r="AD16" s="275"/>
-      <c r="AE16" s="276"/>
-      <c r="AF16" s="271"/>
-      <c r="AG16" s="272"/>
-      <c r="AH16" s="272"/>
-      <c r="AI16" s="273"/>
+      <c r="B16" s="301"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="303"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="301"/>
+      <c r="H16" s="306"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="308"/>
+      <c r="N16" s="308"/>
+      <c r="O16" s="308"/>
+      <c r="P16" s="309"/>
+      <c r="Q16" s="310"/>
+      <c r="R16" s="311"/>
+      <c r="S16" s="311"/>
+      <c r="T16" s="311"/>
+      <c r="U16" s="311"/>
+      <c r="V16" s="311"/>
+      <c r="W16" s="311"/>
+      <c r="X16" s="311"/>
+      <c r="Y16" s="311"/>
+      <c r="Z16" s="311"/>
+      <c r="AA16" s="311"/>
+      <c r="AB16" s="311"/>
+      <c r="AC16" s="311"/>
+      <c r="AD16" s="311"/>
+      <c r="AE16" s="312"/>
+      <c r="AF16" s="307"/>
+      <c r="AG16" s="308"/>
+      <c r="AH16" s="308"/>
+      <c r="AI16" s="309"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="265"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="267"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="265"/>
-      <c r="H17" s="270"/>
-      <c r="I17" s="266"/>
-      <c r="J17" s="271"/>
-      <c r="K17" s="272"/>
-      <c r="L17" s="272"/>
-      <c r="M17" s="272"/>
-      <c r="N17" s="272"/>
-      <c r="O17" s="272"/>
-      <c r="P17" s="273"/>
-      <c r="Q17" s="274"/>
-      <c r="R17" s="275"/>
-      <c r="S17" s="275"/>
-      <c r="T17" s="275"/>
-      <c r="U17" s="275"/>
-      <c r="V17" s="275"/>
-      <c r="W17" s="275"/>
-      <c r="X17" s="275"/>
-      <c r="Y17" s="275"/>
-      <c r="Z17" s="275"/>
-      <c r="AA17" s="275"/>
-      <c r="AB17" s="275"/>
-      <c r="AC17" s="275"/>
-      <c r="AD17" s="275"/>
-      <c r="AE17" s="276"/>
-      <c r="AF17" s="271"/>
-      <c r="AG17" s="272"/>
-      <c r="AH17" s="272"/>
-      <c r="AI17" s="273"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="304"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="301"/>
+      <c r="H17" s="306"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="307"/>
+      <c r="K17" s="308"/>
+      <c r="L17" s="308"/>
+      <c r="M17" s="308"/>
+      <c r="N17" s="308"/>
+      <c r="O17" s="308"/>
+      <c r="P17" s="309"/>
+      <c r="Q17" s="310"/>
+      <c r="R17" s="311"/>
+      <c r="S17" s="311"/>
+      <c r="T17" s="311"/>
+      <c r="U17" s="311"/>
+      <c r="V17" s="311"/>
+      <c r="W17" s="311"/>
+      <c r="X17" s="311"/>
+      <c r="Y17" s="311"/>
+      <c r="Z17" s="311"/>
+      <c r="AA17" s="311"/>
+      <c r="AB17" s="311"/>
+      <c r="AC17" s="311"/>
+      <c r="AD17" s="311"/>
+      <c r="AE17" s="312"/>
+      <c r="AF17" s="307"/>
+      <c r="AG17" s="308"/>
+      <c r="AH17" s="308"/>
+      <c r="AI17" s="309"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="265"/>
-      <c r="C18" s="266"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="265"/>
-      <c r="H18" s="270"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="272"/>
-      <c r="L18" s="272"/>
-      <c r="M18" s="272"/>
-      <c r="N18" s="272"/>
-      <c r="O18" s="272"/>
-      <c r="P18" s="273"/>
-      <c r="Q18" s="274"/>
-      <c r="R18" s="275"/>
-      <c r="S18" s="275"/>
-      <c r="T18" s="275"/>
-      <c r="U18" s="275"/>
-      <c r="V18" s="275"/>
-      <c r="W18" s="275"/>
-      <c r="X18" s="275"/>
-      <c r="Y18" s="275"/>
-      <c r="Z18" s="275"/>
-      <c r="AA18" s="275"/>
-      <c r="AB18" s="275"/>
-      <c r="AC18" s="275"/>
-      <c r="AD18" s="275"/>
-      <c r="AE18" s="276"/>
-      <c r="AF18" s="271"/>
-      <c r="AG18" s="272"/>
-      <c r="AH18" s="272"/>
-      <c r="AI18" s="273"/>
+      <c r="B18" s="301"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="303"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="301"/>
+      <c r="H18" s="306"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="307"/>
+      <c r="K18" s="308"/>
+      <c r="L18" s="308"/>
+      <c r="M18" s="308"/>
+      <c r="N18" s="308"/>
+      <c r="O18" s="308"/>
+      <c r="P18" s="309"/>
+      <c r="Q18" s="310"/>
+      <c r="R18" s="311"/>
+      <c r="S18" s="311"/>
+      <c r="T18" s="311"/>
+      <c r="U18" s="311"/>
+      <c r="V18" s="311"/>
+      <c r="W18" s="311"/>
+      <c r="X18" s="311"/>
+      <c r="Y18" s="311"/>
+      <c r="Z18" s="311"/>
+      <c r="AA18" s="311"/>
+      <c r="AB18" s="311"/>
+      <c r="AC18" s="311"/>
+      <c r="AD18" s="311"/>
+      <c r="AE18" s="312"/>
+      <c r="AF18" s="307"/>
+      <c r="AG18" s="308"/>
+      <c r="AH18" s="308"/>
+      <c r="AI18" s="309"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="265"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="268"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="270"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="271"/>
-      <c r="K19" s="272"/>
-      <c r="L19" s="272"/>
-      <c r="M19" s="272"/>
-      <c r="N19" s="272"/>
-      <c r="O19" s="272"/>
-      <c r="P19" s="273"/>
-      <c r="Q19" s="274"/>
-      <c r="R19" s="275"/>
-      <c r="S19" s="275"/>
-      <c r="T19" s="275"/>
-      <c r="U19" s="275"/>
-      <c r="V19" s="275"/>
-      <c r="W19" s="275"/>
-      <c r="X19" s="275"/>
-      <c r="Y19" s="275"/>
-      <c r="Z19" s="275"/>
-      <c r="AA19" s="275"/>
-      <c r="AB19" s="275"/>
-      <c r="AC19" s="275"/>
-      <c r="AD19" s="275"/>
-      <c r="AE19" s="276"/>
-      <c r="AF19" s="271"/>
-      <c r="AG19" s="272"/>
-      <c r="AH19" s="272"/>
-      <c r="AI19" s="273"/>
+      <c r="B19" s="301"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="303"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="301"/>
+      <c r="H19" s="306"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="307"/>
+      <c r="K19" s="308"/>
+      <c r="L19" s="308"/>
+      <c r="M19" s="308"/>
+      <c r="N19" s="308"/>
+      <c r="O19" s="308"/>
+      <c r="P19" s="309"/>
+      <c r="Q19" s="310"/>
+      <c r="R19" s="311"/>
+      <c r="S19" s="311"/>
+      <c r="T19" s="311"/>
+      <c r="U19" s="311"/>
+      <c r="V19" s="311"/>
+      <c r="W19" s="311"/>
+      <c r="X19" s="311"/>
+      <c r="Y19" s="311"/>
+      <c r="Z19" s="311"/>
+      <c r="AA19" s="311"/>
+      <c r="AB19" s="311"/>
+      <c r="AC19" s="311"/>
+      <c r="AD19" s="311"/>
+      <c r="AE19" s="312"/>
+      <c r="AF19" s="307"/>
+      <c r="AG19" s="308"/>
+      <c r="AH19" s="308"/>
+      <c r="AI19" s="309"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="266"/>
-      <c r="D20" s="267"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="269"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="270"/>
-      <c r="I20" s="266"/>
-      <c r="J20" s="271"/>
-      <c r="K20" s="272"/>
-      <c r="L20" s="272"/>
-      <c r="M20" s="272"/>
-      <c r="N20" s="272"/>
-      <c r="O20" s="272"/>
-      <c r="P20" s="273"/>
-      <c r="Q20" s="274"/>
-      <c r="R20" s="275"/>
-      <c r="S20" s="275"/>
-      <c r="T20" s="275"/>
-      <c r="U20" s="275"/>
-      <c r="V20" s="275"/>
-      <c r="W20" s="275"/>
-      <c r="X20" s="275"/>
-      <c r="Y20" s="275"/>
-      <c r="Z20" s="275"/>
-      <c r="AA20" s="275"/>
-      <c r="AB20" s="275"/>
-      <c r="AC20" s="275"/>
-      <c r="AD20" s="275"/>
-      <c r="AE20" s="276"/>
-      <c r="AF20" s="271"/>
-      <c r="AG20" s="272"/>
-      <c r="AH20" s="272"/>
-      <c r="AI20" s="273"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="303"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="305"/>
+      <c r="G20" s="301"/>
+      <c r="H20" s="306"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="307"/>
+      <c r="K20" s="308"/>
+      <c r="L20" s="308"/>
+      <c r="M20" s="308"/>
+      <c r="N20" s="308"/>
+      <c r="O20" s="308"/>
+      <c r="P20" s="309"/>
+      <c r="Q20" s="310"/>
+      <c r="R20" s="311"/>
+      <c r="S20" s="311"/>
+      <c r="T20" s="311"/>
+      <c r="U20" s="311"/>
+      <c r="V20" s="311"/>
+      <c r="W20" s="311"/>
+      <c r="X20" s="311"/>
+      <c r="Y20" s="311"/>
+      <c r="Z20" s="311"/>
+      <c r="AA20" s="311"/>
+      <c r="AB20" s="311"/>
+      <c r="AC20" s="311"/>
+      <c r="AD20" s="311"/>
+      <c r="AE20" s="312"/>
+      <c r="AF20" s="307"/>
+      <c r="AG20" s="308"/>
+      <c r="AH20" s="308"/>
+      <c r="AI20" s="309"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="265"/>
-      <c r="C21" s="266"/>
-      <c r="D21" s="267"/>
-      <c r="E21" s="268"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="270"/>
-      <c r="I21" s="266"/>
-      <c r="J21" s="271"/>
-      <c r="K21" s="272"/>
-      <c r="L21" s="272"/>
-      <c r="M21" s="272"/>
-      <c r="N21" s="272"/>
-      <c r="O21" s="272"/>
-      <c r="P21" s="273"/>
-      <c r="Q21" s="274"/>
-      <c r="R21" s="275"/>
-      <c r="S21" s="275"/>
-      <c r="T21" s="275"/>
-      <c r="U21" s="275"/>
-      <c r="V21" s="275"/>
-      <c r="W21" s="275"/>
-      <c r="X21" s="275"/>
-      <c r="Y21" s="275"/>
-      <c r="Z21" s="275"/>
-      <c r="AA21" s="275"/>
-      <c r="AB21" s="275"/>
-      <c r="AC21" s="275"/>
-      <c r="AD21" s="275"/>
-      <c r="AE21" s="276"/>
-      <c r="AF21" s="271"/>
-      <c r="AG21" s="272"/>
-      <c r="AH21" s="272"/>
-      <c r="AI21" s="273"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="305"/>
+      <c r="G21" s="301"/>
+      <c r="H21" s="306"/>
+      <c r="I21" s="302"/>
+      <c r="J21" s="307"/>
+      <c r="K21" s="308"/>
+      <c r="L21" s="308"/>
+      <c r="M21" s="308"/>
+      <c r="N21" s="308"/>
+      <c r="O21" s="308"/>
+      <c r="P21" s="309"/>
+      <c r="Q21" s="310"/>
+      <c r="R21" s="311"/>
+      <c r="S21" s="311"/>
+      <c r="T21" s="311"/>
+      <c r="U21" s="311"/>
+      <c r="V21" s="311"/>
+      <c r="W21" s="311"/>
+      <c r="X21" s="311"/>
+      <c r="Y21" s="311"/>
+      <c r="Z21" s="311"/>
+      <c r="AA21" s="311"/>
+      <c r="AB21" s="311"/>
+      <c r="AC21" s="311"/>
+      <c r="AD21" s="311"/>
+      <c r="AE21" s="312"/>
+      <c r="AF21" s="307"/>
+      <c r="AG21" s="308"/>
+      <c r="AH21" s="308"/>
+      <c r="AI21" s="309"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="265"/>
-      <c r="C22" s="266"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="268"/>
-      <c r="F22" s="269"/>
-      <c r="G22" s="265"/>
-      <c r="H22" s="270"/>
-      <c r="I22" s="266"/>
-      <c r="J22" s="271"/>
-      <c r="K22" s="272"/>
-      <c r="L22" s="272"/>
-      <c r="M22" s="272"/>
-      <c r="N22" s="272"/>
-      <c r="O22" s="272"/>
-      <c r="P22" s="273"/>
-      <c r="Q22" s="274"/>
-      <c r="R22" s="275"/>
-      <c r="S22" s="275"/>
-      <c r="T22" s="275"/>
-      <c r="U22" s="275"/>
-      <c r="V22" s="275"/>
-      <c r="W22" s="275"/>
-      <c r="X22" s="275"/>
-      <c r="Y22" s="275"/>
-      <c r="Z22" s="275"/>
-      <c r="AA22" s="275"/>
-      <c r="AB22" s="275"/>
-      <c r="AC22" s="275"/>
-      <c r="AD22" s="275"/>
-      <c r="AE22" s="276"/>
-      <c r="AF22" s="271"/>
-      <c r="AG22" s="272"/>
-      <c r="AH22" s="272"/>
-      <c r="AI22" s="273"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="305"/>
+      <c r="G22" s="301"/>
+      <c r="H22" s="306"/>
+      <c r="I22" s="302"/>
+      <c r="J22" s="307"/>
+      <c r="K22" s="308"/>
+      <c r="L22" s="308"/>
+      <c r="M22" s="308"/>
+      <c r="N22" s="308"/>
+      <c r="O22" s="308"/>
+      <c r="P22" s="309"/>
+      <c r="Q22" s="310"/>
+      <c r="R22" s="311"/>
+      <c r="S22" s="311"/>
+      <c r="T22" s="311"/>
+      <c r="U22" s="311"/>
+      <c r="V22" s="311"/>
+      <c r="W22" s="311"/>
+      <c r="X22" s="311"/>
+      <c r="Y22" s="311"/>
+      <c r="Z22" s="311"/>
+      <c r="AA22" s="311"/>
+      <c r="AB22" s="311"/>
+      <c r="AC22" s="311"/>
+      <c r="AD22" s="311"/>
+      <c r="AE22" s="312"/>
+      <c r="AF22" s="307"/>
+      <c r="AG22" s="308"/>
+      <c r="AH22" s="308"/>
+      <c r="AI22" s="309"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="265"/>
-      <c r="C23" s="266"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="268"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="265"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="266"/>
-      <c r="J23" s="271"/>
-      <c r="K23" s="272"/>
-      <c r="L23" s="272"/>
-      <c r="M23" s="272"/>
-      <c r="N23" s="272"/>
-      <c r="O23" s="272"/>
-      <c r="P23" s="273"/>
-      <c r="Q23" s="274"/>
-      <c r="R23" s="275"/>
-      <c r="S23" s="275"/>
-      <c r="T23" s="275"/>
-      <c r="U23" s="275"/>
-      <c r="V23" s="275"/>
-      <c r="W23" s="275"/>
-      <c r="X23" s="275"/>
-      <c r="Y23" s="275"/>
-      <c r="Z23" s="275"/>
-      <c r="AA23" s="275"/>
-      <c r="AB23" s="275"/>
-      <c r="AC23" s="275"/>
-      <c r="AD23" s="275"/>
-      <c r="AE23" s="276"/>
-      <c r="AF23" s="271"/>
-      <c r="AG23" s="272"/>
-      <c r="AH23" s="272"/>
-      <c r="AI23" s="273"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="302"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="304"/>
+      <c r="F23" s="305"/>
+      <c r="G23" s="301"/>
+      <c r="H23" s="306"/>
+      <c r="I23" s="302"/>
+      <c r="J23" s="307"/>
+      <c r="K23" s="308"/>
+      <c r="L23" s="308"/>
+      <c r="M23" s="308"/>
+      <c r="N23" s="308"/>
+      <c r="O23" s="308"/>
+      <c r="P23" s="309"/>
+      <c r="Q23" s="310"/>
+      <c r="R23" s="311"/>
+      <c r="S23" s="311"/>
+      <c r="T23" s="311"/>
+      <c r="U23" s="311"/>
+      <c r="V23" s="311"/>
+      <c r="W23" s="311"/>
+      <c r="X23" s="311"/>
+      <c r="Y23" s="311"/>
+      <c r="Z23" s="311"/>
+      <c r="AA23" s="311"/>
+      <c r="AB23" s="311"/>
+      <c r="AC23" s="311"/>
+      <c r="AD23" s="311"/>
+      <c r="AE23" s="312"/>
+      <c r="AF23" s="307"/>
+      <c r="AG23" s="308"/>
+      <c r="AH23" s="308"/>
+      <c r="AI23" s="309"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="265"/>
-      <c r="C24" s="266"/>
-      <c r="D24" s="267"/>
-      <c r="E24" s="268"/>
-      <c r="F24" s="269"/>
-      <c r="G24" s="265"/>
-      <c r="H24" s="270"/>
-      <c r="I24" s="266"/>
-      <c r="J24" s="271"/>
-      <c r="K24" s="272"/>
-      <c r="L24" s="272"/>
-      <c r="M24" s="272"/>
-      <c r="N24" s="272"/>
-      <c r="O24" s="272"/>
-      <c r="P24" s="273"/>
-      <c r="Q24" s="274"/>
-      <c r="R24" s="275"/>
-      <c r="S24" s="275"/>
-      <c r="T24" s="275"/>
-      <c r="U24" s="275"/>
-      <c r="V24" s="275"/>
-      <c r="W24" s="275"/>
-      <c r="X24" s="275"/>
-      <c r="Y24" s="275"/>
-      <c r="Z24" s="275"/>
-      <c r="AA24" s="275"/>
-      <c r="AB24" s="275"/>
-      <c r="AC24" s="275"/>
-      <c r="AD24" s="275"/>
-      <c r="AE24" s="276"/>
-      <c r="AF24" s="271"/>
-      <c r="AG24" s="272"/>
-      <c r="AH24" s="272"/>
-      <c r="AI24" s="273"/>
+      <c r="B24" s="301"/>
+      <c r="C24" s="302"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="304"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="301"/>
+      <c r="H24" s="306"/>
+      <c r="I24" s="302"/>
+      <c r="J24" s="307"/>
+      <c r="K24" s="308"/>
+      <c r="L24" s="308"/>
+      <c r="M24" s="308"/>
+      <c r="N24" s="308"/>
+      <c r="O24" s="308"/>
+      <c r="P24" s="309"/>
+      <c r="Q24" s="310"/>
+      <c r="R24" s="311"/>
+      <c r="S24" s="311"/>
+      <c r="T24" s="311"/>
+      <c r="U24" s="311"/>
+      <c r="V24" s="311"/>
+      <c r="W24" s="311"/>
+      <c r="X24" s="311"/>
+      <c r="Y24" s="311"/>
+      <c r="Z24" s="311"/>
+      <c r="AA24" s="311"/>
+      <c r="AB24" s="311"/>
+      <c r="AC24" s="311"/>
+      <c r="AD24" s="311"/>
+      <c r="AE24" s="312"/>
+      <c r="AF24" s="307"/>
+      <c r="AG24" s="308"/>
+      <c r="AH24" s="308"/>
+      <c r="AI24" s="309"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="265"/>
-      <c r="C25" s="266"/>
-      <c r="D25" s="267"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="269"/>
-      <c r="G25" s="265"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="266"/>
-      <c r="J25" s="271"/>
-      <c r="K25" s="272"/>
-      <c r="L25" s="272"/>
-      <c r="M25" s="272"/>
-      <c r="N25" s="272"/>
-      <c r="O25" s="272"/>
-      <c r="P25" s="273"/>
-      <c r="Q25" s="274"/>
-      <c r="R25" s="275"/>
-      <c r="S25" s="275"/>
-      <c r="T25" s="275"/>
-      <c r="U25" s="275"/>
-      <c r="V25" s="275"/>
-      <c r="W25" s="275"/>
-      <c r="X25" s="275"/>
-      <c r="Y25" s="275"/>
-      <c r="Z25" s="275"/>
-      <c r="AA25" s="275"/>
-      <c r="AB25" s="275"/>
-      <c r="AC25" s="275"/>
-      <c r="AD25" s="275"/>
-      <c r="AE25" s="276"/>
-      <c r="AF25" s="271"/>
-      <c r="AG25" s="272"/>
-      <c r="AH25" s="272"/>
-      <c r="AI25" s="273"/>
+      <c r="B25" s="301"/>
+      <c r="C25" s="302"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="304"/>
+      <c r="F25" s="305"/>
+      <c r="G25" s="301"/>
+      <c r="H25" s="306"/>
+      <c r="I25" s="302"/>
+      <c r="J25" s="307"/>
+      <c r="K25" s="308"/>
+      <c r="L25" s="308"/>
+      <c r="M25" s="308"/>
+      <c r="N25" s="308"/>
+      <c r="O25" s="308"/>
+      <c r="P25" s="309"/>
+      <c r="Q25" s="310"/>
+      <c r="R25" s="311"/>
+      <c r="S25" s="311"/>
+      <c r="T25" s="311"/>
+      <c r="U25" s="311"/>
+      <c r="V25" s="311"/>
+      <c r="W25" s="311"/>
+      <c r="X25" s="311"/>
+      <c r="Y25" s="311"/>
+      <c r="Z25" s="311"/>
+      <c r="AA25" s="311"/>
+      <c r="AB25" s="311"/>
+      <c r="AC25" s="311"/>
+      <c r="AD25" s="311"/>
+      <c r="AE25" s="312"/>
+      <c r="AF25" s="307"/>
+      <c r="AG25" s="308"/>
+      <c r="AH25" s="308"/>
+      <c r="AI25" s="309"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="265"/>
-      <c r="C26" s="266"/>
-      <c r="D26" s="267"/>
-      <c r="E26" s="268"/>
-      <c r="F26" s="269"/>
-      <c r="G26" s="265"/>
-      <c r="H26" s="270"/>
-      <c r="I26" s="266"/>
-      <c r="J26" s="271"/>
-      <c r="K26" s="272"/>
-      <c r="L26" s="272"/>
-      <c r="M26" s="272"/>
-      <c r="N26" s="272"/>
-      <c r="O26" s="272"/>
-      <c r="P26" s="273"/>
-      <c r="Q26" s="274"/>
-      <c r="R26" s="275"/>
-      <c r="S26" s="275"/>
-      <c r="T26" s="275"/>
-      <c r="U26" s="275"/>
-      <c r="V26" s="275"/>
-      <c r="W26" s="275"/>
-      <c r="X26" s="275"/>
-      <c r="Y26" s="275"/>
-      <c r="Z26" s="275"/>
-      <c r="AA26" s="275"/>
-      <c r="AB26" s="275"/>
-      <c r="AC26" s="275"/>
-      <c r="AD26" s="275"/>
-      <c r="AE26" s="276"/>
-      <c r="AF26" s="271"/>
-      <c r="AG26" s="272"/>
-      <c r="AH26" s="272"/>
-      <c r="AI26" s="273"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="302"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="305"/>
+      <c r="G26" s="301"/>
+      <c r="H26" s="306"/>
+      <c r="I26" s="302"/>
+      <c r="J26" s="307"/>
+      <c r="K26" s="308"/>
+      <c r="L26" s="308"/>
+      <c r="M26" s="308"/>
+      <c r="N26" s="308"/>
+      <c r="O26" s="308"/>
+      <c r="P26" s="309"/>
+      <c r="Q26" s="310"/>
+      <c r="R26" s="311"/>
+      <c r="S26" s="311"/>
+      <c r="T26" s="311"/>
+      <c r="U26" s="311"/>
+      <c r="V26" s="311"/>
+      <c r="W26" s="311"/>
+      <c r="X26" s="311"/>
+      <c r="Y26" s="311"/>
+      <c r="Z26" s="311"/>
+      <c r="AA26" s="311"/>
+      <c r="AB26" s="311"/>
+      <c r="AC26" s="311"/>
+      <c r="AD26" s="311"/>
+      <c r="AE26" s="312"/>
+      <c r="AF26" s="307"/>
+      <c r="AG26" s="308"/>
+      <c r="AH26" s="308"/>
+      <c r="AI26" s="309"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="265"/>
-      <c r="C27" s="266"/>
-      <c r="D27" s="267"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="269"/>
-      <c r="G27" s="265"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="266"/>
-      <c r="J27" s="271"/>
-      <c r="K27" s="272"/>
-      <c r="L27" s="272"/>
-      <c r="M27" s="272"/>
-      <c r="N27" s="272"/>
-      <c r="O27" s="272"/>
-      <c r="P27" s="273"/>
-      <c r="Q27" s="274"/>
-      <c r="R27" s="275"/>
-      <c r="S27" s="275"/>
-      <c r="T27" s="275"/>
-      <c r="U27" s="275"/>
-      <c r="V27" s="275"/>
-      <c r="W27" s="275"/>
-      <c r="X27" s="275"/>
-      <c r="Y27" s="275"/>
-      <c r="Z27" s="275"/>
-      <c r="AA27" s="275"/>
-      <c r="AB27" s="275"/>
-      <c r="AC27" s="275"/>
-      <c r="AD27" s="275"/>
-      <c r="AE27" s="276"/>
-      <c r="AF27" s="271"/>
-      <c r="AG27" s="272"/>
-      <c r="AH27" s="272"/>
-      <c r="AI27" s="273"/>
+      <c r="B27" s="301"/>
+      <c r="C27" s="302"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="301"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="302"/>
+      <c r="J27" s="307"/>
+      <c r="K27" s="308"/>
+      <c r="L27" s="308"/>
+      <c r="M27" s="308"/>
+      <c r="N27" s="308"/>
+      <c r="O27" s="308"/>
+      <c r="P27" s="309"/>
+      <c r="Q27" s="310"/>
+      <c r="R27" s="311"/>
+      <c r="S27" s="311"/>
+      <c r="T27" s="311"/>
+      <c r="U27" s="311"/>
+      <c r="V27" s="311"/>
+      <c r="W27" s="311"/>
+      <c r="X27" s="311"/>
+      <c r="Y27" s="311"/>
+      <c r="Z27" s="311"/>
+      <c r="AA27" s="311"/>
+      <c r="AB27" s="311"/>
+      <c r="AC27" s="311"/>
+      <c r="AD27" s="311"/>
+      <c r="AE27" s="312"/>
+      <c r="AF27" s="307"/>
+      <c r="AG27" s="308"/>
+      <c r="AH27" s="308"/>
+      <c r="AI27" s="309"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="265"/>
-      <c r="C28" s="266"/>
-      <c r="D28" s="267"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="269"/>
-      <c r="G28" s="265"/>
-      <c r="H28" s="270"/>
-      <c r="I28" s="266"/>
-      <c r="J28" s="271"/>
-      <c r="K28" s="272"/>
-      <c r="L28" s="272"/>
-      <c r="M28" s="272"/>
-      <c r="N28" s="272"/>
-      <c r="O28" s="272"/>
-      <c r="P28" s="273"/>
-      <c r="Q28" s="274"/>
-      <c r="R28" s="275"/>
-      <c r="S28" s="275"/>
-      <c r="T28" s="275"/>
-      <c r="U28" s="275"/>
-      <c r="V28" s="275"/>
-      <c r="W28" s="275"/>
-      <c r="X28" s="275"/>
-      <c r="Y28" s="275"/>
-      <c r="Z28" s="275"/>
-      <c r="AA28" s="275"/>
-      <c r="AB28" s="275"/>
-      <c r="AC28" s="275"/>
-      <c r="AD28" s="275"/>
-      <c r="AE28" s="276"/>
-      <c r="AF28" s="271"/>
-      <c r="AG28" s="272"/>
-      <c r="AH28" s="272"/>
-      <c r="AI28" s="273"/>
+      <c r="B28" s="301"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
+      <c r="F28" s="305"/>
+      <c r="G28" s="301"/>
+      <c r="H28" s="306"/>
+      <c r="I28" s="302"/>
+      <c r="J28" s="307"/>
+      <c r="K28" s="308"/>
+      <c r="L28" s="308"/>
+      <c r="M28" s="308"/>
+      <c r="N28" s="308"/>
+      <c r="O28" s="308"/>
+      <c r="P28" s="309"/>
+      <c r="Q28" s="310"/>
+      <c r="R28" s="311"/>
+      <c r="S28" s="311"/>
+      <c r="T28" s="311"/>
+      <c r="U28" s="311"/>
+      <c r="V28" s="311"/>
+      <c r="W28" s="311"/>
+      <c r="X28" s="311"/>
+      <c r="Y28" s="311"/>
+      <c r="Z28" s="311"/>
+      <c r="AA28" s="311"/>
+      <c r="AB28" s="311"/>
+      <c r="AC28" s="311"/>
+      <c r="AD28" s="311"/>
+      <c r="AE28" s="312"/>
+      <c r="AF28" s="307"/>
+      <c r="AG28" s="308"/>
+      <c r="AH28" s="308"/>
+      <c r="AI28" s="309"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="265"/>
-      <c r="C29" s="266"/>
-      <c r="D29" s="267"/>
-      <c r="E29" s="268"/>
-      <c r="F29" s="269"/>
-      <c r="G29" s="265"/>
-      <c r="H29" s="270"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="271"/>
-      <c r="K29" s="272"/>
-      <c r="L29" s="272"/>
-      <c r="M29" s="272"/>
-      <c r="N29" s="272"/>
-      <c r="O29" s="272"/>
-      <c r="P29" s="273"/>
-      <c r="Q29" s="274"/>
-      <c r="R29" s="275"/>
-      <c r="S29" s="275"/>
-      <c r="T29" s="275"/>
-      <c r="U29" s="275"/>
-      <c r="V29" s="275"/>
-      <c r="W29" s="275"/>
-      <c r="X29" s="275"/>
-      <c r="Y29" s="275"/>
-      <c r="Z29" s="275"/>
-      <c r="AA29" s="275"/>
-      <c r="AB29" s="275"/>
-      <c r="AC29" s="275"/>
-      <c r="AD29" s="275"/>
-      <c r="AE29" s="276"/>
-      <c r="AF29" s="271"/>
-      <c r="AG29" s="272"/>
-      <c r="AH29" s="272"/>
-      <c r="AI29" s="273"/>
+      <c r="B29" s="301"/>
+      <c r="C29" s="302"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="305"/>
+      <c r="G29" s="301"/>
+      <c r="H29" s="306"/>
+      <c r="I29" s="302"/>
+      <c r="J29" s="307"/>
+      <c r="K29" s="308"/>
+      <c r="L29" s="308"/>
+      <c r="M29" s="308"/>
+      <c r="N29" s="308"/>
+      <c r="O29" s="308"/>
+      <c r="P29" s="309"/>
+      <c r="Q29" s="310"/>
+      <c r="R29" s="311"/>
+      <c r="S29" s="311"/>
+      <c r="T29" s="311"/>
+      <c r="U29" s="311"/>
+      <c r="V29" s="311"/>
+      <c r="W29" s="311"/>
+      <c r="X29" s="311"/>
+      <c r="Y29" s="311"/>
+      <c r="Z29" s="311"/>
+      <c r="AA29" s="311"/>
+      <c r="AB29" s="311"/>
+      <c r="AC29" s="311"/>
+      <c r="AD29" s="311"/>
+      <c r="AE29" s="312"/>
+      <c r="AF29" s="307"/>
+      <c r="AG29" s="308"/>
+      <c r="AH29" s="308"/>
+      <c r="AI29" s="309"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="265"/>
-      <c r="C30" s="266"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="269"/>
-      <c r="G30" s="265"/>
-      <c r="H30" s="270"/>
-      <c r="I30" s="266"/>
-      <c r="J30" s="271"/>
-      <c r="K30" s="272"/>
-      <c r="L30" s="272"/>
-      <c r="M30" s="272"/>
-      <c r="N30" s="272"/>
-      <c r="O30" s="272"/>
-      <c r="P30" s="273"/>
-      <c r="Q30" s="274"/>
-      <c r="R30" s="275"/>
-      <c r="S30" s="275"/>
-      <c r="T30" s="275"/>
-      <c r="U30" s="275"/>
-      <c r="V30" s="275"/>
-      <c r="W30" s="275"/>
-      <c r="X30" s="275"/>
-      <c r="Y30" s="275"/>
-      <c r="Z30" s="275"/>
-      <c r="AA30" s="275"/>
-      <c r="AB30" s="275"/>
-      <c r="AC30" s="275"/>
-      <c r="AD30" s="275"/>
-      <c r="AE30" s="276"/>
-      <c r="AF30" s="271"/>
-      <c r="AG30" s="272"/>
-      <c r="AH30" s="272"/>
-      <c r="AI30" s="273"/>
+      <c r="B30" s="301"/>
+      <c r="C30" s="302"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="304"/>
+      <c r="F30" s="305"/>
+      <c r="G30" s="301"/>
+      <c r="H30" s="306"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="307"/>
+      <c r="K30" s="308"/>
+      <c r="L30" s="308"/>
+      <c r="M30" s="308"/>
+      <c r="N30" s="308"/>
+      <c r="O30" s="308"/>
+      <c r="P30" s="309"/>
+      <c r="Q30" s="310"/>
+      <c r="R30" s="311"/>
+      <c r="S30" s="311"/>
+      <c r="T30" s="311"/>
+      <c r="U30" s="311"/>
+      <c r="V30" s="311"/>
+      <c r="W30" s="311"/>
+      <c r="X30" s="311"/>
+      <c r="Y30" s="311"/>
+      <c r="Z30" s="311"/>
+      <c r="AA30" s="311"/>
+      <c r="AB30" s="311"/>
+      <c r="AC30" s="311"/>
+      <c r="AD30" s="311"/>
+      <c r="AE30" s="312"/>
+      <c r="AF30" s="307"/>
+      <c r="AG30" s="308"/>
+      <c r="AH30" s="308"/>
+      <c r="AI30" s="309"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="265"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="269"/>
-      <c r="G31" s="265"/>
-      <c r="H31" s="270"/>
-      <c r="I31" s="266"/>
-      <c r="J31" s="271"/>
-      <c r="K31" s="272"/>
-      <c r="L31" s="272"/>
-      <c r="M31" s="272"/>
-      <c r="N31" s="272"/>
-      <c r="O31" s="272"/>
-      <c r="P31" s="273"/>
-      <c r="Q31" s="274"/>
-      <c r="R31" s="275"/>
-      <c r="S31" s="275"/>
-      <c r="T31" s="275"/>
-      <c r="U31" s="275"/>
-      <c r="V31" s="275"/>
-      <c r="W31" s="275"/>
-      <c r="X31" s="275"/>
-      <c r="Y31" s="275"/>
-      <c r="Z31" s="275"/>
-      <c r="AA31" s="275"/>
-      <c r="AB31" s="275"/>
-      <c r="AC31" s="275"/>
-      <c r="AD31" s="275"/>
-      <c r="AE31" s="276"/>
-      <c r="AF31" s="271"/>
-      <c r="AG31" s="272"/>
-      <c r="AH31" s="272"/>
-      <c r="AI31" s="273"/>
+      <c r="B31" s="301"/>
+      <c r="C31" s="302"/>
+      <c r="D31" s="303"/>
+      <c r="E31" s="304"/>
+      <c r="F31" s="305"/>
+      <c r="G31" s="301"/>
+      <c r="H31" s="306"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="307"/>
+      <c r="K31" s="308"/>
+      <c r="L31" s="308"/>
+      <c r="M31" s="308"/>
+      <c r="N31" s="308"/>
+      <c r="O31" s="308"/>
+      <c r="P31" s="309"/>
+      <c r="Q31" s="310"/>
+      <c r="R31" s="311"/>
+      <c r="S31" s="311"/>
+      <c r="T31" s="311"/>
+      <c r="U31" s="311"/>
+      <c r="V31" s="311"/>
+      <c r="W31" s="311"/>
+      <c r="X31" s="311"/>
+      <c r="Y31" s="311"/>
+      <c r="Z31" s="311"/>
+      <c r="AA31" s="311"/>
+      <c r="AB31" s="311"/>
+      <c r="AC31" s="311"/>
+      <c r="AD31" s="311"/>
+      <c r="AE31" s="312"/>
+      <c r="AF31" s="307"/>
+      <c r="AG31" s="308"/>
+      <c r="AH31" s="308"/>
+      <c r="AI31" s="309"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="265"/>
-      <c r="C32" s="266"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="269"/>
-      <c r="G32" s="265"/>
-      <c r="H32" s="270"/>
-      <c r="I32" s="266"/>
-      <c r="J32" s="271"/>
-      <c r="K32" s="277"/>
-      <c r="L32" s="272"/>
-      <c r="M32" s="272"/>
-      <c r="N32" s="272"/>
-      <c r="O32" s="272"/>
-      <c r="P32" s="273"/>
-      <c r="Q32" s="274"/>
-      <c r="R32" s="275"/>
-      <c r="S32" s="275"/>
-      <c r="T32" s="275"/>
-      <c r="U32" s="275"/>
-      <c r="V32" s="275"/>
-      <c r="W32" s="275"/>
-      <c r="X32" s="275"/>
-      <c r="Y32" s="275"/>
-      <c r="Z32" s="275"/>
-      <c r="AA32" s="275"/>
-      <c r="AB32" s="275"/>
-      <c r="AC32" s="275"/>
-      <c r="AD32" s="275"/>
-      <c r="AE32" s="276"/>
-      <c r="AF32" s="271"/>
-      <c r="AG32" s="272"/>
-      <c r="AH32" s="272"/>
-      <c r="AI32" s="273"/>
+      <c r="B32" s="301"/>
+      <c r="C32" s="302"/>
+      <c r="D32" s="303"/>
+      <c r="E32" s="304"/>
+      <c r="F32" s="305"/>
+      <c r="G32" s="301"/>
+      <c r="H32" s="306"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="307"/>
+      <c r="K32" s="326"/>
+      <c r="L32" s="308"/>
+      <c r="M32" s="308"/>
+      <c r="N32" s="308"/>
+      <c r="O32" s="308"/>
+      <c r="P32" s="309"/>
+      <c r="Q32" s="310"/>
+      <c r="R32" s="311"/>
+      <c r="S32" s="311"/>
+      <c r="T32" s="311"/>
+      <c r="U32" s="311"/>
+      <c r="V32" s="311"/>
+      <c r="W32" s="311"/>
+      <c r="X32" s="311"/>
+      <c r="Y32" s="311"/>
+      <c r="Z32" s="311"/>
+      <c r="AA32" s="311"/>
+      <c r="AB32" s="311"/>
+      <c r="AC32" s="311"/>
+      <c r="AD32" s="311"/>
+      <c r="AE32" s="312"/>
+      <c r="AF32" s="307"/>
+      <c r="AG32" s="308"/>
+      <c r="AH32" s="308"/>
+      <c r="AI32" s="309"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="265"/>
-      <c r="C33" s="266"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="265"/>
-      <c r="H33" s="270"/>
-      <c r="I33" s="266"/>
-      <c r="J33" s="271"/>
-      <c r="K33" s="272"/>
-      <c r="L33" s="272"/>
-      <c r="M33" s="272"/>
-      <c r="N33" s="272"/>
-      <c r="O33" s="272"/>
-      <c r="P33" s="273"/>
-      <c r="Q33" s="274"/>
-      <c r="R33" s="275"/>
-      <c r="S33" s="275"/>
-      <c r="T33" s="275"/>
-      <c r="U33" s="275"/>
-      <c r="V33" s="275"/>
-      <c r="W33" s="275"/>
-      <c r="X33" s="275"/>
-      <c r="Y33" s="275"/>
-      <c r="Z33" s="275"/>
-      <c r="AA33" s="275"/>
-      <c r="AB33" s="275"/>
-      <c r="AC33" s="275"/>
-      <c r="AD33" s="275"/>
-      <c r="AE33" s="276"/>
-      <c r="AF33" s="271"/>
-      <c r="AG33" s="272"/>
-      <c r="AH33" s="272"/>
-      <c r="AI33" s="273"/>
+      <c r="B33" s="301"/>
+      <c r="C33" s="302"/>
+      <c r="D33" s="303"/>
+      <c r="E33" s="304"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="301"/>
+      <c r="H33" s="306"/>
+      <c r="I33" s="302"/>
+      <c r="J33" s="307"/>
+      <c r="K33" s="308"/>
+      <c r="L33" s="308"/>
+      <c r="M33" s="308"/>
+      <c r="N33" s="308"/>
+      <c r="O33" s="308"/>
+      <c r="P33" s="309"/>
+      <c r="Q33" s="310"/>
+      <c r="R33" s="311"/>
+      <c r="S33" s="311"/>
+      <c r="T33" s="311"/>
+      <c r="U33" s="311"/>
+      <c r="V33" s="311"/>
+      <c r="W33" s="311"/>
+      <c r="X33" s="311"/>
+      <c r="Y33" s="311"/>
+      <c r="Z33" s="311"/>
+      <c r="AA33" s="311"/>
+      <c r="AB33" s="311"/>
+      <c r="AC33" s="311"/>
+      <c r="AD33" s="311"/>
+      <c r="AE33" s="312"/>
+      <c r="AF33" s="307"/>
+      <c r="AG33" s="308"/>
+      <c r="AH33" s="308"/>
+      <c r="AI33" s="309"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12638,162 +12794,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12927,7 +12927,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M10" s="53" t="s">
         <v>6</v>
@@ -23011,7 +23011,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M10" s="53" t="s">
         <v>6</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="17" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A17" s="88" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
@@ -36103,7 +36103,7 @@
     </row>
     <row r="18" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A18" s="88" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
@@ -3,28 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9234597-1D4B-4BEA-A661-46506A7B4BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD56F53-A902-4EF7-B190-3C616383281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="20" r:id="rId2"/>
-    <sheet name="【リクエストID】_クラス単体テスト" sheetId="26" r:id="rId3"/>
-    <sheet name="【リクエストID】_リクエスト単体テスト" sheetId="25" r:id="rId4"/>
-    <sheet name="取引単体テスト" sheetId="24" r:id="rId5"/>
+    <sheet name="【テストターゲット名】_クラス単体" sheetId="26" r:id="rId3"/>
+    <sheet name="【リクエストID】_リクエスト単体" sheetId="25" r:id="rId4"/>
+    <sheet name="取引単体" sheetId="24" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【リクエストID】_クラス単体テスト!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体テスト!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">【リクエストID】_クラス単体テスト!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体テスト!$A$1:$Q$382</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体テスト!$A$1:$Q$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$Q$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体!$A$1:$Q$382</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体!$A$1:$Q$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">【リクエストID】_クラス単体テスト!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体テスト!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体テスト!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="614">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -9771,6 +9771,84 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9877,84 +9955,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11414,57 +11414,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="297" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="274" t="s">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="300" t="s">
         <v>560</v>
       </c>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="280" t="s">
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="302"/>
+      <c r="O1" s="306" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="281"/>
-      <c r="Q1" s="281"/>
-      <c r="R1" s="282"/>
-      <c r="S1" s="289" t="s">
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="315" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="290"/>
-      <c r="U1" s="290"/>
-      <c r="V1" s="290"/>
-      <c r="W1" s="290"/>
-      <c r="X1" s="290"/>
-      <c r="Y1" s="290"/>
-      <c r="Z1" s="291"/>
-      <c r="AA1" s="271" t="s">
+      <c r="T1" s="316"/>
+      <c r="U1" s="316"/>
+      <c r="V1" s="316"/>
+      <c r="W1" s="316"/>
+      <c r="X1" s="316"/>
+      <c r="Y1" s="316"/>
+      <c r="Z1" s="317"/>
+      <c r="AA1" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="298" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="324" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="299"/>
-      <c r="AE1" s="299"/>
-      <c r="AF1" s="300"/>
-      <c r="AG1" s="265" t="str">
+      <c r="AD1" s="325"/>
+      <c r="AE1" s="325"/>
+      <c r="AF1" s="326"/>
+      <c r="AG1" s="291" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="292"/>
+      <c r="AI1" s="293"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11472,53 +11472,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="274" t="s">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="300" t="s">
         <v>561</v>
       </c>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="284"/>
-      <c r="Q2" s="284"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="292"/>
-      <c r="T2" s="293"/>
-      <c r="U2" s="293"/>
-      <c r="V2" s="293"/>
-      <c r="W2" s="293"/>
-      <c r="X2" s="293"/>
-      <c r="Y2" s="293"/>
-      <c r="Z2" s="294"/>
-      <c r="AA2" s="271" t="s">
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="310"/>
+      <c r="R2" s="311"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="319"/>
+      <c r="U2" s="319"/>
+      <c r="V2" s="319"/>
+      <c r="W2" s="319"/>
+      <c r="X2" s="319"/>
+      <c r="Y2" s="319"/>
+      <c r="Z2" s="320"/>
+      <c r="AA2" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="277" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="303" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="278"/>
-      <c r="AE2" s="278"/>
-      <c r="AF2" s="279"/>
-      <c r="AG2" s="265" t="str">
+      <c r="AD2" s="304"/>
+      <c r="AE2" s="304"/>
+      <c r="AF2" s="305"/>
+      <c r="AG2" s="291" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="292"/>
+      <c r="AI2" s="293"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11526,45 +11526,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="274" t="s">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="300" t="s">
         <v>562</v>
       </c>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="275"/>
-      <c r="I3" s="275"/>
-      <c r="J3" s="275"/>
-      <c r="K3" s="275"/>
-      <c r="L3" s="275"/>
-      <c r="M3" s="275"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="287"/>
-      <c r="Q3" s="287"/>
-      <c r="R3" s="288"/>
-      <c r="S3" s="295"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="296"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="296"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="296"/>
-      <c r="Z3" s="297"/>
-      <c r="AA3" s="271"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="298"/>
-      <c r="AD3" s="299"/>
-      <c r="AE3" s="299"/>
-      <c r="AF3" s="300"/>
-      <c r="AG3" s="265"/>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="312"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="314"/>
+      <c r="S3" s="321"/>
+      <c r="T3" s="322"/>
+      <c r="U3" s="322"/>
+      <c r="V3" s="322"/>
+      <c r="W3" s="322"/>
+      <c r="X3" s="322"/>
+      <c r="Y3" s="322"/>
+      <c r="Z3" s="323"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="324"/>
+      <c r="AD3" s="325"/>
+      <c r="AE3" s="325"/>
+      <c r="AF3" s="326"/>
+      <c r="AG3" s="291"/>
+      <c r="AH3" s="292"/>
+      <c r="AI3" s="293"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11601,1176 +11601,1020 @@
       <c r="A7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="269"/>
-      <c r="D7" s="268" t="s">
+      <c r="C7" s="295"/>
+      <c r="D7" s="294" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="270"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="268" t="s">
+      <c r="E7" s="296"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="294" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="270"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="268" t="s">
+      <c r="H7" s="296"/>
+      <c r="I7" s="295"/>
+      <c r="J7" s="294" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="269"/>
-      <c r="Q7" s="268" t="s">
+      <c r="K7" s="296"/>
+      <c r="L7" s="296"/>
+      <c r="M7" s="296"/>
+      <c r="N7" s="296"/>
+      <c r="O7" s="296"/>
+      <c r="P7" s="295"/>
+      <c r="Q7" s="294" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="270"/>
-      <c r="X7" s="270"/>
-      <c r="Y7" s="270"/>
-      <c r="Z7" s="270"/>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="270"/>
-      <c r="AC7" s="270"/>
-      <c r="AD7" s="270"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="268" t="s">
+      <c r="R7" s="296"/>
+      <c r="S7" s="296"/>
+      <c r="T7" s="296"/>
+      <c r="U7" s="296"/>
+      <c r="V7" s="296"/>
+      <c r="W7" s="296"/>
+      <c r="X7" s="296"/>
+      <c r="Y7" s="296"/>
+      <c r="Z7" s="296"/>
+      <c r="AA7" s="296"/>
+      <c r="AB7" s="296"/>
+      <c r="AC7" s="296"/>
+      <c r="AD7" s="296"/>
+      <c r="AE7" s="295"/>
+      <c r="AF7" s="294" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="270"/>
-      <c r="AH7" s="270"/>
-      <c r="AI7" s="269"/>
+      <c r="AG7" s="296"/>
+      <c r="AH7" s="296"/>
+      <c r="AI7" s="295"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="315"/>
-      <c r="E8" s="316"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="318"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="314"/>
-      <c r="J8" s="320"/>
-      <c r="K8" s="321"/>
-      <c r="L8" s="321"/>
-      <c r="M8" s="321"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="321"/>
-      <c r="P8" s="322"/>
-      <c r="Q8" s="323"/>
-      <c r="R8" s="324"/>
-      <c r="S8" s="324"/>
-      <c r="T8" s="324"/>
-      <c r="U8" s="324"/>
-      <c r="V8" s="324"/>
-      <c r="W8" s="324"/>
-      <c r="X8" s="324"/>
-      <c r="Y8" s="324"/>
-      <c r="Z8" s="324"/>
-      <c r="AA8" s="324"/>
-      <c r="AB8" s="324"/>
-      <c r="AC8" s="324"/>
-      <c r="AD8" s="324"/>
-      <c r="AE8" s="325"/>
-      <c r="AF8" s="320"/>
-      <c r="AG8" s="321"/>
-      <c r="AH8" s="321"/>
-      <c r="AI8" s="322"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="279"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="281"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
+      <c r="M8" s="286"/>
+      <c r="N8" s="286"/>
+      <c r="O8" s="286"/>
+      <c r="P8" s="287"/>
+      <c r="Q8" s="288"/>
+      <c r="R8" s="289"/>
+      <c r="S8" s="289"/>
+      <c r="T8" s="289"/>
+      <c r="U8" s="289"/>
+      <c r="V8" s="289"/>
+      <c r="W8" s="289"/>
+      <c r="X8" s="289"/>
+      <c r="Y8" s="289"/>
+      <c r="Z8" s="289"/>
+      <c r="AA8" s="289"/>
+      <c r="AB8" s="289"/>
+      <c r="AC8" s="289"/>
+      <c r="AD8" s="289"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="285"/>
+      <c r="AG8" s="286"/>
+      <c r="AH8" s="286"/>
+      <c r="AI8" s="287"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="305"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="306"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="307"/>
-      <c r="K9" s="308"/>
-      <c r="L9" s="308"/>
-      <c r="M9" s="308"/>
-      <c r="N9" s="308"/>
-      <c r="O9" s="308"/>
-      <c r="P9" s="309"/>
-      <c r="Q9" s="310"/>
-      <c r="R9" s="311"/>
-      <c r="S9" s="311"/>
-      <c r="T9" s="311"/>
-      <c r="U9" s="311"/>
-      <c r="V9" s="311"/>
-      <c r="W9" s="311"/>
-      <c r="X9" s="311"/>
-      <c r="Y9" s="311"/>
-      <c r="Z9" s="311"/>
-      <c r="AA9" s="311"/>
-      <c r="AB9" s="311"/>
-      <c r="AC9" s="311"/>
-      <c r="AD9" s="311"/>
-      <c r="AE9" s="312"/>
-      <c r="AF9" s="307"/>
-      <c r="AG9" s="308"/>
-      <c r="AH9" s="308"/>
-      <c r="AI9" s="309"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="270"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="271"/>
+      <c r="K9" s="272"/>
+      <c r="L9" s="272"/>
+      <c r="M9" s="272"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="274"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="275"/>
+      <c r="T9" s="275"/>
+      <c r="U9" s="275"/>
+      <c r="V9" s="275"/>
+      <c r="W9" s="275"/>
+      <c r="X9" s="275"/>
+      <c r="Y9" s="275"/>
+      <c r="Z9" s="275"/>
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="275"/>
+      <c r="AC9" s="275"/>
+      <c r="AD9" s="275"/>
+      <c r="AE9" s="276"/>
+      <c r="AF9" s="271"/>
+      <c r="AG9" s="272"/>
+      <c r="AH9" s="272"/>
+      <c r="AI9" s="273"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="301"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="306"/>
-      <c r="I10" s="302"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="308"/>
-      <c r="L10" s="308"/>
-      <c r="M10" s="308"/>
-      <c r="N10" s="308"/>
-      <c r="O10" s="308"/>
-      <c r="P10" s="309"/>
-      <c r="Q10" s="310"/>
-      <c r="R10" s="311"/>
-      <c r="S10" s="311"/>
-      <c r="T10" s="311"/>
-      <c r="U10" s="311"/>
-      <c r="V10" s="311"/>
-      <c r="W10" s="311"/>
-      <c r="X10" s="311"/>
-      <c r="Y10" s="311"/>
-      <c r="Z10" s="311"/>
-      <c r="AA10" s="311"/>
-      <c r="AB10" s="311"/>
-      <c r="AC10" s="311"/>
-      <c r="AD10" s="311"/>
-      <c r="AE10" s="312"/>
-      <c r="AF10" s="307"/>
-      <c r="AG10" s="308"/>
-      <c r="AH10" s="308"/>
-      <c r="AI10" s="309"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="270"/>
+      <c r="I10" s="266"/>
+      <c r="J10" s="271"/>
+      <c r="K10" s="272"/>
+      <c r="L10" s="272"/>
+      <c r="M10" s="272"/>
+      <c r="N10" s="272"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="273"/>
+      <c r="Q10" s="274"/>
+      <c r="R10" s="275"/>
+      <c r="S10" s="275"/>
+      <c r="T10" s="275"/>
+      <c r="U10" s="275"/>
+      <c r="V10" s="275"/>
+      <c r="W10" s="275"/>
+      <c r="X10" s="275"/>
+      <c r="Y10" s="275"/>
+      <c r="Z10" s="275"/>
+      <c r="AA10" s="275"/>
+      <c r="AB10" s="275"/>
+      <c r="AC10" s="275"/>
+      <c r="AD10" s="275"/>
+      <c r="AE10" s="276"/>
+      <c r="AF10" s="271"/>
+      <c r="AG10" s="272"/>
+      <c r="AH10" s="272"/>
+      <c r="AI10" s="273"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="301"/>
-      <c r="C11" s="302"/>
-      <c r="D11" s="303"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="305"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="306"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="308"/>
-      <c r="L11" s="308"/>
-      <c r="M11" s="308"/>
-      <c r="N11" s="308"/>
-      <c r="O11" s="308"/>
-      <c r="P11" s="309"/>
-      <c r="Q11" s="310"/>
-      <c r="R11" s="311"/>
-      <c r="S11" s="311"/>
-      <c r="T11" s="311"/>
-      <c r="U11" s="311"/>
-      <c r="V11" s="311"/>
-      <c r="W11" s="311"/>
-      <c r="X11" s="311"/>
-      <c r="Y11" s="311"/>
-      <c r="Z11" s="311"/>
-      <c r="AA11" s="311"/>
-      <c r="AB11" s="311"/>
-      <c r="AC11" s="311"/>
-      <c r="AD11" s="311"/>
-      <c r="AE11" s="312"/>
-      <c r="AF11" s="307"/>
-      <c r="AG11" s="308"/>
-      <c r="AH11" s="308"/>
-      <c r="AI11" s="309"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="265"/>
+      <c r="H11" s="270"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="272"/>
+      <c r="N11" s="272"/>
+      <c r="O11" s="272"/>
+      <c r="P11" s="273"/>
+      <c r="Q11" s="274"/>
+      <c r="R11" s="275"/>
+      <c r="S11" s="275"/>
+      <c r="T11" s="275"/>
+      <c r="U11" s="275"/>
+      <c r="V11" s="275"/>
+      <c r="W11" s="275"/>
+      <c r="X11" s="275"/>
+      <c r="Y11" s="275"/>
+      <c r="Z11" s="275"/>
+      <c r="AA11" s="275"/>
+      <c r="AB11" s="275"/>
+      <c r="AC11" s="275"/>
+      <c r="AD11" s="275"/>
+      <c r="AE11" s="276"/>
+      <c r="AF11" s="271"/>
+      <c r="AG11" s="272"/>
+      <c r="AH11" s="272"/>
+      <c r="AI11" s="273"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="301"/>
-      <c r="C12" s="302"/>
-      <c r="D12" s="303"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="305"/>
-      <c r="G12" s="301"/>
-      <c r="H12" s="306"/>
-      <c r="I12" s="302"/>
-      <c r="J12" s="307"/>
-      <c r="K12" s="308"/>
-      <c r="L12" s="308"/>
-      <c r="M12" s="308"/>
-      <c r="N12" s="308"/>
-      <c r="O12" s="308"/>
-      <c r="P12" s="309"/>
-      <c r="Q12" s="310"/>
-      <c r="R12" s="311"/>
-      <c r="S12" s="311"/>
-      <c r="T12" s="311"/>
-      <c r="U12" s="311"/>
-      <c r="V12" s="311"/>
-      <c r="W12" s="311"/>
-      <c r="X12" s="311"/>
-      <c r="Y12" s="311"/>
-      <c r="Z12" s="311"/>
-      <c r="AA12" s="311"/>
-      <c r="AB12" s="311"/>
-      <c r="AC12" s="311"/>
-      <c r="AD12" s="311"/>
-      <c r="AE12" s="312"/>
-      <c r="AF12" s="307"/>
-      <c r="AG12" s="308"/>
-      <c r="AH12" s="308"/>
-      <c r="AI12" s="309"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="269"/>
+      <c r="G12" s="265"/>
+      <c r="H12" s="270"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="271"/>
+      <c r="K12" s="272"/>
+      <c r="L12" s="272"/>
+      <c r="M12" s="272"/>
+      <c r="N12" s="272"/>
+      <c r="O12" s="272"/>
+      <c r="P12" s="273"/>
+      <c r="Q12" s="274"/>
+      <c r="R12" s="275"/>
+      <c r="S12" s="275"/>
+      <c r="T12" s="275"/>
+      <c r="U12" s="275"/>
+      <c r="V12" s="275"/>
+      <c r="W12" s="275"/>
+      <c r="X12" s="275"/>
+      <c r="Y12" s="275"/>
+      <c r="Z12" s="275"/>
+      <c r="AA12" s="275"/>
+      <c r="AB12" s="275"/>
+      <c r="AC12" s="275"/>
+      <c r="AD12" s="275"/>
+      <c r="AE12" s="276"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="272"/>
+      <c r="AH12" s="272"/>
+      <c r="AI12" s="273"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="301"/>
-      <c r="C13" s="302"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="305"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="306"/>
-      <c r="I13" s="302"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="308"/>
-      <c r="M13" s="308"/>
-      <c r="N13" s="308"/>
-      <c r="O13" s="308"/>
-      <c r="P13" s="309"/>
-      <c r="Q13" s="310"/>
-      <c r="R13" s="311"/>
-      <c r="S13" s="311"/>
-      <c r="T13" s="311"/>
-      <c r="U13" s="311"/>
-      <c r="V13" s="311"/>
-      <c r="W13" s="311"/>
-      <c r="X13" s="311"/>
-      <c r="Y13" s="311"/>
-      <c r="Z13" s="311"/>
-      <c r="AA13" s="311"/>
-      <c r="AB13" s="311"/>
-      <c r="AC13" s="311"/>
-      <c r="AD13" s="311"/>
-      <c r="AE13" s="312"/>
-      <c r="AF13" s="307"/>
-      <c r="AG13" s="308"/>
-      <c r="AH13" s="308"/>
-      <c r="AI13" s="309"/>
+      <c r="B13" s="265"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="265"/>
+      <c r="H13" s="270"/>
+      <c r="I13" s="266"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="272"/>
+      <c r="L13" s="272"/>
+      <c r="M13" s="272"/>
+      <c r="N13" s="272"/>
+      <c r="O13" s="272"/>
+      <c r="P13" s="273"/>
+      <c r="Q13" s="274"/>
+      <c r="R13" s="275"/>
+      <c r="S13" s="275"/>
+      <c r="T13" s="275"/>
+      <c r="U13" s="275"/>
+      <c r="V13" s="275"/>
+      <c r="W13" s="275"/>
+      <c r="X13" s="275"/>
+      <c r="Y13" s="275"/>
+      <c r="Z13" s="275"/>
+      <c r="AA13" s="275"/>
+      <c r="AB13" s="275"/>
+      <c r="AC13" s="275"/>
+      <c r="AD13" s="275"/>
+      <c r="AE13" s="276"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="272"/>
+      <c r="AH13" s="272"/>
+      <c r="AI13" s="273"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="301"/>
-      <c r="C14" s="302"/>
-      <c r="D14" s="303"/>
-      <c r="E14" s="304"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="301"/>
-      <c r="H14" s="306"/>
-      <c r="I14" s="302"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="308"/>
-      <c r="L14" s="308"/>
-      <c r="M14" s="308"/>
-      <c r="N14" s="308"/>
-      <c r="O14" s="308"/>
-      <c r="P14" s="309"/>
-      <c r="Q14" s="310"/>
-      <c r="R14" s="311"/>
-      <c r="S14" s="311"/>
-      <c r="T14" s="311"/>
-      <c r="U14" s="311"/>
-      <c r="V14" s="311"/>
-      <c r="W14" s="311"/>
-      <c r="X14" s="311"/>
-      <c r="Y14" s="311"/>
-      <c r="Z14" s="311"/>
-      <c r="AA14" s="311"/>
-      <c r="AB14" s="311"/>
-      <c r="AC14" s="311"/>
-      <c r="AD14" s="311"/>
-      <c r="AE14" s="312"/>
-      <c r="AF14" s="307"/>
-      <c r="AG14" s="308"/>
-      <c r="AH14" s="308"/>
-      <c r="AI14" s="309"/>
+      <c r="B14" s="265"/>
+      <c r="C14" s="266"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="268"/>
+      <c r="F14" s="269"/>
+      <c r="G14" s="265"/>
+      <c r="H14" s="270"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="271"/>
+      <c r="K14" s="272"/>
+      <c r="L14" s="272"/>
+      <c r="M14" s="272"/>
+      <c r="N14" s="272"/>
+      <c r="O14" s="272"/>
+      <c r="P14" s="273"/>
+      <c r="Q14" s="274"/>
+      <c r="R14" s="275"/>
+      <c r="S14" s="275"/>
+      <c r="T14" s="275"/>
+      <c r="U14" s="275"/>
+      <c r="V14" s="275"/>
+      <c r="W14" s="275"/>
+      <c r="X14" s="275"/>
+      <c r="Y14" s="275"/>
+      <c r="Z14" s="275"/>
+      <c r="AA14" s="275"/>
+      <c r="AB14" s="275"/>
+      <c r="AC14" s="275"/>
+      <c r="AD14" s="275"/>
+      <c r="AE14" s="276"/>
+      <c r="AF14" s="271"/>
+      <c r="AG14" s="272"/>
+      <c r="AH14" s="272"/>
+      <c r="AI14" s="273"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="301"/>
-      <c r="C15" s="302"/>
-      <c r="D15" s="303"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="305"/>
-      <c r="G15" s="301"/>
-      <c r="H15" s="306"/>
-      <c r="I15" s="302"/>
-      <c r="J15" s="307"/>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
-      <c r="M15" s="308"/>
-      <c r="N15" s="308"/>
-      <c r="O15" s="308"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="310"/>
-      <c r="R15" s="311"/>
-      <c r="S15" s="311"/>
-      <c r="T15" s="311"/>
-      <c r="U15" s="311"/>
-      <c r="V15" s="311"/>
-      <c r="W15" s="311"/>
-      <c r="X15" s="311"/>
-      <c r="Y15" s="311"/>
-      <c r="Z15" s="311"/>
-      <c r="AA15" s="311"/>
-      <c r="AB15" s="311"/>
-      <c r="AC15" s="311"/>
-      <c r="AD15" s="311"/>
-      <c r="AE15" s="312"/>
-      <c r="AF15" s="307"/>
-      <c r="AG15" s="308"/>
-      <c r="AH15" s="308"/>
-      <c r="AI15" s="309"/>
+      <c r="B15" s="265"/>
+      <c r="C15" s="266"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="269"/>
+      <c r="G15" s="265"/>
+      <c r="H15" s="270"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="271"/>
+      <c r="K15" s="272"/>
+      <c r="L15" s="272"/>
+      <c r="M15" s="272"/>
+      <c r="N15" s="272"/>
+      <c r="O15" s="272"/>
+      <c r="P15" s="273"/>
+      <c r="Q15" s="274"/>
+      <c r="R15" s="275"/>
+      <c r="S15" s="275"/>
+      <c r="T15" s="275"/>
+      <c r="U15" s="275"/>
+      <c r="V15" s="275"/>
+      <c r="W15" s="275"/>
+      <c r="X15" s="275"/>
+      <c r="Y15" s="275"/>
+      <c r="Z15" s="275"/>
+      <c r="AA15" s="275"/>
+      <c r="AB15" s="275"/>
+      <c r="AC15" s="275"/>
+      <c r="AD15" s="275"/>
+      <c r="AE15" s="276"/>
+      <c r="AF15" s="271"/>
+      <c r="AG15" s="272"/>
+      <c r="AH15" s="272"/>
+      <c r="AI15" s="273"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="301"/>
-      <c r="C16" s="302"/>
-      <c r="D16" s="303"/>
-      <c r="E16" s="304"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="301"/>
-      <c r="H16" s="306"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="307"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
-      <c r="M16" s="308"/>
-      <c r="N16" s="308"/>
-      <c r="O16" s="308"/>
-      <c r="P16" s="309"/>
-      <c r="Q16" s="310"/>
-      <c r="R16" s="311"/>
-      <c r="S16" s="311"/>
-      <c r="T16" s="311"/>
-      <c r="U16" s="311"/>
-      <c r="V16" s="311"/>
-      <c r="W16" s="311"/>
-      <c r="X16" s="311"/>
-      <c r="Y16" s="311"/>
-      <c r="Z16" s="311"/>
-      <c r="AA16" s="311"/>
-      <c r="AB16" s="311"/>
-      <c r="AC16" s="311"/>
-      <c r="AD16" s="311"/>
-      <c r="AE16" s="312"/>
-      <c r="AF16" s="307"/>
-      <c r="AG16" s="308"/>
-      <c r="AH16" s="308"/>
-      <c r="AI16" s="309"/>
+      <c r="B16" s="265"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="268"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="265"/>
+      <c r="H16" s="270"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="272"/>
+      <c r="M16" s="272"/>
+      <c r="N16" s="272"/>
+      <c r="O16" s="272"/>
+      <c r="P16" s="273"/>
+      <c r="Q16" s="274"/>
+      <c r="R16" s="275"/>
+      <c r="S16" s="275"/>
+      <c r="T16" s="275"/>
+      <c r="U16" s="275"/>
+      <c r="V16" s="275"/>
+      <c r="W16" s="275"/>
+      <c r="X16" s="275"/>
+      <c r="Y16" s="275"/>
+      <c r="Z16" s="275"/>
+      <c r="AA16" s="275"/>
+      <c r="AB16" s="275"/>
+      <c r="AC16" s="275"/>
+      <c r="AD16" s="275"/>
+      <c r="AE16" s="276"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="272"/>
+      <c r="AH16" s="272"/>
+      <c r="AI16" s="273"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="301"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="304"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="301"/>
-      <c r="H17" s="306"/>
-      <c r="I17" s="302"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="308"/>
-      <c r="L17" s="308"/>
-      <c r="M17" s="308"/>
-      <c r="N17" s="308"/>
-      <c r="O17" s="308"/>
-      <c r="P17" s="309"/>
-      <c r="Q17" s="310"/>
-      <c r="R17" s="311"/>
-      <c r="S17" s="311"/>
-      <c r="T17" s="311"/>
-      <c r="U17" s="311"/>
-      <c r="V17" s="311"/>
-      <c r="W17" s="311"/>
-      <c r="X17" s="311"/>
-      <c r="Y17" s="311"/>
-      <c r="Z17" s="311"/>
-      <c r="AA17" s="311"/>
-      <c r="AB17" s="311"/>
-      <c r="AC17" s="311"/>
-      <c r="AD17" s="311"/>
-      <c r="AE17" s="312"/>
-      <c r="AF17" s="307"/>
-      <c r="AG17" s="308"/>
-      <c r="AH17" s="308"/>
-      <c r="AI17" s="309"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="268"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="265"/>
+      <c r="H17" s="270"/>
+      <c r="I17" s="266"/>
+      <c r="J17" s="271"/>
+      <c r="K17" s="272"/>
+      <c r="L17" s="272"/>
+      <c r="M17" s="272"/>
+      <c r="N17" s="272"/>
+      <c r="O17" s="272"/>
+      <c r="P17" s="273"/>
+      <c r="Q17" s="274"/>
+      <c r="R17" s="275"/>
+      <c r="S17" s="275"/>
+      <c r="T17" s="275"/>
+      <c r="U17" s="275"/>
+      <c r="V17" s="275"/>
+      <c r="W17" s="275"/>
+      <c r="X17" s="275"/>
+      <c r="Y17" s="275"/>
+      <c r="Z17" s="275"/>
+      <c r="AA17" s="275"/>
+      <c r="AB17" s="275"/>
+      <c r="AC17" s="275"/>
+      <c r="AD17" s="275"/>
+      <c r="AE17" s="276"/>
+      <c r="AF17" s="271"/>
+      <c r="AG17" s="272"/>
+      <c r="AH17" s="272"/>
+      <c r="AI17" s="273"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="301"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="303"/>
-      <c r="E18" s="304"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="301"/>
-      <c r="H18" s="306"/>
-      <c r="I18" s="302"/>
-      <c r="J18" s="307"/>
-      <c r="K18" s="308"/>
-      <c r="L18" s="308"/>
-      <c r="M18" s="308"/>
-      <c r="N18" s="308"/>
-      <c r="O18" s="308"/>
-      <c r="P18" s="309"/>
-      <c r="Q18" s="310"/>
-      <c r="R18" s="311"/>
-      <c r="S18" s="311"/>
-      <c r="T18" s="311"/>
-      <c r="U18" s="311"/>
-      <c r="V18" s="311"/>
-      <c r="W18" s="311"/>
-      <c r="X18" s="311"/>
-      <c r="Y18" s="311"/>
-      <c r="Z18" s="311"/>
-      <c r="AA18" s="311"/>
-      <c r="AB18" s="311"/>
-      <c r="AC18" s="311"/>
-      <c r="AD18" s="311"/>
-      <c r="AE18" s="312"/>
-      <c r="AF18" s="307"/>
-      <c r="AG18" s="308"/>
-      <c r="AH18" s="308"/>
-      <c r="AI18" s="309"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="265"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="271"/>
+      <c r="K18" s="272"/>
+      <c r="L18" s="272"/>
+      <c r="M18" s="272"/>
+      <c r="N18" s="272"/>
+      <c r="O18" s="272"/>
+      <c r="P18" s="273"/>
+      <c r="Q18" s="274"/>
+      <c r="R18" s="275"/>
+      <c r="S18" s="275"/>
+      <c r="T18" s="275"/>
+      <c r="U18" s="275"/>
+      <c r="V18" s="275"/>
+      <c r="W18" s="275"/>
+      <c r="X18" s="275"/>
+      <c r="Y18" s="275"/>
+      <c r="Z18" s="275"/>
+      <c r="AA18" s="275"/>
+      <c r="AB18" s="275"/>
+      <c r="AC18" s="275"/>
+      <c r="AD18" s="275"/>
+      <c r="AE18" s="276"/>
+      <c r="AF18" s="271"/>
+      <c r="AG18" s="272"/>
+      <c r="AH18" s="272"/>
+      <c r="AI18" s="273"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="301"/>
-      <c r="C19" s="302"/>
-      <c r="D19" s="303"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="301"/>
-      <c r="H19" s="306"/>
-      <c r="I19" s="302"/>
-      <c r="J19" s="307"/>
-      <c r="K19" s="308"/>
-      <c r="L19" s="308"/>
-      <c r="M19" s="308"/>
-      <c r="N19" s="308"/>
-      <c r="O19" s="308"/>
-      <c r="P19" s="309"/>
-      <c r="Q19" s="310"/>
-      <c r="R19" s="311"/>
-      <c r="S19" s="311"/>
-      <c r="T19" s="311"/>
-      <c r="U19" s="311"/>
-      <c r="V19" s="311"/>
-      <c r="W19" s="311"/>
-      <c r="X19" s="311"/>
-      <c r="Y19" s="311"/>
-      <c r="Z19" s="311"/>
-      <c r="AA19" s="311"/>
-      <c r="AB19" s="311"/>
-      <c r="AC19" s="311"/>
-      <c r="AD19" s="311"/>
-      <c r="AE19" s="312"/>
-      <c r="AF19" s="307"/>
-      <c r="AG19" s="308"/>
-      <c r="AH19" s="308"/>
-      <c r="AI19" s="309"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="268"/>
+      <c r="F19" s="269"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="271"/>
+      <c r="K19" s="272"/>
+      <c r="L19" s="272"/>
+      <c r="M19" s="272"/>
+      <c r="N19" s="272"/>
+      <c r="O19" s="272"/>
+      <c r="P19" s="273"/>
+      <c r="Q19" s="274"/>
+      <c r="R19" s="275"/>
+      <c r="S19" s="275"/>
+      <c r="T19" s="275"/>
+      <c r="U19" s="275"/>
+      <c r="V19" s="275"/>
+      <c r="W19" s="275"/>
+      <c r="X19" s="275"/>
+      <c r="Y19" s="275"/>
+      <c r="Z19" s="275"/>
+      <c r="AA19" s="275"/>
+      <c r="AB19" s="275"/>
+      <c r="AC19" s="275"/>
+      <c r="AD19" s="275"/>
+      <c r="AE19" s="276"/>
+      <c r="AF19" s="271"/>
+      <c r="AG19" s="272"/>
+      <c r="AH19" s="272"/>
+      <c r="AI19" s="273"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="301"/>
-      <c r="C20" s="302"/>
-      <c r="D20" s="303"/>
-      <c r="E20" s="304"/>
-      <c r="F20" s="305"/>
-      <c r="G20" s="301"/>
-      <c r="H20" s="306"/>
-      <c r="I20" s="302"/>
-      <c r="J20" s="307"/>
-      <c r="K20" s="308"/>
-      <c r="L20" s="308"/>
-      <c r="M20" s="308"/>
-      <c r="N20" s="308"/>
-      <c r="O20" s="308"/>
-      <c r="P20" s="309"/>
-      <c r="Q20" s="310"/>
-      <c r="R20" s="311"/>
-      <c r="S20" s="311"/>
-      <c r="T20" s="311"/>
-      <c r="U20" s="311"/>
-      <c r="V20" s="311"/>
-      <c r="W20" s="311"/>
-      <c r="X20" s="311"/>
-      <c r="Y20" s="311"/>
-      <c r="Z20" s="311"/>
-      <c r="AA20" s="311"/>
-      <c r="AB20" s="311"/>
-      <c r="AC20" s="311"/>
-      <c r="AD20" s="311"/>
-      <c r="AE20" s="312"/>
-      <c r="AF20" s="307"/>
-      <c r="AG20" s="308"/>
-      <c r="AH20" s="308"/>
-      <c r="AI20" s="309"/>
+      <c r="B20" s="265"/>
+      <c r="C20" s="266"/>
+      <c r="D20" s="267"/>
+      <c r="E20" s="268"/>
+      <c r="F20" s="269"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="270"/>
+      <c r="I20" s="266"/>
+      <c r="J20" s="271"/>
+      <c r="K20" s="272"/>
+      <c r="L20" s="272"/>
+      <c r="M20" s="272"/>
+      <c r="N20" s="272"/>
+      <c r="O20" s="272"/>
+      <c r="P20" s="273"/>
+      <c r="Q20" s="274"/>
+      <c r="R20" s="275"/>
+      <c r="S20" s="275"/>
+      <c r="T20" s="275"/>
+      <c r="U20" s="275"/>
+      <c r="V20" s="275"/>
+      <c r="W20" s="275"/>
+      <c r="X20" s="275"/>
+      <c r="Y20" s="275"/>
+      <c r="Z20" s="275"/>
+      <c r="AA20" s="275"/>
+      <c r="AB20" s="275"/>
+      <c r="AC20" s="275"/>
+      <c r="AD20" s="275"/>
+      <c r="AE20" s="276"/>
+      <c r="AF20" s="271"/>
+      <c r="AG20" s="272"/>
+      <c r="AH20" s="272"/>
+      <c r="AI20" s="273"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="301"/>
-      <c r="C21" s="302"/>
-      <c r="D21" s="303"/>
-      <c r="E21" s="304"/>
-      <c r="F21" s="305"/>
-      <c r="G21" s="301"/>
-      <c r="H21" s="306"/>
-      <c r="I21" s="302"/>
-      <c r="J21" s="307"/>
-      <c r="K21" s="308"/>
-      <c r="L21" s="308"/>
-      <c r="M21" s="308"/>
-      <c r="N21" s="308"/>
-      <c r="O21" s="308"/>
-      <c r="P21" s="309"/>
-      <c r="Q21" s="310"/>
-      <c r="R21" s="311"/>
-      <c r="S21" s="311"/>
-      <c r="T21" s="311"/>
-      <c r="U21" s="311"/>
-      <c r="V21" s="311"/>
-      <c r="W21" s="311"/>
-      <c r="X21" s="311"/>
-      <c r="Y21" s="311"/>
-      <c r="Z21" s="311"/>
-      <c r="AA21" s="311"/>
-      <c r="AB21" s="311"/>
-      <c r="AC21" s="311"/>
-      <c r="AD21" s="311"/>
-      <c r="AE21" s="312"/>
-      <c r="AF21" s="307"/>
-      <c r="AG21" s="308"/>
-      <c r="AH21" s="308"/>
-      <c r="AI21" s="309"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="266"/>
+      <c r="D21" s="267"/>
+      <c r="E21" s="268"/>
+      <c r="F21" s="269"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="270"/>
+      <c r="I21" s="266"/>
+      <c r="J21" s="271"/>
+      <c r="K21" s="272"/>
+      <c r="L21" s="272"/>
+      <c r="M21" s="272"/>
+      <c r="N21" s="272"/>
+      <c r="O21" s="272"/>
+      <c r="P21" s="273"/>
+      <c r="Q21" s="274"/>
+      <c r="R21" s="275"/>
+      <c r="S21" s="275"/>
+      <c r="T21" s="275"/>
+      <c r="U21" s="275"/>
+      <c r="V21" s="275"/>
+      <c r="W21" s="275"/>
+      <c r="X21" s="275"/>
+      <c r="Y21" s="275"/>
+      <c r="Z21" s="275"/>
+      <c r="AA21" s="275"/>
+      <c r="AB21" s="275"/>
+      <c r="AC21" s="275"/>
+      <c r="AD21" s="275"/>
+      <c r="AE21" s="276"/>
+      <c r="AF21" s="271"/>
+      <c r="AG21" s="272"/>
+      <c r="AH21" s="272"/>
+      <c r="AI21" s="273"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="301"/>
-      <c r="C22" s="302"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="304"/>
-      <c r="F22" s="305"/>
-      <c r="G22" s="301"/>
-      <c r="H22" s="306"/>
-      <c r="I22" s="302"/>
-      <c r="J22" s="307"/>
-      <c r="K22" s="308"/>
-      <c r="L22" s="308"/>
-      <c r="M22" s="308"/>
-      <c r="N22" s="308"/>
-      <c r="O22" s="308"/>
-      <c r="P22" s="309"/>
-      <c r="Q22" s="310"/>
-      <c r="R22" s="311"/>
-      <c r="S22" s="311"/>
-      <c r="T22" s="311"/>
-      <c r="U22" s="311"/>
-      <c r="V22" s="311"/>
-      <c r="W22" s="311"/>
-      <c r="X22" s="311"/>
-      <c r="Y22" s="311"/>
-      <c r="Z22" s="311"/>
-      <c r="AA22" s="311"/>
-      <c r="AB22" s="311"/>
-      <c r="AC22" s="311"/>
-      <c r="AD22" s="311"/>
-      <c r="AE22" s="312"/>
-      <c r="AF22" s="307"/>
-      <c r="AG22" s="308"/>
-      <c r="AH22" s="308"/>
-      <c r="AI22" s="309"/>
+      <c r="B22" s="265"/>
+      <c r="C22" s="266"/>
+      <c r="D22" s="267"/>
+      <c r="E22" s="268"/>
+      <c r="F22" s="269"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="270"/>
+      <c r="I22" s="266"/>
+      <c r="J22" s="271"/>
+      <c r="K22" s="272"/>
+      <c r="L22" s="272"/>
+      <c r="M22" s="272"/>
+      <c r="N22" s="272"/>
+      <c r="O22" s="272"/>
+      <c r="P22" s="273"/>
+      <c r="Q22" s="274"/>
+      <c r="R22" s="275"/>
+      <c r="S22" s="275"/>
+      <c r="T22" s="275"/>
+      <c r="U22" s="275"/>
+      <c r="V22" s="275"/>
+      <c r="W22" s="275"/>
+      <c r="X22" s="275"/>
+      <c r="Y22" s="275"/>
+      <c r="Z22" s="275"/>
+      <c r="AA22" s="275"/>
+      <c r="AB22" s="275"/>
+      <c r="AC22" s="275"/>
+      <c r="AD22" s="275"/>
+      <c r="AE22" s="276"/>
+      <c r="AF22" s="271"/>
+      <c r="AG22" s="272"/>
+      <c r="AH22" s="272"/>
+      <c r="AI22" s="273"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="301"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="305"/>
-      <c r="G23" s="301"/>
-      <c r="H23" s="306"/>
-      <c r="I23" s="302"/>
-      <c r="J23" s="307"/>
-      <c r="K23" s="308"/>
-      <c r="L23" s="308"/>
-      <c r="M23" s="308"/>
-      <c r="N23" s="308"/>
-      <c r="O23" s="308"/>
-      <c r="P23" s="309"/>
-      <c r="Q23" s="310"/>
-      <c r="R23" s="311"/>
-      <c r="S23" s="311"/>
-      <c r="T23" s="311"/>
-      <c r="U23" s="311"/>
-      <c r="V23" s="311"/>
-      <c r="W23" s="311"/>
-      <c r="X23" s="311"/>
-      <c r="Y23" s="311"/>
-      <c r="Z23" s="311"/>
-      <c r="AA23" s="311"/>
-      <c r="AB23" s="311"/>
-      <c r="AC23" s="311"/>
-      <c r="AD23" s="311"/>
-      <c r="AE23" s="312"/>
-      <c r="AF23" s="307"/>
-      <c r="AG23" s="308"/>
-      <c r="AH23" s="308"/>
-      <c r="AI23" s="309"/>
+      <c r="B23" s="265"/>
+      <c r="C23" s="266"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="268"/>
+      <c r="F23" s="269"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="271"/>
+      <c r="K23" s="272"/>
+      <c r="L23" s="272"/>
+      <c r="M23" s="272"/>
+      <c r="N23" s="272"/>
+      <c r="O23" s="272"/>
+      <c r="P23" s="273"/>
+      <c r="Q23" s="274"/>
+      <c r="R23" s="275"/>
+      <c r="S23" s="275"/>
+      <c r="T23" s="275"/>
+      <c r="U23" s="275"/>
+      <c r="V23" s="275"/>
+      <c r="W23" s="275"/>
+      <c r="X23" s="275"/>
+      <c r="Y23" s="275"/>
+      <c r="Z23" s="275"/>
+      <c r="AA23" s="275"/>
+      <c r="AB23" s="275"/>
+      <c r="AC23" s="275"/>
+      <c r="AD23" s="275"/>
+      <c r="AE23" s="276"/>
+      <c r="AF23" s="271"/>
+      <c r="AG23" s="272"/>
+      <c r="AH23" s="272"/>
+      <c r="AI23" s="273"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="301"/>
-      <c r="C24" s="302"/>
-      <c r="D24" s="303"/>
-      <c r="E24" s="304"/>
-      <c r="F24" s="305"/>
-      <c r="G24" s="301"/>
-      <c r="H24" s="306"/>
-      <c r="I24" s="302"/>
-      <c r="J24" s="307"/>
-      <c r="K24" s="308"/>
-      <c r="L24" s="308"/>
-      <c r="M24" s="308"/>
-      <c r="N24" s="308"/>
-      <c r="O24" s="308"/>
-      <c r="P24" s="309"/>
-      <c r="Q24" s="310"/>
-      <c r="R24" s="311"/>
-      <c r="S24" s="311"/>
-      <c r="T24" s="311"/>
-      <c r="U24" s="311"/>
-      <c r="V24" s="311"/>
-      <c r="W24" s="311"/>
-      <c r="X24" s="311"/>
-      <c r="Y24" s="311"/>
-      <c r="Z24" s="311"/>
-      <c r="AA24" s="311"/>
-      <c r="AB24" s="311"/>
-      <c r="AC24" s="311"/>
-      <c r="AD24" s="311"/>
-      <c r="AE24" s="312"/>
-      <c r="AF24" s="307"/>
-      <c r="AG24" s="308"/>
-      <c r="AH24" s="308"/>
-      <c r="AI24" s="309"/>
+      <c r="B24" s="265"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="268"/>
+      <c r="F24" s="269"/>
+      <c r="G24" s="265"/>
+      <c r="H24" s="270"/>
+      <c r="I24" s="266"/>
+      <c r="J24" s="271"/>
+      <c r="K24" s="272"/>
+      <c r="L24" s="272"/>
+      <c r="M24" s="272"/>
+      <c r="N24" s="272"/>
+      <c r="O24" s="272"/>
+      <c r="P24" s="273"/>
+      <c r="Q24" s="274"/>
+      <c r="R24" s="275"/>
+      <c r="S24" s="275"/>
+      <c r="T24" s="275"/>
+      <c r="U24" s="275"/>
+      <c r="V24" s="275"/>
+      <c r="W24" s="275"/>
+      <c r="X24" s="275"/>
+      <c r="Y24" s="275"/>
+      <c r="Z24" s="275"/>
+      <c r="AA24" s="275"/>
+      <c r="AB24" s="275"/>
+      <c r="AC24" s="275"/>
+      <c r="AD24" s="275"/>
+      <c r="AE24" s="276"/>
+      <c r="AF24" s="271"/>
+      <c r="AG24" s="272"/>
+      <c r="AH24" s="272"/>
+      <c r="AI24" s="273"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="301"/>
-      <c r="C25" s="302"/>
-      <c r="D25" s="303"/>
-      <c r="E25" s="304"/>
-      <c r="F25" s="305"/>
-      <c r="G25" s="301"/>
-      <c r="H25" s="306"/>
-      <c r="I25" s="302"/>
-      <c r="J25" s="307"/>
-      <c r="K25" s="308"/>
-      <c r="L25" s="308"/>
-      <c r="M25" s="308"/>
-      <c r="N25" s="308"/>
-      <c r="O25" s="308"/>
-      <c r="P25" s="309"/>
-      <c r="Q25" s="310"/>
-      <c r="R25" s="311"/>
-      <c r="S25" s="311"/>
-      <c r="T25" s="311"/>
-      <c r="U25" s="311"/>
-      <c r="V25" s="311"/>
-      <c r="W25" s="311"/>
-      <c r="X25" s="311"/>
-      <c r="Y25" s="311"/>
-      <c r="Z25" s="311"/>
-      <c r="AA25" s="311"/>
-      <c r="AB25" s="311"/>
-      <c r="AC25" s="311"/>
-      <c r="AD25" s="311"/>
-      <c r="AE25" s="312"/>
-      <c r="AF25" s="307"/>
-      <c r="AG25" s="308"/>
-      <c r="AH25" s="308"/>
-      <c r="AI25" s="309"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="266"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="268"/>
+      <c r="F25" s="269"/>
+      <c r="G25" s="265"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="271"/>
+      <c r="K25" s="272"/>
+      <c r="L25" s="272"/>
+      <c r="M25" s="272"/>
+      <c r="N25" s="272"/>
+      <c r="O25" s="272"/>
+      <c r="P25" s="273"/>
+      <c r="Q25" s="274"/>
+      <c r="R25" s="275"/>
+      <c r="S25" s="275"/>
+      <c r="T25" s="275"/>
+      <c r="U25" s="275"/>
+      <c r="V25" s="275"/>
+      <c r="W25" s="275"/>
+      <c r="X25" s="275"/>
+      <c r="Y25" s="275"/>
+      <c r="Z25" s="275"/>
+      <c r="AA25" s="275"/>
+      <c r="AB25" s="275"/>
+      <c r="AC25" s="275"/>
+      <c r="AD25" s="275"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="271"/>
+      <c r="AG25" s="272"/>
+      <c r="AH25" s="272"/>
+      <c r="AI25" s="273"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="301"/>
-      <c r="C26" s="302"/>
-      <c r="D26" s="303"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="301"/>
-      <c r="H26" s="306"/>
-      <c r="I26" s="302"/>
-      <c r="J26" s="307"/>
-      <c r="K26" s="308"/>
-      <c r="L26" s="308"/>
-      <c r="M26" s="308"/>
-      <c r="N26" s="308"/>
-      <c r="O26" s="308"/>
-      <c r="P26" s="309"/>
-      <c r="Q26" s="310"/>
-      <c r="R26" s="311"/>
-      <c r="S26" s="311"/>
-      <c r="T26" s="311"/>
-      <c r="U26" s="311"/>
-      <c r="V26" s="311"/>
-      <c r="W26" s="311"/>
-      <c r="X26" s="311"/>
-      <c r="Y26" s="311"/>
-      <c r="Z26" s="311"/>
-      <c r="AA26" s="311"/>
-      <c r="AB26" s="311"/>
-      <c r="AC26" s="311"/>
-      <c r="AD26" s="311"/>
-      <c r="AE26" s="312"/>
-      <c r="AF26" s="307"/>
-      <c r="AG26" s="308"/>
-      <c r="AH26" s="308"/>
-      <c r="AI26" s="309"/>
+      <c r="B26" s="265"/>
+      <c r="C26" s="266"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="268"/>
+      <c r="F26" s="269"/>
+      <c r="G26" s="265"/>
+      <c r="H26" s="270"/>
+      <c r="I26" s="266"/>
+      <c r="J26" s="271"/>
+      <c r="K26" s="272"/>
+      <c r="L26" s="272"/>
+      <c r="M26" s="272"/>
+      <c r="N26" s="272"/>
+      <c r="O26" s="272"/>
+      <c r="P26" s="273"/>
+      <c r="Q26" s="274"/>
+      <c r="R26" s="275"/>
+      <c r="S26" s="275"/>
+      <c r="T26" s="275"/>
+      <c r="U26" s="275"/>
+      <c r="V26" s="275"/>
+      <c r="W26" s="275"/>
+      <c r="X26" s="275"/>
+      <c r="Y26" s="275"/>
+      <c r="Z26" s="275"/>
+      <c r="AA26" s="275"/>
+      <c r="AB26" s="275"/>
+      <c r="AC26" s="275"/>
+      <c r="AD26" s="275"/>
+      <c r="AE26" s="276"/>
+      <c r="AF26" s="271"/>
+      <c r="AG26" s="272"/>
+      <c r="AH26" s="272"/>
+      <c r="AI26" s="273"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="301"/>
-      <c r="C27" s="302"/>
-      <c r="D27" s="303"/>
-      <c r="E27" s="304"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="301"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="302"/>
-      <c r="J27" s="307"/>
-      <c r="K27" s="308"/>
-      <c r="L27" s="308"/>
-      <c r="M27" s="308"/>
-      <c r="N27" s="308"/>
-      <c r="O27" s="308"/>
-      <c r="P27" s="309"/>
-      <c r="Q27" s="310"/>
-      <c r="R27" s="311"/>
-      <c r="S27" s="311"/>
-      <c r="T27" s="311"/>
-      <c r="U27" s="311"/>
-      <c r="V27" s="311"/>
-      <c r="W27" s="311"/>
-      <c r="X27" s="311"/>
-      <c r="Y27" s="311"/>
-      <c r="Z27" s="311"/>
-      <c r="AA27" s="311"/>
-      <c r="AB27" s="311"/>
-      <c r="AC27" s="311"/>
-      <c r="AD27" s="311"/>
-      <c r="AE27" s="312"/>
-      <c r="AF27" s="307"/>
-      <c r="AG27" s="308"/>
-      <c r="AH27" s="308"/>
-      <c r="AI27" s="309"/>
+      <c r="B27" s="265"/>
+      <c r="C27" s="266"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="269"/>
+      <c r="G27" s="265"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="266"/>
+      <c r="J27" s="271"/>
+      <c r="K27" s="272"/>
+      <c r="L27" s="272"/>
+      <c r="M27" s="272"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="272"/>
+      <c r="P27" s="273"/>
+      <c r="Q27" s="274"/>
+      <c r="R27" s="275"/>
+      <c r="S27" s="275"/>
+      <c r="T27" s="275"/>
+      <c r="U27" s="275"/>
+      <c r="V27" s="275"/>
+      <c r="W27" s="275"/>
+      <c r="X27" s="275"/>
+      <c r="Y27" s="275"/>
+      <c r="Z27" s="275"/>
+      <c r="AA27" s="275"/>
+      <c r="AB27" s="275"/>
+      <c r="AC27" s="275"/>
+      <c r="AD27" s="275"/>
+      <c r="AE27" s="276"/>
+      <c r="AF27" s="271"/>
+      <c r="AG27" s="272"/>
+      <c r="AH27" s="272"/>
+      <c r="AI27" s="273"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="301"/>
-      <c r="C28" s="302"/>
-      <c r="D28" s="303"/>
-      <c r="E28" s="304"/>
-      <c r="F28" s="305"/>
-      <c r="G28" s="301"/>
-      <c r="H28" s="306"/>
-      <c r="I28" s="302"/>
-      <c r="J28" s="307"/>
-      <c r="K28" s="308"/>
-      <c r="L28" s="308"/>
-      <c r="M28" s="308"/>
-      <c r="N28" s="308"/>
-      <c r="O28" s="308"/>
-      <c r="P28" s="309"/>
-      <c r="Q28" s="310"/>
-      <c r="R28" s="311"/>
-      <c r="S28" s="311"/>
-      <c r="T28" s="311"/>
-      <c r="U28" s="311"/>
-      <c r="V28" s="311"/>
-      <c r="W28" s="311"/>
-      <c r="X28" s="311"/>
-      <c r="Y28" s="311"/>
-      <c r="Z28" s="311"/>
-      <c r="AA28" s="311"/>
-      <c r="AB28" s="311"/>
-      <c r="AC28" s="311"/>
-      <c r="AD28" s="311"/>
-      <c r="AE28" s="312"/>
-      <c r="AF28" s="307"/>
-      <c r="AG28" s="308"/>
-      <c r="AH28" s="308"/>
-      <c r="AI28" s="309"/>
+      <c r="B28" s="265"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="268"/>
+      <c r="F28" s="269"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="270"/>
+      <c r="I28" s="266"/>
+      <c r="J28" s="271"/>
+      <c r="K28" s="272"/>
+      <c r="L28" s="272"/>
+      <c r="M28" s="272"/>
+      <c r="N28" s="272"/>
+      <c r="O28" s="272"/>
+      <c r="P28" s="273"/>
+      <c r="Q28" s="274"/>
+      <c r="R28" s="275"/>
+      <c r="S28" s="275"/>
+      <c r="T28" s="275"/>
+      <c r="U28" s="275"/>
+      <c r="V28" s="275"/>
+      <c r="W28" s="275"/>
+      <c r="X28" s="275"/>
+      <c r="Y28" s="275"/>
+      <c r="Z28" s="275"/>
+      <c r="AA28" s="275"/>
+      <c r="AB28" s="275"/>
+      <c r="AC28" s="275"/>
+      <c r="AD28" s="275"/>
+      <c r="AE28" s="276"/>
+      <c r="AF28" s="271"/>
+      <c r="AG28" s="272"/>
+      <c r="AH28" s="272"/>
+      <c r="AI28" s="273"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="301"/>
-      <c r="C29" s="302"/>
-      <c r="D29" s="303"/>
-      <c r="E29" s="304"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="301"/>
-      <c r="H29" s="306"/>
-      <c r="I29" s="302"/>
-      <c r="J29" s="307"/>
-      <c r="K29" s="308"/>
-      <c r="L29" s="308"/>
-      <c r="M29" s="308"/>
-      <c r="N29" s="308"/>
-      <c r="O29" s="308"/>
-      <c r="P29" s="309"/>
-      <c r="Q29" s="310"/>
-      <c r="R29" s="311"/>
-      <c r="S29" s="311"/>
-      <c r="T29" s="311"/>
-      <c r="U29" s="311"/>
-      <c r="V29" s="311"/>
-      <c r="W29" s="311"/>
-      <c r="X29" s="311"/>
-      <c r="Y29" s="311"/>
-      <c r="Z29" s="311"/>
-      <c r="AA29" s="311"/>
-      <c r="AB29" s="311"/>
-      <c r="AC29" s="311"/>
-      <c r="AD29" s="311"/>
-      <c r="AE29" s="312"/>
-      <c r="AF29" s="307"/>
-      <c r="AG29" s="308"/>
-      <c r="AH29" s="308"/>
-      <c r="AI29" s="309"/>
+      <c r="B29" s="265"/>
+      <c r="C29" s="266"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="268"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="265"/>
+      <c r="H29" s="270"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="271"/>
+      <c r="K29" s="272"/>
+      <c r="L29" s="272"/>
+      <c r="M29" s="272"/>
+      <c r="N29" s="272"/>
+      <c r="O29" s="272"/>
+      <c r="P29" s="273"/>
+      <c r="Q29" s="274"/>
+      <c r="R29" s="275"/>
+      <c r="S29" s="275"/>
+      <c r="T29" s="275"/>
+      <c r="U29" s="275"/>
+      <c r="V29" s="275"/>
+      <c r="W29" s="275"/>
+      <c r="X29" s="275"/>
+      <c r="Y29" s="275"/>
+      <c r="Z29" s="275"/>
+      <c r="AA29" s="275"/>
+      <c r="AB29" s="275"/>
+      <c r="AC29" s="275"/>
+      <c r="AD29" s="275"/>
+      <c r="AE29" s="276"/>
+      <c r="AF29" s="271"/>
+      <c r="AG29" s="272"/>
+      <c r="AH29" s="272"/>
+      <c r="AI29" s="273"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="301"/>
-      <c r="C30" s="302"/>
-      <c r="D30" s="303"/>
-      <c r="E30" s="304"/>
-      <c r="F30" s="305"/>
-      <c r="G30" s="301"/>
-      <c r="H30" s="306"/>
-      <c r="I30" s="302"/>
-      <c r="J30" s="307"/>
-      <c r="K30" s="308"/>
-      <c r="L30" s="308"/>
-      <c r="M30" s="308"/>
-      <c r="N30" s="308"/>
-      <c r="O30" s="308"/>
-      <c r="P30" s="309"/>
-      <c r="Q30" s="310"/>
-      <c r="R30" s="311"/>
-      <c r="S30" s="311"/>
-      <c r="T30" s="311"/>
-      <c r="U30" s="311"/>
-      <c r="V30" s="311"/>
-      <c r="W30" s="311"/>
-      <c r="X30" s="311"/>
-      <c r="Y30" s="311"/>
-      <c r="Z30" s="311"/>
-      <c r="AA30" s="311"/>
-      <c r="AB30" s="311"/>
-      <c r="AC30" s="311"/>
-      <c r="AD30" s="311"/>
-      <c r="AE30" s="312"/>
-      <c r="AF30" s="307"/>
-      <c r="AG30" s="308"/>
-      <c r="AH30" s="308"/>
-      <c r="AI30" s="309"/>
+      <c r="B30" s="265"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="268"/>
+      <c r="F30" s="269"/>
+      <c r="G30" s="265"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="266"/>
+      <c r="J30" s="271"/>
+      <c r="K30" s="272"/>
+      <c r="L30" s="272"/>
+      <c r="M30" s="272"/>
+      <c r="N30" s="272"/>
+      <c r="O30" s="272"/>
+      <c r="P30" s="273"/>
+      <c r="Q30" s="274"/>
+      <c r="R30" s="275"/>
+      <c r="S30" s="275"/>
+      <c r="T30" s="275"/>
+      <c r="U30" s="275"/>
+      <c r="V30" s="275"/>
+      <c r="W30" s="275"/>
+      <c r="X30" s="275"/>
+      <c r="Y30" s="275"/>
+      <c r="Z30" s="275"/>
+      <c r="AA30" s="275"/>
+      <c r="AB30" s="275"/>
+      <c r="AC30" s="275"/>
+      <c r="AD30" s="275"/>
+      <c r="AE30" s="276"/>
+      <c r="AF30" s="271"/>
+      <c r="AG30" s="272"/>
+      <c r="AH30" s="272"/>
+      <c r="AI30" s="273"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="301"/>
-      <c r="C31" s="302"/>
-      <c r="D31" s="303"/>
-      <c r="E31" s="304"/>
-      <c r="F31" s="305"/>
-      <c r="G31" s="301"/>
-      <c r="H31" s="306"/>
-      <c r="I31" s="302"/>
-      <c r="J31" s="307"/>
-      <c r="K31" s="308"/>
-      <c r="L31" s="308"/>
-      <c r="M31" s="308"/>
-      <c r="N31" s="308"/>
-      <c r="O31" s="308"/>
-      <c r="P31" s="309"/>
-      <c r="Q31" s="310"/>
-      <c r="R31" s="311"/>
-      <c r="S31" s="311"/>
-      <c r="T31" s="311"/>
-      <c r="U31" s="311"/>
-      <c r="V31" s="311"/>
-      <c r="W31" s="311"/>
-      <c r="X31" s="311"/>
-      <c r="Y31" s="311"/>
-      <c r="Z31" s="311"/>
-      <c r="AA31" s="311"/>
-      <c r="AB31" s="311"/>
-      <c r="AC31" s="311"/>
-      <c r="AD31" s="311"/>
-      <c r="AE31" s="312"/>
-      <c r="AF31" s="307"/>
-      <c r="AG31" s="308"/>
-      <c r="AH31" s="308"/>
-      <c r="AI31" s="309"/>
+      <c r="B31" s="265"/>
+      <c r="C31" s="266"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="265"/>
+      <c r="H31" s="270"/>
+      <c r="I31" s="266"/>
+      <c r="J31" s="271"/>
+      <c r="K31" s="272"/>
+      <c r="L31" s="272"/>
+      <c r="M31" s="272"/>
+      <c r="N31" s="272"/>
+      <c r="O31" s="272"/>
+      <c r="P31" s="273"/>
+      <c r="Q31" s="274"/>
+      <c r="R31" s="275"/>
+      <c r="S31" s="275"/>
+      <c r="T31" s="275"/>
+      <c r="U31" s="275"/>
+      <c r="V31" s="275"/>
+      <c r="W31" s="275"/>
+      <c r="X31" s="275"/>
+      <c r="Y31" s="275"/>
+      <c r="Z31" s="275"/>
+      <c r="AA31" s="275"/>
+      <c r="AB31" s="275"/>
+      <c r="AC31" s="275"/>
+      <c r="AD31" s="275"/>
+      <c r="AE31" s="276"/>
+      <c r="AF31" s="271"/>
+      <c r="AG31" s="272"/>
+      <c r="AH31" s="272"/>
+      <c r="AI31" s="273"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="301"/>
-      <c r="C32" s="302"/>
-      <c r="D32" s="303"/>
-      <c r="E32" s="304"/>
-      <c r="F32" s="305"/>
-      <c r="G32" s="301"/>
-      <c r="H32" s="306"/>
-      <c r="I32" s="302"/>
-      <c r="J32" s="307"/>
-      <c r="K32" s="326"/>
-      <c r="L32" s="308"/>
-      <c r="M32" s="308"/>
-      <c r="N32" s="308"/>
-      <c r="O32" s="308"/>
-      <c r="P32" s="309"/>
-      <c r="Q32" s="310"/>
-      <c r="R32" s="311"/>
-      <c r="S32" s="311"/>
-      <c r="T32" s="311"/>
-      <c r="U32" s="311"/>
-      <c r="V32" s="311"/>
-      <c r="W32" s="311"/>
-      <c r="X32" s="311"/>
-      <c r="Y32" s="311"/>
-      <c r="Z32" s="311"/>
-      <c r="AA32" s="311"/>
-      <c r="AB32" s="311"/>
-      <c r="AC32" s="311"/>
-      <c r="AD32" s="311"/>
-      <c r="AE32" s="312"/>
-      <c r="AF32" s="307"/>
-      <c r="AG32" s="308"/>
-      <c r="AH32" s="308"/>
-      <c r="AI32" s="309"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="268"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="265"/>
+      <c r="H32" s="270"/>
+      <c r="I32" s="266"/>
+      <c r="J32" s="271"/>
+      <c r="K32" s="277"/>
+      <c r="L32" s="272"/>
+      <c r="M32" s="272"/>
+      <c r="N32" s="272"/>
+      <c r="O32" s="272"/>
+      <c r="P32" s="273"/>
+      <c r="Q32" s="274"/>
+      <c r="R32" s="275"/>
+      <c r="S32" s="275"/>
+      <c r="T32" s="275"/>
+      <c r="U32" s="275"/>
+      <c r="V32" s="275"/>
+      <c r="W32" s="275"/>
+      <c r="X32" s="275"/>
+      <c r="Y32" s="275"/>
+      <c r="Z32" s="275"/>
+      <c r="AA32" s="275"/>
+      <c r="AB32" s="275"/>
+      <c r="AC32" s="275"/>
+      <c r="AD32" s="275"/>
+      <c r="AE32" s="276"/>
+      <c r="AF32" s="271"/>
+      <c r="AG32" s="272"/>
+      <c r="AH32" s="272"/>
+      <c r="AI32" s="273"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="301"/>
-      <c r="C33" s="302"/>
-      <c r="D33" s="303"/>
-      <c r="E33" s="304"/>
-      <c r="F33" s="305"/>
-      <c r="G33" s="301"/>
-      <c r="H33" s="306"/>
-      <c r="I33" s="302"/>
-      <c r="J33" s="307"/>
-      <c r="K33" s="308"/>
-      <c r="L33" s="308"/>
-      <c r="M33" s="308"/>
-      <c r="N33" s="308"/>
-      <c r="O33" s="308"/>
-      <c r="P33" s="309"/>
-      <c r="Q33" s="310"/>
-      <c r="R33" s="311"/>
-      <c r="S33" s="311"/>
-      <c r="T33" s="311"/>
-      <c r="U33" s="311"/>
-      <c r="V33" s="311"/>
-      <c r="W33" s="311"/>
-      <c r="X33" s="311"/>
-      <c r="Y33" s="311"/>
-      <c r="Z33" s="311"/>
-      <c r="AA33" s="311"/>
-      <c r="AB33" s="311"/>
-      <c r="AC33" s="311"/>
-      <c r="AD33" s="311"/>
-      <c r="AE33" s="312"/>
-      <c r="AF33" s="307"/>
-      <c r="AG33" s="308"/>
-      <c r="AH33" s="308"/>
-      <c r="AI33" s="309"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="265"/>
+      <c r="H33" s="270"/>
+      <c r="I33" s="266"/>
+      <c r="J33" s="271"/>
+      <c r="K33" s="272"/>
+      <c r="L33" s="272"/>
+      <c r="M33" s="272"/>
+      <c r="N33" s="272"/>
+      <c r="O33" s="272"/>
+      <c r="P33" s="273"/>
+      <c r="Q33" s="274"/>
+      <c r="R33" s="275"/>
+      <c r="S33" s="275"/>
+      <c r="T33" s="275"/>
+      <c r="U33" s="275"/>
+      <c r="V33" s="275"/>
+      <c r="W33" s="275"/>
+      <c r="X33" s="275"/>
+      <c r="Y33" s="275"/>
+      <c r="Z33" s="275"/>
+      <c r="AA33" s="275"/>
+      <c r="AB33" s="275"/>
+      <c r="AC33" s="275"/>
+      <c r="AD33" s="275"/>
+      <c r="AE33" s="276"/>
+      <c r="AF33" s="271"/>
+      <c r="AG33" s="272"/>
+      <c r="AH33" s="272"/>
+      <c r="AI33" s="273"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12794,6 +12638,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -22945,7 +22945,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N7" s="25" t="s">
         <v>21</v>
@@ -22955,9 +22955,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="11.5" thickBot="1">
-      <c r="A8" s="27" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="27"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ADDB74-CA26-41AF-8C5E-70CA7ED2F73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B8A55E-19D2-4617-AFD2-C491B965F55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9632,84 +9632,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9816,6 +9738,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11275,57 +11275,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="265" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="268" t="s">
         <v>551</v>
       </c>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="300" t="s">
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="301"/>
-      <c r="R1" s="302"/>
-      <c r="S1" s="309" t="s">
+      <c r="P1" s="275"/>
+      <c r="Q1" s="275"/>
+      <c r="R1" s="276"/>
+      <c r="S1" s="283" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="310"/>
-      <c r="U1" s="310"/>
-      <c r="V1" s="310"/>
-      <c r="W1" s="310"/>
-      <c r="X1" s="310"/>
-      <c r="Y1" s="310"/>
-      <c r="Z1" s="311"/>
-      <c r="AA1" s="291" t="s">
+      <c r="T1" s="284"/>
+      <c r="U1" s="284"/>
+      <c r="V1" s="284"/>
+      <c r="W1" s="284"/>
+      <c r="X1" s="284"/>
+      <c r="Y1" s="284"/>
+      <c r="Z1" s="285"/>
+      <c r="AA1" s="265" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="318" t="str">
+      <c r="AB1" s="267"/>
+      <c r="AC1" s="292" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="319"/>
-      <c r="AE1" s="319"/>
-      <c r="AF1" s="320"/>
-      <c r="AG1" s="285" t="str">
+      <c r="AD1" s="293"/>
+      <c r="AE1" s="293"/>
+      <c r="AF1" s="294"/>
+      <c r="AG1" s="259" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="286"/>
-      <c r="AI1" s="287"/>
+      <c r="AH1" s="260"/>
+      <c r="AI1" s="261"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11333,53 +11333,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="294" t="s">
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="268" t="s">
         <v>552</v>
       </c>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
-      <c r="L2" s="295"/>
-      <c r="M2" s="295"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="303"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="305"/>
-      <c r="S2" s="312"/>
-      <c r="T2" s="313"/>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="314"/>
-      <c r="AA2" s="291" t="s">
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
+      <c r="R2" s="279"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="287"/>
+      <c r="U2" s="287"/>
+      <c r="V2" s="287"/>
+      <c r="W2" s="287"/>
+      <c r="X2" s="287"/>
+      <c r="Y2" s="287"/>
+      <c r="Z2" s="288"/>
+      <c r="AA2" s="265" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="293"/>
-      <c r="AC2" s="297" t="str">
+      <c r="AB2" s="267"/>
+      <c r="AC2" s="271" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="298"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="285" t="str">
+      <c r="AD2" s="272"/>
+      <c r="AE2" s="272"/>
+      <c r="AF2" s="273"/>
+      <c r="AG2" s="259" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="286"/>
-      <c r="AI2" s="287"/>
+      <c r="AH2" s="260"/>
+      <c r="AI2" s="261"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11387,45 +11387,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="265" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="294" t="s">
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="268" t="s">
         <v>553</v>
       </c>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="295"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="306"/>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="307"/>
-      <c r="R3" s="308"/>
-      <c r="S3" s="315"/>
-      <c r="T3" s="316"/>
-      <c r="U3" s="316"/>
-      <c r="V3" s="316"/>
-      <c r="W3" s="316"/>
-      <c r="X3" s="316"/>
-      <c r="Y3" s="316"/>
-      <c r="Z3" s="317"/>
-      <c r="AA3" s="291"/>
-      <c r="AB3" s="293"/>
-      <c r="AC3" s="318"/>
-      <c r="AD3" s="319"/>
-      <c r="AE3" s="319"/>
-      <c r="AF3" s="320"/>
-      <c r="AG3" s="285"/>
-      <c r="AH3" s="286"/>
-      <c r="AI3" s="287"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="270"/>
+      <c r="O3" s="280"/>
+      <c r="P3" s="281"/>
+      <c r="Q3" s="281"/>
+      <c r="R3" s="282"/>
+      <c r="S3" s="289"/>
+      <c r="T3" s="290"/>
+      <c r="U3" s="290"/>
+      <c r="V3" s="290"/>
+      <c r="W3" s="290"/>
+      <c r="X3" s="290"/>
+      <c r="Y3" s="290"/>
+      <c r="Z3" s="291"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="267"/>
+      <c r="AC3" s="292"/>
+      <c r="AD3" s="293"/>
+      <c r="AE3" s="293"/>
+      <c r="AF3" s="294"/>
+      <c r="AG3" s="259"/>
+      <c r="AH3" s="260"/>
+      <c r="AI3" s="261"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11462,1020 +11462,1176 @@
       <c r="A7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="288" t="s">
+      <c r="B7" s="262" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="289"/>
-      <c r="D7" s="288" t="s">
+      <c r="C7" s="263"/>
+      <c r="D7" s="262" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="290"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="288" t="s">
+      <c r="E7" s="264"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="262" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="290"/>
-      <c r="I7" s="289"/>
-      <c r="J7" s="288" t="s">
+      <c r="H7" s="264"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="262" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="290"/>
-      <c r="L7" s="290"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="290"/>
-      <c r="O7" s="290"/>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="288" t="s">
+      <c r="K7" s="264"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="264"/>
+      <c r="N7" s="264"/>
+      <c r="O7" s="264"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="290"/>
-      <c r="S7" s="290"/>
-      <c r="T7" s="290"/>
-      <c r="U7" s="290"/>
-      <c r="V7" s="290"/>
-      <c r="W7" s="290"/>
-      <c r="X7" s="290"/>
-      <c r="Y7" s="290"/>
-      <c r="Z7" s="290"/>
-      <c r="AA7" s="290"/>
-      <c r="AB7" s="290"/>
-      <c r="AC7" s="290"/>
-      <c r="AD7" s="290"/>
-      <c r="AE7" s="289"/>
-      <c r="AF7" s="288" t="s">
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="264"/>
+      <c r="U7" s="264"/>
+      <c r="V7" s="264"/>
+      <c r="W7" s="264"/>
+      <c r="X7" s="264"/>
+      <c r="Y7" s="264"/>
+      <c r="Z7" s="264"/>
+      <c r="AA7" s="264"/>
+      <c r="AB7" s="264"/>
+      <c r="AC7" s="264"/>
+      <c r="AD7" s="264"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="262" t="s">
         <v>59</v>
       </c>
-      <c r="AG7" s="290"/>
-      <c r="AH7" s="290"/>
-      <c r="AI7" s="289"/>
+      <c r="AG7" s="264"/>
+      <c r="AH7" s="264"/>
+      <c r="AI7" s="263"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="272"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="274"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="280"/>
-      <c r="L8" s="280"/>
-      <c r="M8" s="280"/>
-      <c r="N8" s="280"/>
-      <c r="O8" s="280"/>
-      <c r="P8" s="281"/>
-      <c r="Q8" s="282"/>
-      <c r="R8" s="283"/>
-      <c r="S8" s="283"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="283"/>
-      <c r="V8" s="283"/>
-      <c r="W8" s="283"/>
-      <c r="X8" s="283"/>
-      <c r="Y8" s="283"/>
-      <c r="Z8" s="283"/>
-      <c r="AA8" s="283"/>
-      <c r="AB8" s="283"/>
-      <c r="AC8" s="283"/>
-      <c r="AD8" s="283"/>
-      <c r="AE8" s="284"/>
-      <c r="AF8" s="279"/>
-      <c r="AG8" s="280"/>
-      <c r="AH8" s="280"/>
-      <c r="AI8" s="281"/>
+      <c r="B8" s="307"/>
+      <c r="C8" s="308"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="310"/>
+      <c r="F8" s="311"/>
+      <c r="G8" s="312"/>
+      <c r="H8" s="313"/>
+      <c r="I8" s="308"/>
+      <c r="J8" s="314"/>
+      <c r="K8" s="315"/>
+      <c r="L8" s="315"/>
+      <c r="M8" s="315"/>
+      <c r="N8" s="315"/>
+      <c r="O8" s="315"/>
+      <c r="P8" s="316"/>
+      <c r="Q8" s="317"/>
+      <c r="R8" s="318"/>
+      <c r="S8" s="318"/>
+      <c r="T8" s="318"/>
+      <c r="U8" s="318"/>
+      <c r="V8" s="318"/>
+      <c r="W8" s="318"/>
+      <c r="X8" s="318"/>
+      <c r="Y8" s="318"/>
+      <c r="Z8" s="318"/>
+      <c r="AA8" s="318"/>
+      <c r="AB8" s="318"/>
+      <c r="AC8" s="318"/>
+      <c r="AD8" s="318"/>
+      <c r="AE8" s="319"/>
+      <c r="AF8" s="314"/>
+      <c r="AG8" s="315"/>
+      <c r="AH8" s="315"/>
+      <c r="AI8" s="316"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="266"/>
-      <c r="L9" s="266"/>
-      <c r="M9" s="266"/>
-      <c r="N9" s="266"/>
-      <c r="O9" s="266"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="268"/>
-      <c r="R9" s="269"/>
-      <c r="S9" s="269"/>
-      <c r="T9" s="269"/>
-      <c r="U9" s="269"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="270"/>
-      <c r="AF9" s="265"/>
-      <c r="AG9" s="266"/>
-      <c r="AH9" s="266"/>
-      <c r="AI9" s="267"/>
+      <c r="B9" s="295"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="297"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="297"/>
+      <c r="H9" s="300"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="301"/>
+      <c r="K9" s="302"/>
+      <c r="L9" s="302"/>
+      <c r="M9" s="302"/>
+      <c r="N9" s="302"/>
+      <c r="O9" s="302"/>
+      <c r="P9" s="303"/>
+      <c r="Q9" s="304"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="305"/>
+      <c r="T9" s="305"/>
+      <c r="U9" s="305"/>
+      <c r="V9" s="305"/>
+      <c r="W9" s="305"/>
+      <c r="X9" s="305"/>
+      <c r="Y9" s="305"/>
+      <c r="Z9" s="305"/>
+      <c r="AA9" s="305"/>
+      <c r="AB9" s="305"/>
+      <c r="AC9" s="305"/>
+      <c r="AD9" s="305"/>
+      <c r="AE9" s="306"/>
+      <c r="AF9" s="301"/>
+      <c r="AG9" s="302"/>
+      <c r="AH9" s="302"/>
+      <c r="AI9" s="303"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="260"/>
-      <c r="J10" s="265"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="266"/>
-      <c r="M10" s="266"/>
-      <c r="N10" s="266"/>
-      <c r="O10" s="266"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="268"/>
-      <c r="R10" s="269"/>
-      <c r="S10" s="269"/>
-      <c r="T10" s="269"/>
-      <c r="U10" s="269"/>
-      <c r="V10" s="269"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="269"/>
-      <c r="Y10" s="269"/>
-      <c r="Z10" s="269"/>
-      <c r="AA10" s="269"/>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="270"/>
-      <c r="AF10" s="265"/>
-      <c r="AG10" s="266"/>
-      <c r="AH10" s="266"/>
-      <c r="AI10" s="267"/>
+      <c r="B10" s="295"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="297"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="295"/>
+      <c r="H10" s="300"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="301"/>
+      <c r="K10" s="302"/>
+      <c r="L10" s="302"/>
+      <c r="M10" s="302"/>
+      <c r="N10" s="302"/>
+      <c r="O10" s="302"/>
+      <c r="P10" s="303"/>
+      <c r="Q10" s="304"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="305"/>
+      <c r="T10" s="305"/>
+      <c r="U10" s="305"/>
+      <c r="V10" s="305"/>
+      <c r="W10" s="305"/>
+      <c r="X10" s="305"/>
+      <c r="Y10" s="305"/>
+      <c r="Z10" s="305"/>
+      <c r="AA10" s="305"/>
+      <c r="AB10" s="305"/>
+      <c r="AC10" s="305"/>
+      <c r="AD10" s="305"/>
+      <c r="AE10" s="306"/>
+      <c r="AF10" s="301"/>
+      <c r="AG10" s="302"/>
+      <c r="AH10" s="302"/>
+      <c r="AI10" s="303"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="260"/>
-      <c r="J11" s="265"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="266"/>
-      <c r="M11" s="266"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="267"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="269"/>
-      <c r="S11" s="269"/>
-      <c r="T11" s="269"/>
-      <c r="U11" s="269"/>
-      <c r="V11" s="269"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269"/>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269"/>
-      <c r="AB11" s="269"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="269"/>
-      <c r="AE11" s="270"/>
-      <c r="AF11" s="265"/>
-      <c r="AG11" s="266"/>
-      <c r="AH11" s="266"/>
-      <c r="AI11" s="267"/>
+      <c r="B11" s="295"/>
+      <c r="C11" s="296"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="298"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="295"/>
+      <c r="H11" s="300"/>
+      <c r="I11" s="296"/>
+      <c r="J11" s="301"/>
+      <c r="K11" s="302"/>
+      <c r="L11" s="302"/>
+      <c r="M11" s="302"/>
+      <c r="N11" s="302"/>
+      <c r="O11" s="302"/>
+      <c r="P11" s="303"/>
+      <c r="Q11" s="304"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="305"/>
+      <c r="T11" s="305"/>
+      <c r="U11" s="305"/>
+      <c r="V11" s="305"/>
+      <c r="W11" s="305"/>
+      <c r="X11" s="305"/>
+      <c r="Y11" s="305"/>
+      <c r="Z11" s="305"/>
+      <c r="AA11" s="305"/>
+      <c r="AB11" s="305"/>
+      <c r="AC11" s="305"/>
+      <c r="AD11" s="305"/>
+      <c r="AE11" s="306"/>
+      <c r="AF11" s="301"/>
+      <c r="AG11" s="302"/>
+      <c r="AH11" s="302"/>
+      <c r="AI11" s="303"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="265"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="266"/>
-      <c r="M12" s="266"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="266"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="269"/>
-      <c r="T12" s="269"/>
-      <c r="U12" s="269"/>
-      <c r="V12" s="269"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="269"/>
-      <c r="Y12" s="269"/>
-      <c r="Z12" s="269"/>
-      <c r="AA12" s="269"/>
-      <c r="AB12" s="269"/>
-      <c r="AC12" s="269"/>
-      <c r="AD12" s="269"/>
-      <c r="AE12" s="270"/>
-      <c r="AF12" s="265"/>
-      <c r="AG12" s="266"/>
-      <c r="AH12" s="266"/>
-      <c r="AI12" s="267"/>
+      <c r="B12" s="295"/>
+      <c r="C12" s="296"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="298"/>
+      <c r="F12" s="299"/>
+      <c r="G12" s="295"/>
+      <c r="H12" s="300"/>
+      <c r="I12" s="296"/>
+      <c r="J12" s="301"/>
+      <c r="K12" s="302"/>
+      <c r="L12" s="302"/>
+      <c r="M12" s="302"/>
+      <c r="N12" s="302"/>
+      <c r="O12" s="302"/>
+      <c r="P12" s="303"/>
+      <c r="Q12" s="304"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="305"/>
+      <c r="T12" s="305"/>
+      <c r="U12" s="305"/>
+      <c r="V12" s="305"/>
+      <c r="W12" s="305"/>
+      <c r="X12" s="305"/>
+      <c r="Y12" s="305"/>
+      <c r="Z12" s="305"/>
+      <c r="AA12" s="305"/>
+      <c r="AB12" s="305"/>
+      <c r="AC12" s="305"/>
+      <c r="AD12" s="305"/>
+      <c r="AE12" s="306"/>
+      <c r="AF12" s="301"/>
+      <c r="AG12" s="302"/>
+      <c r="AH12" s="302"/>
+      <c r="AI12" s="303"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="264"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="266"/>
-      <c r="M13" s="266"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="268"/>
-      <c r="R13" s="269"/>
-      <c r="S13" s="269"/>
-      <c r="T13" s="269"/>
-      <c r="U13" s="269"/>
-      <c r="V13" s="269"/>
-      <c r="W13" s="269"/>
-      <c r="X13" s="269"/>
-      <c r="Y13" s="269"/>
-      <c r="Z13" s="269"/>
-      <c r="AA13" s="269"/>
-      <c r="AB13" s="269"/>
-      <c r="AC13" s="269"/>
-      <c r="AD13" s="269"/>
-      <c r="AE13" s="270"/>
-      <c r="AF13" s="265"/>
-      <c r="AG13" s="266"/>
-      <c r="AH13" s="266"/>
-      <c r="AI13" s="267"/>
+      <c r="B13" s="295"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="299"/>
+      <c r="G13" s="295"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="302"/>
+      <c r="L13" s="302"/>
+      <c r="M13" s="302"/>
+      <c r="N13" s="302"/>
+      <c r="O13" s="302"/>
+      <c r="P13" s="303"/>
+      <c r="Q13" s="304"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="305"/>
+      <c r="U13" s="305"/>
+      <c r="V13" s="305"/>
+      <c r="W13" s="305"/>
+      <c r="X13" s="305"/>
+      <c r="Y13" s="305"/>
+      <c r="Z13" s="305"/>
+      <c r="AA13" s="305"/>
+      <c r="AB13" s="305"/>
+      <c r="AC13" s="305"/>
+      <c r="AD13" s="305"/>
+      <c r="AE13" s="306"/>
+      <c r="AF13" s="301"/>
+      <c r="AG13" s="302"/>
+      <c r="AH13" s="302"/>
+      <c r="AI13" s="303"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="263"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="264"/>
-      <c r="I14" s="260"/>
-      <c r="J14" s="265"/>
-      <c r="K14" s="266"/>
-      <c r="L14" s="266"/>
-      <c r="M14" s="266"/>
-      <c r="N14" s="266"/>
-      <c r="O14" s="266"/>
-      <c r="P14" s="267"/>
-      <c r="Q14" s="268"/>
-      <c r="R14" s="269"/>
-      <c r="S14" s="269"/>
-      <c r="T14" s="269"/>
-      <c r="U14" s="269"/>
-      <c r="V14" s="269"/>
-      <c r="W14" s="269"/>
-      <c r="X14" s="269"/>
-      <c r="Y14" s="269"/>
-      <c r="Z14" s="269"/>
-      <c r="AA14" s="269"/>
-      <c r="AB14" s="269"/>
-      <c r="AC14" s="269"/>
-      <c r="AD14" s="269"/>
-      <c r="AE14" s="270"/>
-      <c r="AF14" s="265"/>
-      <c r="AG14" s="266"/>
-      <c r="AH14" s="266"/>
-      <c r="AI14" s="267"/>
+      <c r="B14" s="295"/>
+      <c r="C14" s="296"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="298"/>
+      <c r="F14" s="299"/>
+      <c r="G14" s="295"/>
+      <c r="H14" s="300"/>
+      <c r="I14" s="296"/>
+      <c r="J14" s="301"/>
+      <c r="K14" s="302"/>
+      <c r="L14" s="302"/>
+      <c r="M14" s="302"/>
+      <c r="N14" s="302"/>
+      <c r="O14" s="302"/>
+      <c r="P14" s="303"/>
+      <c r="Q14" s="304"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="305"/>
+      <c r="T14" s="305"/>
+      <c r="U14" s="305"/>
+      <c r="V14" s="305"/>
+      <c r="W14" s="305"/>
+      <c r="X14" s="305"/>
+      <c r="Y14" s="305"/>
+      <c r="Z14" s="305"/>
+      <c r="AA14" s="305"/>
+      <c r="AB14" s="305"/>
+      <c r="AC14" s="305"/>
+      <c r="AD14" s="305"/>
+      <c r="AE14" s="306"/>
+      <c r="AF14" s="301"/>
+      <c r="AG14" s="302"/>
+      <c r="AH14" s="302"/>
+      <c r="AI14" s="303"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="263"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="264"/>
-      <c r="I15" s="260"/>
-      <c r="J15" s="265"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="266"/>
-      <c r="M15" s="266"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
-      <c r="P15" s="267"/>
-      <c r="Q15" s="268"/>
-      <c r="R15" s="269"/>
-      <c r="S15" s="269"/>
-      <c r="T15" s="269"/>
-      <c r="U15" s="269"/>
-      <c r="V15" s="269"/>
-      <c r="W15" s="269"/>
-      <c r="X15" s="269"/>
-      <c r="Y15" s="269"/>
-      <c r="Z15" s="269"/>
-      <c r="AA15" s="269"/>
-      <c r="AB15" s="269"/>
-      <c r="AC15" s="269"/>
-      <c r="AD15" s="269"/>
-      <c r="AE15" s="270"/>
-      <c r="AF15" s="265"/>
-      <c r="AG15" s="266"/>
-      <c r="AH15" s="266"/>
-      <c r="AI15" s="267"/>
+      <c r="B15" s="295"/>
+      <c r="C15" s="296"/>
+      <c r="D15" s="297"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="299"/>
+      <c r="G15" s="295"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="301"/>
+      <c r="K15" s="302"/>
+      <c r="L15" s="302"/>
+      <c r="M15" s="302"/>
+      <c r="N15" s="302"/>
+      <c r="O15" s="302"/>
+      <c r="P15" s="303"/>
+      <c r="Q15" s="304"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="305"/>
+      <c r="U15" s="305"/>
+      <c r="V15" s="305"/>
+      <c r="W15" s="305"/>
+      <c r="X15" s="305"/>
+      <c r="Y15" s="305"/>
+      <c r="Z15" s="305"/>
+      <c r="AA15" s="305"/>
+      <c r="AB15" s="305"/>
+      <c r="AC15" s="305"/>
+      <c r="AD15" s="305"/>
+      <c r="AE15" s="306"/>
+      <c r="AF15" s="301"/>
+      <c r="AG15" s="302"/>
+      <c r="AH15" s="302"/>
+      <c r="AI15" s="303"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="263"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="264"/>
-      <c r="I16" s="260"/>
-      <c r="J16" s="265"/>
-      <c r="K16" s="266"/>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="269"/>
-      <c r="S16" s="269"/>
-      <c r="T16" s="269"/>
-      <c r="U16" s="269"/>
-      <c r="V16" s="269"/>
-      <c r="W16" s="269"/>
-      <c r="X16" s="269"/>
-      <c r="Y16" s="269"/>
-      <c r="Z16" s="269"/>
-      <c r="AA16" s="269"/>
-      <c r="AB16" s="269"/>
-      <c r="AC16" s="269"/>
-      <c r="AD16" s="269"/>
-      <c r="AE16" s="270"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="266"/>
-      <c r="AH16" s="266"/>
-      <c r="AI16" s="267"/>
+      <c r="B16" s="295"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="297"/>
+      <c r="E16" s="298"/>
+      <c r="F16" s="299"/>
+      <c r="G16" s="295"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="296"/>
+      <c r="J16" s="301"/>
+      <c r="K16" s="302"/>
+      <c r="L16" s="302"/>
+      <c r="M16" s="302"/>
+      <c r="N16" s="302"/>
+      <c r="O16" s="302"/>
+      <c r="P16" s="303"/>
+      <c r="Q16" s="304"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="305"/>
+      <c r="U16" s="305"/>
+      <c r="V16" s="305"/>
+      <c r="W16" s="305"/>
+      <c r="X16" s="305"/>
+      <c r="Y16" s="305"/>
+      <c r="Z16" s="305"/>
+      <c r="AA16" s="305"/>
+      <c r="AB16" s="305"/>
+      <c r="AC16" s="305"/>
+      <c r="AD16" s="305"/>
+      <c r="AE16" s="306"/>
+      <c r="AF16" s="301"/>
+      <c r="AG16" s="302"/>
+      <c r="AH16" s="302"/>
+      <c r="AI16" s="303"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="263"/>
-      <c r="G17" s="259"/>
-      <c r="H17" s="264"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="265"/>
-      <c r="K17" s="266"/>
-      <c r="L17" s="266"/>
-      <c r="M17" s="266"/>
-      <c r="N17" s="266"/>
-      <c r="O17" s="266"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="268"/>
-      <c r="R17" s="269"/>
-      <c r="S17" s="269"/>
-      <c r="T17" s="269"/>
-      <c r="U17" s="269"/>
-      <c r="V17" s="269"/>
-      <c r="W17" s="269"/>
-      <c r="X17" s="269"/>
-      <c r="Y17" s="269"/>
-      <c r="Z17" s="269"/>
-      <c r="AA17" s="269"/>
-      <c r="AB17" s="269"/>
-      <c r="AC17" s="269"/>
-      <c r="AD17" s="269"/>
-      <c r="AE17" s="270"/>
-      <c r="AF17" s="265"/>
-      <c r="AG17" s="266"/>
-      <c r="AH17" s="266"/>
-      <c r="AI17" s="267"/>
+      <c r="B17" s="295"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="297"/>
+      <c r="E17" s="298"/>
+      <c r="F17" s="299"/>
+      <c r="G17" s="295"/>
+      <c r="H17" s="300"/>
+      <c r="I17" s="296"/>
+      <c r="J17" s="301"/>
+      <c r="K17" s="302"/>
+      <c r="L17" s="302"/>
+      <c r="M17" s="302"/>
+      <c r="N17" s="302"/>
+      <c r="O17" s="302"/>
+      <c r="P17" s="303"/>
+      <c r="Q17" s="304"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="305"/>
+      <c r="T17" s="305"/>
+      <c r="U17" s="305"/>
+      <c r="V17" s="305"/>
+      <c r="W17" s="305"/>
+      <c r="X17" s="305"/>
+      <c r="Y17" s="305"/>
+      <c r="Z17" s="305"/>
+      <c r="AA17" s="305"/>
+      <c r="AB17" s="305"/>
+      <c r="AC17" s="305"/>
+      <c r="AD17" s="305"/>
+      <c r="AE17" s="306"/>
+      <c r="AF17" s="301"/>
+      <c r="AG17" s="302"/>
+      <c r="AH17" s="302"/>
+      <c r="AI17" s="303"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="262"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="259"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="260"/>
-      <c r="J18" s="265"/>
-      <c r="K18" s="266"/>
-      <c r="L18" s="266"/>
-      <c r="M18" s="266"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="266"/>
-      <c r="P18" s="267"/>
-      <c r="Q18" s="268"/>
-      <c r="R18" s="269"/>
-      <c r="S18" s="269"/>
-      <c r="T18" s="269"/>
-      <c r="U18" s="269"/>
-      <c r="V18" s="269"/>
-      <c r="W18" s="269"/>
-      <c r="X18" s="269"/>
-      <c r="Y18" s="269"/>
-      <c r="Z18" s="269"/>
-      <c r="AA18" s="269"/>
-      <c r="AB18" s="269"/>
-      <c r="AC18" s="269"/>
-      <c r="AD18" s="269"/>
-      <c r="AE18" s="270"/>
-      <c r="AF18" s="265"/>
-      <c r="AG18" s="266"/>
-      <c r="AH18" s="266"/>
-      <c r="AI18" s="267"/>
+      <c r="B18" s="295"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="297"/>
+      <c r="E18" s="298"/>
+      <c r="F18" s="299"/>
+      <c r="G18" s="295"/>
+      <c r="H18" s="300"/>
+      <c r="I18" s="296"/>
+      <c r="J18" s="301"/>
+      <c r="K18" s="302"/>
+      <c r="L18" s="302"/>
+      <c r="M18" s="302"/>
+      <c r="N18" s="302"/>
+      <c r="O18" s="302"/>
+      <c r="P18" s="303"/>
+      <c r="Q18" s="304"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="305"/>
+      <c r="T18" s="305"/>
+      <c r="U18" s="305"/>
+      <c r="V18" s="305"/>
+      <c r="W18" s="305"/>
+      <c r="X18" s="305"/>
+      <c r="Y18" s="305"/>
+      <c r="Z18" s="305"/>
+      <c r="AA18" s="305"/>
+      <c r="AB18" s="305"/>
+      <c r="AC18" s="305"/>
+      <c r="AD18" s="305"/>
+      <c r="AE18" s="306"/>
+      <c r="AF18" s="301"/>
+      <c r="AG18" s="302"/>
+      <c r="AH18" s="302"/>
+      <c r="AI18" s="303"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="261"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="263"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="264"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="265"/>
-      <c r="K19" s="266"/>
-      <c r="L19" s="266"/>
-      <c r="M19" s="266"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="266"/>
-      <c r="P19" s="267"/>
-      <c r="Q19" s="268"/>
-      <c r="R19" s="269"/>
-      <c r="S19" s="269"/>
-      <c r="T19" s="269"/>
-      <c r="U19" s="269"/>
-      <c r="V19" s="269"/>
-      <c r="W19" s="269"/>
-      <c r="X19" s="269"/>
-      <c r="Y19" s="269"/>
-      <c r="Z19" s="269"/>
-      <c r="AA19" s="269"/>
-      <c r="AB19" s="269"/>
-      <c r="AC19" s="269"/>
-      <c r="AD19" s="269"/>
-      <c r="AE19" s="270"/>
-      <c r="AF19" s="265"/>
-      <c r="AG19" s="266"/>
-      <c r="AH19" s="266"/>
-      <c r="AI19" s="267"/>
+      <c r="B19" s="295"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="296"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="302"/>
+      <c r="L19" s="302"/>
+      <c r="M19" s="302"/>
+      <c r="N19" s="302"/>
+      <c r="O19" s="302"/>
+      <c r="P19" s="303"/>
+      <c r="Q19" s="304"/>
+      <c r="R19" s="305"/>
+      <c r="S19" s="305"/>
+      <c r="T19" s="305"/>
+      <c r="U19" s="305"/>
+      <c r="V19" s="305"/>
+      <c r="W19" s="305"/>
+      <c r="X19" s="305"/>
+      <c r="Y19" s="305"/>
+      <c r="Z19" s="305"/>
+      <c r="AA19" s="305"/>
+      <c r="AB19" s="305"/>
+      <c r="AC19" s="305"/>
+      <c r="AD19" s="305"/>
+      <c r="AE19" s="306"/>
+      <c r="AF19" s="301"/>
+      <c r="AG19" s="302"/>
+      <c r="AH19" s="302"/>
+      <c r="AI19" s="303"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="261"/>
-      <c r="E20" s="262"/>
-      <c r="F20" s="263"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="264"/>
-      <c r="I20" s="260"/>
-      <c r="J20" s="265"/>
-      <c r="K20" s="266"/>
-      <c r="L20" s="266"/>
-      <c r="M20" s="266"/>
-      <c r="N20" s="266"/>
-      <c r="O20" s="266"/>
-      <c r="P20" s="267"/>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="269"/>
-      <c r="S20" s="269"/>
-      <c r="T20" s="269"/>
-      <c r="U20" s="269"/>
-      <c r="V20" s="269"/>
-      <c r="W20" s="269"/>
-      <c r="X20" s="269"/>
-      <c r="Y20" s="269"/>
-      <c r="Z20" s="269"/>
-      <c r="AA20" s="269"/>
-      <c r="AB20" s="269"/>
-      <c r="AC20" s="269"/>
-      <c r="AD20" s="269"/>
-      <c r="AE20" s="270"/>
-      <c r="AF20" s="265"/>
-      <c r="AG20" s="266"/>
-      <c r="AH20" s="266"/>
-      <c r="AI20" s="267"/>
+      <c r="B20" s="295"/>
+      <c r="C20" s="296"/>
+      <c r="D20" s="297"/>
+      <c r="E20" s="298"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="295"/>
+      <c r="H20" s="300"/>
+      <c r="I20" s="296"/>
+      <c r="J20" s="301"/>
+      <c r="K20" s="302"/>
+      <c r="L20" s="302"/>
+      <c r="M20" s="302"/>
+      <c r="N20" s="302"/>
+      <c r="O20" s="302"/>
+      <c r="P20" s="303"/>
+      <c r="Q20" s="304"/>
+      <c r="R20" s="305"/>
+      <c r="S20" s="305"/>
+      <c r="T20" s="305"/>
+      <c r="U20" s="305"/>
+      <c r="V20" s="305"/>
+      <c r="W20" s="305"/>
+      <c r="X20" s="305"/>
+      <c r="Y20" s="305"/>
+      <c r="Z20" s="305"/>
+      <c r="AA20" s="305"/>
+      <c r="AB20" s="305"/>
+      <c r="AC20" s="305"/>
+      <c r="AD20" s="305"/>
+      <c r="AE20" s="306"/>
+      <c r="AF20" s="301"/>
+      <c r="AG20" s="302"/>
+      <c r="AH20" s="302"/>
+      <c r="AI20" s="303"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="262"/>
-      <c r="F21" s="263"/>
-      <c r="G21" s="259"/>
-      <c r="H21" s="264"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="265"/>
-      <c r="K21" s="266"/>
-      <c r="L21" s="266"/>
-      <c r="M21" s="266"/>
-      <c r="N21" s="266"/>
-      <c r="O21" s="266"/>
-      <c r="P21" s="267"/>
-      <c r="Q21" s="268"/>
-      <c r="R21" s="269"/>
-      <c r="S21" s="269"/>
-      <c r="T21" s="269"/>
-      <c r="U21" s="269"/>
-      <c r="V21" s="269"/>
-      <c r="W21" s="269"/>
-      <c r="X21" s="269"/>
-      <c r="Y21" s="269"/>
-      <c r="Z21" s="269"/>
-      <c r="AA21" s="269"/>
-      <c r="AB21" s="269"/>
-      <c r="AC21" s="269"/>
-      <c r="AD21" s="269"/>
-      <c r="AE21" s="270"/>
-      <c r="AF21" s="265"/>
-      <c r="AG21" s="266"/>
-      <c r="AH21" s="266"/>
-      <c r="AI21" s="267"/>
+      <c r="B21" s="295"/>
+      <c r="C21" s="296"/>
+      <c r="D21" s="297"/>
+      <c r="E21" s="298"/>
+      <c r="F21" s="299"/>
+      <c r="G21" s="295"/>
+      <c r="H21" s="300"/>
+      <c r="I21" s="296"/>
+      <c r="J21" s="301"/>
+      <c r="K21" s="302"/>
+      <c r="L21" s="302"/>
+      <c r="M21" s="302"/>
+      <c r="N21" s="302"/>
+      <c r="O21" s="302"/>
+      <c r="P21" s="303"/>
+      <c r="Q21" s="304"/>
+      <c r="R21" s="305"/>
+      <c r="S21" s="305"/>
+      <c r="T21" s="305"/>
+      <c r="U21" s="305"/>
+      <c r="V21" s="305"/>
+      <c r="W21" s="305"/>
+      <c r="X21" s="305"/>
+      <c r="Y21" s="305"/>
+      <c r="Z21" s="305"/>
+      <c r="AA21" s="305"/>
+      <c r="AB21" s="305"/>
+      <c r="AC21" s="305"/>
+      <c r="AD21" s="305"/>
+      <c r="AE21" s="306"/>
+      <c r="AF21" s="301"/>
+      <c r="AG21" s="302"/>
+      <c r="AH21" s="302"/>
+      <c r="AI21" s="303"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="261"/>
-      <c r="E22" s="262"/>
-      <c r="F22" s="263"/>
-      <c r="G22" s="259"/>
-      <c r="H22" s="264"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="265"/>
-      <c r="K22" s="266"/>
-      <c r="L22" s="266"/>
-      <c r="M22" s="266"/>
-      <c r="N22" s="266"/>
-      <c r="O22" s="266"/>
-      <c r="P22" s="267"/>
-      <c r="Q22" s="268"/>
-      <c r="R22" s="269"/>
-      <c r="S22" s="269"/>
-      <c r="T22" s="269"/>
-      <c r="U22" s="269"/>
-      <c r="V22" s="269"/>
-      <c r="W22" s="269"/>
-      <c r="X22" s="269"/>
-      <c r="Y22" s="269"/>
-      <c r="Z22" s="269"/>
-      <c r="AA22" s="269"/>
-      <c r="AB22" s="269"/>
-      <c r="AC22" s="269"/>
-      <c r="AD22" s="269"/>
-      <c r="AE22" s="270"/>
-      <c r="AF22" s="265"/>
-      <c r="AG22" s="266"/>
-      <c r="AH22" s="266"/>
-      <c r="AI22" s="267"/>
+      <c r="B22" s="295"/>
+      <c r="C22" s="296"/>
+      <c r="D22" s="297"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="299"/>
+      <c r="G22" s="295"/>
+      <c r="H22" s="300"/>
+      <c r="I22" s="296"/>
+      <c r="J22" s="301"/>
+      <c r="K22" s="302"/>
+      <c r="L22" s="302"/>
+      <c r="M22" s="302"/>
+      <c r="N22" s="302"/>
+      <c r="O22" s="302"/>
+      <c r="P22" s="303"/>
+      <c r="Q22" s="304"/>
+      <c r="R22" s="305"/>
+      <c r="S22" s="305"/>
+      <c r="T22" s="305"/>
+      <c r="U22" s="305"/>
+      <c r="V22" s="305"/>
+      <c r="W22" s="305"/>
+      <c r="X22" s="305"/>
+      <c r="Y22" s="305"/>
+      <c r="Z22" s="305"/>
+      <c r="AA22" s="305"/>
+      <c r="AB22" s="305"/>
+      <c r="AC22" s="305"/>
+      <c r="AD22" s="305"/>
+      <c r="AE22" s="306"/>
+      <c r="AF22" s="301"/>
+      <c r="AG22" s="302"/>
+      <c r="AH22" s="302"/>
+      <c r="AI22" s="303"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="261"/>
-      <c r="E23" s="262"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="264"/>
-      <c r="I23" s="260"/>
-      <c r="J23" s="265"/>
-      <c r="K23" s="266"/>
-      <c r="L23" s="266"/>
-      <c r="M23" s="266"/>
-      <c r="N23" s="266"/>
-      <c r="O23" s="266"/>
-      <c r="P23" s="267"/>
-      <c r="Q23" s="268"/>
-      <c r="R23" s="269"/>
-      <c r="S23" s="269"/>
-      <c r="T23" s="269"/>
-      <c r="U23" s="269"/>
-      <c r="V23" s="269"/>
-      <c r="W23" s="269"/>
-      <c r="X23" s="269"/>
-      <c r="Y23" s="269"/>
-      <c r="Z23" s="269"/>
-      <c r="AA23" s="269"/>
-      <c r="AB23" s="269"/>
-      <c r="AC23" s="269"/>
-      <c r="AD23" s="269"/>
-      <c r="AE23" s="270"/>
-      <c r="AF23" s="265"/>
-      <c r="AG23" s="266"/>
-      <c r="AH23" s="266"/>
-      <c r="AI23" s="267"/>
+      <c r="B23" s="295"/>
+      <c r="C23" s="296"/>
+      <c r="D23" s="297"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="299"/>
+      <c r="G23" s="295"/>
+      <c r="H23" s="300"/>
+      <c r="I23" s="296"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="302"/>
+      <c r="L23" s="302"/>
+      <c r="M23" s="302"/>
+      <c r="N23" s="302"/>
+      <c r="O23" s="302"/>
+      <c r="P23" s="303"/>
+      <c r="Q23" s="304"/>
+      <c r="R23" s="305"/>
+      <c r="S23" s="305"/>
+      <c r="T23" s="305"/>
+      <c r="U23" s="305"/>
+      <c r="V23" s="305"/>
+      <c r="W23" s="305"/>
+      <c r="X23" s="305"/>
+      <c r="Y23" s="305"/>
+      <c r="Z23" s="305"/>
+      <c r="AA23" s="305"/>
+      <c r="AB23" s="305"/>
+      <c r="AC23" s="305"/>
+      <c r="AD23" s="305"/>
+      <c r="AE23" s="306"/>
+      <c r="AF23" s="301"/>
+      <c r="AG23" s="302"/>
+      <c r="AH23" s="302"/>
+      <c r="AI23" s="303"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="261"/>
-      <c r="E24" s="262"/>
-      <c r="F24" s="263"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="264"/>
-      <c r="I24" s="260"/>
-      <c r="J24" s="265"/>
-      <c r="K24" s="266"/>
-      <c r="L24" s="266"/>
-      <c r="M24" s="266"/>
-      <c r="N24" s="266"/>
-      <c r="O24" s="266"/>
-      <c r="P24" s="267"/>
-      <c r="Q24" s="268"/>
-      <c r="R24" s="269"/>
-      <c r="S24" s="269"/>
-      <c r="T24" s="269"/>
-      <c r="U24" s="269"/>
-      <c r="V24" s="269"/>
-      <c r="W24" s="269"/>
-      <c r="X24" s="269"/>
-      <c r="Y24" s="269"/>
-      <c r="Z24" s="269"/>
-      <c r="AA24" s="269"/>
-      <c r="AB24" s="269"/>
-      <c r="AC24" s="269"/>
-      <c r="AD24" s="269"/>
-      <c r="AE24" s="270"/>
-      <c r="AF24" s="265"/>
-      <c r="AG24" s="266"/>
-      <c r="AH24" s="266"/>
-      <c r="AI24" s="267"/>
+      <c r="B24" s="295"/>
+      <c r="C24" s="296"/>
+      <c r="D24" s="297"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="299"/>
+      <c r="G24" s="295"/>
+      <c r="H24" s="300"/>
+      <c r="I24" s="296"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="302"/>
+      <c r="L24" s="302"/>
+      <c r="M24" s="302"/>
+      <c r="N24" s="302"/>
+      <c r="O24" s="302"/>
+      <c r="P24" s="303"/>
+      <c r="Q24" s="304"/>
+      <c r="R24" s="305"/>
+      <c r="S24" s="305"/>
+      <c r="T24" s="305"/>
+      <c r="U24" s="305"/>
+      <c r="V24" s="305"/>
+      <c r="W24" s="305"/>
+      <c r="X24" s="305"/>
+      <c r="Y24" s="305"/>
+      <c r="Z24" s="305"/>
+      <c r="AA24" s="305"/>
+      <c r="AB24" s="305"/>
+      <c r="AC24" s="305"/>
+      <c r="AD24" s="305"/>
+      <c r="AE24" s="306"/>
+      <c r="AF24" s="301"/>
+      <c r="AG24" s="302"/>
+      <c r="AH24" s="302"/>
+      <c r="AI24" s="303"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="261"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="263"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="264"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="265"/>
-      <c r="K25" s="266"/>
-      <c r="L25" s="266"/>
-      <c r="M25" s="266"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="266"/>
-      <c r="P25" s="267"/>
-      <c r="Q25" s="268"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="269"/>
-      <c r="T25" s="269"/>
-      <c r="U25" s="269"/>
-      <c r="V25" s="269"/>
-      <c r="W25" s="269"/>
-      <c r="X25" s="269"/>
-      <c r="Y25" s="269"/>
-      <c r="Z25" s="269"/>
-      <c r="AA25" s="269"/>
-      <c r="AB25" s="269"/>
-      <c r="AC25" s="269"/>
-      <c r="AD25" s="269"/>
-      <c r="AE25" s="270"/>
-      <c r="AF25" s="265"/>
-      <c r="AG25" s="266"/>
-      <c r="AH25" s="266"/>
-      <c r="AI25" s="267"/>
+      <c r="B25" s="295"/>
+      <c r="C25" s="296"/>
+      <c r="D25" s="297"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="299"/>
+      <c r="G25" s="295"/>
+      <c r="H25" s="300"/>
+      <c r="I25" s="296"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="302"/>
+      <c r="L25" s="302"/>
+      <c r="M25" s="302"/>
+      <c r="N25" s="302"/>
+      <c r="O25" s="302"/>
+      <c r="P25" s="303"/>
+      <c r="Q25" s="304"/>
+      <c r="R25" s="305"/>
+      <c r="S25" s="305"/>
+      <c r="T25" s="305"/>
+      <c r="U25" s="305"/>
+      <c r="V25" s="305"/>
+      <c r="W25" s="305"/>
+      <c r="X25" s="305"/>
+      <c r="Y25" s="305"/>
+      <c r="Z25" s="305"/>
+      <c r="AA25" s="305"/>
+      <c r="AB25" s="305"/>
+      <c r="AC25" s="305"/>
+      <c r="AD25" s="305"/>
+      <c r="AE25" s="306"/>
+      <c r="AF25" s="301"/>
+      <c r="AG25" s="302"/>
+      <c r="AH25" s="302"/>
+      <c r="AI25" s="303"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="261"/>
-      <c r="E26" s="262"/>
-      <c r="F26" s="263"/>
-      <c r="G26" s="259"/>
-      <c r="H26" s="264"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="265"/>
-      <c r="K26" s="266"/>
-      <c r="L26" s="266"/>
-      <c r="M26" s="266"/>
-      <c r="N26" s="266"/>
-      <c r="O26" s="266"/>
-      <c r="P26" s="267"/>
-      <c r="Q26" s="268"/>
-      <c r="R26" s="269"/>
-      <c r="S26" s="269"/>
-      <c r="T26" s="269"/>
-      <c r="U26" s="269"/>
-      <c r="V26" s="269"/>
-      <c r="W26" s="269"/>
-      <c r="X26" s="269"/>
-      <c r="Y26" s="269"/>
-      <c r="Z26" s="269"/>
-      <c r="AA26" s="269"/>
-      <c r="AB26" s="269"/>
-      <c r="AC26" s="269"/>
-      <c r="AD26" s="269"/>
-      <c r="AE26" s="270"/>
-      <c r="AF26" s="265"/>
-      <c r="AG26" s="266"/>
-      <c r="AH26" s="266"/>
-      <c r="AI26" s="267"/>
+      <c r="B26" s="295"/>
+      <c r="C26" s="296"/>
+      <c r="D26" s="297"/>
+      <c r="E26" s="298"/>
+      <c r="F26" s="299"/>
+      <c r="G26" s="295"/>
+      <c r="H26" s="300"/>
+      <c r="I26" s="296"/>
+      <c r="J26" s="301"/>
+      <c r="K26" s="302"/>
+      <c r="L26" s="302"/>
+      <c r="M26" s="302"/>
+      <c r="N26" s="302"/>
+      <c r="O26" s="302"/>
+      <c r="P26" s="303"/>
+      <c r="Q26" s="304"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="305"/>
+      <c r="T26" s="305"/>
+      <c r="U26" s="305"/>
+      <c r="V26" s="305"/>
+      <c r="W26" s="305"/>
+      <c r="X26" s="305"/>
+      <c r="Y26" s="305"/>
+      <c r="Z26" s="305"/>
+      <c r="AA26" s="305"/>
+      <c r="AB26" s="305"/>
+      <c r="AC26" s="305"/>
+      <c r="AD26" s="305"/>
+      <c r="AE26" s="306"/>
+      <c r="AF26" s="301"/>
+      <c r="AG26" s="302"/>
+      <c r="AH26" s="302"/>
+      <c r="AI26" s="303"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="261"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="263"/>
-      <c r="G27" s="259"/>
-      <c r="H27" s="264"/>
-      <c r="I27" s="260"/>
-      <c r="J27" s="265"/>
-      <c r="K27" s="266"/>
-      <c r="L27" s="266"/>
-      <c r="M27" s="266"/>
-      <c r="N27" s="266"/>
-      <c r="O27" s="266"/>
-      <c r="P27" s="267"/>
-      <c r="Q27" s="268"/>
-      <c r="R27" s="269"/>
-      <c r="S27" s="269"/>
-      <c r="T27" s="269"/>
-      <c r="U27" s="269"/>
-      <c r="V27" s="269"/>
-      <c r="W27" s="269"/>
-      <c r="X27" s="269"/>
-      <c r="Y27" s="269"/>
-      <c r="Z27" s="269"/>
-      <c r="AA27" s="269"/>
-      <c r="AB27" s="269"/>
-      <c r="AC27" s="269"/>
-      <c r="AD27" s="269"/>
-      <c r="AE27" s="270"/>
-      <c r="AF27" s="265"/>
-      <c r="AG27" s="266"/>
-      <c r="AH27" s="266"/>
-      <c r="AI27" s="267"/>
+      <c r="B27" s="295"/>
+      <c r="C27" s="296"/>
+      <c r="D27" s="297"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="299"/>
+      <c r="G27" s="295"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="296"/>
+      <c r="J27" s="301"/>
+      <c r="K27" s="302"/>
+      <c r="L27" s="302"/>
+      <c r="M27" s="302"/>
+      <c r="N27" s="302"/>
+      <c r="O27" s="302"/>
+      <c r="P27" s="303"/>
+      <c r="Q27" s="304"/>
+      <c r="R27" s="305"/>
+      <c r="S27" s="305"/>
+      <c r="T27" s="305"/>
+      <c r="U27" s="305"/>
+      <c r="V27" s="305"/>
+      <c r="W27" s="305"/>
+      <c r="X27" s="305"/>
+      <c r="Y27" s="305"/>
+      <c r="Z27" s="305"/>
+      <c r="AA27" s="305"/>
+      <c r="AB27" s="305"/>
+      <c r="AC27" s="305"/>
+      <c r="AD27" s="305"/>
+      <c r="AE27" s="306"/>
+      <c r="AF27" s="301"/>
+      <c r="AG27" s="302"/>
+      <c r="AH27" s="302"/>
+      <c r="AI27" s="303"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="263"/>
-      <c r="G28" s="259"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="260"/>
-      <c r="J28" s="265"/>
-      <c r="K28" s="266"/>
-      <c r="L28" s="266"/>
-      <c r="M28" s="266"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="266"/>
-      <c r="P28" s="267"/>
-      <c r="Q28" s="268"/>
-      <c r="R28" s="269"/>
-      <c r="S28" s="269"/>
-      <c r="T28" s="269"/>
-      <c r="U28" s="269"/>
-      <c r="V28" s="269"/>
-      <c r="W28" s="269"/>
-      <c r="X28" s="269"/>
-      <c r="Y28" s="269"/>
-      <c r="Z28" s="269"/>
-      <c r="AA28" s="269"/>
-      <c r="AB28" s="269"/>
-      <c r="AC28" s="269"/>
-      <c r="AD28" s="269"/>
-      <c r="AE28" s="270"/>
-      <c r="AF28" s="265"/>
-      <c r="AG28" s="266"/>
-      <c r="AH28" s="266"/>
-      <c r="AI28" s="267"/>
+      <c r="B28" s="295"/>
+      <c r="C28" s="296"/>
+      <c r="D28" s="297"/>
+      <c r="E28" s="298"/>
+      <c r="F28" s="299"/>
+      <c r="G28" s="295"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="296"/>
+      <c r="J28" s="301"/>
+      <c r="K28" s="302"/>
+      <c r="L28" s="302"/>
+      <c r="M28" s="302"/>
+      <c r="N28" s="302"/>
+      <c r="O28" s="302"/>
+      <c r="P28" s="303"/>
+      <c r="Q28" s="304"/>
+      <c r="R28" s="305"/>
+      <c r="S28" s="305"/>
+      <c r="T28" s="305"/>
+      <c r="U28" s="305"/>
+      <c r="V28" s="305"/>
+      <c r="W28" s="305"/>
+      <c r="X28" s="305"/>
+      <c r="Y28" s="305"/>
+      <c r="Z28" s="305"/>
+      <c r="AA28" s="305"/>
+      <c r="AB28" s="305"/>
+      <c r="AC28" s="305"/>
+      <c r="AD28" s="305"/>
+      <c r="AE28" s="306"/>
+      <c r="AF28" s="301"/>
+      <c r="AG28" s="302"/>
+      <c r="AH28" s="302"/>
+      <c r="AI28" s="303"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="259"/>
-      <c r="C29" s="260"/>
-      <c r="D29" s="261"/>
-      <c r="E29" s="262"/>
-      <c r="F29" s="263"/>
-      <c r="G29" s="259"/>
-      <c r="H29" s="264"/>
-      <c r="I29" s="260"/>
-      <c r="J29" s="265"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="266"/>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="267"/>
-      <c r="Q29" s="268"/>
-      <c r="R29" s="269"/>
-      <c r="S29" s="269"/>
-      <c r="T29" s="269"/>
-      <c r="U29" s="269"/>
-      <c r="V29" s="269"/>
-      <c r="W29" s="269"/>
-      <c r="X29" s="269"/>
-      <c r="Y29" s="269"/>
-      <c r="Z29" s="269"/>
-      <c r="AA29" s="269"/>
-      <c r="AB29" s="269"/>
-      <c r="AC29" s="269"/>
-      <c r="AD29" s="269"/>
-      <c r="AE29" s="270"/>
-      <c r="AF29" s="265"/>
-      <c r="AG29" s="266"/>
-      <c r="AH29" s="266"/>
-      <c r="AI29" s="267"/>
+      <c r="B29" s="295"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="299"/>
+      <c r="G29" s="295"/>
+      <c r="H29" s="300"/>
+      <c r="I29" s="296"/>
+      <c r="J29" s="301"/>
+      <c r="K29" s="302"/>
+      <c r="L29" s="302"/>
+      <c r="M29" s="302"/>
+      <c r="N29" s="302"/>
+      <c r="O29" s="302"/>
+      <c r="P29" s="303"/>
+      <c r="Q29" s="304"/>
+      <c r="R29" s="305"/>
+      <c r="S29" s="305"/>
+      <c r="T29" s="305"/>
+      <c r="U29" s="305"/>
+      <c r="V29" s="305"/>
+      <c r="W29" s="305"/>
+      <c r="X29" s="305"/>
+      <c r="Y29" s="305"/>
+      <c r="Z29" s="305"/>
+      <c r="AA29" s="305"/>
+      <c r="AB29" s="305"/>
+      <c r="AC29" s="305"/>
+      <c r="AD29" s="305"/>
+      <c r="AE29" s="306"/>
+      <c r="AF29" s="301"/>
+      <c r="AG29" s="302"/>
+      <c r="AH29" s="302"/>
+      <c r="AI29" s="303"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="261"/>
-      <c r="E30" s="262"/>
-      <c r="F30" s="263"/>
-      <c r="G30" s="259"/>
-      <c r="H30" s="264"/>
-      <c r="I30" s="260"/>
-      <c r="J30" s="265"/>
-      <c r="K30" s="266"/>
-      <c r="L30" s="266"/>
-      <c r="M30" s="266"/>
-      <c r="N30" s="266"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="267"/>
-      <c r="Q30" s="268"/>
-      <c r="R30" s="269"/>
-      <c r="S30" s="269"/>
-      <c r="T30" s="269"/>
-      <c r="U30" s="269"/>
-      <c r="V30" s="269"/>
-      <c r="W30" s="269"/>
-      <c r="X30" s="269"/>
-      <c r="Y30" s="269"/>
-      <c r="Z30" s="269"/>
-      <c r="AA30" s="269"/>
-      <c r="AB30" s="269"/>
-      <c r="AC30" s="269"/>
-      <c r="AD30" s="269"/>
-      <c r="AE30" s="270"/>
-      <c r="AF30" s="265"/>
-      <c r="AG30" s="266"/>
-      <c r="AH30" s="266"/>
-      <c r="AI30" s="267"/>
+      <c r="B30" s="295"/>
+      <c r="C30" s="296"/>
+      <c r="D30" s="297"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="299"/>
+      <c r="G30" s="295"/>
+      <c r="H30" s="300"/>
+      <c r="I30" s="296"/>
+      <c r="J30" s="301"/>
+      <c r="K30" s="302"/>
+      <c r="L30" s="302"/>
+      <c r="M30" s="302"/>
+      <c r="N30" s="302"/>
+      <c r="O30" s="302"/>
+      <c r="P30" s="303"/>
+      <c r="Q30" s="304"/>
+      <c r="R30" s="305"/>
+      <c r="S30" s="305"/>
+      <c r="T30" s="305"/>
+      <c r="U30" s="305"/>
+      <c r="V30" s="305"/>
+      <c r="W30" s="305"/>
+      <c r="X30" s="305"/>
+      <c r="Y30" s="305"/>
+      <c r="Z30" s="305"/>
+      <c r="AA30" s="305"/>
+      <c r="AB30" s="305"/>
+      <c r="AC30" s="305"/>
+      <c r="AD30" s="305"/>
+      <c r="AE30" s="306"/>
+      <c r="AF30" s="301"/>
+      <c r="AG30" s="302"/>
+      <c r="AH30" s="302"/>
+      <c r="AI30" s="303"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="261"/>
-      <c r="E31" s="262"/>
-      <c r="F31" s="263"/>
-      <c r="G31" s="259"/>
-      <c r="H31" s="264"/>
-      <c r="I31" s="260"/>
-      <c r="J31" s="265"/>
-      <c r="K31" s="266"/>
-      <c r="L31" s="266"/>
-      <c r="M31" s="266"/>
-      <c r="N31" s="266"/>
-      <c r="O31" s="266"/>
-      <c r="P31" s="267"/>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="269"/>
-      <c r="S31" s="269"/>
-      <c r="T31" s="269"/>
-      <c r="U31" s="269"/>
-      <c r="V31" s="269"/>
-      <c r="W31" s="269"/>
-      <c r="X31" s="269"/>
-      <c r="Y31" s="269"/>
-      <c r="Z31" s="269"/>
-      <c r="AA31" s="269"/>
-      <c r="AB31" s="269"/>
-      <c r="AC31" s="269"/>
-      <c r="AD31" s="269"/>
-      <c r="AE31" s="270"/>
-      <c r="AF31" s="265"/>
-      <c r="AG31" s="266"/>
-      <c r="AH31" s="266"/>
-      <c r="AI31" s="267"/>
+      <c r="B31" s="295"/>
+      <c r="C31" s="296"/>
+      <c r="D31" s="297"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="299"/>
+      <c r="G31" s="295"/>
+      <c r="H31" s="300"/>
+      <c r="I31" s="296"/>
+      <c r="J31" s="301"/>
+      <c r="K31" s="302"/>
+      <c r="L31" s="302"/>
+      <c r="M31" s="302"/>
+      <c r="N31" s="302"/>
+      <c r="O31" s="302"/>
+      <c r="P31" s="303"/>
+      <c r="Q31" s="304"/>
+      <c r="R31" s="305"/>
+      <c r="S31" s="305"/>
+      <c r="T31" s="305"/>
+      <c r="U31" s="305"/>
+      <c r="V31" s="305"/>
+      <c r="W31" s="305"/>
+      <c r="X31" s="305"/>
+      <c r="Y31" s="305"/>
+      <c r="Z31" s="305"/>
+      <c r="AA31" s="305"/>
+      <c r="AB31" s="305"/>
+      <c r="AC31" s="305"/>
+      <c r="AD31" s="305"/>
+      <c r="AE31" s="306"/>
+      <c r="AF31" s="301"/>
+      <c r="AG31" s="302"/>
+      <c r="AH31" s="302"/>
+      <c r="AI31" s="303"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="259"/>
-      <c r="C32" s="260"/>
-      <c r="D32" s="261"/>
-      <c r="E32" s="262"/>
-      <c r="F32" s="263"/>
-      <c r="G32" s="259"/>
-      <c r="H32" s="264"/>
-      <c r="I32" s="260"/>
-      <c r="J32" s="265"/>
-      <c r="K32" s="271"/>
-      <c r="L32" s="266"/>
-      <c r="M32" s="266"/>
-      <c r="N32" s="266"/>
-      <c r="O32" s="266"/>
-      <c r="P32" s="267"/>
-      <c r="Q32" s="268"/>
-      <c r="R32" s="269"/>
-      <c r="S32" s="269"/>
-      <c r="T32" s="269"/>
-      <c r="U32" s="269"/>
-      <c r="V32" s="269"/>
-      <c r="W32" s="269"/>
-      <c r="X32" s="269"/>
-      <c r="Y32" s="269"/>
-      <c r="Z32" s="269"/>
-      <c r="AA32" s="269"/>
-      <c r="AB32" s="269"/>
-      <c r="AC32" s="269"/>
-      <c r="AD32" s="269"/>
-      <c r="AE32" s="270"/>
-      <c r="AF32" s="265"/>
-      <c r="AG32" s="266"/>
-      <c r="AH32" s="266"/>
-      <c r="AI32" s="267"/>
+      <c r="B32" s="295"/>
+      <c r="C32" s="296"/>
+      <c r="D32" s="297"/>
+      <c r="E32" s="298"/>
+      <c r="F32" s="299"/>
+      <c r="G32" s="295"/>
+      <c r="H32" s="300"/>
+      <c r="I32" s="296"/>
+      <c r="J32" s="301"/>
+      <c r="K32" s="320"/>
+      <c r="L32" s="302"/>
+      <c r="M32" s="302"/>
+      <c r="N32" s="302"/>
+      <c r="O32" s="302"/>
+      <c r="P32" s="303"/>
+      <c r="Q32" s="304"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="305"/>
+      <c r="T32" s="305"/>
+      <c r="U32" s="305"/>
+      <c r="V32" s="305"/>
+      <c r="W32" s="305"/>
+      <c r="X32" s="305"/>
+      <c r="Y32" s="305"/>
+      <c r="Z32" s="305"/>
+      <c r="AA32" s="305"/>
+      <c r="AB32" s="305"/>
+      <c r="AC32" s="305"/>
+      <c r="AD32" s="305"/>
+      <c r="AE32" s="306"/>
+      <c r="AF32" s="301"/>
+      <c r="AG32" s="302"/>
+      <c r="AH32" s="302"/>
+      <c r="AI32" s="303"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="259"/>
-      <c r="C33" s="260"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="259"/>
-      <c r="H33" s="264"/>
-      <c r="I33" s="260"/>
-      <c r="J33" s="265"/>
-      <c r="K33" s="266"/>
-      <c r="L33" s="266"/>
-      <c r="M33" s="266"/>
-      <c r="N33" s="266"/>
-      <c r="O33" s="266"/>
-      <c r="P33" s="267"/>
-      <c r="Q33" s="268"/>
-      <c r="R33" s="269"/>
-      <c r="S33" s="269"/>
-      <c r="T33" s="269"/>
-      <c r="U33" s="269"/>
-      <c r="V33" s="269"/>
-      <c r="W33" s="269"/>
-      <c r="X33" s="269"/>
-      <c r="Y33" s="269"/>
-      <c r="Z33" s="269"/>
-      <c r="AA33" s="269"/>
-      <c r="AB33" s="269"/>
-      <c r="AC33" s="269"/>
-      <c r="AD33" s="269"/>
-      <c r="AE33" s="270"/>
-      <c r="AF33" s="265"/>
-      <c r="AG33" s="266"/>
-      <c r="AH33" s="266"/>
-      <c r="AI33" s="267"/>
+      <c r="B33" s="295"/>
+      <c r="C33" s="296"/>
+      <c r="D33" s="297"/>
+      <c r="E33" s="298"/>
+      <c r="F33" s="299"/>
+      <c r="G33" s="295"/>
+      <c r="H33" s="300"/>
+      <c r="I33" s="296"/>
+      <c r="J33" s="301"/>
+      <c r="K33" s="302"/>
+      <c r="L33" s="302"/>
+      <c r="M33" s="302"/>
+      <c r="N33" s="302"/>
+      <c r="O33" s="302"/>
+      <c r="P33" s="303"/>
+      <c r="Q33" s="304"/>
+      <c r="R33" s="305"/>
+      <c r="S33" s="305"/>
+      <c r="T33" s="305"/>
+      <c r="U33" s="305"/>
+      <c r="V33" s="305"/>
+      <c r="W33" s="305"/>
+      <c r="X33" s="305"/>
+      <c r="Y33" s="305"/>
+      <c r="Z33" s="305"/>
+      <c r="AA33" s="305"/>
+      <c r="AB33" s="305"/>
+      <c r="AC33" s="305"/>
+      <c r="AD33" s="305"/>
+      <c r="AE33" s="306"/>
+      <c r="AF33" s="301"/>
+      <c r="AG33" s="302"/>
+      <c r="AH33" s="302"/>
+      <c r="AI33" s="303"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12499,162 +12655,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B8A55E-19D2-4617-AFD2-C491B965F55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002CACBA-0585-451E-AAFA-B0DD6D8E96F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,6 +76,20 @@
     <author>作成者</author>
   </authors>
   <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{C6BDB7C4-EA10-452C-AAB4-3A3E00F79D5A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>画面単位でリクエスト単体テストを実施するため、リクエストIDは不要。</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{3DEF94F8-1F3B-4C63-BC97-1D16BAC7EF2F}">
       <text>
         <r>
@@ -149,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="595">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -8033,6 +8047,10 @@
   </si>
   <si>
     <t>エビデンスNo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストID：</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -22816,7 +22834,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="11.5" thickBot="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="27" t="s">
+        <v>594</v>
+      </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="27"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ACC1DF-1BF8-47F9-9125-612E2468ED2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF2185-26F2-4FD2-92DD-8AAF713A8A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -9636,84 +9636,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9820,6 +9742,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9954,8 +9954,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="7905750" y="285750"/>
+          <a:ext cx="1390650" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -10662,9 +10662,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="6.625" style="1"/>
+    <col min="1" max="16384" width="6.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -10750,7 +10750,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75">
+    <row r="32" spans="6:11" ht="19">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -10758,12 +10758,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="18.75">
+    <row r="33" spans="6:10" ht="19">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="18.75">
+    <row r="34" spans="6:10" ht="19">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -11273,63 +11273,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="23"/>
+    <col min="1" max="16384" width="3.58203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="264" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="293" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="267" t="s">
         <v>549</v>
       </c>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="299" t="s">
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="273" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="300"/>
-      <c r="Q1" s="300"/>
-      <c r="R1" s="301"/>
-      <c r="S1" s="308" t="s">
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="275"/>
+      <c r="S1" s="282" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="309"/>
-      <c r="U1" s="309"/>
-      <c r="V1" s="309"/>
-      <c r="W1" s="309"/>
-      <c r="X1" s="309"/>
-      <c r="Y1" s="309"/>
-      <c r="Z1" s="310"/>
-      <c r="AA1" s="290" t="s">
+      <c r="T1" s="283"/>
+      <c r="U1" s="283"/>
+      <c r="V1" s="283"/>
+      <c r="W1" s="283"/>
+      <c r="X1" s="283"/>
+      <c r="Y1" s="283"/>
+      <c r="Z1" s="284"/>
+      <c r="AA1" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="292"/>
-      <c r="AC1" s="317" t="str">
+      <c r="AB1" s="266"/>
+      <c r="AC1" s="291" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="318"/>
-      <c r="AE1" s="318"/>
-      <c r="AF1" s="319"/>
-      <c r="AG1" s="284" t="str">
+      <c r="AD1" s="292"/>
+      <c r="AE1" s="292"/>
+      <c r="AF1" s="293"/>
+      <c r="AG1" s="258" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="285"/>
-      <c r="AI1" s="286"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="260"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11337,53 +11337,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="264" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="293" t="s">
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="267" t="s">
         <v>550</v>
       </c>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="295"/>
-      <c r="O2" s="302"/>
-      <c r="P2" s="303"/>
-      <c r="Q2" s="303"/>
-      <c r="R2" s="304"/>
-      <c r="S2" s="311"/>
-      <c r="T2" s="312"/>
-      <c r="U2" s="312"/>
-      <c r="V2" s="312"/>
-      <c r="W2" s="312"/>
-      <c r="X2" s="312"/>
-      <c r="Y2" s="312"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="290" t="s">
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="285"/>
+      <c r="T2" s="286"/>
+      <c r="U2" s="286"/>
+      <c r="V2" s="286"/>
+      <c r="W2" s="286"/>
+      <c r="X2" s="286"/>
+      <c r="Y2" s="286"/>
+      <c r="Z2" s="287"/>
+      <c r="AA2" s="264" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="296" t="str">
+      <c r="AB2" s="266"/>
+      <c r="AC2" s="270" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="297"/>
-      <c r="AE2" s="297"/>
-      <c r="AF2" s="298"/>
-      <c r="AG2" s="284" t="str">
+      <c r="AD2" s="271"/>
+      <c r="AE2" s="271"/>
+      <c r="AF2" s="272"/>
+      <c r="AG2" s="258" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="285"/>
-      <c r="AI2" s="286"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="260"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11391,45 +11391,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="264" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="293" t="s">
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="267" t="s">
         <v>551</v>
       </c>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294"/>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
-      <c r="M3" s="294"/>
-      <c r="N3" s="295"/>
-      <c r="O3" s="305"/>
-      <c r="P3" s="306"/>
-      <c r="Q3" s="306"/>
-      <c r="R3" s="307"/>
-      <c r="S3" s="314"/>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
-      <c r="V3" s="315"/>
-      <c r="W3" s="315"/>
-      <c r="X3" s="315"/>
-      <c r="Y3" s="315"/>
-      <c r="Z3" s="316"/>
-      <c r="AA3" s="290"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="317"/>
-      <c r="AD3" s="318"/>
-      <c r="AE3" s="318"/>
-      <c r="AF3" s="319"/>
-      <c r="AG3" s="284"/>
-      <c r="AH3" s="285"/>
-      <c r="AI3" s="286"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="268"/>
+      <c r="N3" s="269"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="280"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="288"/>
+      <c r="T3" s="289"/>
+      <c r="U3" s="289"/>
+      <c r="V3" s="289"/>
+      <c r="W3" s="289"/>
+      <c r="X3" s="289"/>
+      <c r="Y3" s="289"/>
+      <c r="Z3" s="290"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="266"/>
+      <c r="AC3" s="291"/>
+      <c r="AD3" s="292"/>
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="293"/>
+      <c r="AG3" s="258"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11466,1020 +11466,1176 @@
       <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="287" t="s">
+      <c r="B7" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="288"/>
-      <c r="D7" s="287" t="s">
+      <c r="C7" s="262"/>
+      <c r="D7" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="289"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="287" t="s">
+      <c r="E7" s="263"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="289"/>
-      <c r="I7" s="288"/>
-      <c r="J7" s="287" t="s">
+      <c r="H7" s="263"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="261" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="289"/>
-      <c r="L7" s="289"/>
-      <c r="M7" s="289"/>
-      <c r="N7" s="289"/>
-      <c r="O7" s="289"/>
-      <c r="P7" s="288"/>
-      <c r="Q7" s="287" t="s">
+      <c r="K7" s="263"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="263"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="263"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="289"/>
-      <c r="S7" s="289"/>
-      <c r="T7" s="289"/>
-      <c r="U7" s="289"/>
-      <c r="V7" s="289"/>
-      <c r="W7" s="289"/>
-      <c r="X7" s="289"/>
-      <c r="Y7" s="289"/>
-      <c r="Z7" s="289"/>
-      <c r="AA7" s="289"/>
-      <c r="AB7" s="289"/>
-      <c r="AC7" s="289"/>
-      <c r="AD7" s="289"/>
-      <c r="AE7" s="288"/>
-      <c r="AF7" s="287" t="s">
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="AG7" s="289"/>
-      <c r="AH7" s="289"/>
-      <c r="AI7" s="288"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="262"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="271"/>
-      <c r="C8" s="272"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="274"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="276"/>
-      <c r="H8" s="277"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="279"/>
-      <c r="L8" s="279"/>
-      <c r="M8" s="279"/>
-      <c r="N8" s="279"/>
-      <c r="O8" s="279"/>
-      <c r="P8" s="280"/>
-      <c r="Q8" s="281"/>
-      <c r="R8" s="282"/>
-      <c r="S8" s="282"/>
-      <c r="T8" s="282"/>
-      <c r="U8" s="282"/>
-      <c r="V8" s="282"/>
-      <c r="W8" s="282"/>
-      <c r="X8" s="282"/>
-      <c r="Y8" s="282"/>
-      <c r="Z8" s="282"/>
-      <c r="AA8" s="282"/>
-      <c r="AB8" s="282"/>
-      <c r="AC8" s="282"/>
-      <c r="AD8" s="282"/>
-      <c r="AE8" s="283"/>
-      <c r="AF8" s="278"/>
-      <c r="AG8" s="279"/>
-      <c r="AH8" s="279"/>
-      <c r="AI8" s="280"/>
+      <c r="B8" s="306"/>
+      <c r="C8" s="307"/>
+      <c r="D8" s="308"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="311"/>
+      <c r="H8" s="312"/>
+      <c r="I8" s="307"/>
+      <c r="J8" s="313"/>
+      <c r="K8" s="314"/>
+      <c r="L8" s="314"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="314"/>
+      <c r="O8" s="314"/>
+      <c r="P8" s="315"/>
+      <c r="Q8" s="316"/>
+      <c r="R8" s="317"/>
+      <c r="S8" s="317"/>
+      <c r="T8" s="317"/>
+      <c r="U8" s="317"/>
+      <c r="V8" s="317"/>
+      <c r="W8" s="317"/>
+      <c r="X8" s="317"/>
+      <c r="Y8" s="317"/>
+      <c r="Z8" s="317"/>
+      <c r="AA8" s="317"/>
+      <c r="AB8" s="317"/>
+      <c r="AC8" s="317"/>
+      <c r="AD8" s="317"/>
+      <c r="AE8" s="318"/>
+      <c r="AF8" s="313"/>
+      <c r="AG8" s="314"/>
+      <c r="AH8" s="314"/>
+      <c r="AI8" s="315"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="258"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="263"/>
-      <c r="I9" s="259"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="265"/>
-      <c r="L9" s="265"/>
-      <c r="M9" s="265"/>
-      <c r="N9" s="265"/>
-      <c r="O9" s="265"/>
-      <c r="P9" s="266"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="268"/>
-      <c r="T9" s="268"/>
-      <c r="U9" s="268"/>
-      <c r="V9" s="268"/>
-      <c r="W9" s="268"/>
-      <c r="X9" s="268"/>
-      <c r="Y9" s="268"/>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="268"/>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="269"/>
-      <c r="AF9" s="264"/>
-      <c r="AG9" s="265"/>
-      <c r="AH9" s="265"/>
-      <c r="AI9" s="266"/>
+      <c r="B9" s="294"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="297"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="296"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="301"/>
+      <c r="M9" s="301"/>
+      <c r="N9" s="301"/>
+      <c r="O9" s="301"/>
+      <c r="P9" s="302"/>
+      <c r="Q9" s="303"/>
+      <c r="R9" s="304"/>
+      <c r="S9" s="304"/>
+      <c r="T9" s="304"/>
+      <c r="U9" s="304"/>
+      <c r="V9" s="304"/>
+      <c r="W9" s="304"/>
+      <c r="X9" s="304"/>
+      <c r="Y9" s="304"/>
+      <c r="Z9" s="304"/>
+      <c r="AA9" s="304"/>
+      <c r="AB9" s="304"/>
+      <c r="AC9" s="304"/>
+      <c r="AD9" s="304"/>
+      <c r="AE9" s="305"/>
+      <c r="AF9" s="300"/>
+      <c r="AG9" s="301"/>
+      <c r="AH9" s="301"/>
+      <c r="AI9" s="302"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="258"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="258"/>
-      <c r="H10" s="263"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="264"/>
-      <c r="K10" s="265"/>
-      <c r="L10" s="265"/>
-      <c r="M10" s="265"/>
-      <c r="N10" s="265"/>
-      <c r="O10" s="265"/>
-      <c r="P10" s="266"/>
-      <c r="Q10" s="267"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="268"/>
-      <c r="T10" s="268"/>
-      <c r="U10" s="268"/>
-      <c r="V10" s="268"/>
-      <c r="W10" s="268"/>
-      <c r="X10" s="268"/>
-      <c r="Y10" s="268"/>
-      <c r="Z10" s="268"/>
-      <c r="AA10" s="268"/>
-      <c r="AB10" s="268"/>
-      <c r="AC10" s="268"/>
-      <c r="AD10" s="268"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="264"/>
-      <c r="AG10" s="265"/>
-      <c r="AH10" s="265"/>
-      <c r="AI10" s="266"/>
+      <c r="B10" s="294"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="297"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="294"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="295"/>
+      <c r="J10" s="300"/>
+      <c r="K10" s="301"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="301"/>
+      <c r="N10" s="301"/>
+      <c r="O10" s="301"/>
+      <c r="P10" s="302"/>
+      <c r="Q10" s="303"/>
+      <c r="R10" s="304"/>
+      <c r="S10" s="304"/>
+      <c r="T10" s="304"/>
+      <c r="U10" s="304"/>
+      <c r="V10" s="304"/>
+      <c r="W10" s="304"/>
+      <c r="X10" s="304"/>
+      <c r="Y10" s="304"/>
+      <c r="Z10" s="304"/>
+      <c r="AA10" s="304"/>
+      <c r="AB10" s="304"/>
+      <c r="AC10" s="304"/>
+      <c r="AD10" s="304"/>
+      <c r="AE10" s="305"/>
+      <c r="AF10" s="300"/>
+      <c r="AG10" s="301"/>
+      <c r="AH10" s="301"/>
+      <c r="AI10" s="302"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="258"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="262"/>
-      <c r="G11" s="258"/>
-      <c r="H11" s="263"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="264"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="265"/>
-      <c r="O11" s="265"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="267"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="269"/>
-      <c r="AF11" s="264"/>
-      <c r="AG11" s="265"/>
-      <c r="AH11" s="265"/>
-      <c r="AI11" s="266"/>
+      <c r="B11" s="294"/>
+      <c r="C11" s="295"/>
+      <c r="D11" s="296"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="298"/>
+      <c r="G11" s="294"/>
+      <c r="H11" s="299"/>
+      <c r="I11" s="295"/>
+      <c r="J11" s="300"/>
+      <c r="K11" s="301"/>
+      <c r="L11" s="301"/>
+      <c r="M11" s="301"/>
+      <c r="N11" s="301"/>
+      <c r="O11" s="301"/>
+      <c r="P11" s="302"/>
+      <c r="Q11" s="303"/>
+      <c r="R11" s="304"/>
+      <c r="S11" s="304"/>
+      <c r="T11" s="304"/>
+      <c r="U11" s="304"/>
+      <c r="V11" s="304"/>
+      <c r="W11" s="304"/>
+      <c r="X11" s="304"/>
+      <c r="Y11" s="304"/>
+      <c r="Z11" s="304"/>
+      <c r="AA11" s="304"/>
+      <c r="AB11" s="304"/>
+      <c r="AC11" s="304"/>
+      <c r="AD11" s="304"/>
+      <c r="AE11" s="305"/>
+      <c r="AF11" s="300"/>
+      <c r="AG11" s="301"/>
+      <c r="AH11" s="301"/>
+      <c r="AI11" s="302"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="258"/>
-      <c r="C12" s="259"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="261"/>
-      <c r="F12" s="262"/>
-      <c r="G12" s="258"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="264"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="265"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="265"/>
-      <c r="O12" s="265"/>
-      <c r="P12" s="266"/>
-      <c r="Q12" s="267"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="268"/>
-      <c r="U12" s="268"/>
-      <c r="V12" s="268"/>
-      <c r="W12" s="268"/>
-      <c r="X12" s="268"/>
-      <c r="Y12" s="268"/>
-      <c r="Z12" s="268"/>
-      <c r="AA12" s="268"/>
-      <c r="AB12" s="268"/>
-      <c r="AC12" s="268"/>
-      <c r="AD12" s="268"/>
-      <c r="AE12" s="269"/>
-      <c r="AF12" s="264"/>
-      <c r="AG12" s="265"/>
-      <c r="AH12" s="265"/>
-      <c r="AI12" s="266"/>
+      <c r="B12" s="294"/>
+      <c r="C12" s="295"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="297"/>
+      <c r="F12" s="298"/>
+      <c r="G12" s="294"/>
+      <c r="H12" s="299"/>
+      <c r="I12" s="295"/>
+      <c r="J12" s="300"/>
+      <c r="K12" s="301"/>
+      <c r="L12" s="301"/>
+      <c r="M12" s="301"/>
+      <c r="N12" s="301"/>
+      <c r="O12" s="301"/>
+      <c r="P12" s="302"/>
+      <c r="Q12" s="303"/>
+      <c r="R12" s="304"/>
+      <c r="S12" s="304"/>
+      <c r="T12" s="304"/>
+      <c r="U12" s="304"/>
+      <c r="V12" s="304"/>
+      <c r="W12" s="304"/>
+      <c r="X12" s="304"/>
+      <c r="Y12" s="304"/>
+      <c r="Z12" s="304"/>
+      <c r="AA12" s="304"/>
+      <c r="AB12" s="304"/>
+      <c r="AC12" s="304"/>
+      <c r="AD12" s="304"/>
+      <c r="AE12" s="305"/>
+      <c r="AF12" s="300"/>
+      <c r="AG12" s="301"/>
+      <c r="AH12" s="301"/>
+      <c r="AI12" s="302"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="258"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="262"/>
-      <c r="G13" s="258"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="264"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="265"/>
-      <c r="O13" s="265"/>
-      <c r="P13" s="266"/>
-      <c r="Q13" s="267"/>
-      <c r="R13" s="268"/>
-      <c r="S13" s="268"/>
-      <c r="T13" s="268"/>
-      <c r="U13" s="268"/>
-      <c r="V13" s="268"/>
-      <c r="W13" s="268"/>
-      <c r="X13" s="268"/>
-      <c r="Y13" s="268"/>
-      <c r="Z13" s="268"/>
-      <c r="AA13" s="268"/>
-      <c r="AB13" s="268"/>
-      <c r="AC13" s="268"/>
-      <c r="AD13" s="268"/>
-      <c r="AE13" s="269"/>
-      <c r="AF13" s="264"/>
-      <c r="AG13" s="265"/>
-      <c r="AH13" s="265"/>
-      <c r="AI13" s="266"/>
+      <c r="B13" s="294"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="295"/>
+      <c r="J13" s="300"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="301"/>
+      <c r="M13" s="301"/>
+      <c r="N13" s="301"/>
+      <c r="O13" s="301"/>
+      <c r="P13" s="302"/>
+      <c r="Q13" s="303"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="304"/>
+      <c r="T13" s="304"/>
+      <c r="U13" s="304"/>
+      <c r="V13" s="304"/>
+      <c r="W13" s="304"/>
+      <c r="X13" s="304"/>
+      <c r="Y13" s="304"/>
+      <c r="Z13" s="304"/>
+      <c r="AA13" s="304"/>
+      <c r="AB13" s="304"/>
+      <c r="AC13" s="304"/>
+      <c r="AD13" s="304"/>
+      <c r="AE13" s="305"/>
+      <c r="AF13" s="300"/>
+      <c r="AG13" s="301"/>
+      <c r="AH13" s="301"/>
+      <c r="AI13" s="302"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="258"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="258"/>
-      <c r="H14" s="263"/>
-      <c r="I14" s="259"/>
-      <c r="J14" s="264"/>
-      <c r="K14" s="265"/>
-      <c r="L14" s="265"/>
-      <c r="M14" s="265"/>
-      <c r="N14" s="265"/>
-      <c r="O14" s="265"/>
-      <c r="P14" s="266"/>
-      <c r="Q14" s="267"/>
-      <c r="R14" s="268"/>
-      <c r="S14" s="268"/>
-      <c r="T14" s="268"/>
-      <c r="U14" s="268"/>
-      <c r="V14" s="268"/>
-      <c r="W14" s="268"/>
-      <c r="X14" s="268"/>
-      <c r="Y14" s="268"/>
-      <c r="Z14" s="268"/>
-      <c r="AA14" s="268"/>
-      <c r="AB14" s="268"/>
-      <c r="AC14" s="268"/>
-      <c r="AD14" s="268"/>
-      <c r="AE14" s="269"/>
-      <c r="AF14" s="264"/>
-      <c r="AG14" s="265"/>
-      <c r="AH14" s="265"/>
-      <c r="AI14" s="266"/>
+      <c r="B14" s="294"/>
+      <c r="C14" s="295"/>
+      <c r="D14" s="296"/>
+      <c r="E14" s="297"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="295"/>
+      <c r="J14" s="300"/>
+      <c r="K14" s="301"/>
+      <c r="L14" s="301"/>
+      <c r="M14" s="301"/>
+      <c r="N14" s="301"/>
+      <c r="O14" s="301"/>
+      <c r="P14" s="302"/>
+      <c r="Q14" s="303"/>
+      <c r="R14" s="304"/>
+      <c r="S14" s="304"/>
+      <c r="T14" s="304"/>
+      <c r="U14" s="304"/>
+      <c r="V14" s="304"/>
+      <c r="W14" s="304"/>
+      <c r="X14" s="304"/>
+      <c r="Y14" s="304"/>
+      <c r="Z14" s="304"/>
+      <c r="AA14" s="304"/>
+      <c r="AB14" s="304"/>
+      <c r="AC14" s="304"/>
+      <c r="AD14" s="304"/>
+      <c r="AE14" s="305"/>
+      <c r="AF14" s="300"/>
+      <c r="AG14" s="301"/>
+      <c r="AH14" s="301"/>
+      <c r="AI14" s="302"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="258"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="261"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="263"/>
-      <c r="I15" s="259"/>
-      <c r="J15" s="264"/>
-      <c r="K15" s="265"/>
-      <c r="L15" s="265"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="265"/>
-      <c r="O15" s="265"/>
-      <c r="P15" s="266"/>
-      <c r="Q15" s="267"/>
-      <c r="R15" s="268"/>
-      <c r="S15" s="268"/>
-      <c r="T15" s="268"/>
-      <c r="U15" s="268"/>
-      <c r="V15" s="268"/>
-      <c r="W15" s="268"/>
-      <c r="X15" s="268"/>
-      <c r="Y15" s="268"/>
-      <c r="Z15" s="268"/>
-      <c r="AA15" s="268"/>
-      <c r="AB15" s="268"/>
-      <c r="AC15" s="268"/>
-      <c r="AD15" s="268"/>
-      <c r="AE15" s="269"/>
-      <c r="AF15" s="264"/>
-      <c r="AG15" s="265"/>
-      <c r="AH15" s="265"/>
-      <c r="AI15" s="266"/>
+      <c r="B15" s="294"/>
+      <c r="C15" s="295"/>
+      <c r="D15" s="296"/>
+      <c r="E15" s="297"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="295"/>
+      <c r="J15" s="300"/>
+      <c r="K15" s="301"/>
+      <c r="L15" s="301"/>
+      <c r="M15" s="301"/>
+      <c r="N15" s="301"/>
+      <c r="O15" s="301"/>
+      <c r="P15" s="302"/>
+      <c r="Q15" s="303"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="304"/>
+      <c r="T15" s="304"/>
+      <c r="U15" s="304"/>
+      <c r="V15" s="304"/>
+      <c r="W15" s="304"/>
+      <c r="X15" s="304"/>
+      <c r="Y15" s="304"/>
+      <c r="Z15" s="304"/>
+      <c r="AA15" s="304"/>
+      <c r="AB15" s="304"/>
+      <c r="AC15" s="304"/>
+      <c r="AD15" s="304"/>
+      <c r="AE15" s="305"/>
+      <c r="AF15" s="300"/>
+      <c r="AG15" s="301"/>
+      <c r="AH15" s="301"/>
+      <c r="AI15" s="302"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="258"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="258"/>
-      <c r="H16" s="263"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="264"/>
-      <c r="K16" s="265"/>
-      <c r="L16" s="265"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="265"/>
-      <c r="O16" s="265"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="267"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="268"/>
-      <c r="T16" s="268"/>
-      <c r="U16" s="268"/>
-      <c r="V16" s="268"/>
-      <c r="W16" s="268"/>
-      <c r="X16" s="268"/>
-      <c r="Y16" s="268"/>
-      <c r="Z16" s="268"/>
-      <c r="AA16" s="268"/>
-      <c r="AB16" s="268"/>
-      <c r="AC16" s="268"/>
-      <c r="AD16" s="268"/>
-      <c r="AE16" s="269"/>
-      <c r="AF16" s="264"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="266"/>
+      <c r="B16" s="294"/>
+      <c r="C16" s="295"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="297"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="295"/>
+      <c r="J16" s="300"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="302"/>
+      <c r="Q16" s="303"/>
+      <c r="R16" s="304"/>
+      <c r="S16" s="304"/>
+      <c r="T16" s="304"/>
+      <c r="U16" s="304"/>
+      <c r="V16" s="304"/>
+      <c r="W16" s="304"/>
+      <c r="X16" s="304"/>
+      <c r="Y16" s="304"/>
+      <c r="Z16" s="304"/>
+      <c r="AA16" s="304"/>
+      <c r="AB16" s="304"/>
+      <c r="AC16" s="304"/>
+      <c r="AD16" s="304"/>
+      <c r="AE16" s="305"/>
+      <c r="AF16" s="300"/>
+      <c r="AG16" s="301"/>
+      <c r="AH16" s="301"/>
+      <c r="AI16" s="302"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="263"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="264"/>
-      <c r="K17" s="265"/>
-      <c r="L17" s="265"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="265"/>
-      <c r="O17" s="265"/>
-      <c r="P17" s="266"/>
-      <c r="Q17" s="267"/>
-      <c r="R17" s="268"/>
-      <c r="S17" s="268"/>
-      <c r="T17" s="268"/>
-      <c r="U17" s="268"/>
-      <c r="V17" s="268"/>
-      <c r="W17" s="268"/>
-      <c r="X17" s="268"/>
-      <c r="Y17" s="268"/>
-      <c r="Z17" s="268"/>
-      <c r="AA17" s="268"/>
-      <c r="AB17" s="268"/>
-      <c r="AC17" s="268"/>
-      <c r="AD17" s="268"/>
-      <c r="AE17" s="269"/>
-      <c r="AF17" s="264"/>
-      <c r="AG17" s="265"/>
-      <c r="AH17" s="265"/>
-      <c r="AI17" s="266"/>
+      <c r="B17" s="294"/>
+      <c r="C17" s="295"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="297"/>
+      <c r="F17" s="298"/>
+      <c r="G17" s="294"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="295"/>
+      <c r="J17" s="300"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="302"/>
+      <c r="Q17" s="303"/>
+      <c r="R17" s="304"/>
+      <c r="S17" s="304"/>
+      <c r="T17" s="304"/>
+      <c r="U17" s="304"/>
+      <c r="V17" s="304"/>
+      <c r="W17" s="304"/>
+      <c r="X17" s="304"/>
+      <c r="Y17" s="304"/>
+      <c r="Z17" s="304"/>
+      <c r="AA17" s="304"/>
+      <c r="AB17" s="304"/>
+      <c r="AC17" s="304"/>
+      <c r="AD17" s="304"/>
+      <c r="AE17" s="305"/>
+      <c r="AF17" s="300"/>
+      <c r="AG17" s="301"/>
+      <c r="AH17" s="301"/>
+      <c r="AI17" s="302"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="258"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="264"/>
-      <c r="K18" s="265"/>
-      <c r="L18" s="265"/>
-      <c r="M18" s="265"/>
-      <c r="N18" s="265"/>
-      <c r="O18" s="265"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="267"/>
-      <c r="R18" s="268"/>
-      <c r="S18" s="268"/>
-      <c r="T18" s="268"/>
-      <c r="U18" s="268"/>
-      <c r="V18" s="268"/>
-      <c r="W18" s="268"/>
-      <c r="X18" s="268"/>
-      <c r="Y18" s="268"/>
-      <c r="Z18" s="268"/>
-      <c r="AA18" s="268"/>
-      <c r="AB18" s="268"/>
-      <c r="AC18" s="268"/>
-      <c r="AD18" s="268"/>
-      <c r="AE18" s="269"/>
-      <c r="AF18" s="264"/>
-      <c r="AG18" s="265"/>
-      <c r="AH18" s="265"/>
-      <c r="AI18" s="266"/>
+      <c r="B18" s="294"/>
+      <c r="C18" s="295"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="297"/>
+      <c r="F18" s="298"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="295"/>
+      <c r="J18" s="300"/>
+      <c r="K18" s="301"/>
+      <c r="L18" s="301"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="302"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="304"/>
+      <c r="S18" s="304"/>
+      <c r="T18" s="304"/>
+      <c r="U18" s="304"/>
+      <c r="V18" s="304"/>
+      <c r="W18" s="304"/>
+      <c r="X18" s="304"/>
+      <c r="Y18" s="304"/>
+      <c r="Z18" s="304"/>
+      <c r="AA18" s="304"/>
+      <c r="AB18" s="304"/>
+      <c r="AC18" s="304"/>
+      <c r="AD18" s="304"/>
+      <c r="AE18" s="305"/>
+      <c r="AF18" s="300"/>
+      <c r="AG18" s="301"/>
+      <c r="AH18" s="301"/>
+      <c r="AI18" s="302"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="258"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="261"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="258"/>
-      <c r="H19" s="263"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="264"/>
-      <c r="K19" s="265"/>
-      <c r="L19" s="265"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="265"/>
-      <c r="O19" s="265"/>
-      <c r="P19" s="266"/>
-      <c r="Q19" s="267"/>
-      <c r="R19" s="268"/>
-      <c r="S19" s="268"/>
-      <c r="T19" s="268"/>
-      <c r="U19" s="268"/>
-      <c r="V19" s="268"/>
-      <c r="W19" s="268"/>
-      <c r="X19" s="268"/>
-      <c r="Y19" s="268"/>
-      <c r="Z19" s="268"/>
-      <c r="AA19" s="268"/>
-      <c r="AB19" s="268"/>
-      <c r="AC19" s="268"/>
-      <c r="AD19" s="268"/>
-      <c r="AE19" s="269"/>
-      <c r="AF19" s="264"/>
-      <c r="AG19" s="265"/>
-      <c r="AH19" s="265"/>
-      <c r="AI19" s="266"/>
+      <c r="B19" s="294"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="295"/>
+      <c r="J19" s="300"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="301"/>
+      <c r="P19" s="302"/>
+      <c r="Q19" s="303"/>
+      <c r="R19" s="304"/>
+      <c r="S19" s="304"/>
+      <c r="T19" s="304"/>
+      <c r="U19" s="304"/>
+      <c r="V19" s="304"/>
+      <c r="W19" s="304"/>
+      <c r="X19" s="304"/>
+      <c r="Y19" s="304"/>
+      <c r="Z19" s="304"/>
+      <c r="AA19" s="304"/>
+      <c r="AB19" s="304"/>
+      <c r="AC19" s="304"/>
+      <c r="AD19" s="304"/>
+      <c r="AE19" s="305"/>
+      <c r="AF19" s="300"/>
+      <c r="AG19" s="301"/>
+      <c r="AH19" s="301"/>
+      <c r="AI19" s="302"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="258"/>
-      <c r="C20" s="259"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="262"/>
-      <c r="G20" s="258"/>
-      <c r="H20" s="263"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="264"/>
-      <c r="K20" s="265"/>
-      <c r="L20" s="265"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="265"/>
-      <c r="O20" s="265"/>
-      <c r="P20" s="266"/>
-      <c r="Q20" s="267"/>
-      <c r="R20" s="268"/>
-      <c r="S20" s="268"/>
-      <c r="T20" s="268"/>
-      <c r="U20" s="268"/>
-      <c r="V20" s="268"/>
-      <c r="W20" s="268"/>
-      <c r="X20" s="268"/>
-      <c r="Y20" s="268"/>
-      <c r="Z20" s="268"/>
-      <c r="AA20" s="268"/>
-      <c r="AB20" s="268"/>
-      <c r="AC20" s="268"/>
-      <c r="AD20" s="268"/>
-      <c r="AE20" s="269"/>
-      <c r="AF20" s="264"/>
-      <c r="AG20" s="265"/>
-      <c r="AH20" s="265"/>
-      <c r="AI20" s="266"/>
+      <c r="B20" s="294"/>
+      <c r="C20" s="295"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="297"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="295"/>
+      <c r="J20" s="300"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="301"/>
+      <c r="M20" s="301"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="301"/>
+      <c r="P20" s="302"/>
+      <c r="Q20" s="303"/>
+      <c r="R20" s="304"/>
+      <c r="S20" s="304"/>
+      <c r="T20" s="304"/>
+      <c r="U20" s="304"/>
+      <c r="V20" s="304"/>
+      <c r="W20" s="304"/>
+      <c r="X20" s="304"/>
+      <c r="Y20" s="304"/>
+      <c r="Z20" s="304"/>
+      <c r="AA20" s="304"/>
+      <c r="AB20" s="304"/>
+      <c r="AC20" s="304"/>
+      <c r="AD20" s="304"/>
+      <c r="AE20" s="305"/>
+      <c r="AF20" s="300"/>
+      <c r="AG20" s="301"/>
+      <c r="AH20" s="301"/>
+      <c r="AI20" s="302"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="258"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="262"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="263"/>
-      <c r="I21" s="259"/>
-      <c r="J21" s="264"/>
-      <c r="K21" s="265"/>
-      <c r="L21" s="265"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="265"/>
-      <c r="O21" s="265"/>
-      <c r="P21" s="266"/>
-      <c r="Q21" s="267"/>
-      <c r="R21" s="268"/>
-      <c r="S21" s="268"/>
-      <c r="T21" s="268"/>
-      <c r="U21" s="268"/>
-      <c r="V21" s="268"/>
-      <c r="W21" s="268"/>
-      <c r="X21" s="268"/>
-      <c r="Y21" s="268"/>
-      <c r="Z21" s="268"/>
-      <c r="AA21" s="268"/>
-      <c r="AB21" s="268"/>
-      <c r="AC21" s="268"/>
-      <c r="AD21" s="268"/>
-      <c r="AE21" s="269"/>
-      <c r="AF21" s="264"/>
-      <c r="AG21" s="265"/>
-      <c r="AH21" s="265"/>
-      <c r="AI21" s="266"/>
+      <c r="B21" s="294"/>
+      <c r="C21" s="295"/>
+      <c r="D21" s="296"/>
+      <c r="E21" s="297"/>
+      <c r="F21" s="298"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="295"/>
+      <c r="J21" s="300"/>
+      <c r="K21" s="301"/>
+      <c r="L21" s="301"/>
+      <c r="M21" s="301"/>
+      <c r="N21" s="301"/>
+      <c r="O21" s="301"/>
+      <c r="P21" s="302"/>
+      <c r="Q21" s="303"/>
+      <c r="R21" s="304"/>
+      <c r="S21" s="304"/>
+      <c r="T21" s="304"/>
+      <c r="U21" s="304"/>
+      <c r="V21" s="304"/>
+      <c r="W21" s="304"/>
+      <c r="X21" s="304"/>
+      <c r="Y21" s="304"/>
+      <c r="Z21" s="304"/>
+      <c r="AA21" s="304"/>
+      <c r="AB21" s="304"/>
+      <c r="AC21" s="304"/>
+      <c r="AD21" s="304"/>
+      <c r="AE21" s="305"/>
+      <c r="AF21" s="300"/>
+      <c r="AG21" s="301"/>
+      <c r="AH21" s="301"/>
+      <c r="AI21" s="302"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="258"/>
-      <c r="C22" s="259"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="261"/>
-      <c r="F22" s="262"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="263"/>
-      <c r="I22" s="259"/>
-      <c r="J22" s="264"/>
-      <c r="K22" s="265"/>
-      <c r="L22" s="265"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="265"/>
-      <c r="O22" s="265"/>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="267"/>
-      <c r="R22" s="268"/>
-      <c r="S22" s="268"/>
-      <c r="T22" s="268"/>
-      <c r="U22" s="268"/>
-      <c r="V22" s="268"/>
-      <c r="W22" s="268"/>
-      <c r="X22" s="268"/>
-      <c r="Y22" s="268"/>
-      <c r="Z22" s="268"/>
-      <c r="AA22" s="268"/>
-      <c r="AB22" s="268"/>
-      <c r="AC22" s="268"/>
-      <c r="AD22" s="268"/>
-      <c r="AE22" s="269"/>
-      <c r="AF22" s="264"/>
-      <c r="AG22" s="265"/>
-      <c r="AH22" s="265"/>
-      <c r="AI22" s="266"/>
+      <c r="B22" s="294"/>
+      <c r="C22" s="295"/>
+      <c r="D22" s="296"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="298"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="295"/>
+      <c r="J22" s="300"/>
+      <c r="K22" s="301"/>
+      <c r="L22" s="301"/>
+      <c r="M22" s="301"/>
+      <c r="N22" s="301"/>
+      <c r="O22" s="301"/>
+      <c r="P22" s="302"/>
+      <c r="Q22" s="303"/>
+      <c r="R22" s="304"/>
+      <c r="S22" s="304"/>
+      <c r="T22" s="304"/>
+      <c r="U22" s="304"/>
+      <c r="V22" s="304"/>
+      <c r="W22" s="304"/>
+      <c r="X22" s="304"/>
+      <c r="Y22" s="304"/>
+      <c r="Z22" s="304"/>
+      <c r="AA22" s="304"/>
+      <c r="AB22" s="304"/>
+      <c r="AC22" s="304"/>
+      <c r="AD22" s="304"/>
+      <c r="AE22" s="305"/>
+      <c r="AF22" s="300"/>
+      <c r="AG22" s="301"/>
+      <c r="AH22" s="301"/>
+      <c r="AI22" s="302"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="258"/>
-      <c r="C23" s="259"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="261"/>
-      <c r="F23" s="262"/>
-      <c r="G23" s="258"/>
-      <c r="H23" s="263"/>
-      <c r="I23" s="259"/>
-      <c r="J23" s="264"/>
-      <c r="K23" s="265"/>
-      <c r="L23" s="265"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="265"/>
-      <c r="O23" s="265"/>
-      <c r="P23" s="266"/>
-      <c r="Q23" s="267"/>
-      <c r="R23" s="268"/>
-      <c r="S23" s="268"/>
-      <c r="T23" s="268"/>
-      <c r="U23" s="268"/>
-      <c r="V23" s="268"/>
-      <c r="W23" s="268"/>
-      <c r="X23" s="268"/>
-      <c r="Y23" s="268"/>
-      <c r="Z23" s="268"/>
-      <c r="AA23" s="268"/>
-      <c r="AB23" s="268"/>
-      <c r="AC23" s="268"/>
-      <c r="AD23" s="268"/>
-      <c r="AE23" s="269"/>
-      <c r="AF23" s="264"/>
-      <c r="AG23" s="265"/>
-      <c r="AH23" s="265"/>
-      <c r="AI23" s="266"/>
+      <c r="B23" s="294"/>
+      <c r="C23" s="295"/>
+      <c r="D23" s="296"/>
+      <c r="E23" s="297"/>
+      <c r="F23" s="298"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="299"/>
+      <c r="I23" s="295"/>
+      <c r="J23" s="300"/>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="301"/>
+      <c r="O23" s="301"/>
+      <c r="P23" s="302"/>
+      <c r="Q23" s="303"/>
+      <c r="R23" s="304"/>
+      <c r="S23" s="304"/>
+      <c r="T23" s="304"/>
+      <c r="U23" s="304"/>
+      <c r="V23" s="304"/>
+      <c r="W23" s="304"/>
+      <c r="X23" s="304"/>
+      <c r="Y23" s="304"/>
+      <c r="Z23" s="304"/>
+      <c r="AA23" s="304"/>
+      <c r="AB23" s="304"/>
+      <c r="AC23" s="304"/>
+      <c r="AD23" s="304"/>
+      <c r="AE23" s="305"/>
+      <c r="AF23" s="300"/>
+      <c r="AG23" s="301"/>
+      <c r="AH23" s="301"/>
+      <c r="AI23" s="302"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="258"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="261"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="263"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="264"/>
-      <c r="K24" s="265"/>
-      <c r="L24" s="265"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="265"/>
-      <c r="O24" s="265"/>
-      <c r="P24" s="266"/>
-      <c r="Q24" s="267"/>
-      <c r="R24" s="268"/>
-      <c r="S24" s="268"/>
-      <c r="T24" s="268"/>
-      <c r="U24" s="268"/>
-      <c r="V24" s="268"/>
-      <c r="W24" s="268"/>
-      <c r="X24" s="268"/>
-      <c r="Y24" s="268"/>
-      <c r="Z24" s="268"/>
-      <c r="AA24" s="268"/>
-      <c r="AB24" s="268"/>
-      <c r="AC24" s="268"/>
-      <c r="AD24" s="268"/>
-      <c r="AE24" s="269"/>
-      <c r="AF24" s="264"/>
-      <c r="AG24" s="265"/>
-      <c r="AH24" s="265"/>
-      <c r="AI24" s="266"/>
+      <c r="B24" s="294"/>
+      <c r="C24" s="295"/>
+      <c r="D24" s="296"/>
+      <c r="E24" s="297"/>
+      <c r="F24" s="298"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="299"/>
+      <c r="I24" s="295"/>
+      <c r="J24" s="300"/>
+      <c r="K24" s="301"/>
+      <c r="L24" s="301"/>
+      <c r="M24" s="301"/>
+      <c r="N24" s="301"/>
+      <c r="O24" s="301"/>
+      <c r="P24" s="302"/>
+      <c r="Q24" s="303"/>
+      <c r="R24" s="304"/>
+      <c r="S24" s="304"/>
+      <c r="T24" s="304"/>
+      <c r="U24" s="304"/>
+      <c r="V24" s="304"/>
+      <c r="W24" s="304"/>
+      <c r="X24" s="304"/>
+      <c r="Y24" s="304"/>
+      <c r="Z24" s="304"/>
+      <c r="AA24" s="304"/>
+      <c r="AB24" s="304"/>
+      <c r="AC24" s="304"/>
+      <c r="AD24" s="304"/>
+      <c r="AE24" s="305"/>
+      <c r="AF24" s="300"/>
+      <c r="AG24" s="301"/>
+      <c r="AH24" s="301"/>
+      <c r="AI24" s="302"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="258"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="261"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="263"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="264"/>
-      <c r="K25" s="265"/>
-      <c r="L25" s="265"/>
-      <c r="M25" s="265"/>
-      <c r="N25" s="265"/>
-      <c r="O25" s="265"/>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="267"/>
-      <c r="R25" s="268"/>
-      <c r="S25" s="268"/>
-      <c r="T25" s="268"/>
-      <c r="U25" s="268"/>
-      <c r="V25" s="268"/>
-      <c r="W25" s="268"/>
-      <c r="X25" s="268"/>
-      <c r="Y25" s="268"/>
-      <c r="Z25" s="268"/>
-      <c r="AA25" s="268"/>
-      <c r="AB25" s="268"/>
-      <c r="AC25" s="268"/>
-      <c r="AD25" s="268"/>
-      <c r="AE25" s="269"/>
-      <c r="AF25" s="264"/>
-      <c r="AG25" s="265"/>
-      <c r="AH25" s="265"/>
-      <c r="AI25" s="266"/>
+      <c r="B25" s="294"/>
+      <c r="C25" s="295"/>
+      <c r="D25" s="296"/>
+      <c r="E25" s="297"/>
+      <c r="F25" s="298"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="299"/>
+      <c r="I25" s="295"/>
+      <c r="J25" s="300"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="301"/>
+      <c r="M25" s="301"/>
+      <c r="N25" s="301"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="302"/>
+      <c r="Q25" s="303"/>
+      <c r="R25" s="304"/>
+      <c r="S25" s="304"/>
+      <c r="T25" s="304"/>
+      <c r="U25" s="304"/>
+      <c r="V25" s="304"/>
+      <c r="W25" s="304"/>
+      <c r="X25" s="304"/>
+      <c r="Y25" s="304"/>
+      <c r="Z25" s="304"/>
+      <c r="AA25" s="304"/>
+      <c r="AB25" s="304"/>
+      <c r="AC25" s="304"/>
+      <c r="AD25" s="304"/>
+      <c r="AE25" s="305"/>
+      <c r="AF25" s="300"/>
+      <c r="AG25" s="301"/>
+      <c r="AH25" s="301"/>
+      <c r="AI25" s="302"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="258"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="261"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="264"/>
-      <c r="K26" s="265"/>
-      <c r="L26" s="265"/>
-      <c r="M26" s="265"/>
-      <c r="N26" s="265"/>
-      <c r="O26" s="265"/>
-      <c r="P26" s="266"/>
-      <c r="Q26" s="267"/>
-      <c r="R26" s="268"/>
-      <c r="S26" s="268"/>
-      <c r="T26" s="268"/>
-      <c r="U26" s="268"/>
-      <c r="V26" s="268"/>
-      <c r="W26" s="268"/>
-      <c r="X26" s="268"/>
-      <c r="Y26" s="268"/>
-      <c r="Z26" s="268"/>
-      <c r="AA26" s="268"/>
-      <c r="AB26" s="268"/>
-      <c r="AC26" s="268"/>
-      <c r="AD26" s="268"/>
-      <c r="AE26" s="269"/>
-      <c r="AF26" s="264"/>
-      <c r="AG26" s="265"/>
-      <c r="AH26" s="265"/>
-      <c r="AI26" s="266"/>
+      <c r="B26" s="294"/>
+      <c r="C26" s="295"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="297"/>
+      <c r="F26" s="298"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="299"/>
+      <c r="I26" s="295"/>
+      <c r="J26" s="300"/>
+      <c r="K26" s="301"/>
+      <c r="L26" s="301"/>
+      <c r="M26" s="301"/>
+      <c r="N26" s="301"/>
+      <c r="O26" s="301"/>
+      <c r="P26" s="302"/>
+      <c r="Q26" s="303"/>
+      <c r="R26" s="304"/>
+      <c r="S26" s="304"/>
+      <c r="T26" s="304"/>
+      <c r="U26" s="304"/>
+      <c r="V26" s="304"/>
+      <c r="W26" s="304"/>
+      <c r="X26" s="304"/>
+      <c r="Y26" s="304"/>
+      <c r="Z26" s="304"/>
+      <c r="AA26" s="304"/>
+      <c r="AB26" s="304"/>
+      <c r="AC26" s="304"/>
+      <c r="AD26" s="304"/>
+      <c r="AE26" s="305"/>
+      <c r="AF26" s="300"/>
+      <c r="AG26" s="301"/>
+      <c r="AH26" s="301"/>
+      <c r="AI26" s="302"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="261"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="259"/>
-      <c r="J27" s="264"/>
-      <c r="K27" s="265"/>
-      <c r="L27" s="265"/>
-      <c r="M27" s="265"/>
-      <c r="N27" s="265"/>
-      <c r="O27" s="265"/>
-      <c r="P27" s="266"/>
-      <c r="Q27" s="267"/>
-      <c r="R27" s="268"/>
-      <c r="S27" s="268"/>
-      <c r="T27" s="268"/>
-      <c r="U27" s="268"/>
-      <c r="V27" s="268"/>
-      <c r="W27" s="268"/>
-      <c r="X27" s="268"/>
-      <c r="Y27" s="268"/>
-      <c r="Z27" s="268"/>
-      <c r="AA27" s="268"/>
-      <c r="AB27" s="268"/>
-      <c r="AC27" s="268"/>
-      <c r="AD27" s="268"/>
-      <c r="AE27" s="269"/>
-      <c r="AF27" s="264"/>
-      <c r="AG27" s="265"/>
-      <c r="AH27" s="265"/>
-      <c r="AI27" s="266"/>
+      <c r="B27" s="294"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="296"/>
+      <c r="E27" s="297"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="299"/>
+      <c r="I27" s="295"/>
+      <c r="J27" s="300"/>
+      <c r="K27" s="301"/>
+      <c r="L27" s="301"/>
+      <c r="M27" s="301"/>
+      <c r="N27" s="301"/>
+      <c r="O27" s="301"/>
+      <c r="P27" s="302"/>
+      <c r="Q27" s="303"/>
+      <c r="R27" s="304"/>
+      <c r="S27" s="304"/>
+      <c r="T27" s="304"/>
+      <c r="U27" s="304"/>
+      <c r="V27" s="304"/>
+      <c r="W27" s="304"/>
+      <c r="X27" s="304"/>
+      <c r="Y27" s="304"/>
+      <c r="Z27" s="304"/>
+      <c r="AA27" s="304"/>
+      <c r="AB27" s="304"/>
+      <c r="AC27" s="304"/>
+      <c r="AD27" s="304"/>
+      <c r="AE27" s="305"/>
+      <c r="AF27" s="300"/>
+      <c r="AG27" s="301"/>
+      <c r="AH27" s="301"/>
+      <c r="AI27" s="302"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="258"/>
-      <c r="C28" s="259"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="261"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="263"/>
-      <c r="I28" s="259"/>
-      <c r="J28" s="264"/>
-      <c r="K28" s="265"/>
-      <c r="L28" s="265"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="265"/>
-      <c r="O28" s="265"/>
-      <c r="P28" s="266"/>
-      <c r="Q28" s="267"/>
-      <c r="R28" s="268"/>
-      <c r="S28" s="268"/>
-      <c r="T28" s="268"/>
-      <c r="U28" s="268"/>
-      <c r="V28" s="268"/>
-      <c r="W28" s="268"/>
-      <c r="X28" s="268"/>
-      <c r="Y28" s="268"/>
-      <c r="Z28" s="268"/>
-      <c r="AA28" s="268"/>
-      <c r="AB28" s="268"/>
-      <c r="AC28" s="268"/>
-      <c r="AD28" s="268"/>
-      <c r="AE28" s="269"/>
-      <c r="AF28" s="264"/>
-      <c r="AG28" s="265"/>
-      <c r="AH28" s="265"/>
-      <c r="AI28" s="266"/>
+      <c r="B28" s="294"/>
+      <c r="C28" s="295"/>
+      <c r="D28" s="296"/>
+      <c r="E28" s="297"/>
+      <c r="F28" s="298"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="299"/>
+      <c r="I28" s="295"/>
+      <c r="J28" s="300"/>
+      <c r="K28" s="301"/>
+      <c r="L28" s="301"/>
+      <c r="M28" s="301"/>
+      <c r="N28" s="301"/>
+      <c r="O28" s="301"/>
+      <c r="P28" s="302"/>
+      <c r="Q28" s="303"/>
+      <c r="R28" s="304"/>
+      <c r="S28" s="304"/>
+      <c r="T28" s="304"/>
+      <c r="U28" s="304"/>
+      <c r="V28" s="304"/>
+      <c r="W28" s="304"/>
+      <c r="X28" s="304"/>
+      <c r="Y28" s="304"/>
+      <c r="Z28" s="304"/>
+      <c r="AA28" s="304"/>
+      <c r="AB28" s="304"/>
+      <c r="AC28" s="304"/>
+      <c r="AD28" s="304"/>
+      <c r="AE28" s="305"/>
+      <c r="AF28" s="300"/>
+      <c r="AG28" s="301"/>
+      <c r="AH28" s="301"/>
+      <c r="AI28" s="302"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="258"/>
-      <c r="C29" s="259"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="261"/>
-      <c r="F29" s="262"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="263"/>
-      <c r="I29" s="259"/>
-      <c r="J29" s="264"/>
-      <c r="K29" s="265"/>
-      <c r="L29" s="265"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="265"/>
-      <c r="O29" s="265"/>
-      <c r="P29" s="266"/>
-      <c r="Q29" s="267"/>
-      <c r="R29" s="268"/>
-      <c r="S29" s="268"/>
-      <c r="T29" s="268"/>
-      <c r="U29" s="268"/>
-      <c r="V29" s="268"/>
-      <c r="W29" s="268"/>
-      <c r="X29" s="268"/>
-      <c r="Y29" s="268"/>
-      <c r="Z29" s="268"/>
-      <c r="AA29" s="268"/>
-      <c r="AB29" s="268"/>
-      <c r="AC29" s="268"/>
-      <c r="AD29" s="268"/>
-      <c r="AE29" s="269"/>
-      <c r="AF29" s="264"/>
-      <c r="AG29" s="265"/>
-      <c r="AH29" s="265"/>
-      <c r="AI29" s="266"/>
+      <c r="B29" s="294"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="298"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="299"/>
+      <c r="I29" s="295"/>
+      <c r="J29" s="300"/>
+      <c r="K29" s="301"/>
+      <c r="L29" s="301"/>
+      <c r="M29" s="301"/>
+      <c r="N29" s="301"/>
+      <c r="O29" s="301"/>
+      <c r="P29" s="302"/>
+      <c r="Q29" s="303"/>
+      <c r="R29" s="304"/>
+      <c r="S29" s="304"/>
+      <c r="T29" s="304"/>
+      <c r="U29" s="304"/>
+      <c r="V29" s="304"/>
+      <c r="W29" s="304"/>
+      <c r="X29" s="304"/>
+      <c r="Y29" s="304"/>
+      <c r="Z29" s="304"/>
+      <c r="AA29" s="304"/>
+      <c r="AB29" s="304"/>
+      <c r="AC29" s="304"/>
+      <c r="AD29" s="304"/>
+      <c r="AE29" s="305"/>
+      <c r="AF29" s="300"/>
+      <c r="AG29" s="301"/>
+      <c r="AH29" s="301"/>
+      <c r="AI29" s="302"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="258"/>
-      <c r="C30" s="259"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="261"/>
-      <c r="F30" s="262"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="263"/>
-      <c r="I30" s="259"/>
-      <c r="J30" s="264"/>
-      <c r="K30" s="265"/>
-      <c r="L30" s="265"/>
-      <c r="M30" s="265"/>
-      <c r="N30" s="265"/>
-      <c r="O30" s="265"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="268"/>
-      <c r="S30" s="268"/>
-      <c r="T30" s="268"/>
-      <c r="U30" s="268"/>
-      <c r="V30" s="268"/>
-      <c r="W30" s="268"/>
-      <c r="X30" s="268"/>
-      <c r="Y30" s="268"/>
-      <c r="Z30" s="268"/>
-      <c r="AA30" s="268"/>
-      <c r="AB30" s="268"/>
-      <c r="AC30" s="268"/>
-      <c r="AD30" s="268"/>
-      <c r="AE30" s="269"/>
-      <c r="AF30" s="264"/>
-      <c r="AG30" s="265"/>
-      <c r="AH30" s="265"/>
-      <c r="AI30" s="266"/>
+      <c r="B30" s="294"/>
+      <c r="C30" s="295"/>
+      <c r="D30" s="296"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="299"/>
+      <c r="I30" s="295"/>
+      <c r="J30" s="300"/>
+      <c r="K30" s="301"/>
+      <c r="L30" s="301"/>
+      <c r="M30" s="301"/>
+      <c r="N30" s="301"/>
+      <c r="O30" s="301"/>
+      <c r="P30" s="302"/>
+      <c r="Q30" s="303"/>
+      <c r="R30" s="304"/>
+      <c r="S30" s="304"/>
+      <c r="T30" s="304"/>
+      <c r="U30" s="304"/>
+      <c r="V30" s="304"/>
+      <c r="W30" s="304"/>
+      <c r="X30" s="304"/>
+      <c r="Y30" s="304"/>
+      <c r="Z30" s="304"/>
+      <c r="AA30" s="304"/>
+      <c r="AB30" s="304"/>
+      <c r="AC30" s="304"/>
+      <c r="AD30" s="304"/>
+      <c r="AE30" s="305"/>
+      <c r="AF30" s="300"/>
+      <c r="AG30" s="301"/>
+      <c r="AH30" s="301"/>
+      <c r="AI30" s="302"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="259"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="262"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="263"/>
-      <c r="I31" s="259"/>
-      <c r="J31" s="264"/>
-      <c r="K31" s="265"/>
-      <c r="L31" s="265"/>
-      <c r="M31" s="265"/>
-      <c r="N31" s="265"/>
-      <c r="O31" s="265"/>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="267"/>
-      <c r="R31" s="268"/>
-      <c r="S31" s="268"/>
-      <c r="T31" s="268"/>
-      <c r="U31" s="268"/>
-      <c r="V31" s="268"/>
-      <c r="W31" s="268"/>
-      <c r="X31" s="268"/>
-      <c r="Y31" s="268"/>
-      <c r="Z31" s="268"/>
-      <c r="AA31" s="268"/>
-      <c r="AB31" s="268"/>
-      <c r="AC31" s="268"/>
-      <c r="AD31" s="268"/>
-      <c r="AE31" s="269"/>
-      <c r="AF31" s="264"/>
-      <c r="AG31" s="265"/>
-      <c r="AH31" s="265"/>
-      <c r="AI31" s="266"/>
+      <c r="B31" s="294"/>
+      <c r="C31" s="295"/>
+      <c r="D31" s="296"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="298"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="299"/>
+      <c r="I31" s="295"/>
+      <c r="J31" s="300"/>
+      <c r="K31" s="301"/>
+      <c r="L31" s="301"/>
+      <c r="M31" s="301"/>
+      <c r="N31" s="301"/>
+      <c r="O31" s="301"/>
+      <c r="P31" s="302"/>
+      <c r="Q31" s="303"/>
+      <c r="R31" s="304"/>
+      <c r="S31" s="304"/>
+      <c r="T31" s="304"/>
+      <c r="U31" s="304"/>
+      <c r="V31" s="304"/>
+      <c r="W31" s="304"/>
+      <c r="X31" s="304"/>
+      <c r="Y31" s="304"/>
+      <c r="Z31" s="304"/>
+      <c r="AA31" s="304"/>
+      <c r="AB31" s="304"/>
+      <c r="AC31" s="304"/>
+      <c r="AD31" s="304"/>
+      <c r="AE31" s="305"/>
+      <c r="AF31" s="300"/>
+      <c r="AG31" s="301"/>
+      <c r="AH31" s="301"/>
+      <c r="AI31" s="302"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="259"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="263"/>
-      <c r="I32" s="259"/>
-      <c r="J32" s="264"/>
-      <c r="K32" s="270"/>
-      <c r="L32" s="265"/>
-      <c r="M32" s="265"/>
-      <c r="N32" s="265"/>
-      <c r="O32" s="265"/>
-      <c r="P32" s="266"/>
-      <c r="Q32" s="267"/>
-      <c r="R32" s="268"/>
-      <c r="S32" s="268"/>
-      <c r="T32" s="268"/>
-      <c r="U32" s="268"/>
-      <c r="V32" s="268"/>
-      <c r="W32" s="268"/>
-      <c r="X32" s="268"/>
-      <c r="Y32" s="268"/>
-      <c r="Z32" s="268"/>
-      <c r="AA32" s="268"/>
-      <c r="AB32" s="268"/>
-      <c r="AC32" s="268"/>
-      <c r="AD32" s="268"/>
-      <c r="AE32" s="269"/>
-      <c r="AF32" s="264"/>
-      <c r="AG32" s="265"/>
-      <c r="AH32" s="265"/>
-      <c r="AI32" s="266"/>
+      <c r="B32" s="294"/>
+      <c r="C32" s="295"/>
+      <c r="D32" s="296"/>
+      <c r="E32" s="297"/>
+      <c r="F32" s="298"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="299"/>
+      <c r="I32" s="295"/>
+      <c r="J32" s="300"/>
+      <c r="K32" s="319"/>
+      <c r="L32" s="301"/>
+      <c r="M32" s="301"/>
+      <c r="N32" s="301"/>
+      <c r="O32" s="301"/>
+      <c r="P32" s="302"/>
+      <c r="Q32" s="303"/>
+      <c r="R32" s="304"/>
+      <c r="S32" s="304"/>
+      <c r="T32" s="304"/>
+      <c r="U32" s="304"/>
+      <c r="V32" s="304"/>
+      <c r="W32" s="304"/>
+      <c r="X32" s="304"/>
+      <c r="Y32" s="304"/>
+      <c r="Z32" s="304"/>
+      <c r="AA32" s="304"/>
+      <c r="AB32" s="304"/>
+      <c r="AC32" s="304"/>
+      <c r="AD32" s="304"/>
+      <c r="AE32" s="305"/>
+      <c r="AF32" s="300"/>
+      <c r="AG32" s="301"/>
+      <c r="AH32" s="301"/>
+      <c r="AI32" s="302"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="258"/>
-      <c r="C33" s="259"/>
-      <c r="D33" s="260"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="263"/>
-      <c r="I33" s="259"/>
-      <c r="J33" s="264"/>
-      <c r="K33" s="265"/>
-      <c r="L33" s="265"/>
-      <c r="M33" s="265"/>
-      <c r="N33" s="265"/>
-      <c r="O33" s="265"/>
-      <c r="P33" s="266"/>
-      <c r="Q33" s="267"/>
-      <c r="R33" s="268"/>
-      <c r="S33" s="268"/>
-      <c r="T33" s="268"/>
-      <c r="U33" s="268"/>
-      <c r="V33" s="268"/>
-      <c r="W33" s="268"/>
-      <c r="X33" s="268"/>
-      <c r="Y33" s="268"/>
-      <c r="Z33" s="268"/>
-      <c r="AA33" s="268"/>
-      <c r="AB33" s="268"/>
-      <c r="AC33" s="268"/>
-      <c r="AD33" s="268"/>
-      <c r="AE33" s="269"/>
-      <c r="AF33" s="264"/>
-      <c r="AG33" s="265"/>
-      <c r="AH33" s="265"/>
-      <c r="AI33" s="266"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25">
+      <c r="B33" s="294"/>
+      <c r="C33" s="295"/>
+      <c r="D33" s="296"/>
+      <c r="E33" s="297"/>
+      <c r="F33" s="298"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="299"/>
+      <c r="I33" s="295"/>
+      <c r="J33" s="300"/>
+      <c r="K33" s="301"/>
+      <c r="L33" s="301"/>
+      <c r="M33" s="301"/>
+      <c r="N33" s="301"/>
+      <c r="O33" s="301"/>
+      <c r="P33" s="302"/>
+      <c r="Q33" s="303"/>
+      <c r="R33" s="304"/>
+      <c r="S33" s="304"/>
+      <c r="T33" s="304"/>
+      <c r="U33" s="304"/>
+      <c r="V33" s="304"/>
+      <c r="W33" s="304"/>
+      <c r="X33" s="304"/>
+      <c r="Y33" s="304"/>
+      <c r="Z33" s="304"/>
+      <c r="AA33" s="304"/>
+      <c r="AB33" s="304"/>
+      <c r="AC33" s="304"/>
+      <c r="AD33" s="304"/>
+      <c r="AE33" s="305"/>
+      <c r="AF33" s="300"/>
+      <c r="AG33" s="301"/>
+      <c r="AH33" s="301"/>
+      <c r="AI33" s="302"/>
+    </row>
+    <row r="34" spans="1:35" ht="14">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12503,162 +12659,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12680,18 +12680,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="26" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="28.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.375" style="25" customWidth="1"/>
-    <col min="10" max="11" width="25.625" style="25" customWidth="1"/>
+    <col min="1" max="2" width="8.58203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="26" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="28.08203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.33203125" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.33203125" style="25" customWidth="1"/>
+    <col min="10" max="11" width="25.58203125" style="25" customWidth="1"/>
     <col min="12" max="12" width="19.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="8.625" style="25" customWidth="1"/>
+    <col min="13" max="17" width="8.58203125" style="25" customWidth="1"/>
     <col min="18" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12" thickBot="1">
+    <row r="8" spans="1:17" ht="11.5" thickBot="1">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -12810,7 +12810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22.5">
+    <row r="11" spans="1:17" ht="22">
       <c r="A11" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -12852,7 +12852,7 @@
       <c r="P11" s="155"/>
       <c r="Q11" s="157"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5">
+    <row r="12" spans="1:17" ht="22">
       <c r="A12" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -12888,7 +12888,7 @@
       <c r="P12" s="155"/>
       <c r="Q12" s="157"/>
     </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="13" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A13" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -12926,7 +12926,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="155"/>
     </row>
-    <row r="14" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="14" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A14" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -12960,7 +12960,7 @@
       <c r="P14" s="156"/>
       <c r="Q14" s="155"/>
     </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="15" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A15" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -12994,7 +12994,7 @@
       <c r="P15" s="156"/>
       <c r="Q15" s="155"/>
     </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="16" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A16" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -13028,7 +13028,7 @@
       <c r="P16" s="155"/>
       <c r="Q16" s="157"/>
     </row>
-    <row r="17" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="17" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A17" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -13062,7 +13062,7 @@
       <c r="P17" s="155"/>
       <c r="Q17" s="157"/>
     </row>
-    <row r="18" spans="1:17" ht="22.5">
+    <row r="18" spans="1:17" ht="22">
       <c r="A18" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -13100,7 +13100,7 @@
       <c r="P18" s="155"/>
       <c r="Q18" s="157"/>
     </row>
-    <row r="19" spans="1:17" ht="22.5">
+    <row r="19" spans="1:17" ht="22">
       <c r="A19" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -13134,7 +13134,7 @@
       <c r="P19" s="155"/>
       <c r="Q19" s="157"/>
     </row>
-    <row r="20" spans="1:17" ht="22.5">
+    <row r="20" spans="1:17" ht="22">
       <c r="A20" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -13168,7 +13168,7 @@
       <c r="P20" s="155"/>
       <c r="Q20" s="157"/>
     </row>
-    <row r="21" spans="1:17" ht="22.5">
+    <row r="21" spans="1:17" ht="22">
       <c r="A21" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -13204,7 +13204,7 @@
       <c r="P21" s="155"/>
       <c r="Q21" s="157"/>
     </row>
-    <row r="22" spans="1:17" ht="22.5">
+    <row r="22" spans="1:17" ht="22">
       <c r="A22" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -13238,7 +13238,7 @@
       <c r="P22" s="155"/>
       <c r="Q22" s="157"/>
     </row>
-    <row r="23" spans="1:17" ht="22.5">
+    <row r="23" spans="1:17" ht="22">
       <c r="A23" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -13272,7 +13272,7 @@
       <c r="P23" s="155"/>
       <c r="Q23" s="157"/>
     </row>
-    <row r="24" spans="1:17" ht="22.5">
+    <row r="24" spans="1:17" ht="22">
       <c r="A24" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -13306,7 +13306,7 @@
       <c r="P24" s="155"/>
       <c r="Q24" s="157"/>
     </row>
-    <row r="25" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="25" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A25" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -13344,7 +13344,7 @@
       <c r="P25" s="156"/>
       <c r="Q25" s="155"/>
     </row>
-    <row r="26" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="26" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A26" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E26),
@@ -13378,7 +13378,7 @@
       <c r="P26" s="156"/>
       <c r="Q26" s="155"/>
     </row>
-    <row r="27" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="27" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A27" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -13416,7 +13416,7 @@
       <c r="P27" s="156"/>
       <c r="Q27" s="155"/>
     </row>
-    <row r="28" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="28" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A28" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -13450,7 +13450,7 @@
       <c r="P28" s="156"/>
       <c r="Q28" s="155"/>
     </row>
-    <row r="29" spans="1:17" ht="22.5">
+    <row r="29" spans="1:17" ht="22">
       <c r="A29" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -13486,7 +13486,7 @@
       <c r="P29" s="157"/>
       <c r="Q29" s="157"/>
     </row>
-    <row r="30" spans="1:17" ht="22.5">
+    <row r="30" spans="1:17" ht="22">
       <c r="A30" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -13520,7 +13520,7 @@
       <c r="P30" s="157"/>
       <c r="Q30" s="157"/>
     </row>
-    <row r="31" spans="1:17" ht="22.5">
+    <row r="31" spans="1:17" ht="22">
       <c r="A31" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -13554,7 +13554,7 @@
       <c r="P31" s="157"/>
       <c r="Q31" s="157"/>
     </row>
-    <row r="32" spans="1:17" ht="22.5">
+    <row r="32" spans="1:17" ht="22">
       <c r="A32" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -13588,7 +13588,7 @@
       <c r="P32" s="157"/>
       <c r="Q32" s="157"/>
     </row>
-    <row r="33" spans="1:17" ht="22.5">
+    <row r="33" spans="1:17" ht="22">
       <c r="A33" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -13624,7 +13624,7 @@
       <c r="P33" s="157"/>
       <c r="Q33" s="157"/>
     </row>
-    <row r="34" spans="1:17" ht="22.5">
+    <row r="34" spans="1:17" ht="22">
       <c r="A34" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -13658,7 +13658,7 @@
       <c r="P34" s="157"/>
       <c r="Q34" s="157"/>
     </row>
-    <row r="35" spans="1:17" ht="45">
+    <row r="35" spans="1:17" ht="44">
       <c r="A35" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -13694,7 +13694,7 @@
       <c r="P35" s="157"/>
       <c r="Q35" s="157"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75">
+    <row r="36" spans="1:17" ht="33">
       <c r="A36" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -13732,7 +13732,7 @@
       <c r="P36" s="34"/>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75">
+    <row r="37" spans="1:17" ht="33">
       <c r="A37" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -13764,7 +13764,7 @@
       <c r="P37" s="34"/>
       <c r="Q37" s="34"/>
     </row>
-    <row r="38" spans="1:17" ht="22.5">
+    <row r="38" spans="1:17" ht="22">
       <c r="A38" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -13796,7 +13796,7 @@
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="39" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A39" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -13828,7 +13828,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="40" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A40" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -13896,7 +13896,7 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="34"/>
     </row>
-    <row r="42" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="42" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A42" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -13938,7 +13938,7 @@
       <c r="P42" s="155"/>
       <c r="Q42" s="157"/>
     </row>
-    <row r="43" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="43" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A43" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -13972,7 +13972,7 @@
       <c r="P43" s="155"/>
       <c r="Q43" s="157"/>
     </row>
-    <row r="44" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="44" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A44" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -14006,7 +14006,7 @@
       <c r="P44" s="155"/>
       <c r="Q44" s="157"/>
     </row>
-    <row r="45" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="45" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A45" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -14042,7 +14042,7 @@
       <c r="P45" s="155"/>
       <c r="Q45" s="157"/>
     </row>
-    <row r="46" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="46" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A46" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -14076,7 +14076,7 @@
       <c r="P46" s="155"/>
       <c r="Q46" s="157"/>
     </row>
-    <row r="47" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="47" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A47" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -14110,7 +14110,7 @@
       <c r="P47" s="155"/>
       <c r="Q47" s="157"/>
     </row>
-    <row r="48" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="48" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A48" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -14146,7 +14146,7 @@
       <c r="P48" s="155"/>
       <c r="Q48" s="157"/>
     </row>
-    <row r="49" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="49" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A49" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -14180,7 +14180,7 @@
       <c r="P49" s="155"/>
       <c r="Q49" s="157"/>
     </row>
-    <row r="50" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="50" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A50" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -14216,7 +14216,7 @@
       <c r="P50" s="155"/>
       <c r="Q50" s="157"/>
     </row>
-    <row r="51" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="51" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A51" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -14250,7 +14250,7 @@
       <c r="P51" s="155"/>
       <c r="Q51" s="157"/>
     </row>
-    <row r="52" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="52" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A52" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -14284,7 +14284,7 @@
       <c r="P52" s="155"/>
       <c r="Q52" s="157"/>
     </row>
-    <row r="53" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="53" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A53" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -14318,7 +14318,7 @@
       <c r="P53" s="155"/>
       <c r="Q53" s="157"/>
     </row>
-    <row r="54" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="54" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A54" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -14352,7 +14352,7 @@
       <c r="P54" s="155"/>
       <c r="Q54" s="157"/>
     </row>
-    <row r="55" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="55" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A55" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -14386,7 +14386,7 @@
       <c r="P55" s="155"/>
       <c r="Q55" s="157"/>
     </row>
-    <row r="56" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="56" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A56" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -14422,7 +14422,7 @@
       <c r="P56" s="155"/>
       <c r="Q56" s="157"/>
     </row>
-    <row r="57" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="57" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A57" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -14458,7 +14458,7 @@
       <c r="P57" s="155"/>
       <c r="Q57" s="157"/>
     </row>
-    <row r="58" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="58" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A58" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -14494,7 +14494,7 @@
       <c r="P58" s="155"/>
       <c r="Q58" s="157"/>
     </row>
-    <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="59" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A59" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -14532,7 +14532,7 @@
       <c r="P59" s="155"/>
       <c r="Q59" s="157"/>
     </row>
-    <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="60" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A60" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -14566,7 +14566,7 @@
       <c r="P60" s="155"/>
       <c r="Q60" s="157"/>
     </row>
-    <row r="61" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="61" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A61" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -14600,7 +14600,7 @@
       <c r="P61" s="155"/>
       <c r="Q61" s="157"/>
     </row>
-    <row r="62" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="62" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A62" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -14634,7 +14634,7 @@
       <c r="P62" s="155"/>
       <c r="Q62" s="157"/>
     </row>
-    <row r="63" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="63" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A63" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -14668,7 +14668,7 @@
       <c r="P63" s="155"/>
       <c r="Q63" s="157"/>
     </row>
-    <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="64" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A64" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -14704,7 +14704,7 @@
       <c r="P64" s="155"/>
       <c r="Q64" s="157"/>
     </row>
-    <row r="65" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="65" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A65" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -14738,7 +14738,7 @@
       <c r="P65" s="155"/>
       <c r="Q65" s="157"/>
     </row>
-    <row r="66" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="66" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A66" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -14772,7 +14772,7 @@
       <c r="P66" s="155"/>
       <c r="Q66" s="157"/>
     </row>
-    <row r="67" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="67" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A67" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -14806,7 +14806,7 @@
       <c r="P67" s="155"/>
       <c r="Q67" s="157"/>
     </row>
-    <row r="68" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="68" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A68" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -14840,7 +14840,7 @@
       <c r="P68" s="155"/>
       <c r="Q68" s="157"/>
     </row>
-    <row r="69" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="69" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A69" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -14874,7 +14874,7 @@
       <c r="P69" s="155"/>
       <c r="Q69" s="157"/>
     </row>
-    <row r="70" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="70" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A70" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -14908,7 +14908,7 @@
       <c r="P70" s="155"/>
       <c r="Q70" s="157"/>
     </row>
-    <row r="71" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="71" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A71" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -14942,7 +14942,7 @@
       <c r="P71" s="171"/>
       <c r="Q71" s="172"/>
     </row>
-    <row r="72" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="72" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A72" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -14978,7 +14978,7 @@
       <c r="P72" s="161"/>
       <c r="Q72" s="161"/>
     </row>
-    <row r="73" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="73" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A73" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -15014,7 +15014,7 @@
       <c r="P73" s="161"/>
       <c r="Q73" s="161"/>
     </row>
-    <row r="74" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="74" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A74" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -15048,7 +15048,7 @@
       <c r="P74" s="155"/>
       <c r="Q74" s="157"/>
     </row>
-    <row r="75" spans="1:17" ht="22.5">
+    <row r="75" spans="1:17" ht="22">
       <c r="A75" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -15082,7 +15082,7 @@
       <c r="P75" s="157"/>
       <c r="Q75" s="157"/>
     </row>
-    <row r="76" spans="1:17" ht="22.5">
+    <row r="76" spans="1:17" ht="22">
       <c r="A76" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -15116,7 +15116,7 @@
       <c r="P76" s="157"/>
       <c r="Q76" s="157"/>
     </row>
-    <row r="77" spans="1:17" ht="22.5">
+    <row r="77" spans="1:17" ht="22">
       <c r="A77" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -15150,7 +15150,7 @@
       <c r="P77" s="157"/>
       <c r="Q77" s="157"/>
     </row>
-    <row r="78" spans="1:17" ht="22.5">
+    <row r="78" spans="1:17" ht="22">
       <c r="A78" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -15190,7 +15190,7 @@
       <c r="P78" s="157"/>
       <c r="Q78" s="157"/>
     </row>
-    <row r="79" spans="1:17" ht="33.75">
+    <row r="79" spans="1:17" ht="33">
       <c r="A79" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -15224,7 +15224,7 @@
       <c r="P79" s="157"/>
       <c r="Q79" s="157"/>
     </row>
-    <row r="80" spans="1:17" ht="22.5">
+    <row r="80" spans="1:17" ht="22">
       <c r="A80" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -15260,7 +15260,7 @@
       <c r="P80" s="157"/>
       <c r="Q80" s="157"/>
     </row>
-    <row r="81" spans="1:17" ht="33.75">
+    <row r="81" spans="1:17" ht="33">
       <c r="A81" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -15296,7 +15296,7 @@
       <c r="P81" s="157"/>
       <c r="Q81" s="157"/>
     </row>
-    <row r="82" spans="1:17" ht="33.75">
+    <row r="82" spans="1:17" ht="33">
       <c r="A82" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -15330,7 +15330,7 @@
       <c r="P82" s="157"/>
       <c r="Q82" s="157"/>
     </row>
-    <row r="83" spans="1:17" ht="22.5">
+    <row r="83" spans="1:17" ht="22">
       <c r="A83" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -15366,7 +15366,7 @@
       <c r="P83" s="157"/>
       <c r="Q83" s="157"/>
     </row>
-    <row r="84" spans="1:17" ht="22.5">
+    <row r="84" spans="1:17" ht="22">
       <c r="A84" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -15402,7 +15402,7 @@
       <c r="P84" s="157"/>
       <c r="Q84" s="157"/>
     </row>
-    <row r="85" spans="1:17" ht="22.5">
+    <row r="85" spans="1:17" ht="22">
       <c r="A85" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -15442,7 +15442,7 @@
       <c r="P85" s="157"/>
       <c r="Q85" s="157"/>
     </row>
-    <row r="86" spans="1:17" ht="22.5">
+    <row r="86" spans="1:17" ht="22">
       <c r="A86" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -15478,7 +15478,7 @@
       <c r="P86" s="157"/>
       <c r="Q86" s="157"/>
     </row>
-    <row r="87" spans="1:17" ht="33.75">
+    <row r="87" spans="1:17" ht="33">
       <c r="A87" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -15514,7 +15514,7 @@
       <c r="P87" s="157"/>
       <c r="Q87" s="157"/>
     </row>
-    <row r="88" spans="1:17" ht="22.5">
+    <row r="88" spans="1:17" ht="22">
       <c r="A88" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -15554,7 +15554,7 @@
       <c r="P88" s="157"/>
       <c r="Q88" s="157"/>
     </row>
-    <row r="89" spans="1:17" ht="33.75">
+    <row r="89" spans="1:17" ht="33">
       <c r="A89" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -15588,7 +15588,7 @@
       <c r="P89" s="157"/>
       <c r="Q89" s="157"/>
     </row>
-    <row r="90" spans="1:17" ht="22.5">
+    <row r="90" spans="1:17" ht="22">
       <c r="A90" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -15624,7 +15624,7 @@
       <c r="P90" s="157"/>
       <c r="Q90" s="157"/>
     </row>
-    <row r="91" spans="1:17" ht="33.75">
+    <row r="91" spans="1:17" ht="33">
       <c r="A91" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -15660,7 +15660,7 @@
       <c r="P91" s="157"/>
       <c r="Q91" s="157"/>
     </row>
-    <row r="92" spans="1:17" ht="33.75">
+    <row r="92" spans="1:17" ht="33">
       <c r="A92" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -15694,7 +15694,7 @@
       <c r="P92" s="157"/>
       <c r="Q92" s="157"/>
     </row>
-    <row r="93" spans="1:17" ht="33.75">
+    <row r="93" spans="1:17" ht="33">
       <c r="A93" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -15730,7 +15730,7 @@
       <c r="P93" s="157"/>
       <c r="Q93" s="157"/>
     </row>
-    <row r="94" spans="1:17" ht="22.5">
+    <row r="94" spans="1:17" ht="22">
       <c r="A94" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -15770,7 +15770,7 @@
       <c r="P94" s="157"/>
       <c r="Q94" s="157"/>
     </row>
-    <row r="95" spans="1:17" ht="33.75">
+    <row r="95" spans="1:17" ht="33">
       <c r="A95" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -15804,7 +15804,7 @@
       <c r="P95" s="157"/>
       <c r="Q95" s="157"/>
     </row>
-    <row r="96" spans="1:17" ht="22.5">
+    <row r="96" spans="1:17" ht="22">
       <c r="A96" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -15838,7 +15838,7 @@
       <c r="P96" s="157"/>
       <c r="Q96" s="157"/>
     </row>
-    <row r="97" spans="1:17" ht="33.75">
+    <row r="97" spans="1:17" ht="33">
       <c r="A97" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -15872,7 +15872,7 @@
       <c r="P97" s="157"/>
       <c r="Q97" s="157"/>
     </row>
-    <row r="98" spans="1:17" ht="33.75">
+    <row r="98" spans="1:17" ht="33">
       <c r="A98" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -15906,7 +15906,7 @@
       <c r="P98" s="157"/>
       <c r="Q98" s="157"/>
     </row>
-    <row r="99" spans="1:17" ht="22.5">
+    <row r="99" spans="1:17" ht="22">
       <c r="A99" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -15942,7 +15942,7 @@
       <c r="P99" s="157"/>
       <c r="Q99" s="157"/>
     </row>
-    <row r="100" spans="1:17" ht="33.75">
+    <row r="100" spans="1:17" ht="33">
       <c r="A100" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -15976,7 +15976,7 @@
       <c r="P100" s="157"/>
       <c r="Q100" s="157"/>
     </row>
-    <row r="101" spans="1:17" ht="22.5">
+    <row r="101" spans="1:17" ht="22">
       <c r="A101" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -16010,7 +16010,7 @@
       <c r="P101" s="157"/>
       <c r="Q101" s="157"/>
     </row>
-    <row r="102" spans="1:17" ht="33.75">
+    <row r="102" spans="1:17" ht="33">
       <c r="A102" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -16044,7 +16044,7 @@
       <c r="P102" s="157"/>
       <c r="Q102" s="157"/>
     </row>
-    <row r="103" spans="1:17" ht="33.75">
+    <row r="103" spans="1:17" ht="33">
       <c r="A103" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -16078,7 +16078,7 @@
       <c r="P103" s="172"/>
       <c r="Q103" s="172"/>
     </row>
-    <row r="104" spans="1:17" ht="33.75">
+    <row r="104" spans="1:17" ht="33">
       <c r="A104" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -16114,7 +16114,7 @@
       <c r="P104" s="157"/>
       <c r="Q104" s="157"/>
     </row>
-    <row r="105" spans="1:17" ht="33.75">
+    <row r="105" spans="1:17" ht="33">
       <c r="A105" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -16156,7 +16156,7 @@
       <c r="P105" s="157"/>
       <c r="Q105" s="157"/>
     </row>
-    <row r="106" spans="1:17" ht="22.5">
+    <row r="106" spans="1:17" ht="22">
       <c r="A106" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -16196,7 +16196,7 @@
       <c r="P106" s="157"/>
       <c r="Q106" s="157"/>
     </row>
-    <row r="107" spans="1:17" ht="22.5">
+    <row r="107" spans="1:17" ht="22">
       <c r="A107" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -16230,7 +16230,7 @@
       <c r="P107" s="157"/>
       <c r="Q107" s="157"/>
     </row>
-    <row r="108" spans="1:17" ht="22.5">
+    <row r="108" spans="1:17" ht="22">
       <c r="A108" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -16270,7 +16270,7 @@
       <c r="P108" s="157"/>
       <c r="Q108" s="157"/>
     </row>
-    <row r="109" spans="1:17" ht="22.5">
+    <row r="109" spans="1:17" ht="22">
       <c r="A109" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -16310,7 +16310,7 @@
       <c r="P109" s="157"/>
       <c r="Q109" s="157"/>
     </row>
-    <row r="110" spans="1:17" ht="22.5">
+    <row r="110" spans="1:17" ht="22">
       <c r="A110" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -16344,7 +16344,7 @@
       <c r="P110" s="157"/>
       <c r="Q110" s="157"/>
     </row>
-    <row r="111" spans="1:17" ht="22.5">
+    <row r="111" spans="1:17" ht="22">
       <c r="A111" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -16384,7 +16384,7 @@
       <c r="P111" s="34"/>
       <c r="Q111" s="34"/>
     </row>
-    <row r="112" spans="1:17" ht="22.5">
+    <row r="112" spans="1:17" ht="22">
       <c r="A112" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -16418,7 +16418,7 @@
       <c r="P112" s="34"/>
       <c r="Q112" s="34"/>
     </row>
-    <row r="113" spans="1:17" ht="22.5">
+    <row r="113" spans="1:17" ht="22">
       <c r="A113" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -16450,7 +16450,7 @@
       <c r="P113" s="34"/>
       <c r="Q113" s="34"/>
     </row>
-    <row r="114" spans="1:17" ht="22.5">
+    <row r="114" spans="1:17" ht="22">
       <c r="A114" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -16482,7 +16482,7 @@
       <c r="P114" s="34"/>
       <c r="Q114" s="34"/>
     </row>
-    <row r="115" spans="1:17" ht="22.5">
+    <row r="115" spans="1:17" ht="22">
       <c r="A115" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -16516,7 +16516,7 @@
       <c r="P115" s="34"/>
       <c r="Q115" s="34"/>
     </row>
-    <row r="116" spans="1:17" ht="22.5">
+    <row r="116" spans="1:17" ht="22">
       <c r="A116" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -16548,7 +16548,7 @@
       <c r="P116" s="34"/>
       <c r="Q116" s="34"/>
     </row>
-    <row r="117" spans="1:17" ht="22.5">
+    <row r="117" spans="1:17" ht="22">
       <c r="A117" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -16580,7 +16580,7 @@
       <c r="P117" s="34"/>
       <c r="Q117" s="34"/>
     </row>
-    <row r="118" spans="1:17" ht="22.5">
+    <row r="118" spans="1:17" ht="22">
       <c r="A118" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -16612,7 +16612,7 @@
       <c r="P118" s="34"/>
       <c r="Q118" s="34"/>
     </row>
-    <row r="119" spans="1:17" ht="33.75">
+    <row r="119" spans="1:17" ht="33">
       <c r="A119" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -16646,7 +16646,7 @@
       <c r="P119" s="157"/>
       <c r="Q119" s="157"/>
     </row>
-    <row r="120" spans="1:17" ht="33.75">
+    <row r="120" spans="1:17" ht="33">
       <c r="A120" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -16680,7 +16680,7 @@
       <c r="P120" s="34"/>
       <c r="Q120" s="34"/>
     </row>
-    <row r="121" spans="1:17" ht="33.75">
+    <row r="121" spans="1:17" ht="33">
       <c r="A121" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -16712,7 +16712,7 @@
       <c r="P121" s="34"/>
       <c r="Q121" s="34"/>
     </row>
-    <row r="122" spans="1:17" ht="45">
+    <row r="122" spans="1:17" ht="44">
       <c r="A122" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -16746,7 +16746,7 @@
       <c r="P122" s="157"/>
       <c r="Q122" s="157"/>
     </row>
-    <row r="123" spans="1:17" ht="45">
+    <row r="123" spans="1:17" ht="44">
       <c r="A123" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -16780,7 +16780,7 @@
       <c r="P123" s="157"/>
       <c r="Q123" s="157"/>
     </row>
-    <row r="124" spans="1:17" ht="33.75">
+    <row r="124" spans="1:17" ht="33">
       <c r="A124" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -16814,7 +16814,7 @@
       <c r="P124" s="157"/>
       <c r="Q124" s="157"/>
     </row>
-    <row r="125" spans="1:17" ht="33.75">
+    <row r="125" spans="1:17" ht="33">
       <c r="A125" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -16848,7 +16848,7 @@
       <c r="P125" s="34"/>
       <c r="Q125" s="34"/>
     </row>
-    <row r="126" spans="1:17" ht="33.75">
+    <row r="126" spans="1:17" ht="33">
       <c r="A126" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -16884,7 +16884,7 @@
       <c r="P126" s="34"/>
       <c r="Q126" s="34"/>
     </row>
-    <row r="127" spans="1:17" ht="33.75">
+    <row r="127" spans="1:17" ht="33">
       <c r="A127" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -16924,7 +16924,7 @@
       <c r="P127" s="157"/>
       <c r="Q127" s="157"/>
     </row>
-    <row r="128" spans="1:17" ht="22.5">
+    <row r="128" spans="1:17" ht="22">
       <c r="A128" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -16958,7 +16958,7 @@
       <c r="P128" s="34"/>
       <c r="Q128" s="34"/>
     </row>
-    <row r="129" spans="1:17" ht="22.5">
+    <row r="129" spans="1:17" ht="22">
       <c r="A129" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -16990,7 +16990,7 @@
       <c r="P129" s="34"/>
       <c r="Q129" s="34"/>
     </row>
-    <row r="130" spans="1:17" ht="45">
+    <row r="130" spans="1:17" ht="44">
       <c r="A130" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -17022,7 +17022,7 @@
       <c r="P130" s="34"/>
       <c r="Q130" s="34"/>
     </row>
-    <row r="131" spans="1:17" ht="33.75">
+    <row r="131" spans="1:17" ht="33">
       <c r="A131" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -17064,7 +17064,7 @@
       <c r="P131" s="157"/>
       <c r="Q131" s="157"/>
     </row>
-    <row r="132" spans="1:17" ht="33.75">
+    <row r="132" spans="1:17" ht="33">
       <c r="A132" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -17100,7 +17100,7 @@
       <c r="P132" s="157"/>
       <c r="Q132" s="157"/>
     </row>
-    <row r="133" spans="1:17" ht="33.75">
+    <row r="133" spans="1:17" ht="33">
       <c r="A133" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -17134,7 +17134,7 @@
       <c r="P133" s="157"/>
       <c r="Q133" s="157"/>
     </row>
-    <row r="134" spans="1:17" ht="33.75">
+    <row r="134" spans="1:17" ht="33">
       <c r="A134" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -17168,7 +17168,7 @@
       <c r="P134" s="157"/>
       <c r="Q134" s="157"/>
     </row>
-    <row r="135" spans="1:17" ht="22.5">
+    <row r="135" spans="1:17" ht="22">
       <c r="A135" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -17204,7 +17204,7 @@
       <c r="P135" s="157"/>
       <c r="Q135" s="157"/>
     </row>
-    <row r="136" spans="1:17" ht="33.75">
+    <row r="136" spans="1:17" ht="33">
       <c r="A136" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -17238,7 +17238,7 @@
       <c r="P136" s="157"/>
       <c r="Q136" s="157"/>
     </row>
-    <row r="137" spans="1:17" ht="33.75">
+    <row r="137" spans="1:17" ht="33">
       <c r="A137" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -17274,7 +17274,7 @@
       <c r="P137" s="34"/>
       <c r="Q137" s="34"/>
     </row>
-    <row r="138" spans="1:17" ht="33.75">
+    <row r="138" spans="1:17" ht="33">
       <c r="A138" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -17312,7 +17312,7 @@
       <c r="P138" s="34"/>
       <c r="Q138" s="34"/>
     </row>
-    <row r="139" spans="1:17" ht="33.75">
+    <row r="139" spans="1:17" ht="33">
       <c r="A139" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -17346,7 +17346,7 @@
       <c r="P139" s="34"/>
       <c r="Q139" s="34"/>
     </row>
-    <row r="140" spans="1:17" ht="33.75">
+    <row r="140" spans="1:17" ht="33">
       <c r="A140" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -17380,7 +17380,7 @@
       <c r="P140" s="34"/>
       <c r="Q140" s="34"/>
     </row>
-    <row r="141" spans="1:17" ht="33.75">
+    <row r="141" spans="1:17" ht="33">
       <c r="A141" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -17416,7 +17416,7 @@
       <c r="P141" s="157"/>
       <c r="Q141" s="157"/>
     </row>
-    <row r="142" spans="1:17" ht="33.75">
+    <row r="142" spans="1:17" ht="33">
       <c r="A142" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -17450,7 +17450,7 @@
       <c r="P142" s="34"/>
       <c r="Q142" s="34"/>
     </row>
-    <row r="143" spans="1:17" ht="22.5">
+    <row r="143" spans="1:17" ht="22">
       <c r="A143" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -17486,7 +17486,7 @@
       <c r="P143" s="157"/>
       <c r="Q143" s="157"/>
     </row>
-    <row r="144" spans="1:17" ht="22.5">
+    <row r="144" spans="1:17" ht="22">
       <c r="A144" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -17520,7 +17520,7 @@
       <c r="P144" s="157"/>
       <c r="Q144" s="157"/>
     </row>
-    <row r="145" spans="1:17" ht="22.5">
+    <row r="145" spans="1:17" ht="22">
       <c r="A145" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -17554,7 +17554,7 @@
       <c r="P145" s="157"/>
       <c r="Q145" s="157"/>
     </row>
-    <row r="146" spans="1:17" ht="22.5">
+    <row r="146" spans="1:17" ht="22">
       <c r="A146" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -17588,7 +17588,7 @@
       <c r="P146" s="157"/>
       <c r="Q146" s="157"/>
     </row>
-    <row r="147" spans="1:17" ht="22.5">
+    <row r="147" spans="1:17" ht="22">
       <c r="A147" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -17622,7 +17622,7 @@
       <c r="P147" s="157"/>
       <c r="Q147" s="157"/>
     </row>
-    <row r="148" spans="1:17" ht="22.5">
+    <row r="148" spans="1:17" ht="22">
       <c r="A148" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -17656,7 +17656,7 @@
       <c r="P148" s="157"/>
       <c r="Q148" s="157"/>
     </row>
-    <row r="149" spans="1:17" ht="22.5">
+    <row r="149" spans="1:17" ht="22">
       <c r="A149" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -17692,7 +17692,7 @@
       <c r="P149" s="34"/>
       <c r="Q149" s="34"/>
     </row>
-    <row r="150" spans="1:17" ht="22.5">
+    <row r="150" spans="1:17" ht="22">
       <c r="A150" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -17724,7 +17724,7 @@
       <c r="P150" s="34"/>
       <c r="Q150" s="34"/>
     </row>
-    <row r="151" spans="1:17" ht="33.75">
+    <row r="151" spans="1:17" ht="33">
       <c r="A151" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -17758,7 +17758,7 @@
       <c r="P151" s="34"/>
       <c r="Q151" s="34"/>
     </row>
-    <row r="152" spans="1:17" ht="33.75">
+    <row r="152" spans="1:17" ht="33">
       <c r="A152" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -17790,7 +17790,7 @@
       <c r="P152" s="34"/>
       <c r="Q152" s="34"/>
     </row>
-    <row r="153" spans="1:17" ht="33.75">
+    <row r="153" spans="1:17" ht="33">
       <c r="A153" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -17822,7 +17822,7 @@
       <c r="P153" s="34"/>
       <c r="Q153" s="34"/>
     </row>
-    <row r="154" spans="1:17" ht="33.75">
+    <row r="154" spans="1:17" ht="33">
       <c r="A154" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -17854,7 +17854,7 @@
       <c r="P154" s="34"/>
       <c r="Q154" s="34"/>
     </row>
-    <row r="155" spans="1:17" ht="33.75">
+    <row r="155" spans="1:17" ht="33">
       <c r="A155" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -17886,7 +17886,7 @@
       <c r="P155" s="34"/>
       <c r="Q155" s="34"/>
     </row>
-    <row r="156" spans="1:17" ht="22.5">
+    <row r="156" spans="1:17" ht="22">
       <c r="A156" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -17918,7 +17918,7 @@
       <c r="P156" s="34"/>
       <c r="Q156" s="34"/>
     </row>
-    <row r="157" spans="1:17" ht="22.5">
+    <row r="157" spans="1:17" ht="22">
       <c r="A157" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -17950,7 +17950,7 @@
       <c r="P157" s="34"/>
       <c r="Q157" s="34"/>
     </row>
-    <row r="158" spans="1:17" ht="33.75">
+    <row r="158" spans="1:17" ht="33">
       <c r="A158" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -17982,7 +17982,7 @@
       <c r="P158" s="34"/>
       <c r="Q158" s="34"/>
     </row>
-    <row r="159" spans="1:17" ht="33.75">
+    <row r="159" spans="1:17" ht="33">
       <c r="A159" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -18014,7 +18014,7 @@
       <c r="P159" s="34"/>
       <c r="Q159" s="34"/>
     </row>
-    <row r="160" spans="1:17" ht="33.75">
+    <row r="160" spans="1:17" ht="33">
       <c r="A160" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -18046,7 +18046,7 @@
       <c r="P160" s="34"/>
       <c r="Q160" s="34"/>
     </row>
-    <row r="161" spans="1:17" ht="33.75">
+    <row r="161" spans="1:17" ht="33">
       <c r="A161" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -18144,7 +18144,7 @@
       <c r="P163" s="34"/>
       <c r="Q163" s="34"/>
     </row>
-    <row r="164" spans="1:17" ht="22.5">
+    <row r="164" spans="1:17" ht="22">
       <c r="A164" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -18176,7 +18176,7 @@
       <c r="P164" s="34"/>
       <c r="Q164" s="34"/>
     </row>
-    <row r="165" spans="1:17" ht="22.5">
+    <row r="165" spans="1:17" ht="22">
       <c r="A165" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -18208,7 +18208,7 @@
       <c r="P165" s="34"/>
       <c r="Q165" s="34"/>
     </row>
-    <row r="166" spans="1:17" ht="22.5">
+    <row r="166" spans="1:17" ht="22">
       <c r="A166" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -18240,7 +18240,7 @@
       <c r="P166" s="34"/>
       <c r="Q166" s="34"/>
     </row>
-    <row r="167" spans="1:17" ht="33.75">
+    <row r="167" spans="1:17" ht="33">
       <c r="A167" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -18274,7 +18274,7 @@
       <c r="P167" s="157"/>
       <c r="Q167" s="157"/>
     </row>
-    <row r="168" spans="1:17" ht="22.5">
+    <row r="168" spans="1:17" ht="22">
       <c r="A168" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -18308,7 +18308,7 @@
       <c r="P168" s="157"/>
       <c r="Q168" s="157"/>
     </row>
-    <row r="169" spans="1:17" ht="22.5">
+    <row r="169" spans="1:17" ht="22">
       <c r="A169" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -18342,7 +18342,7 @@
       <c r="P169" s="34"/>
       <c r="Q169" s="34"/>
     </row>
-    <row r="170" spans="1:17" ht="33.75">
+    <row r="170" spans="1:17" ht="33">
       <c r="A170" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -18374,7 +18374,7 @@
       <c r="P170" s="34"/>
       <c r="Q170" s="34"/>
     </row>
-    <row r="171" spans="1:17" ht="33.75">
+    <row r="171" spans="1:17" ht="33">
       <c r="A171" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -18406,7 +18406,7 @@
       <c r="P171" s="34"/>
       <c r="Q171" s="34"/>
     </row>
-    <row r="172" spans="1:17" ht="45">
+    <row r="172" spans="1:17" ht="44">
       <c r="A172" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -18438,7 +18438,7 @@
       <c r="P172" s="34"/>
       <c r="Q172" s="34"/>
     </row>
-    <row r="173" spans="1:17" ht="45">
+    <row r="173" spans="1:17" ht="44">
       <c r="A173" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -18470,7 +18470,7 @@
       <c r="P173" s="34"/>
       <c r="Q173" s="34"/>
     </row>
-    <row r="174" spans="1:17" ht="33.75">
+    <row r="174" spans="1:17" ht="33">
       <c r="A174" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -18502,7 +18502,7 @@
       <c r="P174" s="34"/>
       <c r="Q174" s="34"/>
     </row>
-    <row r="175" spans="1:17" ht="45">
+    <row r="175" spans="1:17" ht="44">
       <c r="A175" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -18536,7 +18536,7 @@
       <c r="P175" s="157"/>
       <c r="Q175" s="157"/>
     </row>
-    <row r="176" spans="1:17" ht="45">
+    <row r="176" spans="1:17" ht="44">
       <c r="A176" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -18570,7 +18570,7 @@
       <c r="P176" s="157"/>
       <c r="Q176" s="157"/>
     </row>
-    <row r="177" spans="1:17" ht="33.75">
+    <row r="177" spans="1:17" ht="33">
       <c r="A177" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -18604,7 +18604,7 @@
       <c r="P177" s="157"/>
       <c r="Q177" s="157"/>
     </row>
-    <row r="178" spans="1:17" ht="33.75">
+    <row r="178" spans="1:17" ht="33">
       <c r="A178" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -18638,7 +18638,7 @@
       <c r="P178" s="34"/>
       <c r="Q178" s="34"/>
     </row>
-    <row r="179" spans="1:17" ht="22.5">
+    <row r="179" spans="1:17" ht="22">
       <c r="A179" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -18674,7 +18674,7 @@
       <c r="P179" s="157"/>
       <c r="Q179" s="157"/>
     </row>
-    <row r="180" spans="1:17" ht="22.5">
+    <row r="180" spans="1:17" ht="22">
       <c r="A180" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -18716,7 +18716,7 @@
       <c r="P180" s="157"/>
       <c r="Q180" s="157"/>
     </row>
-    <row r="181" spans="1:17" ht="22.5">
+    <row r="181" spans="1:17" ht="22">
       <c r="A181" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -18754,7 +18754,7 @@
       <c r="P181" s="157"/>
       <c r="Q181" s="157"/>
     </row>
-    <row r="182" spans="1:17" ht="22.5">
+    <row r="182" spans="1:17" ht="22">
       <c r="A182" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -18792,7 +18792,7 @@
       <c r="P182" s="157"/>
       <c r="Q182" s="157"/>
     </row>
-    <row r="183" spans="1:17" ht="22.5">
+    <row r="183" spans="1:17" ht="22">
       <c r="A183" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -18834,7 +18834,7 @@
       <c r="P183" s="157"/>
       <c r="Q183" s="157"/>
     </row>
-    <row r="184" spans="1:17" ht="22.5">
+    <row r="184" spans="1:17" ht="22">
       <c r="A184" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -18870,7 +18870,7 @@
       <c r="P184" s="157"/>
       <c r="Q184" s="157"/>
     </row>
-    <row r="185" spans="1:17" ht="22.5">
+    <row r="185" spans="1:17" ht="22">
       <c r="A185" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -18904,7 +18904,7 @@
       <c r="P185" s="157"/>
       <c r="Q185" s="157"/>
     </row>
-    <row r="186" spans="1:17" ht="22.5">
+    <row r="186" spans="1:17" ht="22">
       <c r="A186" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -18940,7 +18940,7 @@
       <c r="P186" s="157"/>
       <c r="Q186" s="157"/>
     </row>
-    <row r="187" spans="1:17" ht="22.5">
+    <row r="187" spans="1:17" ht="22">
       <c r="A187" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -18974,7 +18974,7 @@
       <c r="P187" s="157"/>
       <c r="Q187" s="157"/>
     </row>
-    <row r="188" spans="1:17" ht="33.75">
+    <row r="188" spans="1:17" ht="33">
       <c r="A188" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -19012,7 +19012,7 @@
       <c r="P188" s="157"/>
       <c r="Q188" s="157"/>
     </row>
-    <row r="189" spans="1:17" ht="22.5">
+    <row r="189" spans="1:17" ht="22">
       <c r="A189" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -19052,7 +19052,7 @@
       <c r="P189" s="157"/>
       <c r="Q189" s="157"/>
     </row>
-    <row r="190" spans="1:17" ht="22.5">
+    <row r="190" spans="1:17" ht="22">
       <c r="A190" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -19086,7 +19086,7 @@
       <c r="P190" s="157"/>
       <c r="Q190" s="157"/>
     </row>
-    <row r="191" spans="1:17" ht="22.5">
+    <row r="191" spans="1:17" ht="22">
       <c r="A191" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -19120,7 +19120,7 @@
       <c r="P191" s="157"/>
       <c r="Q191" s="157"/>
     </row>
-    <row r="192" spans="1:17" ht="22.5">
+    <row r="192" spans="1:17" ht="22">
       <c r="A192" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -19154,7 +19154,7 @@
       <c r="P192" s="157"/>
       <c r="Q192" s="157"/>
     </row>
-    <row r="193" spans="1:17" ht="22.5">
+    <row r="193" spans="1:17" ht="22">
       <c r="A193" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -19188,7 +19188,7 @@
       <c r="P193" s="157"/>
       <c r="Q193" s="157"/>
     </row>
-    <row r="194" spans="1:17" ht="22.5">
+    <row r="194" spans="1:17" ht="22">
       <c r="A194" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -19222,7 +19222,7 @@
       <c r="P194" s="157"/>
       <c r="Q194" s="157"/>
     </row>
-    <row r="195" spans="1:17" ht="22.5">
+    <row r="195" spans="1:17" ht="22">
       <c r="A195" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -19256,7 +19256,7 @@
       <c r="P195" s="157"/>
       <c r="Q195" s="157"/>
     </row>
-    <row r="196" spans="1:17" ht="22.5">
+    <row r="196" spans="1:17" ht="22">
       <c r="A196" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -19292,7 +19292,7 @@
       <c r="P196" s="157"/>
       <c r="Q196" s="157"/>
     </row>
-    <row r="197" spans="1:17" ht="22.5">
+    <row r="197" spans="1:17" ht="22">
       <c r="A197" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -19330,7 +19330,7 @@
       <c r="P197" s="157"/>
       <c r="Q197" s="157"/>
     </row>
-    <row r="198" spans="1:17" ht="22.5">
+    <row r="198" spans="1:17" ht="22">
       <c r="A198" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -19364,7 +19364,7 @@
       <c r="P198" s="157"/>
       <c r="Q198" s="157"/>
     </row>
-    <row r="199" spans="1:17" ht="22.5">
+    <row r="199" spans="1:17" ht="22">
       <c r="A199" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -19398,7 +19398,7 @@
       <c r="P199" s="157"/>
       <c r="Q199" s="157"/>
     </row>
-    <row r="200" spans="1:17" ht="22.5">
+    <row r="200" spans="1:17" ht="22">
       <c r="A200" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -19432,7 +19432,7 @@
       <c r="P200" s="157"/>
       <c r="Q200" s="157"/>
     </row>
-    <row r="201" spans="1:17" ht="33.75">
+    <row r="201" spans="1:17" ht="33">
       <c r="A201" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -19466,7 +19466,7 @@
       <c r="P201" s="157"/>
       <c r="Q201" s="157"/>
     </row>
-    <row r="202" spans="1:17" ht="33.75">
+    <row r="202" spans="1:17" ht="33">
       <c r="A202" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -19500,7 +19500,7 @@
       <c r="P202" s="157"/>
       <c r="Q202" s="157"/>
     </row>
-    <row r="203" spans="1:17" ht="45">
+    <row r="203" spans="1:17" ht="44">
       <c r="A203" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -19534,7 +19534,7 @@
       <c r="P203" s="157"/>
       <c r="Q203" s="157"/>
     </row>
-    <row r="204" spans="1:17" ht="33.75">
+    <row r="204" spans="1:17" ht="33">
       <c r="A204" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -19568,7 +19568,7 @@
       <c r="P204" s="157"/>
       <c r="Q204" s="157"/>
     </row>
-    <row r="205" spans="1:17" ht="33.75">
+    <row r="205" spans="1:17" ht="33">
       <c r="A205" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -19602,7 +19602,7 @@
       <c r="P205" s="157"/>
       <c r="Q205" s="157"/>
     </row>
-    <row r="206" spans="1:17" ht="22.5">
+    <row r="206" spans="1:17" ht="22">
       <c r="A206" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -19636,7 +19636,7 @@
       <c r="P206" s="157"/>
       <c r="Q206" s="157"/>
     </row>
-    <row r="207" spans="1:17" ht="22.5">
+    <row r="207" spans="1:17" ht="22">
       <c r="A207" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -19670,7 +19670,7 @@
       <c r="P207" s="157"/>
       <c r="Q207" s="157"/>
     </row>
-    <row r="208" spans="1:17" ht="33.75">
+    <row r="208" spans="1:17" ht="33">
       <c r="A208" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -19704,7 +19704,7 @@
       <c r="P208" s="157"/>
       <c r="Q208" s="157"/>
     </row>
-    <row r="209" spans="1:17" ht="22.5">
+    <row r="209" spans="1:17" ht="22">
       <c r="A209" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -19738,7 +19738,7 @@
       <c r="P209" s="157"/>
       <c r="Q209" s="157"/>
     </row>
-    <row r="210" spans="1:17" ht="22.5">
+    <row r="210" spans="1:17" ht="22">
       <c r="A210" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -19776,7 +19776,7 @@
       <c r="P210" s="157"/>
       <c r="Q210" s="157"/>
     </row>
-    <row r="211" spans="1:17" ht="22.5">
+    <row r="211" spans="1:17" ht="22">
       <c r="A211" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -19810,7 +19810,7 @@
       <c r="P211" s="157"/>
       <c r="Q211" s="157"/>
     </row>
-    <row r="212" spans="1:17" ht="22.5">
+    <row r="212" spans="1:17" ht="22">
       <c r="A212" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -19844,7 +19844,7 @@
       <c r="P212" s="157"/>
       <c r="Q212" s="157"/>
     </row>
-    <row r="213" spans="1:17" ht="22.5">
+    <row r="213" spans="1:17" ht="22">
       <c r="A213" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -19878,7 +19878,7 @@
       <c r="P213" s="157"/>
       <c r="Q213" s="157"/>
     </row>
-    <row r="214" spans="1:17" ht="22.5">
+    <row r="214" spans="1:17" ht="22">
       <c r="A214" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -19912,7 +19912,7 @@
       <c r="P214" s="157"/>
       <c r="Q214" s="157"/>
     </row>
-    <row r="215" spans="1:17" ht="45">
+    <row r="215" spans="1:17" ht="44">
       <c r="A215" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -19946,7 +19946,7 @@
       <c r="P215" s="157"/>
       <c r="Q215" s="157"/>
     </row>
-    <row r="216" spans="1:17" ht="33.75">
+    <row r="216" spans="1:17" ht="33">
       <c r="A216" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -19980,7 +19980,7 @@
       <c r="P216" s="157"/>
       <c r="Q216" s="157"/>
     </row>
-    <row r="217" spans="1:17" ht="33.75">
+    <row r="217" spans="1:17" ht="33">
       <c r="A217" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -20014,7 +20014,7 @@
       <c r="P217" s="157"/>
       <c r="Q217" s="157"/>
     </row>
-    <row r="218" spans="1:17" ht="45">
+    <row r="218" spans="1:17" ht="44">
       <c r="A218" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -20048,7 +20048,7 @@
       <c r="P218" s="157"/>
       <c r="Q218" s="157"/>
     </row>
-    <row r="219" spans="1:17" ht="33.75">
+    <row r="219" spans="1:17" ht="33">
       <c r="A219" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -20082,7 +20082,7 @@
       <c r="P219" s="157"/>
       <c r="Q219" s="157"/>
     </row>
-    <row r="220" spans="1:17" ht="33.75">
+    <row r="220" spans="1:17" ht="33">
       <c r="A220" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -20116,7 +20116,7 @@
       <c r="P220" s="157"/>
       <c r="Q220" s="157"/>
     </row>
-    <row r="221" spans="1:17" ht="22.5">
+    <row r="221" spans="1:17" ht="22">
       <c r="A221" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -20150,7 +20150,7 @@
       <c r="P221" s="157"/>
       <c r="Q221" s="157"/>
     </row>
-    <row r="222" spans="1:17" ht="22.5">
+    <row r="222" spans="1:17" ht="22">
       <c r="A222" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -20184,7 +20184,7 @@
       <c r="P222" s="157"/>
       <c r="Q222" s="157"/>
     </row>
-    <row r="223" spans="1:17" ht="33.75">
+    <row r="223" spans="1:17" ht="33">
       <c r="A223" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -20218,7 +20218,7 @@
       <c r="P223" s="157"/>
       <c r="Q223" s="157"/>
     </row>
-    <row r="224" spans="1:17" ht="22.5">
+    <row r="224" spans="1:17" ht="22">
       <c r="A224" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -20252,7 +20252,7 @@
       <c r="P224" s="157"/>
       <c r="Q224" s="157"/>
     </row>
-    <row r="225" spans="1:17" ht="45">
+    <row r="225" spans="1:17" ht="44">
       <c r="A225" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -20288,7 +20288,7 @@
       <c r="P225" s="157"/>
       <c r="Q225" s="157"/>
     </row>
-    <row r="226" spans="1:17" ht="45">
+    <row r="226" spans="1:17" ht="44">
       <c r="A226" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -20322,7 +20322,7 @@
       <c r="P226" s="157"/>
       <c r="Q226" s="157"/>
     </row>
-    <row r="227" spans="1:17" ht="33.75">
+    <row r="227" spans="1:17" ht="33">
       <c r="A227" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -20356,7 +20356,7 @@
       <c r="P227" s="157"/>
       <c r="Q227" s="157"/>
     </row>
-    <row r="228" spans="1:17" ht="33.75">
+    <row r="228" spans="1:17" ht="33">
       <c r="A228" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -20392,7 +20392,7 @@
       <c r="P228" s="157"/>
       <c r="Q228" s="157"/>
     </row>
-    <row r="229" spans="1:17" ht="22.5">
+    <row r="229" spans="1:17" ht="22">
       <c r="A229" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -20428,7 +20428,7 @@
       <c r="P229" s="157"/>
       <c r="Q229" s="157"/>
     </row>
-    <row r="230" spans="1:17" ht="22.5">
+    <row r="230" spans="1:17" ht="22">
       <c r="A230" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -20470,7 +20470,7 @@
       <c r="P230" s="157"/>
       <c r="Q230" s="157"/>
     </row>
-    <row r="231" spans="1:17" ht="22.5">
+    <row r="231" spans="1:17" ht="22">
       <c r="A231" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -20506,7 +20506,7 @@
       <c r="P231" s="157"/>
       <c r="Q231" s="157"/>
     </row>
-    <row r="232" spans="1:17" ht="22.5">
+    <row r="232" spans="1:17" ht="22">
       <c r="A232" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -20540,7 +20540,7 @@
       <c r="P232" s="157"/>
       <c r="Q232" s="157"/>
     </row>
-    <row r="233" spans="1:17" ht="22.5">
+    <row r="233" spans="1:17" ht="22">
       <c r="A233" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -20574,7 +20574,7 @@
       <c r="P233" s="157"/>
       <c r="Q233" s="157"/>
     </row>
-    <row r="234" spans="1:17" ht="22.5">
+    <row r="234" spans="1:17" ht="22">
       <c r="A234" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -20608,7 +20608,7 @@
       <c r="P234" s="157"/>
       <c r="Q234" s="157"/>
     </row>
-    <row r="235" spans="1:17" ht="33.75">
+    <row r="235" spans="1:17" ht="33">
       <c r="A235" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -20642,7 +20642,7 @@
       <c r="P235" s="157"/>
       <c r="Q235" s="157"/>
     </row>
-    <row r="236" spans="1:17" ht="33.75">
+    <row r="236" spans="1:17" ht="33">
       <c r="A236" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -20678,7 +20678,7 @@
       <c r="P236" s="157"/>
       <c r="Q236" s="157"/>
     </row>
-    <row r="237" spans="1:17" ht="33.75">
+    <row r="237" spans="1:17" ht="33">
       <c r="A237" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -20712,7 +20712,7 @@
       <c r="P237" s="157"/>
       <c r="Q237" s="157"/>
     </row>
-    <row r="238" spans="1:17" ht="45">
+    <row r="238" spans="1:17" ht="44">
       <c r="A238" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -20746,7 +20746,7 @@
       <c r="P238" s="157"/>
       <c r="Q238" s="157"/>
     </row>
-    <row r="239" spans="1:17" ht="45">
+    <row r="239" spans="1:17" ht="44">
       <c r="A239" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -20780,7 +20780,7 @@
       <c r="P239" s="157"/>
       <c r="Q239" s="157"/>
     </row>
-    <row r="240" spans="1:17" ht="33.75">
+    <row r="240" spans="1:17" ht="33">
       <c r="A240" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -20814,7 +20814,7 @@
       <c r="P240" s="157"/>
       <c r="Q240" s="157"/>
     </row>
-    <row r="241" spans="1:17" ht="33.75">
+    <row r="241" spans="1:17" ht="33">
       <c r="A241" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -20850,7 +20850,7 @@
       <c r="P241" s="157"/>
       <c r="Q241" s="157"/>
     </row>
-    <row r="242" spans="1:17" ht="33.75">
+    <row r="242" spans="1:17" ht="33">
       <c r="A242" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -20890,7 +20890,7 @@
       <c r="P242" s="157"/>
       <c r="Q242" s="157"/>
     </row>
-    <row r="243" spans="1:17" ht="22.5">
+    <row r="243" spans="1:17" ht="22">
       <c r="A243" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -20932,7 +20932,7 @@
       <c r="P243" s="157"/>
       <c r="Q243" s="157"/>
     </row>
-    <row r="244" spans="1:17" ht="22.5">
+    <row r="244" spans="1:17" ht="22">
       <c r="A244" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -20966,7 +20966,7 @@
       <c r="P244" s="157"/>
       <c r="Q244" s="157"/>
     </row>
-    <row r="245" spans="1:17" ht="33.75">
+    <row r="245" spans="1:17" ht="33">
       <c r="A245" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -21004,7 +21004,7 @@
       <c r="P245" s="157"/>
       <c r="Q245" s="157"/>
     </row>
-    <row r="246" spans="1:17" ht="33.75">
+    <row r="246" spans="1:17" ht="33">
       <c r="A246" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -21038,7 +21038,7 @@
       <c r="P246" s="157"/>
       <c r="Q246" s="157"/>
     </row>
-    <row r="247" spans="1:17" ht="33.75">
+    <row r="247" spans="1:17" ht="33">
       <c r="A247" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -21078,7 +21078,7 @@
       <c r="P247" s="157"/>
       <c r="Q247" s="157"/>
     </row>
-    <row r="248" spans="1:17" ht="33.75">
+    <row r="248" spans="1:17" ht="33">
       <c r="A248" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -21114,7 +21114,7 @@
       <c r="P248" s="157"/>
       <c r="Q248" s="157"/>
     </row>
-    <row r="249" spans="1:17" ht="33.75">
+    <row r="249" spans="1:17" ht="33">
       <c r="A249" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -21150,7 +21150,7 @@
       <c r="P249" s="157"/>
       <c r="Q249" s="157"/>
     </row>
-    <row r="250" spans="1:17" ht="33.75">
+    <row r="250" spans="1:17" ht="33">
       <c r="A250" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -21186,7 +21186,7 @@
       <c r="P250" s="157"/>
       <c r="Q250" s="157"/>
     </row>
-    <row r="251" spans="1:17" ht="22.5">
+    <row r="251" spans="1:17" ht="22">
       <c r="A251" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -21224,7 +21224,7 @@
       <c r="P251" s="157"/>
       <c r="Q251" s="157"/>
     </row>
-    <row r="252" spans="1:17" ht="22.5">
+    <row r="252" spans="1:17" ht="22">
       <c r="A252" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -21258,7 +21258,7 @@
       <c r="P252" s="157"/>
       <c r="Q252" s="157"/>
     </row>
-    <row r="253" spans="1:17" ht="33.75">
+    <row r="253" spans="1:17" ht="33">
       <c r="A253" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -21294,7 +21294,7 @@
       <c r="P253" s="157"/>
       <c r="Q253" s="157"/>
     </row>
-    <row r="254" spans="1:17" ht="33.75">
+    <row r="254" spans="1:17" ht="33">
       <c r="A254" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -21328,7 +21328,7 @@
       <c r="P254" s="157"/>
       <c r="Q254" s="157"/>
     </row>
-    <row r="255" spans="1:17" ht="33.75">
+    <row r="255" spans="1:17" ht="33">
       <c r="A255" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -21362,7 +21362,7 @@
       <c r="P255" s="157"/>
       <c r="Q255" s="157"/>
     </row>
-    <row r="256" spans="1:17" ht="33.75">
+    <row r="256" spans="1:17" ht="33">
       <c r="A256" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -21396,7 +21396,7 @@
       <c r="P256" s="157"/>
       <c r="Q256" s="157"/>
     </row>
-    <row r="257" spans="1:17" ht="33.75">
+    <row r="257" spans="1:17" ht="33">
       <c r="A257" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -21430,7 +21430,7 @@
       <c r="P257" s="157"/>
       <c r="Q257" s="157"/>
     </row>
-    <row r="258" spans="1:17" ht="22.5">
+    <row r="258" spans="1:17" ht="22">
       <c r="A258" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -21464,7 +21464,7 @@
       <c r="P258" s="157"/>
       <c r="Q258" s="157"/>
     </row>
-    <row r="259" spans="1:17" ht="22.5">
+    <row r="259" spans="1:17" ht="22">
       <c r="A259" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -21498,7 +21498,7 @@
       <c r="P259" s="157"/>
       <c r="Q259" s="157"/>
     </row>
-    <row r="260" spans="1:17" ht="33.75">
+    <row r="260" spans="1:17" ht="33">
       <c r="A260" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -21532,7 +21532,7 @@
       <c r="P260" s="157"/>
       <c r="Q260" s="157"/>
     </row>
-    <row r="261" spans="1:17" ht="33.75">
+    <row r="261" spans="1:17" ht="33">
       <c r="A261" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -21566,7 +21566,7 @@
       <c r="P261" s="157"/>
       <c r="Q261" s="157"/>
     </row>
-    <row r="262" spans="1:17" ht="33.75">
+    <row r="262" spans="1:17" ht="33">
       <c r="A262" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -21600,7 +21600,7 @@
       <c r="P262" s="157"/>
       <c r="Q262" s="157"/>
     </row>
-    <row r="263" spans="1:17" ht="33.75">
+    <row r="263" spans="1:17" ht="33">
       <c r="A263" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -21704,7 +21704,7 @@
       <c r="P265" s="157"/>
       <c r="Q265" s="157"/>
     </row>
-    <row r="266" spans="1:17" ht="22.5">
+    <row r="266" spans="1:17" ht="22">
       <c r="A266" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -21738,7 +21738,7 @@
       <c r="P266" s="157"/>
       <c r="Q266" s="157"/>
     </row>
-    <row r="267" spans="1:17" ht="22.5">
+    <row r="267" spans="1:17" ht="22">
       <c r="A267" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -21772,7 +21772,7 @@
       <c r="P267" s="157"/>
       <c r="Q267" s="157"/>
     </row>
-    <row r="268" spans="1:17" ht="22.5">
+    <row r="268" spans="1:17" ht="22">
       <c r="A268" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -21806,7 +21806,7 @@
       <c r="P268" s="157"/>
       <c r="Q268" s="157"/>
     </row>
-    <row r="269" spans="1:17" ht="33.75">
+    <row r="269" spans="1:17" ht="33">
       <c r="A269" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -21840,7 +21840,7 @@
       <c r="P269" s="157"/>
       <c r="Q269" s="157"/>
     </row>
-    <row r="270" spans="1:17" ht="22.5">
+    <row r="270" spans="1:17" ht="22">
       <c r="A270" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -21876,7 +21876,7 @@
       <c r="P270" s="157"/>
       <c r="Q270" s="157"/>
     </row>
-    <row r="271" spans="1:17" ht="33.75">
+    <row r="271" spans="1:17" ht="33">
       <c r="A271" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -21910,7 +21910,7 @@
       <c r="P271" s="157"/>
       <c r="Q271" s="157"/>
     </row>
-    <row r="272" spans="1:17" ht="45">
+    <row r="272" spans="1:17" ht="44">
       <c r="A272" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -21944,7 +21944,7 @@
       <c r="P272" s="157"/>
       <c r="Q272" s="157"/>
     </row>
-    <row r="273" spans="1:17" ht="45">
+    <row r="273" spans="1:17" ht="44">
       <c r="A273" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -21978,7 +21978,7 @@
       <c r="P273" s="157"/>
       <c r="Q273" s="157"/>
     </row>
-    <row r="274" spans="1:17" ht="22.5">
+    <row r="274" spans="1:17" ht="22">
       <c r="A274" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -22012,7 +22012,7 @@
       <c r="P274" s="157"/>
       <c r="Q274" s="157"/>
     </row>
-    <row r="275" spans="1:17" ht="45">
+    <row r="275" spans="1:17" ht="44">
       <c r="A275" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -22046,7 +22046,7 @@
       <c r="P275" s="157"/>
       <c r="Q275" s="157"/>
     </row>
-    <row r="276" spans="1:17" ht="45">
+    <row r="276" spans="1:17" ht="44">
       <c r="A276" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -22080,7 +22080,7 @@
       <c r="P276" s="157"/>
       <c r="Q276" s="157"/>
     </row>
-    <row r="277" spans="1:17" ht="22.5">
+    <row r="277" spans="1:17" ht="22">
       <c r="A277" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -22114,7 +22114,7 @@
       <c r="P277" s="157"/>
       <c r="Q277" s="157"/>
     </row>
-    <row r="278" spans="1:17" ht="22.5">
+    <row r="278" spans="1:17" ht="22">
       <c r="A278" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -22150,7 +22150,7 @@
       <c r="P278" s="157"/>
       <c r="Q278" s="157"/>
     </row>
-    <row r="279" spans="1:17" ht="22.5">
+    <row r="279" spans="1:17" ht="22">
       <c r="A279" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -22190,7 +22190,7 @@
       <c r="P279" s="34"/>
       <c r="Q279" s="34"/>
     </row>
-    <row r="280" spans="1:17" ht="22.5">
+    <row r="280" spans="1:17" ht="22">
       <c r="A280" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -22222,7 +22222,7 @@
       <c r="P280" s="34"/>
       <c r="Q280" s="34"/>
     </row>
-    <row r="281" spans="1:17" ht="22.5">
+    <row r="281" spans="1:17" ht="22">
       <c r="A281" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -22254,7 +22254,7 @@
       <c r="P281" s="34"/>
       <c r="Q281" s="34"/>
     </row>
-    <row r="282" spans="1:17" ht="22.5">
+    <row r="282" spans="1:17" ht="22">
       <c r="A282" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -22286,7 +22286,7 @@
       <c r="P282" s="34"/>
       <c r="Q282" s="34"/>
     </row>
-    <row r="283" spans="1:17" ht="22.5">
+    <row r="283" spans="1:17" ht="22">
       <c r="A283" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -22324,7 +22324,7 @@
       <c r="P283" s="34"/>
       <c r="Q283" s="34"/>
     </row>
-    <row r="284" spans="1:17" ht="22.5">
+    <row r="284" spans="1:17" ht="22">
       <c r="A284" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -22358,7 +22358,7 @@
       <c r="P284" s="34"/>
       <c r="Q284" s="34"/>
     </row>
-    <row r="285" spans="1:17" ht="22.5">
+    <row r="285" spans="1:17" ht="22">
       <c r="A285" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -22392,7 +22392,7 @@
       <c r="P285" s="34"/>
       <c r="Q285" s="34"/>
     </row>
-    <row r="286" spans="1:17" ht="22.5">
+    <row r="286" spans="1:17" ht="22">
       <c r="A286" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -22426,7 +22426,7 @@
       <c r="P286" s="34"/>
       <c r="Q286" s="34"/>
     </row>
-    <row r="287" spans="1:17" ht="22.5">
+    <row r="287" spans="1:17" ht="22">
       <c r="A287" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -22462,7 +22462,7 @@
       <c r="P287" s="34"/>
       <c r="Q287" s="34"/>
     </row>
-    <row r="288" spans="1:17" ht="22.5">
+    <row r="288" spans="1:17" ht="22">
       <c r="A288" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -22494,7 +22494,7 @@
       <c r="P288" s="34"/>
       <c r="Q288" s="34"/>
     </row>
-    <row r="289" spans="1:17" ht="33.75">
+    <row r="289" spans="1:17" ht="33">
       <c r="A289" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -22526,7 +22526,7 @@
       <c r="P289" s="34"/>
       <c r="Q289" s="34"/>
     </row>
-    <row r="290" spans="1:17" ht="33.75">
+    <row r="290" spans="1:17" ht="33">
       <c r="A290" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -22558,7 +22558,7 @@
       <c r="P290" s="34"/>
       <c r="Q290" s="34"/>
     </row>
-    <row r="291" spans="1:17" ht="33.75">
+    <row r="291" spans="1:17" ht="33">
       <c r="A291" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -22590,7 +22590,7 @@
       <c r="P291" s="34"/>
       <c r="Q291" s="34"/>
     </row>
-    <row r="292" spans="1:17" ht="33.75">
+    <row r="292" spans="1:17" ht="33">
       <c r="A292" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -22622,7 +22622,7 @@
       <c r="P292" s="34"/>
       <c r="Q292" s="34"/>
     </row>
-    <row r="293" spans="1:17" ht="33.75">
+    <row r="293" spans="1:17" ht="33">
       <c r="A293" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -22654,7 +22654,7 @@
       <c r="P293" s="34"/>
       <c r="Q293" s="34"/>
     </row>
-    <row r="294" spans="1:17" ht="22.5">
+    <row r="294" spans="1:17" ht="22">
       <c r="A294" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -22686,7 +22686,7 @@
       <c r="P294" s="34"/>
       <c r="Q294" s="34"/>
     </row>
-    <row r="295" spans="1:17" ht="22.5">
+    <row r="295" spans="1:17" ht="22">
       <c r="A295" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -22762,18 +22762,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="26" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="28.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.375" style="25" customWidth="1"/>
-    <col min="10" max="11" width="25.625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="25" customWidth="1"/>
-    <col min="13" max="17" width="8.625" style="25" customWidth="1"/>
+    <col min="1" max="2" width="8.58203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="26" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="28.08203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.33203125" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.33203125" style="25" customWidth="1"/>
+    <col min="10" max="11" width="25.58203125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="12.58203125" style="25" customWidth="1"/>
+    <col min="13" max="17" width="8.58203125" style="25" customWidth="1"/>
     <col min="18" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -22819,7 +22819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12" thickBot="1">
+    <row r="8" spans="1:17" ht="11.5" thickBot="1">
       <c r="A8" s="27" t="s">
         <v>592</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22.5">
+    <row r="11" spans="1:17" ht="22">
       <c r="A11" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -22936,7 +22936,7 @@
       <c r="P11" s="155"/>
       <c r="Q11" s="157"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5">
+    <row r="12" spans="1:17" ht="22">
       <c r="A12" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -22972,7 +22972,7 @@
       <c r="P12" s="155"/>
       <c r="Q12" s="157"/>
     </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="13" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A13" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -23010,7 +23010,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="155"/>
     </row>
-    <row r="14" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="14" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A14" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -23044,7 +23044,7 @@
       <c r="P14" s="156"/>
       <c r="Q14" s="155"/>
     </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="15" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A15" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -23078,7 +23078,7 @@
       <c r="P15" s="156"/>
       <c r="Q15" s="155"/>
     </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="16" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A16" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -23112,7 +23112,7 @@
       <c r="P16" s="155"/>
       <c r="Q16" s="157"/>
     </row>
-    <row r="17" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="17" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A17" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -23146,7 +23146,7 @@
       <c r="P17" s="155"/>
       <c r="Q17" s="157"/>
     </row>
-    <row r="18" spans="1:17" ht="22.5">
+    <row r="18" spans="1:17" ht="22">
       <c r="A18" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -23184,7 +23184,7 @@
       <c r="P18" s="155"/>
       <c r="Q18" s="157"/>
     </row>
-    <row r="19" spans="1:17" ht="22.5">
+    <row r="19" spans="1:17" ht="22">
       <c r="A19" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -23218,7 +23218,7 @@
       <c r="P19" s="155"/>
       <c r="Q19" s="157"/>
     </row>
-    <row r="20" spans="1:17" ht="22.5">
+    <row r="20" spans="1:17" ht="22">
       <c r="A20" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -23252,7 +23252,7 @@
       <c r="P20" s="155"/>
       <c r="Q20" s="157"/>
     </row>
-    <row r="21" spans="1:17" ht="22.5">
+    <row r="21" spans="1:17" ht="22">
       <c r="A21" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -23288,7 +23288,7 @@
       <c r="P21" s="155"/>
       <c r="Q21" s="157"/>
     </row>
-    <row r="22" spans="1:17" ht="22.5">
+    <row r="22" spans="1:17" ht="22">
       <c r="A22" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -23322,7 +23322,7 @@
       <c r="P22" s="155"/>
       <c r="Q22" s="157"/>
     </row>
-    <row r="23" spans="1:17" ht="22.5">
+    <row r="23" spans="1:17" ht="22">
       <c r="A23" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -23356,7 +23356,7 @@
       <c r="P23" s="155"/>
       <c r="Q23" s="157"/>
     </row>
-    <row r="24" spans="1:17" ht="22.5">
+    <row r="24" spans="1:17" ht="22">
       <c r="A24" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -23390,7 +23390,7 @@
       <c r="P24" s="155"/>
       <c r="Q24" s="157"/>
     </row>
-    <row r="25" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="25" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A25" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -23462,7 +23462,7 @@
       <c r="P26" s="156"/>
       <c r="Q26" s="155"/>
     </row>
-    <row r="27" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="27" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A27" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -23500,7 +23500,7 @@
       <c r="P27" s="156"/>
       <c r="Q27" s="155"/>
     </row>
-    <row r="28" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="28" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A28" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -23534,7 +23534,7 @@
       <c r="P28" s="156"/>
       <c r="Q28" s="155"/>
     </row>
-    <row r="29" spans="1:17" ht="22.5">
+    <row r="29" spans="1:17" ht="22">
       <c r="A29" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -23570,7 +23570,7 @@
       <c r="P29" s="157"/>
       <c r="Q29" s="157"/>
     </row>
-    <row r="30" spans="1:17" ht="22.5">
+    <row r="30" spans="1:17" ht="22">
       <c r="A30" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -23604,7 +23604,7 @@
       <c r="P30" s="157"/>
       <c r="Q30" s="157"/>
     </row>
-    <row r="31" spans="1:17" ht="22.5">
+    <row r="31" spans="1:17" ht="22">
       <c r="A31" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -23638,7 +23638,7 @@
       <c r="P31" s="157"/>
       <c r="Q31" s="157"/>
     </row>
-    <row r="32" spans="1:17" ht="22.5">
+    <row r="32" spans="1:17" ht="22">
       <c r="A32" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -23672,7 +23672,7 @@
       <c r="P32" s="157"/>
       <c r="Q32" s="157"/>
     </row>
-    <row r="33" spans="1:17" ht="22.5">
+    <row r="33" spans="1:17" ht="22">
       <c r="A33" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -23708,7 +23708,7 @@
       <c r="P33" s="157"/>
       <c r="Q33" s="157"/>
     </row>
-    <row r="34" spans="1:17" ht="22.5">
+    <row r="34" spans="1:17" ht="22">
       <c r="A34" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -23742,7 +23742,7 @@
       <c r="P34" s="157"/>
       <c r="Q34" s="157"/>
     </row>
-    <row r="35" spans="1:17" ht="45">
+    <row r="35" spans="1:17" ht="44">
       <c r="A35" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -23778,7 +23778,7 @@
       <c r="P35" s="157"/>
       <c r="Q35" s="157"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75">
+    <row r="36" spans="1:17" ht="33">
       <c r="A36" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -23818,7 +23818,7 @@
       <c r="P36" s="157"/>
       <c r="Q36" s="157"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75">
+    <row r="37" spans="1:17" ht="33">
       <c r="A37" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -23852,7 +23852,7 @@
       <c r="P37" s="157"/>
       <c r="Q37" s="157"/>
     </row>
-    <row r="38" spans="1:17" ht="22.5">
+    <row r="38" spans="1:17" ht="22">
       <c r="A38" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -23886,7 +23886,7 @@
       <c r="P38" s="157"/>
       <c r="Q38" s="157"/>
     </row>
-    <row r="39" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="39" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A39" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -23920,7 +23920,7 @@
       <c r="P39" s="155"/>
       <c r="Q39" s="157"/>
     </row>
-    <row r="40" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="40" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A40" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -23992,7 +23992,7 @@
       <c r="P41" s="155"/>
       <c r="Q41" s="157"/>
     </row>
-    <row r="42" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="42" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A42" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -24032,7 +24032,7 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="34"/>
     </row>
-    <row r="43" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="43" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A43" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -24064,7 +24064,7 @@
       <c r="P43" s="35"/>
       <c r="Q43" s="34"/>
     </row>
-    <row r="44" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="44" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A44" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -24096,7 +24096,7 @@
       <c r="P44" s="35"/>
       <c r="Q44" s="34"/>
     </row>
-    <row r="45" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="45" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A45" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -24130,7 +24130,7 @@
       <c r="P45" s="35"/>
       <c r="Q45" s="34"/>
     </row>
-    <row r="46" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="46" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A46" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -24162,7 +24162,7 @@
       <c r="P46" s="35"/>
       <c r="Q46" s="34"/>
     </row>
-    <row r="47" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="47" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A47" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -24194,7 +24194,7 @@
       <c r="P47" s="35"/>
       <c r="Q47" s="34"/>
     </row>
-    <row r="48" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="48" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A48" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -24228,7 +24228,7 @@
       <c r="P48" s="35"/>
       <c r="Q48" s="34"/>
     </row>
-    <row r="49" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="49" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A49" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -24260,7 +24260,7 @@
       <c r="P49" s="35"/>
       <c r="Q49" s="34"/>
     </row>
-    <row r="50" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="50" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A50" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -24294,7 +24294,7 @@
       <c r="P50" s="35"/>
       <c r="Q50" s="34"/>
     </row>
-    <row r="51" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="51" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A51" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -24326,7 +24326,7 @@
       <c r="P51" s="35"/>
       <c r="Q51" s="34"/>
     </row>
-    <row r="52" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="52" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A52" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -24358,7 +24358,7 @@
       <c r="P52" s="35"/>
       <c r="Q52" s="34"/>
     </row>
-    <row r="53" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="53" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A53" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -24390,7 +24390,7 @@
       <c r="P53" s="35"/>
       <c r="Q53" s="34"/>
     </row>
-    <row r="54" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="54" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A54" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -24422,7 +24422,7 @@
       <c r="P54" s="35"/>
       <c r="Q54" s="34"/>
     </row>
-    <row r="55" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="55" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A55" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -24454,7 +24454,7 @@
       <c r="P55" s="35"/>
       <c r="Q55" s="34"/>
     </row>
-    <row r="56" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="56" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A56" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -24488,7 +24488,7 @@
       <c r="P56" s="35"/>
       <c r="Q56" s="34"/>
     </row>
-    <row r="57" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="57" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A57" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -24522,7 +24522,7 @@
       <c r="P57" s="35"/>
       <c r="Q57" s="34"/>
     </row>
-    <row r="58" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="58" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A58" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -24556,7 +24556,7 @@
       <c r="P58" s="35"/>
       <c r="Q58" s="34"/>
     </row>
-    <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="59" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A59" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -24592,7 +24592,7 @@
       <c r="P59" s="35"/>
       <c r="Q59" s="34"/>
     </row>
-    <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="60" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A60" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -24624,7 +24624,7 @@
       <c r="P60" s="35"/>
       <c r="Q60" s="34"/>
     </row>
-    <row r="61" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="61" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A61" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -24656,7 +24656,7 @@
       <c r="P61" s="35"/>
       <c r="Q61" s="34"/>
     </row>
-    <row r="62" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="62" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A62" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -24688,7 +24688,7 @@
       <c r="P62" s="35"/>
       <c r="Q62" s="34"/>
     </row>
-    <row r="63" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="63" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A63" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -24720,7 +24720,7 @@
       <c r="P63" s="35"/>
       <c r="Q63" s="34"/>
     </row>
-    <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="64" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A64" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -24754,7 +24754,7 @@
       <c r="P64" s="35"/>
       <c r="Q64" s="34"/>
     </row>
-    <row r="65" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="65" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A65" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -24786,7 +24786,7 @@
       <c r="P65" s="35"/>
       <c r="Q65" s="34"/>
     </row>
-    <row r="66" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="66" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A66" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -24818,7 +24818,7 @@
       <c r="P66" s="35"/>
       <c r="Q66" s="34"/>
     </row>
-    <row r="67" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="67" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A67" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -24850,7 +24850,7 @@
       <c r="P67" s="35"/>
       <c r="Q67" s="34"/>
     </row>
-    <row r="68" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="68" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A68" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -24882,7 +24882,7 @@
       <c r="P68" s="35"/>
       <c r="Q68" s="34"/>
     </row>
-    <row r="69" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="69" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A69" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -24914,7 +24914,7 @@
       <c r="P69" s="35"/>
       <c r="Q69" s="34"/>
     </row>
-    <row r="70" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="70" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A70" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -24946,7 +24946,7 @@
       <c r="P70" s="35"/>
       <c r="Q70" s="34"/>
     </row>
-    <row r="71" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="71" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A71" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -24978,7 +24978,7 @@
       <c r="P71" s="140"/>
       <c r="Q71" s="141"/>
     </row>
-    <row r="72" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="72" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A72" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -25142,7 +25142,7 @@
       <c r="P76" s="34"/>
       <c r="Q76" s="34"/>
     </row>
-    <row r="77" spans="1:17" ht="22.5">
+    <row r="77" spans="1:17" ht="22">
       <c r="A77" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -25176,7 +25176,7 @@
       <c r="P77" s="157"/>
       <c r="Q77" s="157"/>
     </row>
-    <row r="78" spans="1:17" ht="22.5">
+    <row r="78" spans="1:17" ht="22">
       <c r="A78" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -25214,7 +25214,7 @@
       <c r="P78" s="34"/>
       <c r="Q78" s="34"/>
     </row>
-    <row r="79" spans="1:17" ht="33.75">
+    <row r="79" spans="1:17" ht="33">
       <c r="A79" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -25280,7 +25280,7 @@
       <c r="P80" s="34"/>
       <c r="Q80" s="34"/>
     </row>
-    <row r="81" spans="1:17" ht="33.75">
+    <row r="81" spans="1:17" ht="33">
       <c r="A81" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -25314,7 +25314,7 @@
       <c r="P81" s="34"/>
       <c r="Q81" s="34"/>
     </row>
-    <row r="82" spans="1:17" ht="33.75">
+    <row r="82" spans="1:17" ht="33">
       <c r="A82" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -25346,7 +25346,7 @@
       <c r="P82" s="34"/>
       <c r="Q82" s="34"/>
     </row>
-    <row r="83" spans="1:17" ht="22.5">
+    <row r="83" spans="1:17" ht="22">
       <c r="A83" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -25380,7 +25380,7 @@
       <c r="P83" s="34"/>
       <c r="Q83" s="34"/>
     </row>
-    <row r="84" spans="1:17" ht="22.5">
+    <row r="84" spans="1:17" ht="22">
       <c r="A84" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -25414,7 +25414,7 @@
       <c r="P84" s="34"/>
       <c r="Q84" s="34"/>
     </row>
-    <row r="85" spans="1:17" ht="22.5">
+    <row r="85" spans="1:17" ht="22">
       <c r="A85" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -25486,7 +25486,7 @@
       <c r="P86" s="34"/>
       <c r="Q86" s="34"/>
     </row>
-    <row r="87" spans="1:17" ht="33.75">
+    <row r="87" spans="1:17" ht="33">
       <c r="A87" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -25520,7 +25520,7 @@
       <c r="P87" s="34"/>
       <c r="Q87" s="34"/>
     </row>
-    <row r="88" spans="1:17" ht="22.5">
+    <row r="88" spans="1:17" ht="22">
       <c r="A88" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -25558,7 +25558,7 @@
       <c r="P88" s="34"/>
       <c r="Q88" s="34"/>
     </row>
-    <row r="89" spans="1:17" ht="33.75">
+    <row r="89" spans="1:17" ht="33">
       <c r="A89" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -25624,7 +25624,7 @@
       <c r="P90" s="34"/>
       <c r="Q90" s="34"/>
     </row>
-    <row r="91" spans="1:17" ht="33.75">
+    <row r="91" spans="1:17" ht="33">
       <c r="A91" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -25658,7 +25658,7 @@
       <c r="P91" s="34"/>
       <c r="Q91" s="34"/>
     </row>
-    <row r="92" spans="1:17" ht="33.75">
+    <row r="92" spans="1:17" ht="33">
       <c r="A92" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -25690,7 +25690,7 @@
       <c r="P92" s="34"/>
       <c r="Q92" s="34"/>
     </row>
-    <row r="93" spans="1:17" ht="33.75">
+    <row r="93" spans="1:17" ht="33">
       <c r="A93" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -25724,7 +25724,7 @@
       <c r="P93" s="34"/>
       <c r="Q93" s="34"/>
     </row>
-    <row r="94" spans="1:17" ht="22.5">
+    <row r="94" spans="1:17" ht="22">
       <c r="A94" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -25762,7 +25762,7 @@
       <c r="P94" s="34"/>
       <c r="Q94" s="34"/>
     </row>
-    <row r="95" spans="1:17" ht="33.75">
+    <row r="95" spans="1:17" ht="33">
       <c r="A95" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -25826,7 +25826,7 @@
       <c r="P96" s="34"/>
       <c r="Q96" s="34"/>
     </row>
-    <row r="97" spans="1:17" ht="33.75">
+    <row r="97" spans="1:17" ht="33">
       <c r="A97" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -25858,7 +25858,7 @@
       <c r="P97" s="34"/>
       <c r="Q97" s="34"/>
     </row>
-    <row r="98" spans="1:17" ht="33.75">
+    <row r="98" spans="1:17" ht="33">
       <c r="A98" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -25890,7 +25890,7 @@
       <c r="P98" s="34"/>
       <c r="Q98" s="34"/>
     </row>
-    <row r="99" spans="1:17" ht="22.5">
+    <row r="99" spans="1:17" ht="22">
       <c r="A99" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -25924,7 +25924,7 @@
       <c r="P99" s="34"/>
       <c r="Q99" s="34"/>
     </row>
-    <row r="100" spans="1:17" ht="33.75">
+    <row r="100" spans="1:17" ht="33">
       <c r="A100" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -25988,7 +25988,7 @@
       <c r="P101" s="34"/>
       <c r="Q101" s="34"/>
     </row>
-    <row r="102" spans="1:17" ht="33.75">
+    <row r="102" spans="1:17" ht="33">
       <c r="A102" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -26020,7 +26020,7 @@
       <c r="P102" s="34"/>
       <c r="Q102" s="34"/>
     </row>
-    <row r="103" spans="1:17" ht="33.75">
+    <row r="103" spans="1:17" ht="33">
       <c r="A103" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -26052,7 +26052,7 @@
       <c r="P103" s="141"/>
       <c r="Q103" s="141"/>
     </row>
-    <row r="104" spans="1:17" ht="33.75">
+    <row r="104" spans="1:17" ht="33">
       <c r="A104" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -26086,7 +26086,7 @@
       <c r="P104" s="34"/>
       <c r="Q104" s="34"/>
     </row>
-    <row r="105" spans="1:17" ht="33.75">
+    <row r="105" spans="1:17" ht="33">
       <c r="A105" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -26196,7 +26196,7 @@
       <c r="P107" s="34"/>
       <c r="Q107" s="34"/>
     </row>
-    <row r="108" spans="1:17" ht="22.5">
+    <row r="108" spans="1:17" ht="22">
       <c r="A108" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -26234,7 +26234,7 @@
       <c r="P108" s="34"/>
       <c r="Q108" s="34"/>
     </row>
-    <row r="109" spans="1:17" ht="22.5">
+    <row r="109" spans="1:17" ht="22">
       <c r="A109" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -26304,7 +26304,7 @@
       <c r="P110" s="34"/>
       <c r="Q110" s="34"/>
     </row>
-    <row r="111" spans="1:17" ht="22.5">
+    <row r="111" spans="1:17" ht="22">
       <c r="A111" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -26344,7 +26344,7 @@
       <c r="P111" s="34"/>
       <c r="Q111" s="34"/>
     </row>
-    <row r="112" spans="1:17" ht="22.5">
+    <row r="112" spans="1:17" ht="22">
       <c r="A112" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -26378,7 +26378,7 @@
       <c r="P112" s="34"/>
       <c r="Q112" s="34"/>
     </row>
-    <row r="113" spans="1:17" ht="22.5">
+    <row r="113" spans="1:17" ht="22">
       <c r="A113" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -26410,7 +26410,7 @@
       <c r="P113" s="34"/>
       <c r="Q113" s="34"/>
     </row>
-    <row r="114" spans="1:17" ht="22.5">
+    <row r="114" spans="1:17" ht="22">
       <c r="A114" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -26442,7 +26442,7 @@
       <c r="P114" s="34"/>
       <c r="Q114" s="34"/>
     </row>
-    <row r="115" spans="1:17" ht="22.5">
+    <row r="115" spans="1:17" ht="22">
       <c r="A115" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -26478,7 +26478,7 @@
       <c r="P115" s="157"/>
       <c r="Q115" s="157"/>
     </row>
-    <row r="116" spans="1:17" ht="22.5">
+    <row r="116" spans="1:17" ht="22">
       <c r="A116" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -26512,7 +26512,7 @@
       <c r="P116" s="157"/>
       <c r="Q116" s="157"/>
     </row>
-    <row r="117" spans="1:17" ht="22.5">
+    <row r="117" spans="1:17" ht="22">
       <c r="A117" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -26546,7 +26546,7 @@
       <c r="P117" s="157"/>
       <c r="Q117" s="157"/>
     </row>
-    <row r="118" spans="1:17" ht="22.5">
+    <row r="118" spans="1:17" ht="22">
       <c r="A118" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -26580,7 +26580,7 @@
       <c r="P118" s="157"/>
       <c r="Q118" s="157"/>
     </row>
-    <row r="119" spans="1:17" ht="33.75">
+    <row r="119" spans="1:17" ht="33">
       <c r="A119" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -26614,7 +26614,7 @@
       <c r="P119" s="157"/>
       <c r="Q119" s="157"/>
     </row>
-    <row r="120" spans="1:17" ht="33.75">
+    <row r="120" spans="1:17" ht="33">
       <c r="A120" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -26650,7 +26650,7 @@
       <c r="P120" s="157"/>
       <c r="Q120" s="157"/>
     </row>
-    <row r="121" spans="1:17" ht="33.75">
+    <row r="121" spans="1:17" ht="33">
       <c r="A121" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -26684,7 +26684,7 @@
       <c r="P121" s="157"/>
       <c r="Q121" s="157"/>
     </row>
-    <row r="122" spans="1:17" ht="45">
+    <row r="122" spans="1:17" ht="44">
       <c r="A122" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -26718,7 +26718,7 @@
       <c r="P122" s="157"/>
       <c r="Q122" s="157"/>
     </row>
-    <row r="123" spans="1:17" ht="45">
+    <row r="123" spans="1:17" ht="44">
       <c r="A123" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -26752,7 +26752,7 @@
       <c r="P123" s="157"/>
       <c r="Q123" s="157"/>
     </row>
-    <row r="124" spans="1:17" ht="33.75">
+    <row r="124" spans="1:17" ht="33">
       <c r="A124" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -26786,7 +26786,7 @@
       <c r="P124" s="157"/>
       <c r="Q124" s="157"/>
     </row>
-    <row r="125" spans="1:17" ht="33.75">
+    <row r="125" spans="1:17" ht="33">
       <c r="A125" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -26822,7 +26822,7 @@
       <c r="P125" s="157"/>
       <c r="Q125" s="157"/>
     </row>
-    <row r="126" spans="1:17" ht="33.75">
+    <row r="126" spans="1:17" ht="33">
       <c r="A126" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -26858,7 +26858,7 @@
       <c r="P126" s="34"/>
       <c r="Q126" s="34"/>
     </row>
-    <row r="127" spans="1:17" ht="33.75">
+    <row r="127" spans="1:17" ht="33">
       <c r="A127" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -26898,7 +26898,7 @@
       <c r="P127" s="157"/>
       <c r="Q127" s="157"/>
     </row>
-    <row r="128" spans="1:17" ht="22.5">
+    <row r="128" spans="1:17" ht="22">
       <c r="A128" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -26934,7 +26934,7 @@
       <c r="P128" s="157"/>
       <c r="Q128" s="157"/>
     </row>
-    <row r="129" spans="1:17" ht="22.5">
+    <row r="129" spans="1:17" ht="22">
       <c r="A129" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -26968,7 +26968,7 @@
       <c r="P129" s="157"/>
       <c r="Q129" s="157"/>
     </row>
-    <row r="130" spans="1:17" ht="45">
+    <row r="130" spans="1:17" ht="44">
       <c r="A130" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -27002,7 +27002,7 @@
       <c r="P130" s="157"/>
       <c r="Q130" s="157"/>
     </row>
-    <row r="131" spans="1:17" ht="22.5">
+    <row r="131" spans="1:17" ht="22">
       <c r="A131" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -27042,7 +27042,7 @@
       <c r="P131" s="34"/>
       <c r="Q131" s="34"/>
     </row>
-    <row r="132" spans="1:17" ht="33.75">
+    <row r="132" spans="1:17" ht="33">
       <c r="A132" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -27078,7 +27078,7 @@
       <c r="P132" s="157"/>
       <c r="Q132" s="157"/>
     </row>
-    <row r="133" spans="1:17" ht="33.75">
+    <row r="133" spans="1:17" ht="33">
       <c r="A133" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -27112,7 +27112,7 @@
       <c r="P133" s="157"/>
       <c r="Q133" s="157"/>
     </row>
-    <row r="134" spans="1:17" ht="33.75">
+    <row r="134" spans="1:17" ht="33">
       <c r="A134" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -27146,7 +27146,7 @@
       <c r="P134" s="157"/>
       <c r="Q134" s="157"/>
     </row>
-    <row r="135" spans="1:17" ht="22.5">
+    <row r="135" spans="1:17" ht="22">
       <c r="A135" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -27180,7 +27180,7 @@
       <c r="P135" s="34"/>
       <c r="Q135" s="34"/>
     </row>
-    <row r="136" spans="1:17" ht="33.75">
+    <row r="136" spans="1:17" ht="33">
       <c r="A136" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -27212,7 +27212,7 @@
       <c r="P136" s="34"/>
       <c r="Q136" s="34"/>
     </row>
-    <row r="137" spans="1:17" ht="33.75">
+    <row r="137" spans="1:17" ht="33">
       <c r="A137" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -27248,7 +27248,7 @@
       <c r="P137" s="34"/>
       <c r="Q137" s="34"/>
     </row>
-    <row r="138" spans="1:17" ht="33.75">
+    <row r="138" spans="1:17" ht="33">
       <c r="A138" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -27288,7 +27288,7 @@
       <c r="P138" s="157"/>
       <c r="Q138" s="157"/>
     </row>
-    <row r="139" spans="1:17" ht="33.75">
+    <row r="139" spans="1:17" ht="33">
       <c r="A139" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -27324,7 +27324,7 @@
       <c r="P139" s="157"/>
       <c r="Q139" s="157"/>
     </row>
-    <row r="140" spans="1:17" ht="33.75">
+    <row r="140" spans="1:17" ht="33">
       <c r="A140" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -27360,7 +27360,7 @@
       <c r="P140" s="157"/>
       <c r="Q140" s="157"/>
     </row>
-    <row r="141" spans="1:17" ht="33.75">
+    <row r="141" spans="1:17" ht="33">
       <c r="A141" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -27396,7 +27396,7 @@
       <c r="P141" s="157"/>
       <c r="Q141" s="157"/>
     </row>
-    <row r="142" spans="1:17" ht="33.75">
+    <row r="142" spans="1:17" ht="33">
       <c r="A142" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -27432,7 +27432,7 @@
       <c r="P142" s="157"/>
       <c r="Q142" s="157"/>
     </row>
-    <row r="143" spans="1:17" ht="22.5">
+    <row r="143" spans="1:17" ht="22">
       <c r="A143" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -27468,7 +27468,7 @@
       <c r="P143" s="157"/>
       <c r="Q143" s="157"/>
     </row>
-    <row r="144" spans="1:17" ht="22.5">
+    <row r="144" spans="1:17" ht="22">
       <c r="A144" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -27502,7 +27502,7 @@
       <c r="P144" s="157"/>
       <c r="Q144" s="157"/>
     </row>
-    <row r="145" spans="1:17" ht="22.5">
+    <row r="145" spans="1:17" ht="22">
       <c r="A145" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -27536,7 +27536,7 @@
       <c r="P145" s="157"/>
       <c r="Q145" s="157"/>
     </row>
-    <row r="146" spans="1:17" ht="22.5">
+    <row r="146" spans="1:17" ht="22">
       <c r="A146" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -27570,7 +27570,7 @@
       <c r="P146" s="157"/>
       <c r="Q146" s="157"/>
     </row>
-    <row r="147" spans="1:17" ht="22.5">
+    <row r="147" spans="1:17" ht="22">
       <c r="A147" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -27604,7 +27604,7 @@
       <c r="P147" s="157"/>
       <c r="Q147" s="157"/>
     </row>
-    <row r="148" spans="1:17" ht="22.5">
+    <row r="148" spans="1:17" ht="22">
       <c r="A148" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -27638,7 +27638,7 @@
       <c r="P148" s="157"/>
       <c r="Q148" s="157"/>
     </row>
-    <row r="149" spans="1:17" ht="22.5">
+    <row r="149" spans="1:17" ht="22">
       <c r="A149" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -27676,7 +27676,7 @@
       <c r="P149" s="157"/>
       <c r="Q149" s="157"/>
     </row>
-    <row r="150" spans="1:17" ht="22.5">
+    <row r="150" spans="1:17" ht="22">
       <c r="A150" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -27710,7 +27710,7 @@
       <c r="P150" s="157"/>
       <c r="Q150" s="157"/>
     </row>
-    <row r="151" spans="1:17" ht="33.75">
+    <row r="151" spans="1:17" ht="33">
       <c r="A151" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -27746,7 +27746,7 @@
       <c r="P151" s="157"/>
       <c r="Q151" s="157"/>
     </row>
-    <row r="152" spans="1:17" ht="33.75">
+    <row r="152" spans="1:17" ht="33">
       <c r="A152" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -27780,7 +27780,7 @@
       <c r="P152" s="157"/>
       <c r="Q152" s="157"/>
     </row>
-    <row r="153" spans="1:17" ht="33.75">
+    <row r="153" spans="1:17" ht="33">
       <c r="A153" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -27814,7 +27814,7 @@
       <c r="P153" s="157"/>
       <c r="Q153" s="157"/>
     </row>
-    <row r="154" spans="1:17" ht="33.75">
+    <row r="154" spans="1:17" ht="33">
       <c r="A154" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -27848,7 +27848,7 @@
       <c r="P154" s="157"/>
       <c r="Q154" s="157"/>
     </row>
-    <row r="155" spans="1:17" ht="33.75">
+    <row r="155" spans="1:17" ht="33">
       <c r="A155" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -27882,7 +27882,7 @@
       <c r="P155" s="157"/>
       <c r="Q155" s="157"/>
     </row>
-    <row r="156" spans="1:17" ht="22.5">
+    <row r="156" spans="1:17" ht="22">
       <c r="A156" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -27916,7 +27916,7 @@
       <c r="P156" s="157"/>
       <c r="Q156" s="157"/>
     </row>
-    <row r="157" spans="1:17" ht="22.5">
+    <row r="157" spans="1:17" ht="22">
       <c r="A157" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -27950,7 +27950,7 @@
       <c r="P157" s="157"/>
       <c r="Q157" s="157"/>
     </row>
-    <row r="158" spans="1:17" ht="33.75">
+    <row r="158" spans="1:17" ht="33">
       <c r="A158" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -27984,7 +27984,7 @@
       <c r="P158" s="157"/>
       <c r="Q158" s="157"/>
     </row>
-    <row r="159" spans="1:17" ht="33.75">
+    <row r="159" spans="1:17" ht="33">
       <c r="A159" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -28018,7 +28018,7 @@
       <c r="P159" s="157"/>
       <c r="Q159" s="157"/>
     </row>
-    <row r="160" spans="1:17" ht="33.75">
+    <row r="160" spans="1:17" ht="33">
       <c r="A160" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -28052,7 +28052,7 @@
       <c r="P160" s="157"/>
       <c r="Q160" s="157"/>
     </row>
-    <row r="161" spans="1:17" ht="33.75">
+    <row r="161" spans="1:17" ht="33">
       <c r="A161" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -28086,7 +28086,7 @@
       <c r="P161" s="157"/>
       <c r="Q161" s="157"/>
     </row>
-    <row r="162" spans="1:17" ht="22.5">
+    <row r="162" spans="1:17" ht="22">
       <c r="A162" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -28122,7 +28122,7 @@
       <c r="P162" s="157"/>
       <c r="Q162" s="157"/>
     </row>
-    <row r="163" spans="1:17" ht="22.5">
+    <row r="163" spans="1:17" ht="22">
       <c r="A163" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -28156,7 +28156,7 @@
       <c r="P163" s="157"/>
       <c r="Q163" s="157"/>
     </row>
-    <row r="164" spans="1:17" ht="22.5">
+    <row r="164" spans="1:17" ht="22">
       <c r="A164" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -28190,7 +28190,7 @@
       <c r="P164" s="157"/>
       <c r="Q164" s="157"/>
     </row>
-    <row r="165" spans="1:17" ht="22.5">
+    <row r="165" spans="1:17" ht="22">
       <c r="A165" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -28224,7 +28224,7 @@
       <c r="P165" s="157"/>
       <c r="Q165" s="157"/>
     </row>
-    <row r="166" spans="1:17" ht="22.5">
+    <row r="166" spans="1:17" ht="22">
       <c r="A166" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -28258,7 +28258,7 @@
       <c r="P166" s="157"/>
       <c r="Q166" s="157"/>
     </row>
-    <row r="167" spans="1:17" ht="33.75">
+    <row r="167" spans="1:17" ht="33">
       <c r="A167" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -28292,7 +28292,7 @@
       <c r="P167" s="157"/>
       <c r="Q167" s="157"/>
     </row>
-    <row r="168" spans="1:17" ht="22.5">
+    <row r="168" spans="1:17" ht="22">
       <c r="A168" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -28326,7 +28326,7 @@
       <c r="P168" s="157"/>
       <c r="Q168" s="157"/>
     </row>
-    <row r="169" spans="1:17" ht="22.5">
+    <row r="169" spans="1:17" ht="22">
       <c r="A169" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -28362,7 +28362,7 @@
       <c r="P169" s="157"/>
       <c r="Q169" s="157"/>
     </row>
-    <row r="170" spans="1:17" ht="33.75">
+    <row r="170" spans="1:17" ht="33">
       <c r="A170" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -28396,7 +28396,7 @@
       <c r="P170" s="157"/>
       <c r="Q170" s="157"/>
     </row>
-    <row r="171" spans="1:17" ht="33.75">
+    <row r="171" spans="1:17" ht="33">
       <c r="A171" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -28430,7 +28430,7 @@
       <c r="P171" s="157"/>
       <c r="Q171" s="157"/>
     </row>
-    <row r="172" spans="1:17" ht="45">
+    <row r="172" spans="1:17" ht="44">
       <c r="A172" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -28464,7 +28464,7 @@
       <c r="P172" s="157"/>
       <c r="Q172" s="157"/>
     </row>
-    <row r="173" spans="1:17" ht="45">
+    <row r="173" spans="1:17" ht="44">
       <c r="A173" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -28498,7 +28498,7 @@
       <c r="P173" s="157"/>
       <c r="Q173" s="157"/>
     </row>
-    <row r="174" spans="1:17" ht="33.75">
+    <row r="174" spans="1:17" ht="33">
       <c r="A174" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -28530,7 +28530,7 @@
       <c r="P174" s="34"/>
       <c r="Q174" s="34"/>
     </row>
-    <row r="175" spans="1:17" ht="45">
+    <row r="175" spans="1:17" ht="44">
       <c r="A175" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -28564,7 +28564,7 @@
       <c r="P175" s="157"/>
       <c r="Q175" s="157"/>
     </row>
-    <row r="176" spans="1:17" ht="45">
+    <row r="176" spans="1:17" ht="44">
       <c r="A176" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -28598,7 +28598,7 @@
       <c r="P176" s="157"/>
       <c r="Q176" s="157"/>
     </row>
-    <row r="177" spans="1:17" ht="33.75">
+    <row r="177" spans="1:17" ht="33">
       <c r="A177" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -28632,7 +28632,7 @@
       <c r="P177" s="157"/>
       <c r="Q177" s="157"/>
     </row>
-    <row r="178" spans="1:17" ht="33.75">
+    <row r="178" spans="1:17" ht="33">
       <c r="A178" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -28668,7 +28668,7 @@
       <c r="P178" s="157"/>
       <c r="Q178" s="157"/>
     </row>
-    <row r="179" spans="1:17" ht="22.5">
+    <row r="179" spans="1:17" ht="22">
       <c r="A179" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -28704,7 +28704,7 @@
       <c r="P179" s="157"/>
       <c r="Q179" s="157"/>
     </row>
-    <row r="180" spans="1:17" ht="22.5">
+    <row r="180" spans="1:17" ht="22">
       <c r="A180" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -28746,7 +28746,7 @@
       <c r="P180" s="157"/>
       <c r="Q180" s="157"/>
     </row>
-    <row r="181" spans="1:17" ht="22.5">
+    <row r="181" spans="1:17" ht="22">
       <c r="A181" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -28784,7 +28784,7 @@
       <c r="P181" s="157"/>
       <c r="Q181" s="157"/>
     </row>
-    <row r="182" spans="1:17" ht="22.5">
+    <row r="182" spans="1:17" ht="22">
       <c r="A182" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -28822,7 +28822,7 @@
       <c r="P182" s="157"/>
       <c r="Q182" s="157"/>
     </row>
-    <row r="183" spans="1:17" ht="22.5">
+    <row r="183" spans="1:17" ht="22">
       <c r="A183" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -28864,7 +28864,7 @@
       <c r="P183" s="157"/>
       <c r="Q183" s="157"/>
     </row>
-    <row r="184" spans="1:17" ht="22.5">
+    <row r="184" spans="1:17" ht="22">
       <c r="A184" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -28900,7 +28900,7 @@
       <c r="P184" s="157"/>
       <c r="Q184" s="157"/>
     </row>
-    <row r="185" spans="1:17" ht="22.5">
+    <row r="185" spans="1:17" ht="22">
       <c r="A185" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -28934,7 +28934,7 @@
       <c r="P185" s="157"/>
       <c r="Q185" s="157"/>
     </row>
-    <row r="186" spans="1:17" ht="22.5">
+    <row r="186" spans="1:17" ht="22">
       <c r="A186" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -28970,7 +28970,7 @@
       <c r="P186" s="157"/>
       <c r="Q186" s="157"/>
     </row>
-    <row r="187" spans="1:17" ht="22.5">
+    <row r="187" spans="1:17" ht="22">
       <c r="A187" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -29004,7 +29004,7 @@
       <c r="P187" s="157"/>
       <c r="Q187" s="157"/>
     </row>
-    <row r="188" spans="1:17" ht="33.75">
+    <row r="188" spans="1:17" ht="33">
       <c r="A188" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -29042,7 +29042,7 @@
       <c r="P188" s="157"/>
       <c r="Q188" s="157"/>
     </row>
-    <row r="189" spans="1:17" ht="22.5">
+    <row r="189" spans="1:17" ht="22">
       <c r="A189" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -29082,7 +29082,7 @@
       <c r="P189" s="157"/>
       <c r="Q189" s="157"/>
     </row>
-    <row r="190" spans="1:17" ht="22.5">
+    <row r="190" spans="1:17" ht="22">
       <c r="A190" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -29116,7 +29116,7 @@
       <c r="P190" s="157"/>
       <c r="Q190" s="157"/>
     </row>
-    <row r="191" spans="1:17" ht="22.5">
+    <row r="191" spans="1:17" ht="22">
       <c r="A191" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -29150,7 +29150,7 @@
       <c r="P191" s="157"/>
       <c r="Q191" s="157"/>
     </row>
-    <row r="192" spans="1:17" ht="22.5">
+    <row r="192" spans="1:17" ht="22">
       <c r="A192" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -29184,7 +29184,7 @@
       <c r="P192" s="157"/>
       <c r="Q192" s="157"/>
     </row>
-    <row r="193" spans="1:17" ht="22.5">
+    <row r="193" spans="1:17" ht="22">
       <c r="A193" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -29218,7 +29218,7 @@
       <c r="P193" s="157"/>
       <c r="Q193" s="157"/>
     </row>
-    <row r="194" spans="1:17" ht="22.5">
+    <row r="194" spans="1:17" ht="22">
       <c r="A194" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -29252,7 +29252,7 @@
       <c r="P194" s="157"/>
       <c r="Q194" s="157"/>
     </row>
-    <row r="195" spans="1:17" ht="22.5">
+    <row r="195" spans="1:17" ht="22">
       <c r="A195" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -29286,7 +29286,7 @@
       <c r="P195" s="157"/>
       <c r="Q195" s="157"/>
     </row>
-    <row r="196" spans="1:17" ht="22.5">
+    <row r="196" spans="1:17" ht="22">
       <c r="A196" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -29322,7 +29322,7 @@
       <c r="P196" s="157"/>
       <c r="Q196" s="157"/>
     </row>
-    <row r="197" spans="1:17" ht="22.5">
+    <row r="197" spans="1:17" ht="22">
       <c r="A197" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -29360,7 +29360,7 @@
       <c r="P197" s="157"/>
       <c r="Q197" s="157"/>
     </row>
-    <row r="198" spans="1:17" ht="22.5">
+    <row r="198" spans="1:17" ht="22">
       <c r="A198" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -29394,7 +29394,7 @@
       <c r="P198" s="157"/>
       <c r="Q198" s="157"/>
     </row>
-    <row r="199" spans="1:17" ht="22.5">
+    <row r="199" spans="1:17" ht="22">
       <c r="A199" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -29428,7 +29428,7 @@
       <c r="P199" s="157"/>
       <c r="Q199" s="157"/>
     </row>
-    <row r="200" spans="1:17" ht="22.5">
+    <row r="200" spans="1:17" ht="22">
       <c r="A200" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -29462,7 +29462,7 @@
       <c r="P200" s="157"/>
       <c r="Q200" s="157"/>
     </row>
-    <row r="201" spans="1:17" ht="33.75">
+    <row r="201" spans="1:17" ht="33">
       <c r="A201" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -29496,7 +29496,7 @@
       <c r="P201" s="157"/>
       <c r="Q201" s="157"/>
     </row>
-    <row r="202" spans="1:17" ht="33.75">
+    <row r="202" spans="1:17" ht="33">
       <c r="A202" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -29530,7 +29530,7 @@
       <c r="P202" s="157"/>
       <c r="Q202" s="157"/>
     </row>
-    <row r="203" spans="1:17" ht="45">
+    <row r="203" spans="1:17" ht="44">
       <c r="A203" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -29564,7 +29564,7 @@
       <c r="P203" s="157"/>
       <c r="Q203" s="157"/>
     </row>
-    <row r="204" spans="1:17" ht="33.75">
+    <row r="204" spans="1:17" ht="33">
       <c r="A204" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -29598,7 +29598,7 @@
       <c r="P204" s="157"/>
       <c r="Q204" s="157"/>
     </row>
-    <row r="205" spans="1:17" ht="33.75">
+    <row r="205" spans="1:17" ht="33">
       <c r="A205" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -29632,7 +29632,7 @@
       <c r="P205" s="157"/>
       <c r="Q205" s="157"/>
     </row>
-    <row r="206" spans="1:17" ht="22.5">
+    <row r="206" spans="1:17" ht="22">
       <c r="A206" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -29666,7 +29666,7 @@
       <c r="P206" s="157"/>
       <c r="Q206" s="157"/>
     </row>
-    <row r="207" spans="1:17" ht="22.5">
+    <row r="207" spans="1:17" ht="22">
       <c r="A207" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -29700,7 +29700,7 @@
       <c r="P207" s="157"/>
       <c r="Q207" s="157"/>
     </row>
-    <row r="208" spans="1:17" ht="33.75">
+    <row r="208" spans="1:17" ht="33">
       <c r="A208" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -29734,7 +29734,7 @@
       <c r="P208" s="157"/>
       <c r="Q208" s="157"/>
     </row>
-    <row r="209" spans="1:17" ht="22.5">
+    <row r="209" spans="1:17" ht="22">
       <c r="A209" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -29768,7 +29768,7 @@
       <c r="P209" s="157"/>
       <c r="Q209" s="157"/>
     </row>
-    <row r="210" spans="1:17" ht="22.5">
+    <row r="210" spans="1:17" ht="22">
       <c r="A210" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -29806,7 +29806,7 @@
       <c r="P210" s="157"/>
       <c r="Q210" s="157"/>
     </row>
-    <row r="211" spans="1:17" ht="22.5">
+    <row r="211" spans="1:17" ht="22">
       <c r="A211" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -29840,7 +29840,7 @@
       <c r="P211" s="157"/>
       <c r="Q211" s="157"/>
     </row>
-    <row r="212" spans="1:17" ht="22.5">
+    <row r="212" spans="1:17" ht="22">
       <c r="A212" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -29874,7 +29874,7 @@
       <c r="P212" s="157"/>
       <c r="Q212" s="157"/>
     </row>
-    <row r="213" spans="1:17" ht="22.5">
+    <row r="213" spans="1:17" ht="22">
       <c r="A213" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -29908,7 +29908,7 @@
       <c r="P213" s="157"/>
       <c r="Q213" s="157"/>
     </row>
-    <row r="214" spans="1:17" ht="22.5">
+    <row r="214" spans="1:17" ht="22">
       <c r="A214" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -29942,7 +29942,7 @@
       <c r="P214" s="157"/>
       <c r="Q214" s="157"/>
     </row>
-    <row r="215" spans="1:17" ht="45">
+    <row r="215" spans="1:17" ht="44">
       <c r="A215" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -29976,7 +29976,7 @@
       <c r="P215" s="157"/>
       <c r="Q215" s="157"/>
     </row>
-    <row r="216" spans="1:17" ht="33.75">
+    <row r="216" spans="1:17" ht="33">
       <c r="A216" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -30010,7 +30010,7 @@
       <c r="P216" s="157"/>
       <c r="Q216" s="157"/>
     </row>
-    <row r="217" spans="1:17" ht="33.75">
+    <row r="217" spans="1:17" ht="33">
       <c r="A217" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -30044,7 +30044,7 @@
       <c r="P217" s="157"/>
       <c r="Q217" s="157"/>
     </row>
-    <row r="218" spans="1:17" ht="45">
+    <row r="218" spans="1:17" ht="44">
       <c r="A218" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -30078,7 +30078,7 @@
       <c r="P218" s="157"/>
       <c r="Q218" s="157"/>
     </row>
-    <row r="219" spans="1:17" ht="33.75">
+    <row r="219" spans="1:17" ht="33">
       <c r="A219" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -30112,7 +30112,7 @@
       <c r="P219" s="157"/>
       <c r="Q219" s="157"/>
     </row>
-    <row r="220" spans="1:17" ht="33.75">
+    <row r="220" spans="1:17" ht="33">
       <c r="A220" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -30146,7 +30146,7 @@
       <c r="P220" s="157"/>
       <c r="Q220" s="157"/>
     </row>
-    <row r="221" spans="1:17" ht="22.5">
+    <row r="221" spans="1:17" ht="22">
       <c r="A221" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -30180,7 +30180,7 @@
       <c r="P221" s="157"/>
       <c r="Q221" s="157"/>
     </row>
-    <row r="222" spans="1:17" ht="22.5">
+    <row r="222" spans="1:17" ht="22">
       <c r="A222" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -30214,7 +30214,7 @@
       <c r="P222" s="157"/>
       <c r="Q222" s="157"/>
     </row>
-    <row r="223" spans="1:17" ht="33.75">
+    <row r="223" spans="1:17" ht="33">
       <c r="A223" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -30248,7 +30248,7 @@
       <c r="P223" s="157"/>
       <c r="Q223" s="157"/>
     </row>
-    <row r="224" spans="1:17" ht="22.5">
+    <row r="224" spans="1:17" ht="22">
       <c r="A224" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -30282,7 +30282,7 @@
       <c r="P224" s="157"/>
       <c r="Q224" s="157"/>
     </row>
-    <row r="225" spans="1:17" ht="45">
+    <row r="225" spans="1:17" ht="44">
       <c r="A225" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -30318,7 +30318,7 @@
       <c r="P225" s="157"/>
       <c r="Q225" s="157"/>
     </row>
-    <row r="226" spans="1:17" ht="45">
+    <row r="226" spans="1:17" ht="44">
       <c r="A226" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -30352,7 +30352,7 @@
       <c r="P226" s="157"/>
       <c r="Q226" s="157"/>
     </row>
-    <row r="227" spans="1:17" ht="33.75">
+    <row r="227" spans="1:17" ht="33">
       <c r="A227" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -30386,7 +30386,7 @@
       <c r="P227" s="157"/>
       <c r="Q227" s="157"/>
     </row>
-    <row r="228" spans="1:17" ht="33.75">
+    <row r="228" spans="1:17" ht="33">
       <c r="A228" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -30422,7 +30422,7 @@
       <c r="P228" s="157"/>
       <c r="Q228" s="157"/>
     </row>
-    <row r="229" spans="1:17" ht="22.5">
+    <row r="229" spans="1:17" ht="22">
       <c r="A229" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -30458,7 +30458,7 @@
       <c r="P229" s="157"/>
       <c r="Q229" s="157"/>
     </row>
-    <row r="230" spans="1:17" ht="22.5">
+    <row r="230" spans="1:17" ht="22">
       <c r="A230" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -30500,7 +30500,7 @@
       <c r="P230" s="157"/>
       <c r="Q230" s="157"/>
     </row>
-    <row r="231" spans="1:17" ht="22.5">
+    <row r="231" spans="1:17" ht="22">
       <c r="A231" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -30536,7 +30536,7 @@
       <c r="P231" s="157"/>
       <c r="Q231" s="157"/>
     </row>
-    <row r="232" spans="1:17" ht="22.5">
+    <row r="232" spans="1:17" ht="22">
       <c r="A232" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -30570,7 +30570,7 @@
       <c r="P232" s="157"/>
       <c r="Q232" s="157"/>
     </row>
-    <row r="233" spans="1:17" ht="22.5">
+    <row r="233" spans="1:17" ht="22">
       <c r="A233" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -30604,7 +30604,7 @@
       <c r="P233" s="157"/>
       <c r="Q233" s="157"/>
     </row>
-    <row r="234" spans="1:17" ht="22.5">
+    <row r="234" spans="1:17" ht="22">
       <c r="A234" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -30638,7 +30638,7 @@
       <c r="P234" s="157"/>
       <c r="Q234" s="157"/>
     </row>
-    <row r="235" spans="1:17" ht="33.75">
+    <row r="235" spans="1:17" ht="33">
       <c r="A235" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -30672,7 +30672,7 @@
       <c r="P235" s="157"/>
       <c r="Q235" s="157"/>
     </row>
-    <row r="236" spans="1:17" ht="33.75">
+    <row r="236" spans="1:17" ht="33">
       <c r="A236" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -30708,7 +30708,7 @@
       <c r="P236" s="157"/>
       <c r="Q236" s="157"/>
     </row>
-    <row r="237" spans="1:17" ht="33.75">
+    <row r="237" spans="1:17" ht="33">
       <c r="A237" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -30742,7 +30742,7 @@
       <c r="P237" s="157"/>
       <c r="Q237" s="157"/>
     </row>
-    <row r="238" spans="1:17" ht="45">
+    <row r="238" spans="1:17" ht="44">
       <c r="A238" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -30776,7 +30776,7 @@
       <c r="P238" s="157"/>
       <c r="Q238" s="157"/>
     </row>
-    <row r="239" spans="1:17" ht="45">
+    <row r="239" spans="1:17" ht="44">
       <c r="A239" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -30810,7 +30810,7 @@
       <c r="P239" s="157"/>
       <c r="Q239" s="157"/>
     </row>
-    <row r="240" spans="1:17" ht="33.75">
+    <row r="240" spans="1:17" ht="33">
       <c r="A240" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -30844,7 +30844,7 @@
       <c r="P240" s="157"/>
       <c r="Q240" s="157"/>
     </row>
-    <row r="241" spans="1:17" ht="33.75">
+    <row r="241" spans="1:17" ht="33">
       <c r="A241" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -30880,7 +30880,7 @@
       <c r="P241" s="157"/>
       <c r="Q241" s="157"/>
     </row>
-    <row r="242" spans="1:17" ht="33.75">
+    <row r="242" spans="1:17" ht="33">
       <c r="A242" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -30920,7 +30920,7 @@
       <c r="P242" s="157"/>
       <c r="Q242" s="157"/>
     </row>
-    <row r="243" spans="1:17" ht="22.5">
+    <row r="243" spans="1:17" ht="22">
       <c r="A243" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -30962,7 +30962,7 @@
       <c r="P243" s="157"/>
       <c r="Q243" s="157"/>
     </row>
-    <row r="244" spans="1:17" ht="22.5">
+    <row r="244" spans="1:17" ht="22">
       <c r="A244" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -30996,7 +30996,7 @@
       <c r="P244" s="157"/>
       <c r="Q244" s="157"/>
     </row>
-    <row r="245" spans="1:17" ht="33.75">
+    <row r="245" spans="1:17" ht="33">
       <c r="A245" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -31034,7 +31034,7 @@
       <c r="P245" s="157"/>
       <c r="Q245" s="157"/>
     </row>
-    <row r="246" spans="1:17" ht="33.75">
+    <row r="246" spans="1:17" ht="33">
       <c r="A246" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -31068,7 +31068,7 @@
       <c r="P246" s="157"/>
       <c r="Q246" s="157"/>
     </row>
-    <row r="247" spans="1:17" ht="33.75">
+    <row r="247" spans="1:17" ht="33">
       <c r="A247" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -31108,7 +31108,7 @@
       <c r="P247" s="157"/>
       <c r="Q247" s="157"/>
     </row>
-    <row r="248" spans="1:17" ht="33.75">
+    <row r="248" spans="1:17" ht="33">
       <c r="A248" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -31144,7 +31144,7 @@
       <c r="P248" s="157"/>
       <c r="Q248" s="157"/>
     </row>
-    <row r="249" spans="1:17" ht="33.75">
+    <row r="249" spans="1:17" ht="33">
       <c r="A249" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -31180,7 +31180,7 @@
       <c r="P249" s="157"/>
       <c r="Q249" s="157"/>
     </row>
-    <row r="250" spans="1:17" ht="33.75">
+    <row r="250" spans="1:17" ht="33">
       <c r="A250" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -31216,7 +31216,7 @@
       <c r="P250" s="157"/>
       <c r="Q250" s="157"/>
     </row>
-    <row r="251" spans="1:17" ht="22.5">
+    <row r="251" spans="1:17" ht="22">
       <c r="A251" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -31254,7 +31254,7 @@
       <c r="P251" s="157"/>
       <c r="Q251" s="157"/>
     </row>
-    <row r="252" spans="1:17" ht="22.5">
+    <row r="252" spans="1:17" ht="22">
       <c r="A252" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -31288,7 +31288,7 @@
       <c r="P252" s="157"/>
       <c r="Q252" s="157"/>
     </row>
-    <row r="253" spans="1:17" ht="33.75">
+    <row r="253" spans="1:17" ht="33">
       <c r="A253" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -31324,7 +31324,7 @@
       <c r="P253" s="157"/>
       <c r="Q253" s="157"/>
     </row>
-    <row r="254" spans="1:17" ht="33.75">
+    <row r="254" spans="1:17" ht="33">
       <c r="A254" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -31358,7 +31358,7 @@
       <c r="P254" s="157"/>
       <c r="Q254" s="157"/>
     </row>
-    <row r="255" spans="1:17" ht="33.75">
+    <row r="255" spans="1:17" ht="33">
       <c r="A255" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -31392,7 +31392,7 @@
       <c r="P255" s="157"/>
       <c r="Q255" s="157"/>
     </row>
-    <row r="256" spans="1:17" ht="33.75">
+    <row r="256" spans="1:17" ht="33">
       <c r="A256" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -31426,7 +31426,7 @@
       <c r="P256" s="157"/>
       <c r="Q256" s="157"/>
     </row>
-    <row r="257" spans="1:17" ht="33.75">
+    <row r="257" spans="1:17" ht="33">
       <c r="A257" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -31460,7 +31460,7 @@
       <c r="P257" s="157"/>
       <c r="Q257" s="157"/>
     </row>
-    <row r="258" spans="1:17" ht="22.5">
+    <row r="258" spans="1:17" ht="22">
       <c r="A258" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -31494,7 +31494,7 @@
       <c r="P258" s="157"/>
       <c r="Q258" s="157"/>
     </row>
-    <row r="259" spans="1:17" ht="22.5">
+    <row r="259" spans="1:17" ht="22">
       <c r="A259" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -31528,7 +31528,7 @@
       <c r="P259" s="157"/>
       <c r="Q259" s="157"/>
     </row>
-    <row r="260" spans="1:17" ht="33.75">
+    <row r="260" spans="1:17" ht="33">
       <c r="A260" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -31562,7 +31562,7 @@
       <c r="P260" s="157"/>
       <c r="Q260" s="157"/>
     </row>
-    <row r="261" spans="1:17" ht="33.75">
+    <row r="261" spans="1:17" ht="33">
       <c r="A261" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -31596,7 +31596,7 @@
       <c r="P261" s="157"/>
       <c r="Q261" s="157"/>
     </row>
-    <row r="262" spans="1:17" ht="33.75">
+    <row r="262" spans="1:17" ht="33">
       <c r="A262" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -31630,7 +31630,7 @@
       <c r="P262" s="157"/>
       <c r="Q262" s="157"/>
     </row>
-    <row r="263" spans="1:17" ht="33.75">
+    <row r="263" spans="1:17" ht="33">
       <c r="A263" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -31734,7 +31734,7 @@
       <c r="P265" s="157"/>
       <c r="Q265" s="157"/>
     </row>
-    <row r="266" spans="1:17" ht="22.5">
+    <row r="266" spans="1:17" ht="22">
       <c r="A266" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -31768,7 +31768,7 @@
       <c r="P266" s="157"/>
       <c r="Q266" s="157"/>
     </row>
-    <row r="267" spans="1:17" ht="22.5">
+    <row r="267" spans="1:17" ht="22">
       <c r="A267" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -31802,7 +31802,7 @@
       <c r="P267" s="157"/>
       <c r="Q267" s="157"/>
     </row>
-    <row r="268" spans="1:17" ht="22.5">
+    <row r="268" spans="1:17" ht="22">
       <c r="A268" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -31836,7 +31836,7 @@
       <c r="P268" s="157"/>
       <c r="Q268" s="157"/>
     </row>
-    <row r="269" spans="1:17" ht="33.75">
+    <row r="269" spans="1:17" ht="33">
       <c r="A269" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -31870,7 +31870,7 @@
       <c r="P269" s="157"/>
       <c r="Q269" s="157"/>
     </row>
-    <row r="270" spans="1:17" ht="22.5">
+    <row r="270" spans="1:17" ht="22">
       <c r="A270" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -31906,7 +31906,7 @@
       <c r="P270" s="157"/>
       <c r="Q270" s="157"/>
     </row>
-    <row r="271" spans="1:17" ht="33.75">
+    <row r="271" spans="1:17" ht="33">
       <c r="A271" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -31940,7 +31940,7 @@
       <c r="P271" s="157"/>
       <c r="Q271" s="157"/>
     </row>
-    <row r="272" spans="1:17" ht="45">
+    <row r="272" spans="1:17" ht="44">
       <c r="A272" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -31974,7 +31974,7 @@
       <c r="P272" s="157"/>
       <c r="Q272" s="157"/>
     </row>
-    <row r="273" spans="1:17" ht="45">
+    <row r="273" spans="1:17" ht="44">
       <c r="A273" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -32008,7 +32008,7 @@
       <c r="P273" s="157"/>
       <c r="Q273" s="157"/>
     </row>
-    <row r="274" spans="1:17" ht="22.5">
+    <row r="274" spans="1:17" ht="22">
       <c r="A274" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -32042,7 +32042,7 @@
       <c r="P274" s="157"/>
       <c r="Q274" s="157"/>
     </row>
-    <row r="275" spans="1:17" ht="45">
+    <row r="275" spans="1:17" ht="44">
       <c r="A275" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -32076,7 +32076,7 @@
       <c r="P275" s="157"/>
       <c r="Q275" s="157"/>
     </row>
-    <row r="276" spans="1:17" ht="45">
+    <row r="276" spans="1:17" ht="44">
       <c r="A276" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -32110,7 +32110,7 @@
       <c r="P276" s="157"/>
       <c r="Q276" s="157"/>
     </row>
-    <row r="277" spans="1:17" ht="22.5">
+    <row r="277" spans="1:17" ht="22">
       <c r="A277" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -32144,7 +32144,7 @@
       <c r="P277" s="157"/>
       <c r="Q277" s="157"/>
     </row>
-    <row r="278" spans="1:17" ht="22.5">
+    <row r="278" spans="1:17" ht="22">
       <c r="A278" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -32180,7 +32180,7 @@
       <c r="P278" s="157"/>
       <c r="Q278" s="157"/>
     </row>
-    <row r="279" spans="1:17" ht="22.5">
+    <row r="279" spans="1:17" ht="22">
       <c r="A279" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -32220,7 +32220,7 @@
       <c r="P279" s="34"/>
       <c r="Q279" s="34"/>
     </row>
-    <row r="280" spans="1:17" ht="22.5">
+    <row r="280" spans="1:17" ht="22">
       <c r="A280" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -32252,7 +32252,7 @@
       <c r="P280" s="34"/>
       <c r="Q280" s="34"/>
     </row>
-    <row r="281" spans="1:17" ht="22.5">
+    <row r="281" spans="1:17" ht="22">
       <c r="A281" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -32284,7 +32284,7 @@
       <c r="P281" s="34"/>
       <c r="Q281" s="34"/>
     </row>
-    <row r="282" spans="1:17" ht="22.5">
+    <row r="282" spans="1:17" ht="22">
       <c r="A282" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -32316,7 +32316,7 @@
       <c r="P282" s="34"/>
       <c r="Q282" s="34"/>
     </row>
-    <row r="283" spans="1:17" ht="22.5">
+    <row r="283" spans="1:17" ht="22">
       <c r="A283" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -32354,7 +32354,7 @@
       <c r="P283" s="34"/>
       <c r="Q283" s="34"/>
     </row>
-    <row r="284" spans="1:17" ht="22.5">
+    <row r="284" spans="1:17" ht="22">
       <c r="A284" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -32388,7 +32388,7 @@
       <c r="P284" s="34"/>
       <c r="Q284" s="34"/>
     </row>
-    <row r="285" spans="1:17" ht="22.5">
+    <row r="285" spans="1:17" ht="22">
       <c r="A285" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -32422,7 +32422,7 @@
       <c r="P285" s="34"/>
       <c r="Q285" s="34"/>
     </row>
-    <row r="286" spans="1:17" ht="22.5">
+    <row r="286" spans="1:17" ht="22">
       <c r="A286" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -32456,7 +32456,7 @@
       <c r="P286" s="34"/>
       <c r="Q286" s="34"/>
     </row>
-    <row r="287" spans="1:17" ht="22.5">
+    <row r="287" spans="1:17" ht="22">
       <c r="A287" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -32492,7 +32492,7 @@
       <c r="P287" s="34"/>
       <c r="Q287" s="34"/>
     </row>
-    <row r="288" spans="1:17" ht="22.5">
+    <row r="288" spans="1:17" ht="22">
       <c r="A288" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -32524,7 +32524,7 @@
       <c r="P288" s="34"/>
       <c r="Q288" s="34"/>
     </row>
-    <row r="289" spans="1:17" ht="33.75">
+    <row r="289" spans="1:17" ht="33">
       <c r="A289" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -32556,7 +32556,7 @@
       <c r="P289" s="34"/>
       <c r="Q289" s="34"/>
     </row>
-    <row r="290" spans="1:17" ht="33.75">
+    <row r="290" spans="1:17" ht="33">
       <c r="A290" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -32588,7 +32588,7 @@
       <c r="P290" s="34"/>
       <c r="Q290" s="34"/>
     </row>
-    <row r="291" spans="1:17" ht="33.75">
+    <row r="291" spans="1:17" ht="33">
       <c r="A291" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -32620,7 +32620,7 @@
       <c r="P291" s="34"/>
       <c r="Q291" s="34"/>
     </row>
-    <row r="292" spans="1:17" ht="33.75">
+    <row r="292" spans="1:17" ht="33">
       <c r="A292" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -32652,7 +32652,7 @@
       <c r="P292" s="34"/>
       <c r="Q292" s="34"/>
     </row>
-    <row r="293" spans="1:17" ht="33.75">
+    <row r="293" spans="1:17" ht="33">
       <c r="A293" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -32684,7 +32684,7 @@
       <c r="P293" s="34"/>
       <c r="Q293" s="34"/>
     </row>
-    <row r="294" spans="1:17" ht="22.5">
+    <row r="294" spans="1:17" ht="22">
       <c r="A294" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -32716,7 +32716,7 @@
       <c r="P294" s="34"/>
       <c r="Q294" s="34"/>
     </row>
-    <row r="295" spans="1:17" ht="22.5">
+    <row r="295" spans="1:17" ht="22">
       <c r="A295" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -32748,7 +32748,7 @@
       <c r="P295" s="34"/>
       <c r="Q295" s="34"/>
     </row>
-    <row r="296" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="296" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A296" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -33048,7 +33048,7 @@
       <c r="P304" s="41"/>
       <c r="Q304" s="41"/>
     </row>
-    <row r="305" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="305" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A305" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -33176,7 +33176,7 @@
       <c r="P308" s="41"/>
       <c r="Q308" s="41"/>
     </row>
-    <row r="309" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="309" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A309" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -33208,7 +33208,7 @@
       <c r="P309" s="41"/>
       <c r="Q309" s="41"/>
     </row>
-    <row r="310" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="310" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A310" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -33240,7 +33240,7 @@
       <c r="P310" s="41"/>
       <c r="Q310" s="41"/>
     </row>
-    <row r="311" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="311" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A311" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -33272,7 +33272,7 @@
       <c r="P311" s="41"/>
       <c r="Q311" s="41"/>
     </row>
-    <row r="312" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="312" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A312" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -33304,7 +33304,7 @@
       <c r="P312" s="41"/>
       <c r="Q312" s="41"/>
     </row>
-    <row r="313" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="313" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A313" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -33336,7 +33336,7 @@
       <c r="P313" s="41"/>
       <c r="Q313" s="41"/>
     </row>
-    <row r="314" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="314" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A314" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
@@ -33368,7 +33368,7 @@
       <c r="P314" s="41"/>
       <c r="Q314" s="41"/>
     </row>
-    <row r="315" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="315" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A315" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
@@ -33400,7 +33400,7 @@
       <c r="P315" s="41"/>
       <c r="Q315" s="41"/>
     </row>
-    <row r="316" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="316" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A316" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -33434,7 +33434,7 @@
       <c r="P316" s="161"/>
       <c r="Q316" s="161"/>
     </row>
-    <row r="317" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="317" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A317" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
@@ -33468,7 +33468,7 @@
       <c r="P317" s="41"/>
       <c r="Q317" s="41"/>
     </row>
-    <row r="318" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="318" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A318" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
@@ -33500,7 +33500,7 @@
       <c r="P318" s="41"/>
       <c r="Q318" s="41"/>
     </row>
-    <row r="319" spans="1:17" ht="22.5">
+    <row r="319" spans="1:17" ht="22">
       <c r="A319" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),
@@ -33534,7 +33534,7 @@
       <c r="P319" s="94"/>
       <c r="Q319" s="94"/>
     </row>
-    <row r="320" spans="1:17" ht="22.5">
+    <row r="320" spans="1:17" ht="22">
       <c r="A320" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E320),
@@ -33566,7 +33566,7 @@
       <c r="P320" s="94"/>
       <c r="Q320" s="94"/>
     </row>
-    <row r="321" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="321" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A321" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A321" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E321),
@@ -33600,7 +33600,7 @@
       <c r="P321" s="41"/>
       <c r="Q321" s="41"/>
     </row>
-    <row r="322" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="322" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A322" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E322),
@@ -33634,7 +33634,7 @@
       <c r="P322" s="41"/>
       <c r="Q322" s="41"/>
     </row>
-    <row r="323" spans="1:17" ht="22.5">
+    <row r="323" spans="1:17" ht="22">
       <c r="A323" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E323),
@@ -33666,7 +33666,7 @@
       <c r="P323" s="32"/>
       <c r="Q323" s="32"/>
     </row>
-    <row r="324" spans="1:17" ht="33.75">
+    <row r="324" spans="1:17" ht="33">
       <c r="A324" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A324" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E324),
@@ -33698,7 +33698,7 @@
       <c r="P324" s="32"/>
       <c r="Q324" s="32"/>
     </row>
-    <row r="325" spans="1:17" ht="45">
+    <row r="325" spans="1:17" ht="44">
       <c r="A325" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A325" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E325),
@@ -33730,7 +33730,7 @@
       <c r="P325" s="32"/>
       <c r="Q325" s="32"/>
     </row>
-    <row r="326" spans="1:17" ht="33.75">
+    <row r="326" spans="1:17" ht="33">
       <c r="A326" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E326),
@@ -33762,7 +33762,7 @@
       <c r="P326" s="32"/>
       <c r="Q326" s="32"/>
     </row>
-    <row r="327" spans="1:17" ht="45">
+    <row r="327" spans="1:17" ht="44">
       <c r="A327" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A327" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E327),
@@ -33794,7 +33794,7 @@
       <c r="P327" s="32"/>
       <c r="Q327" s="32"/>
     </row>
-    <row r="328" spans="1:17" ht="33.75">
+    <row r="328" spans="1:17" ht="33">
       <c r="A328" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A328" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E328),
@@ -33826,7 +33826,7 @@
       <c r="P328" s="32"/>
       <c r="Q328" s="32"/>
     </row>
-    <row r="329" spans="1:17" ht="45">
+    <row r="329" spans="1:17" ht="44">
       <c r="A329" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A329" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E329),
@@ -33858,7 +33858,7 @@
       <c r="P329" s="32"/>
       <c r="Q329" s="32"/>
     </row>
-    <row r="330" spans="1:17" ht="22.5">
+    <row r="330" spans="1:17" ht="22">
       <c r="A330" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A330" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E330),
@@ -33890,7 +33890,7 @@
       <c r="P330" s="32"/>
       <c r="Q330" s="32"/>
     </row>
-    <row r="331" spans="1:17" ht="22.5">
+    <row r="331" spans="1:17" ht="22">
       <c r="A331" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A331" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E331),
@@ -33924,7 +33924,7 @@
       <c r="P331" s="32"/>
       <c r="Q331" s="32"/>
     </row>
-    <row r="332" spans="1:17" ht="22.5">
+    <row r="332" spans="1:17" ht="22">
       <c r="A332" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A332" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E332),
@@ -33958,7 +33958,7 @@
       <c r="P332" s="32"/>
       <c r="Q332" s="32"/>
     </row>
-    <row r="333" spans="1:17" ht="22.5">
+    <row r="333" spans="1:17" ht="22">
       <c r="A333" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A333" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E333),
@@ -33994,7 +33994,7 @@
       <c r="P333" s="32"/>
       <c r="Q333" s="32"/>
     </row>
-    <row r="334" spans="1:17" ht="22.5">
+    <row r="334" spans="1:17" ht="22">
       <c r="A334" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A334" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E334),
@@ -34028,7 +34028,7 @@
       <c r="P334" s="32"/>
       <c r="Q334" s="32"/>
     </row>
-    <row r="335" spans="1:17" ht="22.5">
+    <row r="335" spans="1:17" ht="22">
       <c r="A335" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A335" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E335),
@@ -34060,7 +34060,7 @@
       <c r="P335" s="32"/>
       <c r="Q335" s="32"/>
     </row>
-    <row r="336" spans="1:17" ht="22.5">
+    <row r="336" spans="1:17" ht="22">
       <c r="A336" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
@@ -34092,7 +34092,7 @@
       <c r="P336" s="32"/>
       <c r="Q336" s="32"/>
     </row>
-    <row r="337" spans="1:17" ht="22.5">
+    <row r="337" spans="1:17" ht="22">
       <c r="A337" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
@@ -34160,7 +34160,7 @@
       <c r="P338" s="32"/>
       <c r="Q338" s="32"/>
     </row>
-    <row r="339" spans="1:17" ht="22.5">
+    <row r="339" spans="1:17" ht="22">
       <c r="A339" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A339" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E339),
@@ -34192,7 +34192,7 @@
       <c r="P339" s="32"/>
       <c r="Q339" s="32"/>
     </row>
-    <row r="340" spans="1:17" ht="22.5">
+    <row r="340" spans="1:17" ht="22">
       <c r="A340" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A340" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E340),
@@ -34260,7 +34260,7 @@
       <c r="P341" s="32"/>
       <c r="Q341" s="32"/>
     </row>
-    <row r="342" spans="1:17" ht="22.5">
+    <row r="342" spans="1:17" ht="22">
       <c r="A342" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A342" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E342),
@@ -34292,7 +34292,7 @@
       <c r="P342" s="32"/>
       <c r="Q342" s="32"/>
     </row>
-    <row r="343" spans="1:17" ht="22.5">
+    <row r="343" spans="1:17" ht="22">
       <c r="A343" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A343" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E343),
@@ -34324,7 +34324,7 @@
       <c r="P343" s="32"/>
       <c r="Q343" s="32"/>
     </row>
-    <row r="344" spans="1:17" ht="22.5">
+    <row r="344" spans="1:17" ht="22">
       <c r="A344" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A344" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E344),
@@ -34356,7 +34356,7 @@
       <c r="P344" s="32"/>
       <c r="Q344" s="32"/>
     </row>
-    <row r="345" spans="1:17" ht="22.5">
+    <row r="345" spans="1:17" ht="22">
       <c r="A345" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A345" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E345),
@@ -34388,7 +34388,7 @@
       <c r="P345" s="32"/>
       <c r="Q345" s="32"/>
     </row>
-    <row r="346" spans="1:17" ht="33.75">
+    <row r="346" spans="1:17" ht="33">
       <c r="A346" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A346" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E346),
@@ -34422,7 +34422,7 @@
       <c r="P346" s="154"/>
       <c r="Q346" s="154"/>
     </row>
-    <row r="347" spans="1:17" ht="22.5">
+    <row r="347" spans="1:17" ht="22">
       <c r="A347" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A347" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E347),
@@ -34454,7 +34454,7 @@
       <c r="P347" s="32"/>
       <c r="Q347" s="32"/>
     </row>
-    <row r="348" spans="1:17" ht="22.5">
+    <row r="348" spans="1:17" ht="22">
       <c r="A348" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A348" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E348),
@@ -34486,7 +34486,7 @@
       <c r="P348" s="32"/>
       <c r="Q348" s="32"/>
     </row>
-    <row r="349" spans="1:17" ht="22.5">
+    <row r="349" spans="1:17" ht="22">
       <c r="A349" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A349" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E349),
@@ -34518,7 +34518,7 @@
       <c r="P349" s="32"/>
       <c r="Q349" s="32"/>
     </row>
-    <row r="350" spans="1:17" ht="22.5">
+    <row r="350" spans="1:17" ht="22">
       <c r="A350" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A350" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E350),
@@ -34550,7 +34550,7 @@
       <c r="P350" s="32"/>
       <c r="Q350" s="32"/>
     </row>
-    <row r="351" spans="1:17" ht="22.5">
+    <row r="351" spans="1:17" ht="22">
       <c r="A351" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A351" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E351),
@@ -34582,7 +34582,7 @@
       <c r="P351" s="32"/>
       <c r="Q351" s="32"/>
     </row>
-    <row r="352" spans="1:17" ht="22.5">
+    <row r="352" spans="1:17" ht="22">
       <c r="A352" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A352" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E352),
@@ -34614,7 +34614,7 @@
       <c r="P352" s="32"/>
       <c r="Q352" s="32"/>
     </row>
-    <row r="353" spans="1:17" ht="22.5">
+    <row r="353" spans="1:17" ht="22">
       <c r="A353" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A353" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E353),
@@ -34646,7 +34646,7 @@
       <c r="P353" s="32"/>
       <c r="Q353" s="32"/>
     </row>
-    <row r="354" spans="1:17" ht="22.5">
+    <row r="354" spans="1:17" ht="22">
       <c r="A354" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A354" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E354),
@@ -34678,7 +34678,7 @@
       <c r="P354" s="32"/>
       <c r="Q354" s="32"/>
     </row>
-    <row r="355" spans="1:17" ht="22.5">
+    <row r="355" spans="1:17" ht="22">
       <c r="A355" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A355" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E355),
@@ -34712,7 +34712,7 @@
       <c r="P355" s="32"/>
       <c r="Q355" s="32"/>
     </row>
-    <row r="356" spans="1:17" ht="33.75">
+    <row r="356" spans="1:17" ht="33">
       <c r="A356" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A356" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E356),
@@ -34744,7 +34744,7 @@
       <c r="P356" s="32"/>
       <c r="Q356" s="32"/>
     </row>
-    <row r="357" spans="1:17" ht="33.75">
+    <row r="357" spans="1:17" ht="33">
       <c r="A357" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A357" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E357),
@@ -34776,7 +34776,7 @@
       <c r="P357" s="32"/>
       <c r="Q357" s="32"/>
     </row>
-    <row r="358" spans="1:17" ht="33.75">
+    <row r="358" spans="1:17" ht="33">
       <c r="A358" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A358" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E358),
@@ -34808,7 +34808,7 @@
       <c r="P358" s="32"/>
       <c r="Q358" s="32"/>
     </row>
-    <row r="359" spans="1:17" ht="22.5">
+    <row r="359" spans="1:17" ht="22">
       <c r="A359" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A359" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E359),
@@ -34840,7 +34840,7 @@
       <c r="P359" s="32"/>
       <c r="Q359" s="32"/>
     </row>
-    <row r="360" spans="1:17" ht="22.5">
+    <row r="360" spans="1:17" ht="22">
       <c r="A360" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A360" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E360),
@@ -34872,7 +34872,7 @@
       <c r="P360" s="32"/>
       <c r="Q360" s="32"/>
     </row>
-    <row r="361" spans="1:17" ht="22.5">
+    <row r="361" spans="1:17" ht="22">
       <c r="A361" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A361" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E361),
@@ -34904,7 +34904,7 @@
       <c r="P361" s="32"/>
       <c r="Q361" s="32"/>
     </row>
-    <row r="362" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="362" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A362" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A362" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E362),
@@ -34944,7 +34944,7 @@
       <c r="P362" s="42"/>
       <c r="Q362" s="42"/>
     </row>
-    <row r="363" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="363" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A363" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A363" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E363),
@@ -34976,7 +34976,7 @@
       <c r="P363" s="122"/>
       <c r="Q363" s="122"/>
     </row>
-    <row r="364" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="364" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A364" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A364" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E364),
@@ -35008,7 +35008,7 @@
       <c r="P364" s="122"/>
       <c r="Q364" s="122"/>
     </row>
-    <row r="365" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="365" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A365" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A365" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E365),
@@ -35040,7 +35040,7 @@
       <c r="P365" s="122"/>
       <c r="Q365" s="122"/>
     </row>
-    <row r="366" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="366" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A366" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A366" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E366),
@@ -35142,7 +35142,7 @@
       <c r="P368" s="122"/>
       <c r="Q368" s="122"/>
     </row>
-    <row r="369" spans="1:17" s="31" customFormat="1" ht="33.75">
+    <row r="369" spans="1:17" s="31" customFormat="1" ht="33">
       <c r="A369" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A369" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E369),
@@ -35176,7 +35176,7 @@
       <c r="P369" s="252"/>
       <c r="Q369" s="252"/>
     </row>
-    <row r="370" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="370" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A370" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A370" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E370),
@@ -35240,7 +35240,7 @@
       <c r="P371" s="122"/>
       <c r="Q371" s="122"/>
     </row>
-    <row r="372" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="372" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A372" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A372" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E372),
@@ -35278,7 +35278,7 @@
       <c r="P372" s="44"/>
       <c r="Q372" s="44"/>
     </row>
-    <row r="373" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="373" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A373" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A373" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E373),
@@ -35374,7 +35374,7 @@
       <c r="P375" s="44"/>
       <c r="Q375" s="44"/>
     </row>
-    <row r="376" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="376" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A376" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A376" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E376),
@@ -35408,7 +35408,7 @@
       <c r="P376" s="255"/>
       <c r="Q376" s="255"/>
     </row>
-    <row r="377" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="377" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A377" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A377" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E377),
@@ -35440,7 +35440,7 @@
       <c r="P377" s="44"/>
       <c r="Q377" s="44"/>
     </row>
-    <row r="378" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="378" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A378" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A378" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E378),
@@ -35476,7 +35476,7 @@
       <c r="P378" s="44"/>
       <c r="Q378" s="44"/>
     </row>
-    <row r="379" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="379" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A379" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A379" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E379),
@@ -35512,7 +35512,7 @@
       <c r="P379" s="44"/>
       <c r="Q379" s="44"/>
     </row>
-    <row r="380" spans="1:17" s="31" customFormat="1" ht="22.5">
+    <row r="380" spans="1:17" s="31" customFormat="1" ht="22">
       <c r="A380" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="A380" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E380),
@@ -35548,7 +35548,7 @@
       <c r="P380" s="126"/>
       <c r="Q380" s="126"/>
     </row>
-    <row r="381" spans="1:17" ht="22.5">
+    <row r="381" spans="1:17" ht="22">
       <c r="A381" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A381" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E381),
@@ -35588,7 +35588,7 @@
       <c r="P381" s="32"/>
       <c r="Q381" s="32"/>
     </row>
-    <row r="382" spans="1:17" ht="22.5">
+    <row r="382" spans="1:17" ht="22">
       <c r="A382" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A382" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E382),
@@ -35666,18 +35666,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="25" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="25" customWidth="1"/>
+    <col min="2" max="3" width="10.58203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="57" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="16.375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="31" style="25" customWidth="1"/>
     <col min="11" max="11" width="17.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.625" style="25" customWidth="1"/>
+    <col min="12" max="14" width="8.58203125" style="25" customWidth="1"/>
     <col min="15" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -35720,7 +35720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12" thickBot="1">
+    <row r="8" spans="1:16" ht="11.5" thickBot="1">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -35739,7 +35739,7 @@
       <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" ht="12" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:16" s="31" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="10" spans="1:16" s="31" customFormat="1" ht="10" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>548</v>
       </c>
@@ -35789,14 +35789,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="11" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A11" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D11),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D11)&gt;0)*ROW($D$11:D11),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E11),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E11)&gt;0)*ROW($E$11:E11),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E11)&gt;0)*ROW($E$11:E11),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I11),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -35832,7 +35832,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D12)&gt;0)*ROW($D$11:D12),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E12),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E12)&gt;0)*ROW($E$11:E12),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E12)&gt;0)*ROW($E$11:E12),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I12),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -35857,14 +35857,14 @@
       <c r="O12" s="71"/>
       <c r="P12" s="86"/>
     </row>
-    <row r="13" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="13" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A13" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D13),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D13)&gt;0)*ROW($D$11:D13),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E13),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E13)&gt;0)*ROW($E$11:E13),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E13)&gt;0)*ROW($E$11:E13),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I13),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -35898,7 +35898,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D14)&gt;0)*ROW($D$11:D14),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E14),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E14)&gt;0)*ROW($E$11:E14),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E14)&gt;0)*ROW($E$11:E14),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I14),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -35930,7 +35930,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D15)&gt;0)*ROW($D$11:D15),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E15),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E15)&gt;0)*ROW($E$11:E15),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E15)&gt;0)*ROW($E$11:E15),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I15),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -35957,14 +35957,14 @@
       <c r="O15" s="78"/>
       <c r="P15" s="87"/>
     </row>
-    <row r="16" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="16" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A16" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D16),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D16)&gt;0)*ROW($D$11:D16),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E16),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E16)&gt;0)*ROW($E$11:E16),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E16)&gt;0)*ROW($E$11:E16),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I16),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -35991,14 +35991,14 @@
       <c r="O16" s="203"/>
       <c r="P16" s="204"/>
     </row>
-    <row r="17" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="17" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A17" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D17),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D17)&gt;0)*ROW($D$11:D17),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E17),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E17)&gt;0)*ROW($E$11:E17),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E17)&gt;0)*ROW($E$11:E17),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I17),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36025,14 +36025,14 @@
       <c r="O17" s="203"/>
       <c r="P17" s="204"/>
     </row>
-    <row r="18" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="18" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A18" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D18),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D18)&gt;0)*ROW($D$11:D18),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E18),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E18)&gt;0)*ROW($E$11:E18),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E18)&gt;0)*ROW($E$11:E18),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I18),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36059,14 +36059,14 @@
       <c r="O18" s="203"/>
       <c r="P18" s="204"/>
     </row>
-    <row r="19" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="19" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A19" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D19),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D19)&gt;0)*ROW($D$11:D19),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E19),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E19)&gt;0)*ROW($E$11:E19),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E19)&gt;0)*ROW($E$11:E19),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I19),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36102,7 +36102,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D20)&gt;0)*ROW($D$11:D20),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E20),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E20)&gt;0)*ROW($E$11:E20),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E20)&gt;0)*ROW($E$11:E20),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I20),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36129,14 +36129,14 @@
       <c r="O20" s="90"/>
       <c r="P20" s="91"/>
     </row>
-    <row r="21" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="21" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A21" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D21),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D21)&gt;0)*ROW($D$11:D21),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E21),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E21)&gt;0)*ROW($E$11:E21),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E21)&gt;0)*ROW($E$11:E21),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I21),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36162,14 +36162,14 @@
       <c r="N21" s="211"/>
       <c r="O21" s="211"/>
     </row>
-    <row r="22" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="22" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A22" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D22),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D22)&gt;0)*ROW($D$11:D22),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E22),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E22)&gt;0)*ROW($E$11:E22),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E22)&gt;0)*ROW($E$11:E22),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I22),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36197,14 +36197,14 @@
       <c r="N22" s="211"/>
       <c r="O22" s="211"/>
     </row>
-    <row r="23" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="23" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A23" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D23),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D23)&gt;0)*ROW($D$11:D23),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E23),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E23)&gt;0)*ROW($E$11:E23),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E23)&gt;0)*ROW($E$11:E23),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I23),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36230,14 +36230,14 @@
       <c r="N23" s="211"/>
       <c r="O23" s="211"/>
     </row>
-    <row r="24" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="24" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A24" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D24),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D24)&gt;0)*ROW($D$11:D24),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E24),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E24)&gt;0)*ROW($E$11:E24),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E24)&gt;0)*ROW($E$11:E24),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I24),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36272,7 +36272,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D25)&gt;0)*ROW($D$11:D25),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E25),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E25)&gt;0)*ROW($E$11:E25),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E25)&gt;0)*ROW($E$11:E25),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I25),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36296,14 +36296,14 @@
       <c r="N25" s="221"/>
       <c r="O25" s="221"/>
     </row>
-    <row r="26" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="26" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A26" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D26),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D26)&gt;0)*ROW($D$11:D26),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E26),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E26)&gt;0)*ROW($E$11:E26),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E26)&gt;0)*ROW($E$11:E26),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I26),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36336,7 +36336,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D27)&gt;0)*ROW($D$11:D27),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E27),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E27)&gt;0)*ROW($E$11:E27),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E27)&gt;0)*ROW($E$11:E27),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I27),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36360,14 +36360,14 @@
       <c r="N27" s="221"/>
       <c r="O27" s="221"/>
     </row>
-    <row r="28" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="28" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A28" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D28),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D28)&gt;0)*ROW($D$11:D28),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E28),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E28)&gt;0)*ROW($E$11:E28),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E28)&gt;0)*ROW($E$11:E28),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I28),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -36397,14 +36397,14 @@
       <c r="N28" s="211"/>
       <c r="O28" s="211"/>
     </row>
-    <row r="29" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="29" spans="1:16" s="31" customFormat="1" ht="22">
       <c r="A29" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D29),
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D29)&gt;0)*ROW($D$11:D29),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E29),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E29)&gt;0)*ROW($E$11:E29),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E29)&gt;0)*ROW($E$11:E29),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I29),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(画面)_(取引ID)_(取引名).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF2185-26F2-4FD2-92DD-8AAF713A8A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36F523-14FA-49DE-A100-4BC2985F0C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -76,20 +76,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{C6BDB7C4-EA10-452C-AAB4-3A3E00F79D5A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>画面単位でリクエスト単体テストを実施するため、リクエストIDは不要。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{3DEF94F8-1F3B-4C63-BC97-1D16BAC7EF2F}">
       <text>
         <r>
@@ -8039,7 +8025,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>リクエストID：</t>
+    <t>リクエストID：画面単位でリクエスト単体テストを実施するため、リクエストIDは不要</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9954,8 +9940,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -10662,9 +10648,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="6.58203125" style="1"/>
+    <col min="1" max="16384" width="6.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -10750,7 +10736,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="19">
+    <row r="32" spans="6:11" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -10758,12 +10744,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="19">
+    <row r="33" spans="6:10" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="19">
+    <row r="34" spans="6:10" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -11273,9 +11259,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="23"/>
+    <col min="1" max="16384" width="3.625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
@@ -12475,7 +12461,7 @@
       <c r="AH33" s="301"/>
       <c r="AI33" s="302"/>
     </row>
-    <row r="34" spans="1:35" ht="14">
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
@@ -12680,18 +12666,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" style="26" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="28.08203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.33203125" style="25" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.33203125" style="25" customWidth="1"/>
-    <col min="10" max="11" width="25.58203125" style="25" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="26" customWidth="1"/>
+    <col min="4" max="5" width="8.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="28.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.375" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.375" style="25" customWidth="1"/>
+    <col min="10" max="11" width="25.625" style="25" customWidth="1"/>
     <col min="12" max="12" width="19.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="8.58203125" style="25" customWidth="1"/>
+    <col min="13" max="17" width="8.625" style="25" customWidth="1"/>
     <col min="18" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -12737,7 +12723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="11.5" thickBot="1">
+    <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -12810,7 +12796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22">
+    <row r="11" spans="1:17" ht="22.5">
       <c r="A11" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -12852,7 +12838,7 @@
       <c r="P11" s="155"/>
       <c r="Q11" s="157"/>
     </row>
-    <row r="12" spans="1:17" ht="22">
+    <row r="12" spans="1:17" ht="22.5">
       <c r="A12" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -12888,7 +12874,7 @@
       <c r="P12" s="155"/>
       <c r="Q12" s="157"/>
     </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="13" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A13" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -12926,7 +12912,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="155"/>
     </row>
-    <row r="14" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="14" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A14" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -12960,7 +12946,7 @@
       <c r="P14" s="156"/>
       <c r="Q14" s="155"/>
     </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="15" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A15" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -12994,7 +12980,7 @@
       <c r="P15" s="156"/>
       <c r="Q15" s="155"/>
     </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="16" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A16" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -13028,7 +13014,7 @@
       <c r="P16" s="155"/>
       <c r="Q16" s="157"/>
     </row>
-    <row r="17" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="17" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A17" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -13062,7 +13048,7 @@
       <c r="P17" s="155"/>
       <c r="Q17" s="157"/>
     </row>
-    <row r="18" spans="1:17" ht="22">
+    <row r="18" spans="1:17" ht="22.5">
       <c r="A18" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -13100,7 +13086,7 @@
       <c r="P18" s="155"/>
       <c r="Q18" s="157"/>
     </row>
-    <row r="19" spans="1:17" ht="22">
+    <row r="19" spans="1:17" ht="22.5">
       <c r="A19" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -13134,7 +13120,7 @@
       <c r="P19" s="155"/>
       <c r="Q19" s="157"/>
     </row>
-    <row r="20" spans="1:17" ht="22">
+    <row r="20" spans="1:17" ht="22.5">
       <c r="A20" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -13168,7 +13154,7 @@
       <c r="P20" s="155"/>
       <c r="Q20" s="157"/>
     </row>
-    <row r="21" spans="1:17" ht="22">
+    <row r="21" spans="1:17" ht="22.5">
       <c r="A21" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -13204,7 +13190,7 @@
       <c r="P21" s="155"/>
       <c r="Q21" s="157"/>
     </row>
-    <row r="22" spans="1:17" ht="22">
+    <row r="22" spans="1:17" ht="22.5">
       <c r="A22" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -13238,7 +13224,7 @@
       <c r="P22" s="155"/>
       <c r="Q22" s="157"/>
     </row>
-    <row r="23" spans="1:17" ht="22">
+    <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -13272,7 +13258,7 @@
       <c r="P23" s="155"/>
       <c r="Q23" s="157"/>
     </row>
-    <row r="24" spans="1:17" ht="22">
+    <row r="24" spans="1:17" ht="22.5">
       <c r="A24" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -13306,7 +13292,7 @@
       <c r="P24" s="155"/>
       <c r="Q24" s="157"/>
     </row>
-    <row r="25" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="25" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A25" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -13344,7 +13330,7 @@
       <c r="P25" s="156"/>
       <c r="Q25" s="155"/>
     </row>
-    <row r="26" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="26" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A26" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E26),
@@ -13378,7 +13364,7 @@
       <c r="P26" s="156"/>
       <c r="Q26" s="155"/>
     </row>
-    <row r="27" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="27" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A27" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -13416,7 +13402,7 @@
       <c r="P27" s="156"/>
       <c r="Q27" s="155"/>
     </row>
-    <row r="28" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="28" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A28" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -13450,7 +13436,7 @@
       <c r="P28" s="156"/>
       <c r="Q28" s="155"/>
     </row>
-    <row r="29" spans="1:17" ht="22">
+    <row r="29" spans="1:17" ht="22.5">
       <c r="A29" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -13486,7 +13472,7 @@
       <c r="P29" s="157"/>
       <c r="Q29" s="157"/>
     </row>
-    <row r="30" spans="1:17" ht="22">
+    <row r="30" spans="1:17" ht="22.5">
       <c r="A30" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -13520,7 +13506,7 @@
       <c r="P30" s="157"/>
       <c r="Q30" s="157"/>
     </row>
-    <row r="31" spans="1:17" ht="22">
+    <row r="31" spans="1:17" ht="22.5">
       <c r="A31" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -13554,7 +13540,7 @@
       <c r="P31" s="157"/>
       <c r="Q31" s="157"/>
     </row>
-    <row r="32" spans="1:17" ht="22">
+    <row r="32" spans="1:17" ht="22.5">
       <c r="A32" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -13588,7 +13574,7 @@
       <c r="P32" s="157"/>
       <c r="Q32" s="157"/>
     </row>
-    <row r="33" spans="1:17" ht="22">
+    <row r="33" spans="1:17" ht="22.5">
       <c r="A33" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -13624,7 +13610,7 @@
       <c r="P33" s="157"/>
       <c r="Q33" s="157"/>
     </row>
-    <row r="34" spans="1:17" ht="22">
+    <row r="34" spans="1:17" ht="22.5">
       <c r="A34" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -13658,7 +13644,7 @@
       <c r="P34" s="157"/>
       <c r="Q34" s="157"/>
     </row>
-    <row r="35" spans="1:17" ht="44">
+    <row r="35" spans="1:17" ht="45">
       <c r="A35" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -13694,7 +13680,7 @@
       <c r="P35" s="157"/>
       <c r="Q35" s="157"/>
     </row>
-    <row r="36" spans="1:17" ht="33">
+    <row r="36" spans="1:17" ht="33.75">
       <c r="A36" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -13732,7 +13718,7 @@
       <c r="P36" s="34"/>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="33">
+    <row r="37" spans="1:17" ht="33.75">
       <c r="A37" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -13764,7 +13750,7 @@
       <c r="P37" s="34"/>
       <c r="Q37" s="34"/>
     </row>
-    <row r="38" spans="1:17" ht="22">
+    <row r="38" spans="1:17" ht="22.5">
       <c r="A38" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -13796,7 +13782,7 @@
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="39" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A39" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -13828,7 +13814,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="40" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A40" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -13896,7 +13882,7 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="34"/>
     </row>
-    <row r="42" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="42" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A42" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -13938,7 +13924,7 @@
       <c r="P42" s="155"/>
       <c r="Q42" s="157"/>
     </row>
-    <row r="43" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="43" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A43" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -13972,7 +13958,7 @@
       <c r="P43" s="155"/>
       <c r="Q43" s="157"/>
     </row>
-    <row r="44" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="44" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A44" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -14006,7 +13992,7 @@
       <c r="P44" s="155"/>
       <c r="Q44" s="157"/>
     </row>
-    <row r="45" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="45" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A45" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -14042,7 +14028,7 @@
       <c r="P45" s="155"/>
       <c r="Q45" s="157"/>
     </row>
-    <row r="46" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="46" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A46" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -14076,7 +14062,7 @@
       <c r="P46" s="155"/>
       <c r="Q46" s="157"/>
     </row>
-    <row r="47" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="47" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A47" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -14110,7 +14096,7 @@
       <c r="P47" s="155"/>
       <c r="Q47" s="157"/>
     </row>
-    <row r="48" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="48" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A48" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -14146,7 +14132,7 @@
       <c r="P48" s="155"/>
       <c r="Q48" s="157"/>
     </row>
-    <row r="49" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="49" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A49" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -14180,7 +14166,7 @@
       <c r="P49" s="155"/>
       <c r="Q49" s="157"/>
     </row>
-    <row r="50" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="50" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A50" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -14216,7 +14202,7 @@
       <c r="P50" s="155"/>
       <c r="Q50" s="157"/>
     </row>
-    <row r="51" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="51" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A51" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -14250,7 +14236,7 @@
       <c r="P51" s="155"/>
       <c r="Q51" s="157"/>
     </row>
-    <row r="52" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="52" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A52" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -14284,7 +14270,7 @@
       <c r="P52" s="155"/>
       <c r="Q52" s="157"/>
     </row>
-    <row r="53" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="53" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A53" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -14318,7 +14304,7 @@
       <c r="P53" s="155"/>
       <c r="Q53" s="157"/>
     </row>
-    <row r="54" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="54" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A54" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -14352,7 +14338,7 @@
       <c r="P54" s="155"/>
       <c r="Q54" s="157"/>
     </row>
-    <row r="55" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="55" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A55" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -14386,7 +14372,7 @@
       <c r="P55" s="155"/>
       <c r="Q55" s="157"/>
     </row>
-    <row r="56" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="56" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A56" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -14422,7 +14408,7 @@
       <c r="P56" s="155"/>
       <c r="Q56" s="157"/>
     </row>
-    <row r="57" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="57" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A57" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -14458,7 +14444,7 @@
       <c r="P57" s="155"/>
       <c r="Q57" s="157"/>
     </row>
-    <row r="58" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="58" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A58" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -14494,7 +14480,7 @@
       <c r="P58" s="155"/>
       <c r="Q58" s="157"/>
     </row>
-    <row r="59" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A59" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -14532,7 +14518,7 @@
       <c r="P59" s="155"/>
       <c r="Q59" s="157"/>
     </row>
-    <row r="60" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A60" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -14566,7 +14552,7 @@
       <c r="P60" s="155"/>
       <c r="Q60" s="157"/>
     </row>
-    <row r="61" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="61" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A61" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -14600,7 +14586,7 @@
       <c r="P61" s="155"/>
       <c r="Q61" s="157"/>
     </row>
-    <row r="62" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="62" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A62" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -14634,7 +14620,7 @@
       <c r="P62" s="155"/>
       <c r="Q62" s="157"/>
     </row>
-    <row r="63" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="63" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A63" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -14668,7 +14654,7 @@
       <c r="P63" s="155"/>
       <c r="Q63" s="157"/>
     </row>
-    <row r="64" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A64" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -14704,7 +14690,7 @@
       <c r="P64" s="155"/>
       <c r="Q64" s="157"/>
     </row>
-    <row r="65" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="65" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A65" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -14738,7 +14724,7 @@
       <c r="P65" s="155"/>
       <c r="Q65" s="157"/>
     </row>
-    <row r="66" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="66" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A66" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -14772,7 +14758,7 @@
       <c r="P66" s="155"/>
       <c r="Q66" s="157"/>
     </row>
-    <row r="67" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="67" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A67" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -14806,7 +14792,7 @@
       <c r="P67" s="155"/>
       <c r="Q67" s="157"/>
     </row>
-    <row r="68" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="68" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A68" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -14840,7 +14826,7 @@
       <c r="P68" s="155"/>
       <c r="Q68" s="157"/>
     </row>
-    <row r="69" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="69" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A69" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -14874,7 +14860,7 @@
       <c r="P69" s="155"/>
       <c r="Q69" s="157"/>
     </row>
-    <row r="70" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="70" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A70" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -14908,7 +14894,7 @@
       <c r="P70" s="155"/>
       <c r="Q70" s="157"/>
     </row>
-    <row r="71" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="71" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A71" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -14942,7 +14928,7 @@
       <c r="P71" s="171"/>
       <c r="Q71" s="172"/>
     </row>
-    <row r="72" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="72" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A72" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -14978,7 +14964,7 @@
       <c r="P72" s="161"/>
       <c r="Q72" s="161"/>
     </row>
-    <row r="73" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="73" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A73" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -15014,7 +15000,7 @@
       <c r="P73" s="161"/>
       <c r="Q73" s="161"/>
     </row>
-    <row r="74" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="74" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A74" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -15048,7 +15034,7 @@
       <c r="P74" s="155"/>
       <c r="Q74" s="157"/>
     </row>
-    <row r="75" spans="1:17" ht="22">
+    <row r="75" spans="1:17" ht="22.5">
       <c r="A75" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -15082,7 +15068,7 @@
       <c r="P75" s="157"/>
       <c r="Q75" s="157"/>
     </row>
-    <row r="76" spans="1:17" ht="22">
+    <row r="76" spans="1:17" ht="22.5">
       <c r="A76" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -15116,7 +15102,7 @@
       <c r="P76" s="157"/>
       <c r="Q76" s="157"/>
     </row>
-    <row r="77" spans="1:17" ht="22">
+    <row r="77" spans="1:17" ht="22.5">
       <c r="A77" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -15150,7 +15136,7 @@
       <c r="P77" s="157"/>
       <c r="Q77" s="157"/>
     </row>
-    <row r="78" spans="1:17" ht="22">
+    <row r="78" spans="1:17" ht="22.5">
       <c r="A78" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -15190,7 +15176,7 @@
       <c r="P78" s="157"/>
       <c r="Q78" s="157"/>
     </row>
-    <row r="79" spans="1:17" ht="33">
+    <row r="79" spans="1:17" ht="33.75">
       <c r="A79" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -15224,7 +15210,7 @@
       <c r="P79" s="157"/>
       <c r="Q79" s="157"/>
     </row>
-    <row r="80" spans="1:17" ht="22">
+    <row r="80" spans="1:17" ht="22.5">
       <c r="A80" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -15260,7 +15246,7 @@
       <c r="P80" s="157"/>
       <c r="Q80" s="157"/>
     </row>
-    <row r="81" spans="1:17" ht="33">
+    <row r="81" spans="1:17" ht="33.75">
       <c r="A81" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -15296,7 +15282,7 @@
       <c r="P81" s="157"/>
       <c r="Q81" s="157"/>
     </row>
-    <row r="82" spans="1:17" ht="33">
+    <row r="82" spans="1:17" ht="33.75">
       <c r="A82" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -15330,7 +15316,7 @@
       <c r="P82" s="157"/>
       <c r="Q82" s="157"/>
     </row>
-    <row r="83" spans="1:17" ht="22">
+    <row r="83" spans="1:17" ht="22.5">
       <c r="A83" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -15366,7 +15352,7 @@
       <c r="P83" s="157"/>
       <c r="Q83" s="157"/>
     </row>
-    <row r="84" spans="1:17" ht="22">
+    <row r="84" spans="1:17" ht="22.5">
       <c r="A84" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -15402,7 +15388,7 @@
       <c r="P84" s="157"/>
       <c r="Q84" s="157"/>
     </row>
-    <row r="85" spans="1:17" ht="22">
+    <row r="85" spans="1:17" ht="22.5">
       <c r="A85" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -15442,7 +15428,7 @@
       <c r="P85" s="157"/>
       <c r="Q85" s="157"/>
     </row>
-    <row r="86" spans="1:17" ht="22">
+    <row r="86" spans="1:17" ht="22.5">
       <c r="A86" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -15478,7 +15464,7 @@
       <c r="P86" s="157"/>
       <c r="Q86" s="157"/>
     </row>
-    <row r="87" spans="1:17" ht="33">
+    <row r="87" spans="1:17" ht="33.75">
       <c r="A87" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -15514,7 +15500,7 @@
       <c r="P87" s="157"/>
       <c r="Q87" s="157"/>
     </row>
-    <row r="88" spans="1:17" ht="22">
+    <row r="88" spans="1:17" ht="22.5">
       <c r="A88" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -15554,7 +15540,7 @@
       <c r="P88" s="157"/>
       <c r="Q88" s="157"/>
     </row>
-    <row r="89" spans="1:17" ht="33">
+    <row r="89" spans="1:17" ht="33.75">
       <c r="A89" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -15588,7 +15574,7 @@
       <c r="P89" s="157"/>
       <c r="Q89" s="157"/>
     </row>
-    <row r="90" spans="1:17" ht="22">
+    <row r="90" spans="1:17" ht="22.5">
       <c r="A90" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -15624,7 +15610,7 @@
       <c r="P90" s="157"/>
       <c r="Q90" s="157"/>
     </row>
-    <row r="91" spans="1:17" ht="33">
+    <row r="91" spans="1:17" ht="33.75">
       <c r="A91" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -15660,7 +15646,7 @@
       <c r="P91" s="157"/>
       <c r="Q91" s="157"/>
     </row>
-    <row r="92" spans="1:17" ht="33">
+    <row r="92" spans="1:17" ht="33.75">
       <c r="A92" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -15694,7 +15680,7 @@
       <c r="P92" s="157"/>
       <c r="Q92" s="157"/>
     </row>
-    <row r="93" spans="1:17" ht="33">
+    <row r="93" spans="1:17" ht="33.75">
       <c r="A93" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -15730,7 +15716,7 @@
       <c r="P93" s="157"/>
       <c r="Q93" s="157"/>
     </row>
-    <row r="94" spans="1:17" ht="22">
+    <row r="94" spans="1:17" ht="22.5">
       <c r="A94" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -15770,7 +15756,7 @@
       <c r="P94" s="157"/>
       <c r="Q94" s="157"/>
     </row>
-    <row r="95" spans="1:17" ht="33">
+    <row r="95" spans="1:17" ht="33.75">
       <c r="A95" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -15804,7 +15790,7 @@
       <c r="P95" s="157"/>
       <c r="Q95" s="157"/>
     </row>
-    <row r="96" spans="1:17" ht="22">
+    <row r="96" spans="1:17" ht="22.5">
       <c r="A96" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -15838,7 +15824,7 @@
       <c r="P96" s="157"/>
       <c r="Q96" s="157"/>
     </row>
-    <row r="97" spans="1:17" ht="33">
+    <row r="97" spans="1:17" ht="33.75">
       <c r="A97" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -15872,7 +15858,7 @@
       <c r="P97" s="157"/>
       <c r="Q97" s="157"/>
     </row>
-    <row r="98" spans="1:17" ht="33">
+    <row r="98" spans="1:17" ht="33.75">
       <c r="A98" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -15906,7 +15892,7 @@
       <c r="P98" s="157"/>
       <c r="Q98" s="157"/>
     </row>
-    <row r="99" spans="1:17" ht="22">
+    <row r="99" spans="1:17" ht="22.5">
       <c r="A99" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -15942,7 +15928,7 @@
       <c r="P99" s="157"/>
       <c r="Q99" s="157"/>
     </row>
-    <row r="100" spans="1:17" ht="33">
+    <row r="100" spans="1:17" ht="33.75">
       <c r="A100" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -15976,7 +15962,7 @@
       <c r="P100" s="157"/>
       <c r="Q100" s="157"/>
     </row>
-    <row r="101" spans="1:17" ht="22">
+    <row r="101" spans="1:17" ht="22.5">
       <c r="A101" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -16010,7 +15996,7 @@
       <c r="P101" s="157"/>
       <c r="Q101" s="157"/>
     </row>
-    <row r="102" spans="1:17" ht="33">
+    <row r="102" spans="1:17" ht="33.75">
       <c r="A102" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -16044,7 +16030,7 @@
       <c r="P102" s="157"/>
       <c r="Q102" s="157"/>
     </row>
-    <row r="103" spans="1:17" ht="33">
+    <row r="103" spans="1:17" ht="33.75">
       <c r="A103" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -16078,7 +16064,7 @@
       <c r="P103" s="172"/>
       <c r="Q103" s="172"/>
     </row>
-    <row r="104" spans="1:17" ht="33">
+    <row r="104" spans="1:17" ht="33.75">
       <c r="A104" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -16114,7 +16100,7 @@
       <c r="P104" s="157"/>
       <c r="Q104" s="157"/>
     </row>
-    <row r="105" spans="1:17" ht="33">
+    <row r="105" spans="1:17" ht="33.75">
       <c r="A105" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -16156,7 +16142,7 @@
       <c r="P105" s="157"/>
       <c r="Q105" s="157"/>
     </row>
-    <row r="106" spans="1:17" ht="22">
+    <row r="106" spans="1:17" ht="22.5">
       <c r="A106" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -16196,7 +16182,7 @@
       <c r="P106" s="157"/>
       <c r="Q106" s="157"/>
     </row>
-    <row r="107" spans="1:17" ht="22">
+    <row r="107" spans="1:17" ht="22.5">
       <c r="A107" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -16230,7 +16216,7 @@
       <c r="P107" s="157"/>
       <c r="Q107" s="157"/>
     </row>
-    <row r="108" spans="1:17" ht="22">
+    <row r="108" spans="1:17" ht="22.5">
       <c r="A108" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -16270,7 +16256,7 @@
       <c r="P108" s="157"/>
       <c r="Q108" s="157"/>
     </row>
-    <row r="109" spans="1:17" ht="22">
+    <row r="109" spans="1:17" ht="22.5">
       <c r="A109" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -16310,7 +16296,7 @@
       <c r="P109" s="157"/>
       <c r="Q109" s="157"/>
     </row>
-    <row r="110" spans="1:17" ht="22">
+    <row r="110" spans="1:17" ht="22.5">
       <c r="A110" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -16344,7 +16330,7 @@
       <c r="P110" s="157"/>
       <c r="Q110" s="157"/>
     </row>
-    <row r="111" spans="1:17" ht="22">
+    <row r="111" spans="1:17" ht="22.5">
       <c r="A111" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -16384,7 +16370,7 @@
       <c r="P111" s="34"/>
       <c r="Q111" s="34"/>
     </row>
-    <row r="112" spans="1:17" ht="22">
+    <row r="112" spans="1:17" ht="22.5">
       <c r="A112" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -16418,7 +16404,7 @@
       <c r="P112" s="34"/>
       <c r="Q112" s="34"/>
     </row>
-    <row r="113" spans="1:17" ht="22">
+    <row r="113" spans="1:17" ht="22.5">
       <c r="A113" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -16450,7 +16436,7 @@
       <c r="P113" s="34"/>
       <c r="Q113" s="34"/>
     </row>
-    <row r="114" spans="1:17" ht="22">
+    <row r="114" spans="1:17" ht="22.5">
       <c r="A114" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -16482,7 +16468,7 @@
       <c r="P114" s="34"/>
       <c r="Q114" s="34"/>
     </row>
-    <row r="115" spans="1:17" ht="22">
+    <row r="115" spans="1:17" ht="22.5">
       <c r="A115" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -16516,7 +16502,7 @@
       <c r="P115" s="34"/>
       <c r="Q115" s="34"/>
     </row>
-    <row r="116" spans="1:17" ht="22">
+    <row r="116" spans="1:17" ht="22.5">
       <c r="A116" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -16548,7 +16534,7 @@
       <c r="P116" s="34"/>
       <c r="Q116" s="34"/>
     </row>
-    <row r="117" spans="1:17" ht="22">
+    <row r="117" spans="1:17" ht="22.5">
       <c r="A117" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -16580,7 +16566,7 @@
       <c r="P117" s="34"/>
       <c r="Q117" s="34"/>
     </row>
-    <row r="118" spans="1:17" ht="22">
+    <row r="118" spans="1:17" ht="22.5">
       <c r="A118" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -16612,7 +16598,7 @@
       <c r="P118" s="34"/>
       <c r="Q118" s="34"/>
     </row>
-    <row r="119" spans="1:17" ht="33">
+    <row r="119" spans="1:17" ht="33.75">
       <c r="A119" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -16646,7 +16632,7 @@
       <c r="P119" s="157"/>
       <c r="Q119" s="157"/>
     </row>
-    <row r="120" spans="1:17" ht="33">
+    <row r="120" spans="1:17" ht="33.75">
       <c r="A120" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -16680,7 +16666,7 @@
       <c r="P120" s="34"/>
       <c r="Q120" s="34"/>
     </row>
-    <row r="121" spans="1:17" ht="33">
+    <row r="121" spans="1:17" ht="33.75">
       <c r="A121" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -16712,7 +16698,7 @@
       <c r="P121" s="34"/>
       <c r="Q121" s="34"/>
     </row>
-    <row r="122" spans="1:17" ht="44">
+    <row r="122" spans="1:17" ht="45">
       <c r="A122" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -16746,7 +16732,7 @@
       <c r="P122" s="157"/>
       <c r="Q122" s="157"/>
     </row>
-    <row r="123" spans="1:17" ht="44">
+    <row r="123" spans="1:17" ht="45">
       <c r="A123" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -16780,7 +16766,7 @@
       <c r="P123" s="157"/>
       <c r="Q123" s="157"/>
     </row>
-    <row r="124" spans="1:17" ht="33">
+    <row r="124" spans="1:17" ht="33.75">
       <c r="A124" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -16814,7 +16800,7 @@
       <c r="P124" s="157"/>
       <c r="Q124" s="157"/>
     </row>
-    <row r="125" spans="1:17" ht="33">
+    <row r="125" spans="1:17" ht="33.75">
       <c r="A125" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -16848,7 +16834,7 @@
       <c r="P125" s="34"/>
       <c r="Q125" s="34"/>
     </row>
-    <row r="126" spans="1:17" ht="33">
+    <row r="126" spans="1:17" ht="33.75">
       <c r="A126" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -16884,7 +16870,7 @@
       <c r="P126" s="34"/>
       <c r="Q126" s="34"/>
     </row>
-    <row r="127" spans="1:17" ht="33">
+    <row r="127" spans="1:17" ht="33.75">
       <c r="A127" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -16924,7 +16910,7 @@
       <c r="P127" s="157"/>
       <c r="Q127" s="157"/>
     </row>
-    <row r="128" spans="1:17" ht="22">
+    <row r="128" spans="1:17" ht="22.5">
       <c r="A128" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -16958,7 +16944,7 @@
       <c r="P128" s="34"/>
       <c r="Q128" s="34"/>
     </row>
-    <row r="129" spans="1:17" ht="22">
+    <row r="129" spans="1:17" ht="22.5">
       <c r="A129" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -16990,7 +16976,7 @@
       <c r="P129" s="34"/>
       <c r="Q129" s="34"/>
     </row>
-    <row r="130" spans="1:17" ht="44">
+    <row r="130" spans="1:17" ht="45">
       <c r="A130" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -17022,7 +17008,7 @@
       <c r="P130" s="34"/>
       <c r="Q130" s="34"/>
     </row>
-    <row r="131" spans="1:17" ht="33">
+    <row r="131" spans="1:17" ht="33.75">
       <c r="A131" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -17064,7 +17050,7 @@
       <c r="P131" s="157"/>
       <c r="Q131" s="157"/>
     </row>
-    <row r="132" spans="1:17" ht="33">
+    <row r="132" spans="1:17" ht="33.75">
       <c r="A132" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -17100,7 +17086,7 @@
       <c r="P132" s="157"/>
       <c r="Q132" s="157"/>
     </row>
-    <row r="133" spans="1:17" ht="33">
+    <row r="133" spans="1:17" ht="33.75">
       <c r="A133" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -17134,7 +17120,7 @@
       <c r="P133" s="157"/>
       <c r="Q133" s="157"/>
     </row>
-    <row r="134" spans="1:17" ht="33">
+    <row r="134" spans="1:17" ht="33.75">
       <c r="A134" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -17168,7 +17154,7 @@
       <c r="P134" s="157"/>
       <c r="Q134" s="157"/>
     </row>
-    <row r="135" spans="1:17" ht="22">
+    <row r="135" spans="1:17" ht="22.5">
       <c r="A135" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -17204,7 +17190,7 @@
       <c r="P135" s="157"/>
       <c r="Q135" s="157"/>
     </row>
-    <row r="136" spans="1:17" ht="33">
+    <row r="136" spans="1:17" ht="33.75">
       <c r="A136" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -17238,7 +17224,7 @@
       <c r="P136" s="157"/>
       <c r="Q136" s="157"/>
     </row>
-    <row r="137" spans="1:17" ht="33">
+    <row r="137" spans="1:17" ht="33.75">
       <c r="A137" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -17274,7 +17260,7 @@
       <c r="P137" s="34"/>
       <c r="Q137" s="34"/>
     </row>
-    <row r="138" spans="1:17" ht="33">
+    <row r="138" spans="1:17" ht="33.75">
       <c r="A138" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -17312,7 +17298,7 @@
       <c r="P138" s="34"/>
       <c r="Q138" s="34"/>
     </row>
-    <row r="139" spans="1:17" ht="33">
+    <row r="139" spans="1:17" ht="33.75">
       <c r="A139" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -17346,7 +17332,7 @@
       <c r="P139" s="34"/>
       <c r="Q139" s="34"/>
     </row>
-    <row r="140" spans="1:17" ht="33">
+    <row r="140" spans="1:17" ht="33.75">
       <c r="A140" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -17380,7 +17366,7 @@
       <c r="P140" s="34"/>
       <c r="Q140" s="34"/>
     </row>
-    <row r="141" spans="1:17" ht="33">
+    <row r="141" spans="1:17" ht="33.75">
       <c r="A141" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -17416,7 +17402,7 @@
       <c r="P141" s="157"/>
       <c r="Q141" s="157"/>
     </row>
-    <row r="142" spans="1:17" ht="33">
+    <row r="142" spans="1:17" ht="33.75">
       <c r="A142" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -17450,7 +17436,7 @@
       <c r="P142" s="34"/>
       <c r="Q142" s="34"/>
     </row>
-    <row r="143" spans="1:17" ht="22">
+    <row r="143" spans="1:17" ht="22.5">
       <c r="A143" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -17486,7 +17472,7 @@
       <c r="P143" s="157"/>
       <c r="Q143" s="157"/>
     </row>
-    <row r="144" spans="1:17" ht="22">
+    <row r="144" spans="1:17" ht="22.5">
       <c r="A144" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -17520,7 +17506,7 @@
       <c r="P144" s="157"/>
       <c r="Q144" s="157"/>
     </row>
-    <row r="145" spans="1:17" ht="22">
+    <row r="145" spans="1:17" ht="22.5">
       <c r="A145" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -17554,7 +17540,7 @@
       <c r="P145" s="157"/>
       <c r="Q145" s="157"/>
     </row>
-    <row r="146" spans="1:17" ht="22">
+    <row r="146" spans="1:17" ht="22.5">
       <c r="A146" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -17588,7 +17574,7 @@
       <c r="P146" s="157"/>
       <c r="Q146" s="157"/>
     </row>
-    <row r="147" spans="1:17" ht="22">
+    <row r="147" spans="1:17" ht="22.5">
       <c r="A147" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -17622,7 +17608,7 @@
       <c r="P147" s="157"/>
       <c r="Q147" s="157"/>
     </row>
-    <row r="148" spans="1:17" ht="22">
+    <row r="148" spans="1:17" ht="22.5">
       <c r="A148" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -17656,7 +17642,7 @@
       <c r="P148" s="157"/>
       <c r="Q148" s="157"/>
     </row>
-    <row r="149" spans="1:17" ht="22">
+    <row r="149" spans="1:17" ht="22.5">
       <c r="A149" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -17692,7 +17678,7 @@
       <c r="P149" s="34"/>
       <c r="Q149" s="34"/>
     </row>
-    <row r="150" spans="1:17" ht="22">
+    <row r="150" spans="1:17" ht="22.5">
       <c r="A150" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -17724,7 +17710,7 @@
       <c r="P150" s="34"/>
       <c r="Q150" s="34"/>
     </row>
-    <row r="151" spans="1:17" ht="33">
+    <row r="151" spans="1:17" ht="33.75">
       <c r="A151" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -17758,7 +17744,7 @@
       <c r="P151" s="34"/>
       <c r="Q151" s="34"/>
     </row>
-    <row r="152" spans="1:17" ht="33">
+    <row r="152" spans="1:17" ht="33.75">
       <c r="A152" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -17790,7 +17776,7 @@
       <c r="P152" s="34"/>
       <c r="Q152" s="34"/>
     </row>
-    <row r="153" spans="1:17" ht="33">
+    <row r="153" spans="1:17" ht="33.75">
       <c r="A153" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -17822,7 +17808,7 @@
       <c r="P153" s="34"/>
       <c r="Q153" s="34"/>
     </row>
-    <row r="154" spans="1:17" ht="33">
+    <row r="154" spans="1:17" ht="33.75">
       <c r="A154" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -17854,7 +17840,7 @@
       <c r="P154" s="34"/>
       <c r="Q154" s="34"/>
     </row>
-    <row r="155" spans="1:17" ht="33">
+    <row r="155" spans="1:17" ht="33.75">
       <c r="A155" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -17886,7 +17872,7 @@
       <c r="P155" s="34"/>
       <c r="Q155" s="34"/>
     </row>
-    <row r="156" spans="1:17" ht="22">
+    <row r="156" spans="1:17" ht="22.5">
       <c r="A156" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -17918,7 +17904,7 @@
       <c r="P156" s="34"/>
       <c r="Q156" s="34"/>
     </row>
-    <row r="157" spans="1:17" ht="22">
+    <row r="157" spans="1:17" ht="22.5">
       <c r="A157" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -17950,7 +17936,7 @@
       <c r="P157" s="34"/>
       <c r="Q157" s="34"/>
     </row>
-    <row r="158" spans="1:17" ht="33">
+    <row r="158" spans="1:17" ht="33.75">
       <c r="A158" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -17982,7 +17968,7 @@
       <c r="P158" s="34"/>
       <c r="Q158" s="34"/>
     </row>
-    <row r="159" spans="1:17" ht="33">
+    <row r="159" spans="1:17" ht="33.75">
       <c r="A159" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -18014,7 +18000,7 @@
       <c r="P159" s="34"/>
       <c r="Q159" s="34"/>
     </row>
-    <row r="160" spans="1:17" ht="33">
+    <row r="160" spans="1:17" ht="33.75">
       <c r="A160" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -18046,7 +18032,7 @@
       <c r="P160" s="34"/>
       <c r="Q160" s="34"/>
     </row>
-    <row r="161" spans="1:17" ht="33">
+    <row r="161" spans="1:17" ht="33.75">
       <c r="A161" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -18144,7 +18130,7 @@
       <c r="P163" s="34"/>
       <c r="Q163" s="34"/>
     </row>
-    <row r="164" spans="1:17" ht="22">
+    <row r="164" spans="1:17" ht="22.5">
       <c r="A164" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -18176,7 +18162,7 @@
       <c r="P164" s="34"/>
       <c r="Q164" s="34"/>
     </row>
-    <row r="165" spans="1:17" ht="22">
+    <row r="165" spans="1:17" ht="22.5">
       <c r="A165" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -18208,7 +18194,7 @@
       <c r="P165" s="34"/>
       <c r="Q165" s="34"/>
     </row>
-    <row r="166" spans="1:17" ht="22">
+    <row r="166" spans="1:17" ht="22.5">
       <c r="A166" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -18240,7 +18226,7 @@
       <c r="P166" s="34"/>
       <c r="Q166" s="34"/>
     </row>
-    <row r="167" spans="1:17" ht="33">
+    <row r="167" spans="1:17" ht="33.75">
       <c r="A167" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -18274,7 +18260,7 @@
       <c r="P167" s="157"/>
       <c r="Q167" s="157"/>
     </row>
-    <row r="168" spans="1:17" ht="22">
+    <row r="168" spans="1:17" ht="22.5">
       <c r="A168" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -18308,7 +18294,7 @@
       <c r="P168" s="157"/>
       <c r="Q168" s="157"/>
     </row>
-    <row r="169" spans="1:17" ht="22">
+    <row r="169" spans="1:17" ht="22.5">
       <c r="A169" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -18342,7 +18328,7 @@
       <c r="P169" s="34"/>
       <c r="Q169" s="34"/>
     </row>
-    <row r="170" spans="1:17" ht="33">
+    <row r="170" spans="1:17" ht="33.75">
       <c r="A170" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -18374,7 +18360,7 @@
       <c r="P170" s="34"/>
       <c r="Q170" s="34"/>
     </row>
-    <row r="171" spans="1:17" ht="33">
+    <row r="171" spans="1:17" ht="33.75">
       <c r="A171" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -18406,7 +18392,7 @@
       <c r="P171" s="34"/>
       <c r="Q171" s="34"/>
     </row>
-    <row r="172" spans="1:17" ht="44">
+    <row r="172" spans="1:17" ht="45">
       <c r="A172" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -18438,7 +18424,7 @@
       <c r="P172" s="34"/>
       <c r="Q172" s="34"/>
     </row>
-    <row r="173" spans="1:17" ht="44">
+    <row r="173" spans="1:17" ht="45">
       <c r="A173" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -18470,7 +18456,7 @@
       <c r="P173" s="34"/>
       <c r="Q173" s="34"/>
     </row>
-    <row r="174" spans="1:17" ht="33">
+    <row r="174" spans="1:17" ht="33.75">
       <c r="A174" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -18502,7 +18488,7 @@
       <c r="P174" s="34"/>
       <c r="Q174" s="34"/>
     </row>
-    <row r="175" spans="1:17" ht="44">
+    <row r="175" spans="1:17" ht="45">
       <c r="A175" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -18536,7 +18522,7 @@
       <c r="P175" s="157"/>
       <c r="Q175" s="157"/>
     </row>
-    <row r="176" spans="1:17" ht="44">
+    <row r="176" spans="1:17" ht="45">
       <c r="A176" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -18570,7 +18556,7 @@
       <c r="P176" s="157"/>
       <c r="Q176" s="157"/>
     </row>
-    <row r="177" spans="1:17" ht="33">
+    <row r="177" spans="1:17" ht="33.75">
       <c r="A177" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -18604,7 +18590,7 @@
       <c r="P177" s="157"/>
       <c r="Q177" s="157"/>
     </row>
-    <row r="178" spans="1:17" ht="33">
+    <row r="178" spans="1:17" ht="33.75">
       <c r="A178" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -18638,7 +18624,7 @@
       <c r="P178" s="34"/>
       <c r="Q178" s="34"/>
     </row>
-    <row r="179" spans="1:17" ht="22">
+    <row r="179" spans="1:17" ht="22.5">
       <c r="A179" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -18674,7 +18660,7 @@
       <c r="P179" s="157"/>
       <c r="Q179" s="157"/>
     </row>
-    <row r="180" spans="1:17" ht="22">
+    <row r="180" spans="1:17" ht="22.5">
       <c r="A180" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -18716,7 +18702,7 @@
       <c r="P180" s="157"/>
       <c r="Q180" s="157"/>
     </row>
-    <row r="181" spans="1:17" ht="22">
+    <row r="181" spans="1:17" ht="22.5">
       <c r="A181" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -18754,7 +18740,7 @@
       <c r="P181" s="157"/>
       <c r="Q181" s="157"/>
     </row>
-    <row r="182" spans="1:17" ht="22">
+    <row r="182" spans="1:17" ht="22.5">
       <c r="A182" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -18792,7 +18778,7 @@
       <c r="P182" s="157"/>
       <c r="Q182" s="157"/>
     </row>
-    <row r="183" spans="1:17" ht="22">
+    <row r="183" spans="1:17" ht="22.5">
       <c r="A183" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -18834,7 +18820,7 @@
       <c r="P183" s="157"/>
       <c r="Q183" s="157"/>
     </row>
-    <row r="184" spans="1:17" ht="22">
+    <row r="184" spans="1:17" ht="22.5">
       <c r="A184" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -18870,7 +18856,7 @@
       <c r="P184" s="157"/>
       <c r="Q184" s="157"/>
     </row>
-    <row r="185" spans="1:17" ht="22">
+    <row r="185" spans="1:17" ht="22.5">
       <c r="A185" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -18904,7 +18890,7 @@
       <c r="P185" s="157"/>
       <c r="Q185" s="157"/>
     </row>
-    <row r="186" spans="1:17" ht="22">
+    <row r="186" spans="1:17" ht="22.5">
       <c r="A186" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -18940,7 +18926,7 @@
       <c r="P186" s="157"/>
       <c r="Q186" s="157"/>
     </row>
-    <row r="187" spans="1:17" ht="22">
+    <row r="187" spans="1:17" ht="22.5">
       <c r="A187" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -18974,7 +18960,7 @@
       <c r="P187" s="157"/>
       <c r="Q187" s="157"/>
     </row>
-    <row r="188" spans="1:17" ht="33">
+    <row r="188" spans="1:17" ht="33.75">
       <c r="A188" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -19012,7 +18998,7 @@
       <c r="P188" s="157"/>
       <c r="Q188" s="157"/>
     </row>
-    <row r="189" spans="1:17" ht="22">
+    <row r="189" spans="1:17" ht="22.5">
       <c r="A189" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -19052,7 +19038,7 @@
       <c r="P189" s="157"/>
       <c r="Q189" s="157"/>
     </row>
-    <row r="190" spans="1:17" ht="22">
+    <row r="190" spans="1:17" ht="22.5">
       <c r="A190" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -19086,7 +19072,7 @@
       <c r="P190" s="157"/>
       <c r="Q190" s="157"/>
     </row>
-    <row r="191" spans="1:17" ht="22">
+    <row r="191" spans="1:17" ht="22.5">
       <c r="A191" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -19120,7 +19106,7 @@
       <c r="P191" s="157"/>
       <c r="Q191" s="157"/>
     </row>
-    <row r="192" spans="1:17" ht="22">
+    <row r="192" spans="1:17" ht="22.5">
       <c r="A192" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -19154,7 +19140,7 @@
       <c r="P192" s="157"/>
       <c r="Q192" s="157"/>
     </row>
-    <row r="193" spans="1:17" ht="22">
+    <row r="193" spans="1:17" ht="22.5">
       <c r="A193" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -19188,7 +19174,7 @@
       <c r="P193" s="157"/>
       <c r="Q193" s="157"/>
     </row>
-    <row r="194" spans="1:17" ht="22">
+    <row r="194" spans="1:17" ht="22.5">
       <c r="A194" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -19222,7 +19208,7 @@
       <c r="P194" s="157"/>
       <c r="Q194" s="157"/>
     </row>
-    <row r="195" spans="1:17" ht="22">
+    <row r="195" spans="1:17" ht="22.5">
       <c r="A195" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -19256,7 +19242,7 @@
       <c r="P195" s="157"/>
       <c r="Q195" s="157"/>
     </row>
-    <row r="196" spans="1:17" ht="22">
+    <row r="196" spans="1:17" ht="22.5">
       <c r="A196" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -19292,7 +19278,7 @@
       <c r="P196" s="157"/>
       <c r="Q196" s="157"/>
     </row>
-    <row r="197" spans="1:17" ht="22">
+    <row r="197" spans="1:17" ht="22.5">
       <c r="A197" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -19330,7 +19316,7 @@
       <c r="P197" s="157"/>
       <c r="Q197" s="157"/>
     </row>
-    <row r="198" spans="1:17" ht="22">
+    <row r="198" spans="1:17" ht="22.5">
       <c r="A198" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -19364,7 +19350,7 @@
       <c r="P198" s="157"/>
       <c r="Q198" s="157"/>
     </row>
-    <row r="199" spans="1:17" ht="22">
+    <row r="199" spans="1:17" ht="22.5">
       <c r="A199" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -19398,7 +19384,7 @@
       <c r="P199" s="157"/>
       <c r="Q199" s="157"/>
     </row>
-    <row r="200" spans="1:17" ht="22">
+    <row r="200" spans="1:17" ht="22.5">
       <c r="A200" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -19432,7 +19418,7 @@
       <c r="P200" s="157"/>
       <c r="Q200" s="157"/>
     </row>
-    <row r="201" spans="1:17" ht="33">
+    <row r="201" spans="1:17" ht="33.75">
       <c r="A201" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -19466,7 +19452,7 @@
       <c r="P201" s="157"/>
       <c r="Q201" s="157"/>
     </row>
-    <row r="202" spans="1:17" ht="33">
+    <row r="202" spans="1:17" ht="33.75">
       <c r="A202" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -19500,7 +19486,7 @@
       <c r="P202" s="157"/>
       <c r="Q202" s="157"/>
     </row>
-    <row r="203" spans="1:17" ht="44">
+    <row r="203" spans="1:17" ht="45">
       <c r="A203" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -19534,7 +19520,7 @@
       <c r="P203" s="157"/>
       <c r="Q203" s="157"/>
     </row>
-    <row r="204" spans="1:17" ht="33">
+    <row r="204" spans="1:17" ht="33.75">
       <c r="A204" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -19568,7 +19554,7 @@
       <c r="P204" s="157"/>
       <c r="Q204" s="157"/>
     </row>
-    <row r="205" spans="1:17" ht="33">
+    <row r="205" spans="1:17" ht="33.75">
       <c r="A205" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -19602,7 +19588,7 @@
       <c r="P205" s="157"/>
       <c r="Q205" s="157"/>
     </row>
-    <row r="206" spans="1:17" ht="22">
+    <row r="206" spans="1:17" ht="22.5">
       <c r="A206" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -19636,7 +19622,7 @@
       <c r="P206" s="157"/>
       <c r="Q206" s="157"/>
     </row>
-    <row r="207" spans="1:17" ht="22">
+    <row r="207" spans="1:17" ht="22.5">
       <c r="A207" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -19670,7 +19656,7 @@
       <c r="P207" s="157"/>
       <c r="Q207" s="157"/>
     </row>
-    <row r="208" spans="1:17" ht="33">
+    <row r="208" spans="1:17" ht="33.75">
       <c r="A208" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -19704,7 +19690,7 @@
       <c r="P208" s="157"/>
       <c r="Q208" s="157"/>
     </row>
-    <row r="209" spans="1:17" ht="22">
+    <row r="209" spans="1:17" ht="22.5">
       <c r="A209" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -19738,7 +19724,7 @@
       <c r="P209" s="157"/>
       <c r="Q209" s="157"/>
     </row>
-    <row r="210" spans="1:17" ht="22">
+    <row r="210" spans="1:17" ht="22.5">
       <c r="A210" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -19776,7 +19762,7 @@
       <c r="P210" s="157"/>
       <c r="Q210" s="157"/>
     </row>
-    <row r="211" spans="1:17" ht="22">
+    <row r="211" spans="1:17" ht="22.5">
       <c r="A211" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -19810,7 +19796,7 @@
       <c r="P211" s="157"/>
       <c r="Q211" s="157"/>
     </row>
-    <row r="212" spans="1:17" ht="22">
+    <row r="212" spans="1:17" ht="22.5">
       <c r="A212" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -19844,7 +19830,7 @@
       <c r="P212" s="157"/>
       <c r="Q212" s="157"/>
     </row>
-    <row r="213" spans="1:17" ht="22">
+    <row r="213" spans="1:17" ht="22.5">
       <c r="A213" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -19878,7 +19864,7 @@
       <c r="P213" s="157"/>
       <c r="Q213" s="157"/>
     </row>
-    <row r="214" spans="1:17" ht="22">
+    <row r="214" spans="1:17" ht="22.5">
       <c r="A214" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -19912,7 +19898,7 @@
       <c r="P214" s="157"/>
       <c r="Q214" s="157"/>
     </row>
-    <row r="215" spans="1:17" ht="44">
+    <row r="215" spans="1:17" ht="45">
       <c r="A215" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -19946,7 +19932,7 @@
       <c r="P215" s="157"/>
       <c r="Q215" s="157"/>
     </row>
-    <row r="216" spans="1:17" ht="33">
+    <row r="216" spans="1:17" ht="33.75">
       <c r="A216" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -19980,7 +19966,7 @@
       <c r="P216" s="157"/>
       <c r="Q216" s="157"/>
     </row>
-    <row r="217" spans="1:17" ht="33">
+    <row r="217" spans="1:17" ht="33.75">
       <c r="A217" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -20014,7 +20000,7 @@
       <c r="P217" s="157"/>
       <c r="Q217" s="157"/>
     </row>
-    <row r="218" spans="1:17" ht="44">
+    <row r="218" spans="1:17" ht="45">
       <c r="A218" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -20048,7 +20034,7 @@
       <c r="P218" s="157"/>
       <c r="Q218" s="157"/>
     </row>
-    <row r="219" spans="1:17" ht="33">
+    <row r="219" spans="1:17" ht="33.75">
       <c r="A219" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -20082,7 +20068,7 @@
       <c r="P219" s="157"/>
       <c r="Q219" s="157"/>
     </row>
-    <row r="220" spans="1:17" ht="33">
+    <row r="220" spans="1:17" ht="33.75">
       <c r="A220" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -20116,7 +20102,7 @@
       <c r="P220" s="157"/>
       <c r="Q220" s="157"/>
     </row>
-    <row r="221" spans="1:17" ht="22">
+    <row r="221" spans="1:17" ht="22.5">
       <c r="A221" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -20150,7 +20136,7 @@
       <c r="P221" s="157"/>
       <c r="Q221" s="157"/>
     </row>
-    <row r="222" spans="1:17" ht="22">
+    <row r="222" spans="1:17" ht="22.5">
       <c r="A222" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -20184,7 +20170,7 @@
       <c r="P222" s="157"/>
       <c r="Q222" s="157"/>
     </row>
-    <row r="223" spans="1:17" ht="33">
+    <row r="223" spans="1:17" ht="33.75">
       <c r="A223" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -20218,7 +20204,7 @@
       <c r="P223" s="157"/>
       <c r="Q223" s="157"/>
     </row>
-    <row r="224" spans="1:17" ht="22">
+    <row r="224" spans="1:17" ht="22.5">
       <c r="A224" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -20252,7 +20238,7 @@
       <c r="P224" s="157"/>
       <c r="Q224" s="157"/>
     </row>
-    <row r="225" spans="1:17" ht="44">
+    <row r="225" spans="1:17" ht="45">
       <c r="A225" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -20288,7 +20274,7 @@
       <c r="P225" s="157"/>
       <c r="Q225" s="157"/>
     </row>
-    <row r="226" spans="1:17" ht="44">
+    <row r="226" spans="1:17" ht="45">
       <c r="A226" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -20322,7 +20308,7 @@
       <c r="P226" s="157"/>
       <c r="Q226" s="157"/>
     </row>
-    <row r="227" spans="1:17" ht="33">
+    <row r="227" spans="1:17" ht="33.75">
       <c r="A227" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -20356,7 +20342,7 @@
       <c r="P227" s="157"/>
       <c r="Q227" s="157"/>
     </row>
-    <row r="228" spans="1:17" ht="33">
+    <row r="228" spans="1:17" ht="33.75">
       <c r="A228" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -20392,7 +20378,7 @@
       <c r="P228" s="157"/>
       <c r="Q228" s="157"/>
     </row>
-    <row r="229" spans="1:17" ht="22">
+    <row r="229" spans="1:17" ht="22.5">
       <c r="A229" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -20428,7 +20414,7 @@
       <c r="P229" s="157"/>
       <c r="Q229" s="157"/>
     </row>
-    <row r="230" spans="1:17" ht="22">
+    <row r="230" spans="1:17" ht="22.5">
       <c r="A230" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -20470,7 +20456,7 @@
       <c r="P230" s="157"/>
       <c r="Q230" s="157"/>
     </row>
-    <row r="231" spans="1:17" ht="22">
+    <row r="231" spans="1:17" ht="22.5">
       <c r="A231" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -20506,7 +20492,7 @@
       <c r="P231" s="157"/>
       <c r="Q231" s="157"/>
     </row>
-    <row r="232" spans="1:17" ht="22">
+    <row r="232" spans="1:17" ht="22.5">
       <c r="A232" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -20540,7 +20526,7 @@
       <c r="P232" s="157"/>
       <c r="Q232" s="157"/>
     </row>
-    <row r="233" spans="1:17" ht="22">
+    <row r="233" spans="1:17" ht="22.5">
       <c r="A233" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -20574,7 +20560,7 @@
       <c r="P233" s="157"/>
       <c r="Q233" s="157"/>
     </row>
-    <row r="234" spans="1:17" ht="22">
+    <row r="234" spans="1:17" ht="22.5">
       <c r="A234" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -20608,7 +20594,7 @@
       <c r="P234" s="157"/>
       <c r="Q234" s="157"/>
     </row>
-    <row r="235" spans="1:17" ht="33">
+    <row r="235" spans="1:17" ht="33.75">
       <c r="A235" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -20642,7 +20628,7 @@
       <c r="P235" s="157"/>
       <c r="Q235" s="157"/>
     </row>
-    <row r="236" spans="1:17" ht="33">
+    <row r="236" spans="1:17" ht="33.75">
       <c r="A236" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -20678,7 +20664,7 @@
       <c r="P236" s="157"/>
       <c r="Q236" s="157"/>
     </row>
-    <row r="237" spans="1:17" ht="33">
+    <row r="237" spans="1:17" ht="33.75">
       <c r="A237" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -20712,7 +20698,7 @@
       <c r="P237" s="157"/>
       <c r="Q237" s="157"/>
     </row>
-    <row r="238" spans="1:17" ht="44">
+    <row r="238" spans="1:17" ht="45">
       <c r="A238" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -20746,7 +20732,7 @@
       <c r="P238" s="157"/>
       <c r="Q238" s="157"/>
     </row>
-    <row r="239" spans="1:17" ht="44">
+    <row r="239" spans="1:17" ht="45">
       <c r="A239" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -20780,7 +20766,7 @@
       <c r="P239" s="157"/>
       <c r="Q239" s="157"/>
     </row>
-    <row r="240" spans="1:17" ht="33">
+    <row r="240" spans="1:17" ht="33.75">
       <c r="A240" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -20814,7 +20800,7 @@
       <c r="P240" s="157"/>
       <c r="Q240" s="157"/>
     </row>
-    <row r="241" spans="1:17" ht="33">
+    <row r="241" spans="1:17" ht="33.75">
       <c r="A241" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -20850,7 +20836,7 @@
       <c r="P241" s="157"/>
       <c r="Q241" s="157"/>
     </row>
-    <row r="242" spans="1:17" ht="33">
+    <row r="242" spans="1:17" ht="33.75">
       <c r="A242" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -20890,7 +20876,7 @@
       <c r="P242" s="157"/>
       <c r="Q242" s="157"/>
     </row>
-    <row r="243" spans="1:17" ht="22">
+    <row r="243" spans="1:17" ht="22.5">
       <c r="A243" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -20932,7 +20918,7 @@
       <c r="P243" s="157"/>
       <c r="Q243" s="157"/>
     </row>
-    <row r="244" spans="1:17" ht="22">
+    <row r="244" spans="1:17" ht="22.5">
       <c r="A244" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -20966,7 +20952,7 @@
       <c r="P244" s="157"/>
       <c r="Q244" s="157"/>
     </row>
-    <row r="245" spans="1:17" ht="33">
+    <row r="245" spans="1:17" ht="33.75">
       <c r="A245" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -21004,7 +20990,7 @@
       <c r="P245" s="157"/>
       <c r="Q245" s="157"/>
     </row>
-    <row r="246" spans="1:17" ht="33">
+    <row r="246" spans="1:17" ht="33.75">
       <c r="A246" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -21038,7 +21024,7 @@
       <c r="P246" s="157"/>
       <c r="Q246" s="157"/>
     </row>
-    <row r="247" spans="1:17" ht="33">
+    <row r="247" spans="1:17" ht="33.75">
       <c r="A247" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -21078,7 +21064,7 @@
       <c r="P247" s="157"/>
       <c r="Q247" s="157"/>
     </row>
-    <row r="248" spans="1:17" ht="33">
+    <row r="248" spans="1:17" ht="33.75">
       <c r="A248" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -21114,7 +21100,7 @@
       <c r="P248" s="157"/>
       <c r="Q248" s="157"/>
     </row>
-    <row r="249" spans="1:17" ht="33">
+    <row r="249" spans="1:17" ht="33.75">
       <c r="A249" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -21150,7 +21136,7 @@
       <c r="P249" s="157"/>
       <c r="Q249" s="157"/>
     </row>
-    <row r="250" spans="1:17" ht="33">
+    <row r="250" spans="1:17" ht="33.75">
       <c r="A250" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -21186,7 +21172,7 @@
       <c r="P250" s="157"/>
       <c r="Q250" s="157"/>
     </row>
-    <row r="251" spans="1:17" ht="22">
+    <row r="251" spans="1:17" ht="22.5">
       <c r="A251" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -21224,7 +21210,7 @@
       <c r="P251" s="157"/>
       <c r="Q251" s="157"/>
     </row>
-    <row r="252" spans="1:17" ht="22">
+    <row r="252" spans="1:17" ht="22.5">
       <c r="A252" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -21258,7 +21244,7 @@
       <c r="P252" s="157"/>
       <c r="Q252" s="157"/>
     </row>
-    <row r="253" spans="1:17" ht="33">
+    <row r="253" spans="1:17" ht="33.75">
       <c r="A253" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -21294,7 +21280,7 @@
       <c r="P253" s="157"/>
       <c r="Q253" s="157"/>
     </row>
-    <row r="254" spans="1:17" ht="33">
+    <row r="254" spans="1:17" ht="33.75">
       <c r="A254" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -21328,7 +21314,7 @@
       <c r="P254" s="157"/>
       <c r="Q254" s="157"/>
     </row>
-    <row r="255" spans="1:17" ht="33">
+    <row r="255" spans="1:17" ht="33.75">
       <c r="A255" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -21362,7 +21348,7 @@
       <c r="P255" s="157"/>
       <c r="Q255" s="157"/>
     </row>
-    <row r="256" spans="1:17" ht="33">
+    <row r="256" spans="1:17" ht="33.75">
       <c r="A256" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -21396,7 +21382,7 @@
       <c r="P256" s="157"/>
       <c r="Q256" s="157"/>
     </row>
-    <row r="257" spans="1:17" ht="33">
+    <row r="257" spans="1:17" ht="33.75">
       <c r="A257" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -21430,7 +21416,7 @@
       <c r="P257" s="157"/>
       <c r="Q257" s="157"/>
     </row>
-    <row r="258" spans="1:17" ht="22">
+    <row r="258" spans="1:17" ht="22.5">
       <c r="A258" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -21464,7 +21450,7 @@
       <c r="P258" s="157"/>
       <c r="Q258" s="157"/>
     </row>
-    <row r="259" spans="1:17" ht="22">
+    <row r="259" spans="1:17" ht="22.5">
       <c r="A259" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -21498,7 +21484,7 @@
       <c r="P259" s="157"/>
       <c r="Q259" s="157"/>
     </row>
-    <row r="260" spans="1:17" ht="33">
+    <row r="260" spans="1:17" ht="33.75">
       <c r="A260" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -21532,7 +21518,7 @@
       <c r="P260" s="157"/>
       <c r="Q260" s="157"/>
     </row>
-    <row r="261" spans="1:17" ht="33">
+    <row r="261" spans="1:17" ht="33.75">
       <c r="A261" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -21566,7 +21552,7 @@
       <c r="P261" s="157"/>
       <c r="Q261" s="157"/>
     </row>
-    <row r="262" spans="1:17" ht="33">
+    <row r="262" spans="1:17" ht="33.75">
       <c r="A262" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -21600,7 +21586,7 @@
       <c r="P262" s="157"/>
       <c r="Q262" s="157"/>
     </row>
-    <row r="263" spans="1:17" ht="33">
+    <row r="263" spans="1:17" ht="33.75">
       <c r="A263" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -21704,7 +21690,7 @@
       <c r="P265" s="157"/>
       <c r="Q265" s="157"/>
     </row>
-    <row r="266" spans="1:17" ht="22">
+    <row r="266" spans="1:17" ht="22.5">
       <c r="A266" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -21738,7 +21724,7 @@
       <c r="P266" s="157"/>
       <c r="Q266" s="157"/>
     </row>
-    <row r="267" spans="1:17" ht="22">
+    <row r="267" spans="1:17" ht="22.5">
       <c r="A267" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -21772,7 +21758,7 @@
       <c r="P267" s="157"/>
       <c r="Q267" s="157"/>
     </row>
-    <row r="268" spans="1:17" ht="22">
+    <row r="268" spans="1:17" ht="22.5">
       <c r="A268" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -21806,7 +21792,7 @@
       <c r="P268" s="157"/>
       <c r="Q268" s="157"/>
     </row>
-    <row r="269" spans="1:17" ht="33">
+    <row r="269" spans="1:17" ht="33.75">
       <c r="A269" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -21840,7 +21826,7 @@
       <c r="P269" s="157"/>
       <c r="Q269" s="157"/>
     </row>
-    <row r="270" spans="1:17" ht="22">
+    <row r="270" spans="1:17" ht="22.5">
       <c r="A270" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -21876,7 +21862,7 @@
       <c r="P270" s="157"/>
       <c r="Q270" s="157"/>
     </row>
-    <row r="271" spans="1:17" ht="33">
+    <row r="271" spans="1:17" ht="33.75">
       <c r="A271" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -21910,7 +21896,7 @@
       <c r="P271" s="157"/>
       <c r="Q271" s="157"/>
     </row>
-    <row r="272" spans="1:17" ht="44">
+    <row r="272" spans="1:17" ht="45">
       <c r="A272" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -21944,7 +21930,7 @@
       <c r="P272" s="157"/>
       <c r="Q272" s="157"/>
     </row>
-    <row r="273" spans="1:17" ht="44">
+    <row r="273" spans="1:17" ht="45">
       <c r="A273" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -21978,7 +21964,7 @@
       <c r="P273" s="157"/>
       <c r="Q273" s="157"/>
     </row>
-    <row r="274" spans="1:17" ht="22">
+    <row r="274" spans="1:17" ht="22.5">
       <c r="A274" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -22012,7 +21998,7 @@
       <c r="P274" s="157"/>
       <c r="Q274" s="157"/>
     </row>
-    <row r="275" spans="1:17" ht="44">
+    <row r="275" spans="1:17" ht="45">
       <c r="A275" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -22046,7 +22032,7 @@
       <c r="P275" s="157"/>
       <c r="Q275" s="157"/>
     </row>
-    <row r="276" spans="1:17" ht="44">
+    <row r="276" spans="1:17" ht="45">
       <c r="A276" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -22080,7 +22066,7 @@
       <c r="P276" s="157"/>
       <c r="Q276" s="157"/>
     </row>
-    <row r="277" spans="1:17" ht="22">
+    <row r="277" spans="1:17" ht="22.5">
       <c r="A277" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -22114,7 +22100,7 @@
       <c r="P277" s="157"/>
       <c r="Q277" s="157"/>
     </row>
-    <row r="278" spans="1:17" ht="22">
+    <row r="278" spans="1:17" ht="22.5">
       <c r="A278" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -22150,7 +22136,7 @@
       <c r="P278" s="157"/>
       <c r="Q278" s="157"/>
     </row>
-    <row r="279" spans="1:17" ht="22">
+    <row r="279" spans="1:17" ht="22.5">
       <c r="A279" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -22190,7 +22176,7 @@
       <c r="P279" s="34"/>
       <c r="Q279" s="34"/>
     </row>
-    <row r="280" spans="1:17" ht="22">
+    <row r="280" spans="1:17" ht="22.5">
       <c r="A280" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -22222,7 +22208,7 @@
       <c r="P280" s="34"/>
       <c r="Q280" s="34"/>
     </row>
-    <row r="281" spans="1:17" ht="22">
+    <row r="281" spans="1:17" ht="22.5">
       <c r="A281" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -22254,7 +22240,7 @@
       <c r="P281" s="34"/>
       <c r="Q281" s="34"/>
     </row>
-    <row r="282" spans="1:17" ht="22">
+    <row r="282" spans="1:17" ht="22.5">
       <c r="A282" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -22286,7 +22272,7 @@
       <c r="P282" s="34"/>
       <c r="Q282" s="34"/>
     </row>
-    <row r="283" spans="1:17" ht="22">
+    <row r="283" spans="1:17" ht="22.5">
       <c r="A283" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -22324,7 +22310,7 @@
       <c r="P283" s="34"/>
       <c r="Q283" s="34"/>
     </row>
-    <row r="284" spans="1:17" ht="22">
+    <row r="284" spans="1:17" ht="22.5">
       <c r="A284" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -22358,7 +22344,7 @@
       <c r="P284" s="34"/>
       <c r="Q284" s="34"/>
     </row>
-    <row r="285" spans="1:17" ht="22">
+    <row r="285" spans="1:17" ht="22.5">
       <c r="A285" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -22392,7 +22378,7 @@
       <c r="P285" s="34"/>
       <c r="Q285" s="34"/>
     </row>
-    <row r="286" spans="1:17" ht="22">
+    <row r="286" spans="1:17" ht="22.5">
       <c r="A286" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -22426,7 +22412,7 @@
       <c r="P286" s="34"/>
       <c r="Q286" s="34"/>
     </row>
-    <row r="287" spans="1:17" ht="22">
+    <row r="287" spans="1:17" ht="22.5">
       <c r="A287" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -22462,7 +22448,7 @@
       <c r="P287" s="34"/>
       <c r="Q287" s="34"/>
     </row>
-    <row r="288" spans="1:17" ht="22">
+    <row r="288" spans="1:17" ht="22.5">
       <c r="A288" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -22494,7 +22480,7 @@
       <c r="P288" s="34"/>
       <c r="Q288" s="34"/>
     </row>
-    <row r="289" spans="1:17" ht="33">
+    <row r="289" spans="1:17" ht="33.75">
       <c r="A289" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -22526,7 +22512,7 @@
       <c r="P289" s="34"/>
       <c r="Q289" s="34"/>
     </row>
-    <row r="290" spans="1:17" ht="33">
+    <row r="290" spans="1:17" ht="33.75">
       <c r="A290" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -22558,7 +22544,7 @@
       <c r="P290" s="34"/>
       <c r="Q290" s="34"/>
     </row>
-    <row r="291" spans="1:17" ht="33">
+    <row r="291" spans="1:17" ht="33.75">
       <c r="A291" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -22590,7 +22576,7 @@
       <c r="P291" s="34"/>
       <c r="Q291" s="34"/>
     </row>
-    <row r="292" spans="1:17" ht="33">
+    <row r="292" spans="1:17" ht="33.75">
       <c r="A292" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -22622,7 +22608,7 @@
       <c r="P292" s="34"/>
       <c r="Q292" s="34"/>
     </row>
-    <row r="293" spans="1:17" ht="33">
+    <row r="293" spans="1:17" ht="33.75">
       <c r="A293" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -22654,7 +22640,7 @@
       <c r="P293" s="34"/>
       <c r="Q293" s="34"/>
     </row>
-    <row r="294" spans="1:17" ht="22">
+    <row r="294" spans="1:17" ht="22.5">
       <c r="A294" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -22686,7 +22672,7 @@
       <c r="P294" s="34"/>
       <c r="Q294" s="34"/>
     </row>
-    <row r="295" spans="1:17" ht="22">
+    <row r="295" spans="1:17" ht="22.5">
       <c r="A295" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -22762,18 +22748,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" style="26" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="28.08203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.33203125" style="25" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.33203125" style="25" customWidth="1"/>
-    <col min="10" max="11" width="25.58203125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="12.58203125" style="25" customWidth="1"/>
-    <col min="13" max="17" width="8.58203125" style="25" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="26" customWidth="1"/>
+    <col min="4" max="5" width="8.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="28.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.375" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.375" style="25" customWidth="1"/>
+    <col min="10" max="11" width="25.625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="25" customWidth="1"/>
+    <col min="13" max="17" width="8.625" style="25" customWidth="1"/>
     <col min="18" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -22819,7 +22805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="11.5" thickBot="1">
+    <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
         <v>592</v>
       </c>
@@ -22894,7 +22880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22">
+    <row r="11" spans="1:17" ht="22.5">
       <c r="A11" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -22936,7 +22922,7 @@
       <c r="P11" s="155"/>
       <c r="Q11" s="157"/>
     </row>
-    <row r="12" spans="1:17" ht="22">
+    <row r="12" spans="1:17" ht="22.5">
       <c r="A12" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -22972,7 +22958,7 @@
       <c r="P12" s="155"/>
       <c r="Q12" s="157"/>
     </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="13" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A13" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -23010,7 +22996,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="155"/>
     </row>
-    <row r="14" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="14" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A14" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -23044,7 +23030,7 @@
       <c r="P14" s="156"/>
       <c r="Q14" s="155"/>
     </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="15" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A15" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -23078,7 +23064,7 @@
       <c r="P15" s="156"/>
       <c r="Q15" s="155"/>
     </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="16" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A16" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -23112,7 +23098,7 @@
       <c r="P16" s="155"/>
       <c r="Q16" s="157"/>
     </row>
-    <row r="17" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="17" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A17" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -23146,7 +23132,7 @@
       <c r="P17" s="155"/>
       <c r="Q17" s="157"/>
     </row>
-    <row r="18" spans="1:17" ht="22">
+    <row r="18" spans="1:17" ht="22.5">
       <c r="A18" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -23184,7 +23170,7 @@
       <c r="P18" s="155"/>
       <c r="Q18" s="157"/>
     </row>
-    <row r="19" spans="1:17" ht="22">
+    <row r="19" spans="1:17" ht="22.5">
       <c r="A19" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -23218,7 +23204,7 @@
       <c r="P19" s="155"/>
       <c r="Q19" s="157"/>
     </row>
-    <row r="20" spans="1:17" ht="22">
+    <row r="20" spans="1:17" ht="22.5">
       <c r="A20" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -23252,7 +23238,7 @@
       <c r="P20" s="155"/>
       <c r="Q20" s="157"/>
     </row>
-    <row r="21" spans="1:17" ht="22">
+    <row r="21" spans="1:17" ht="22.5">
       <c r="A21" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -23288,7 +23274,7 @@
       <c r="P21" s="155"/>
       <c r="Q21" s="157"/>
     </row>
-    <row r="22" spans="1:17" ht="22">
+    <row r="22" spans="1:17" ht="22.5">
       <c r="A22" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -23322,7 +23308,7 @@
       <c r="P22" s="155"/>
       <c r="Q22" s="157"/>
     </row>
-    <row r="23" spans="1:17" ht="22">
+    <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -23356,7 +23342,7 @@
       <c r="P23" s="155"/>
       <c r="Q23" s="157"/>
     </row>
-    <row r="24" spans="1:17" ht="22">
+    <row r="24" spans="1:17" ht="22.5">
       <c r="A24" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -23390,7 +23376,7 @@
       <c r="P24" s="155"/>
       <c r="Q24" s="157"/>
     </row>
-    <row r="25" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="25" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A25" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -23462,7 +23448,7 @@
       <c r="P26" s="156"/>
       <c r="Q26" s="155"/>
     </row>
-    <row r="27" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="27" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A27" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -23500,7 +23486,7 @@
       <c r="P27" s="156"/>
       <c r="Q27" s="155"/>
     </row>
-    <row r="28" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="28" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A28" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -23534,7 +23520,7 @@
       <c r="P28" s="156"/>
       <c r="Q28" s="155"/>
     </row>
-    <row r="29" spans="1:17" ht="22">
+    <row r="29" spans="1:17" ht="22.5">
       <c r="A29" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -23570,7 +23556,7 @@
       <c r="P29" s="157"/>
       <c r="Q29" s="157"/>
     </row>
-    <row r="30" spans="1:17" ht="22">
+    <row r="30" spans="1:17" ht="22.5">
       <c r="A30" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -23604,7 +23590,7 @@
       <c r="P30" s="157"/>
       <c r="Q30" s="157"/>
     </row>
-    <row r="31" spans="1:17" ht="22">
+    <row r="31" spans="1:17" ht="22.5">
       <c r="A31" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -23638,7 +23624,7 @@
       <c r="P31" s="157"/>
       <c r="Q31" s="157"/>
     </row>
-    <row r="32" spans="1:17" ht="22">
+    <row r="32" spans="1:17" ht="22.5">
       <c r="A32" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -23672,7 +23658,7 @@
       <c r="P32" s="157"/>
       <c r="Q32" s="157"/>
     </row>
-    <row r="33" spans="1:17" ht="22">
+    <row r="33" spans="1:17" ht="22.5">
       <c r="A33" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -23708,7 +23694,7 @@
       <c r="P33" s="157"/>
       <c r="Q33" s="157"/>
     </row>
-    <row r="34" spans="1:17" ht="22">
+    <row r="34" spans="1:17" ht="22.5">
       <c r="A34" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -23742,7 +23728,7 @@
       <c r="P34" s="157"/>
       <c r="Q34" s="157"/>
     </row>
-    <row r="35" spans="1:17" ht="44">
+    <row r="35" spans="1:17" ht="45">
       <c r="A35" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -23778,7 +23764,7 @@
       <c r="P35" s="157"/>
       <c r="Q35" s="157"/>
     </row>
-    <row r="36" spans="1:17" ht="33">
+    <row r="36" spans="1:17" ht="33.75">
       <c r="A36" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -23818,7 +23804,7 @@
       <c r="P36" s="157"/>
       <c r="Q36" s="157"/>
     </row>
-    <row r="37" spans="1:17" ht="33">
+    <row r="37" spans="1:17" ht="33.75">
       <c r="A37" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -23852,7 +23838,7 @@
       <c r="P37" s="157"/>
       <c r="Q37" s="157"/>
     </row>
-    <row r="38" spans="1:17" ht="22">
+    <row r="38" spans="1:17" ht="22.5">
       <c r="A38" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -23886,7 +23872,7 @@
       <c r="P38" s="157"/>
       <c r="Q38" s="157"/>
     </row>
-    <row r="39" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="39" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A39" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -23920,7 +23906,7 @@
       <c r="P39" s="155"/>
       <c r="Q39" s="157"/>
     </row>
-    <row r="40" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="40" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A40" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -23992,7 +23978,7 @@
       <c r="P41" s="155"/>
       <c r="Q41" s="157"/>
     </row>
-    <row r="42" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="42" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A42" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -24032,7 +24018,7 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="34"/>
     </row>
-    <row r="43" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="43" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A43" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -24064,7 +24050,7 @@
       <c r="P43" s="35"/>
       <c r="Q43" s="34"/>
     </row>
-    <row r="44" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="44" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A44" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -24096,7 +24082,7 @@
       <c r="P44" s="35"/>
       <c r="Q44" s="34"/>
     </row>
-    <row r="45" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="45" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A45" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -24130,7 +24116,7 @@
       <c r="P45" s="35"/>
       <c r="Q45" s="34"/>
     </row>
-    <row r="46" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="46" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A46" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -24162,7 +24148,7 @@
       <c r="P46" s="35"/>
       <c r="Q46" s="34"/>
     </row>
-    <row r="47" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="47" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A47" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -24194,7 +24180,7 @@
       <c r="P47" s="35"/>
       <c r="Q47" s="34"/>
     </row>
-    <row r="48" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="48" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A48" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -24228,7 +24214,7 @@
       <c r="P48" s="35"/>
       <c r="Q48" s="34"/>
     </row>
-    <row r="49" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="49" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A49" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -24260,7 +24246,7 @@
       <c r="P49" s="35"/>
       <c r="Q49" s="34"/>
     </row>
-    <row r="50" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="50" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A50" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -24294,7 +24280,7 @@
       <c r="P50" s="35"/>
       <c r="Q50" s="34"/>
     </row>
-    <row r="51" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="51" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A51" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -24326,7 +24312,7 @@
       <c r="P51" s="35"/>
       <c r="Q51" s="34"/>
     </row>
-    <row r="52" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="52" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A52" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -24358,7 +24344,7 @@
       <c r="P52" s="35"/>
       <c r="Q52" s="34"/>
     </row>
-    <row r="53" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="53" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A53" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -24390,7 +24376,7 @@
       <c r="P53" s="35"/>
       <c r="Q53" s="34"/>
     </row>
-    <row r="54" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="54" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A54" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -24422,7 +24408,7 @@
       <c r="P54" s="35"/>
       <c r="Q54" s="34"/>
     </row>
-    <row r="55" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="55" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A55" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -24454,7 +24440,7 @@
       <c r="P55" s="35"/>
       <c r="Q55" s="34"/>
     </row>
-    <row r="56" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="56" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A56" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -24488,7 +24474,7 @@
       <c r="P56" s="35"/>
       <c r="Q56" s="34"/>
     </row>
-    <row r="57" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="57" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A57" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -24522,7 +24508,7 @@
       <c r="P57" s="35"/>
       <c r="Q57" s="34"/>
     </row>
-    <row r="58" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="58" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A58" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -24556,7 +24542,7 @@
       <c r="P58" s="35"/>
       <c r="Q58" s="34"/>
     </row>
-    <row r="59" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A59" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -24592,7 +24578,7 @@
       <c r="P59" s="35"/>
       <c r="Q59" s="34"/>
     </row>
-    <row r="60" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A60" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -24624,7 +24610,7 @@
       <c r="P60" s="35"/>
       <c r="Q60" s="34"/>
     </row>
-    <row r="61" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="61" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A61" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -24656,7 +24642,7 @@
       <c r="P61" s="35"/>
       <c r="Q61" s="34"/>
     </row>
-    <row r="62" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="62" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A62" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -24688,7 +24674,7 @@
       <c r="P62" s="35"/>
       <c r="Q62" s="34"/>
     </row>
-    <row r="63" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="63" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A63" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -24720,7 +24706,7 @@
       <c r="P63" s="35"/>
       <c r="Q63" s="34"/>
     </row>
-    <row r="64" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A64" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -24754,7 +24740,7 @@
       <c r="P64" s="35"/>
       <c r="Q64" s="34"/>
     </row>
-    <row r="65" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="65" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A65" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -24786,7 +24772,7 @@
       <c r="P65" s="35"/>
       <c r="Q65" s="34"/>
     </row>
-    <row r="66" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="66" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A66" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -24818,7 +24804,7 @@
       <c r="P66" s="35"/>
       <c r="Q66" s="34"/>
     </row>
-    <row r="67" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="67" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A67" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -24850,7 +24836,7 @@
       <c r="P67" s="35"/>
       <c r="Q67" s="34"/>
     </row>
-    <row r="68" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="68" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A68" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -24882,7 +24868,7 @@
       <c r="P68" s="35"/>
       <c r="Q68" s="34"/>
     </row>
-    <row r="69" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="69" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A69" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -24914,7 +24900,7 @@
       <c r="P69" s="35"/>
       <c r="Q69" s="34"/>
     </row>
-    <row r="70" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="70" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A70" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -24946,7 +24932,7 @@
       <c r="P70" s="35"/>
       <c r="Q70" s="34"/>
     </row>
-    <row r="71" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="71" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A71" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -24978,7 +24964,7 @@
       <c r="P71" s="140"/>
       <c r="Q71" s="141"/>
     </row>
-    <row r="72" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="72" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A72" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -25142,7 +25128,7 @@
       <c r="P76" s="34"/>
       <c r="Q76" s="34"/>
     </row>
-    <row r="77" spans="1:17" ht="22">
+    <row r="77" spans="1:17" ht="22.5">
       <c r="A77" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -25176,7 +25162,7 @@
       <c r="P77" s="157"/>
       <c r="Q77" s="157"/>
     </row>
-    <row r="78" spans="1:17" ht="22">
+    <row r="78" spans="1:17" ht="22.5">
       <c r="A78" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -25214,7 +25200,7 @@
       <c r="P78" s="34"/>
       <c r="Q78" s="34"/>
     </row>
-    <row r="79" spans="1:17" ht="33">
+    <row r="79" spans="1:17" ht="33.75">
       <c r="A79" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -25280,7 +25266,7 @@
       <c r="P80" s="34"/>
       <c r="Q80" s="34"/>
     </row>
-    <row r="81" spans="1:17" ht="33">
+    <row r="81" spans="1:17" ht="33.75">
       <c r="A81" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -25314,7 +25300,7 @@
       <c r="P81" s="34"/>
       <c r="Q81" s="34"/>
     </row>
-    <row r="82" spans="1:17" ht="33">
+    <row r="82" spans="1:17" ht="33.75">
       <c r="A82" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -25346,7 +25332,7 @@
       <c r="P82" s="34"/>
       <c r="Q82" s="34"/>
     </row>
-    <row r="83" spans="1:17" ht="22">
+    <row r="83" spans="1:17" ht="22.5">
       <c r="A83" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -25380,7 +25366,7 @@
       <c r="P83" s="34"/>
       <c r="Q83" s="34"/>
     </row>
-    <row r="84" spans="1:17" ht="22">
+    <row r="84" spans="1:17" ht="22.5">
       <c r="A84" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -25414,7 +25400,7 @@
       <c r="P84" s="34"/>
       <c r="Q84" s="34"/>
     </row>
-    <row r="85" spans="1:17" ht="22">
+    <row r="85" spans="1:17" ht="22.5">
       <c r="A85" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -25486,7 +25472,7 @@
       <c r="P86" s="34"/>
       <c r="Q86" s="34"/>
     </row>
-    <row r="87" spans="1:17" ht="33">
+    <row r="87" spans="1:17" ht="33.75">
       <c r="A87" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -25520,7 +25506,7 @@
       <c r="P87" s="34"/>
       <c r="Q87" s="34"/>
     </row>
-    <row r="88" spans="1:17" ht="22">
+    <row r="88" spans="1:17" ht="22.5">
       <c r="A88" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -25558,7 +25544,7 @@
       <c r="P88" s="34"/>
       <c r="Q88" s="34"/>
     </row>
-    <row r="89" spans="1:17" ht="33">
+    <row r="89" spans="1:17" ht="33.75">
       <c r="A89" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -25624,7 +25610,7 @@
       <c r="P90" s="34"/>
       <c r="Q90" s="34"/>
     </row>
-    <row r="91" spans="1:17" ht="33">
+    <row r="91" spans="1:17" ht="33.75">
       <c r="A91" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -25658,7 +25644,7 @@
       <c r="P91" s="34"/>
       <c r="Q91" s="34"/>
     </row>
-    <row r="92" spans="1:17" ht="33">
+    <row r="92" spans="1:17" ht="33.75">
       <c r="A92" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -25690,7 +25676,7 @@
       <c r="P92" s="34"/>
       <c r="Q92" s="34"/>
     </row>
-    <row r="93" spans="1:17" ht="33">
+    <row r="93" spans="1:17" ht="33.75">
       <c r="A93" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -25724,7 +25710,7 @@
       <c r="P93" s="34"/>
       <c r="Q93" s="34"/>
     </row>
-    <row r="94" spans="1:17" ht="22">
+    <row r="94" spans="1:17" ht="22.5">
       <c r="A94" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -25762,7 +25748,7 @@
       <c r="P94" s="34"/>
       <c r="Q94" s="34"/>
     </row>
-    <row r="95" spans="1:17" ht="33">
+    <row r="95" spans="1:17" ht="33.75">
       <c r="A95" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -25826,7 +25812,7 @@
       <c r="P96" s="34"/>
       <c r="Q96" s="34"/>
     </row>
-    <row r="97" spans="1:17" ht="33">
+    <row r="97" spans="1:17" ht="33.75">
       <c r="A97" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -25858,7 +25844,7 @@
       <c r="P97" s="34"/>
       <c r="Q97" s="34"/>
     </row>
-    <row r="98" spans="1:17" ht="33">
+    <row r="98" spans="1:17" ht="33.75">
       <c r="A98" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -25890,7 +25876,7 @@
       <c r="P98" s="34"/>
       <c r="Q98" s="34"/>
     </row>
-    <row r="99" spans="1:17" ht="22">
+    <row r="99" spans="1:17" ht="22.5">
       <c r="A99" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -25924,7 +25910,7 @@
       <c r="P99" s="34"/>
       <c r="Q99" s="34"/>
     </row>
-    <row r="100" spans="1:17" ht="33">
+    <row r="100" spans="1:17" ht="33.75">
       <c r="A100" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -25988,7 +25974,7 @@
       <c r="P101" s="34"/>
       <c r="Q101" s="34"/>
     </row>
-    <row r="102" spans="1:17" ht="33">
+    <row r="102" spans="1:17" ht="33.75">
       <c r="A102" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -26020,7 +26006,7 @@
       <c r="P102" s="34"/>
       <c r="Q102" s="34"/>
     </row>
-    <row r="103" spans="1:17" ht="33">
+    <row r="103" spans="1:17" ht="33.75">
       <c r="A103" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -26052,7 +26038,7 @@
       <c r="P103" s="141"/>
       <c r="Q103" s="141"/>
     </row>
-    <row r="104" spans="1:17" ht="33">
+    <row r="104" spans="1:17" ht="33.75">
       <c r="A104" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -26086,7 +26072,7 @@
       <c r="P104" s="34"/>
       <c r="Q104" s="34"/>
     </row>
-    <row r="105" spans="1:17" ht="33">
+    <row r="105" spans="1:17" ht="33.75">
       <c r="A105" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -26196,7 +26182,7 @@
       <c r="P107" s="34"/>
       <c r="Q107" s="34"/>
     </row>
-    <row r="108" spans="1:17" ht="22">
+    <row r="108" spans="1:17" ht="22.5">
       <c r="A108" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -26234,7 +26220,7 @@
       <c r="P108" s="34"/>
       <c r="Q108" s="34"/>
     </row>
-    <row r="109" spans="1:17" ht="22">
+    <row r="109" spans="1:17" ht="22.5">
       <c r="A109" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -26304,7 +26290,7 @@
       <c r="P110" s="34"/>
       <c r="Q110" s="34"/>
     </row>
-    <row r="111" spans="1:17" ht="22">
+    <row r="111" spans="1:17" ht="22.5">
       <c r="A111" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -26344,7 +26330,7 @@
       <c r="P111" s="34"/>
       <c r="Q111" s="34"/>
     </row>
-    <row r="112" spans="1:17" ht="22">
+    <row r="112" spans="1:17" ht="22.5">
       <c r="A112" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -26378,7 +26364,7 @@
       <c r="P112" s="34"/>
       <c r="Q112" s="34"/>
     </row>
-    <row r="113" spans="1:17" ht="22">
+    <row r="113" spans="1:17" ht="22.5">
       <c r="A113" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -26410,7 +26396,7 @@
       <c r="P113" s="34"/>
       <c r="Q113" s="34"/>
     </row>
-    <row r="114" spans="1:17" ht="22">
+    <row r="114" spans="1:17" ht="22.5">
       <c r="A114" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -26442,7 +26428,7 @@
       <c r="P114" s="34"/>
       <c r="Q114" s="34"/>
     </row>
-    <row r="115" spans="1:17" ht="22">
+    <row r="115" spans="1:17" ht="22.5">
       <c r="A115" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -26478,7 +26464,7 @@
       <c r="P115" s="157"/>
       <c r="Q115" s="157"/>
     </row>
-    <row r="116" spans="1:17" ht="22">
+    <row r="116" spans="1:17" ht="22.5">
       <c r="A116" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -26512,7 +26498,7 @@
       <c r="P116" s="157"/>
       <c r="Q116" s="157"/>
     </row>
-    <row r="117" spans="1:17" ht="22">
+    <row r="117" spans="1:17" ht="22.5">
       <c r="A117" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -26546,7 +26532,7 @@
       <c r="P117" s="157"/>
       <c r="Q117" s="157"/>
     </row>
-    <row r="118" spans="1:17" ht="22">
+    <row r="118" spans="1:17" ht="22.5">
       <c r="A118" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -26580,7 +26566,7 @@
       <c r="P118" s="157"/>
       <c r="Q118" s="157"/>
     </row>
-    <row r="119" spans="1:17" ht="33">
+    <row r="119" spans="1:17" ht="33.75">
       <c r="A119" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -26614,7 +26600,7 @@
       <c r="P119" s="157"/>
       <c r="Q119" s="157"/>
     </row>
-    <row r="120" spans="1:17" ht="33">
+    <row r="120" spans="1:17" ht="33.75">
       <c r="A120" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -26650,7 +26636,7 @@
       <c r="P120" s="157"/>
       <c r="Q120" s="157"/>
     </row>
-    <row r="121" spans="1:17" ht="33">
+    <row r="121" spans="1:17" ht="33.75">
       <c r="A121" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -26684,7 +26670,7 @@
       <c r="P121" s="157"/>
       <c r="Q121" s="157"/>
     </row>
-    <row r="122" spans="1:17" ht="44">
+    <row r="122" spans="1:17" ht="45">
       <c r="A122" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -26718,7 +26704,7 @@
       <c r="P122" s="157"/>
       <c r="Q122" s="157"/>
     </row>
-    <row r="123" spans="1:17" ht="44">
+    <row r="123" spans="1:17" ht="45">
       <c r="A123" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -26752,7 +26738,7 @@
       <c r="P123" s="157"/>
       <c r="Q123" s="157"/>
     </row>
-    <row r="124" spans="1:17" ht="33">
+    <row r="124" spans="1:17" ht="33.75">
       <c r="A124" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -26786,7 +26772,7 @@
       <c r="P124" s="157"/>
       <c r="Q124" s="157"/>
     </row>
-    <row r="125" spans="1:17" ht="33">
+    <row r="125" spans="1:17" ht="33.75">
       <c r="A125" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -26822,7 +26808,7 @@
       <c r="P125" s="157"/>
       <c r="Q125" s="157"/>
     </row>
-    <row r="126" spans="1:17" ht="33">
+    <row r="126" spans="1:17" ht="33.75">
       <c r="A126" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -26858,7 +26844,7 @@
       <c r="P126" s="34"/>
       <c r="Q126" s="34"/>
     </row>
-    <row r="127" spans="1:17" ht="33">
+    <row r="127" spans="1:17" ht="33.75">
       <c r="A127" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -26898,7 +26884,7 @@
       <c r="P127" s="157"/>
       <c r="Q127" s="157"/>
     </row>
-    <row r="128" spans="1:17" ht="22">
+    <row r="128" spans="1:17" ht="22.5">
       <c r="A128" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -26934,7 +26920,7 @@
       <c r="P128" s="157"/>
       <c r="Q128" s="157"/>
     </row>
-    <row r="129" spans="1:17" ht="22">
+    <row r="129" spans="1:17" ht="22.5">
       <c r="A129" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -26968,7 +26954,7 @@
       <c r="P129" s="157"/>
       <c r="Q129" s="157"/>
     </row>
-    <row r="130" spans="1:17" ht="44">
+    <row r="130" spans="1:17" ht="45">
       <c r="A130" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -27002,7 +26988,7 @@
       <c r="P130" s="157"/>
       <c r="Q130" s="157"/>
     </row>
-    <row r="131" spans="1:17" ht="22">
+    <row r="131" spans="1:17" ht="22.5">
       <c r="A131" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -27042,7 +27028,7 @@
       <c r="P131" s="34"/>
       <c r="Q131" s="34"/>
     </row>
-    <row r="132" spans="1:17" ht="33">
+    <row r="132" spans="1:17" ht="33.75">
       <c r="A132" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -27078,7 +27064,7 @@
       <c r="P132" s="157"/>
       <c r="Q132" s="157"/>
     </row>
-    <row r="133" spans="1:17" ht="33">
+    <row r="133" spans="1:17" ht="33.75">
       <c r="A133" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -27112,7 +27098,7 @@
       <c r="P133" s="157"/>
       <c r="Q133" s="157"/>
     </row>
-    <row r="134" spans="1:17" ht="33">
+    <row r="134" spans="1:17" ht="33.75">
       <c r="A134" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -27146,7 +27132,7 @@
       <c r="P134" s="157"/>
       <c r="Q134" s="157"/>
     </row>
-    <row r="135" spans="1:17" ht="22">
+    <row r="135" spans="1:17" ht="22.5">
       <c r="A135" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -27180,7 +27166,7 @@
       <c r="P135" s="34"/>
       <c r="Q135" s="34"/>
     </row>
-    <row r="136" spans="1:17" ht="33">
+    <row r="136" spans="1:17" ht="33.75">
       <c r="A136" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -27212,7 +27198,7 @@
       <c r="P136" s="34"/>
       <c r="Q136" s="34"/>
     </row>
-    <row r="137" spans="1:17" ht="33">
+    <row r="137" spans="1:17" ht="33.75">
       <c r="A137" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -27248,7 +27234,7 @@
       <c r="P137" s="34"/>
       <c r="Q137" s="34"/>
     </row>
-    <row r="138" spans="1:17" ht="33">
+    <row r="138" spans="1:17" ht="33.75">
       <c r="A138" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -27288,7 +27274,7 @@
       <c r="P138" s="157"/>
       <c r="Q138" s="157"/>
     </row>
-    <row r="139" spans="1:17" ht="33">
+    <row r="139" spans="1:17" ht="33.75">
       <c r="A139" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -27324,7 +27310,7 @@
       <c r="P139" s="157"/>
       <c r="Q139" s="157"/>
     </row>
-    <row r="140" spans="1:17" ht="33">
+    <row r="140" spans="1:17" ht="33.75">
       <c r="A140" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -27360,7 +27346,7 @@
       <c r="P140" s="157"/>
       <c r="Q140" s="157"/>
     </row>
-    <row r="141" spans="1:17" ht="33">
+    <row r="141" spans="1:17" ht="33.75">
       <c r="A141" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -27396,7 +27382,7 @@
       <c r="P141" s="157"/>
       <c r="Q141" s="157"/>
     </row>
-    <row r="142" spans="1:17" ht="33">
+    <row r="142" spans="1:17" ht="33.75">
       <c r="A142" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -27432,7 +27418,7 @@
       <c r="P142" s="157"/>
       <c r="Q142" s="157"/>
     </row>
-    <row r="143" spans="1:17" ht="22">
+    <row r="143" spans="1:17" ht="22.5">
       <c r="A143" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -27468,7 +27454,7 @@
       <c r="P143" s="157"/>
       <c r="Q143" s="157"/>
     </row>
-    <row r="144" spans="1:17" ht="22">
+    <row r="144" spans="1:17" ht="22.5">
       <c r="A144" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -27502,7 +27488,7 @@
       <c r="P144" s="157"/>
       <c r="Q144" s="157"/>
     </row>
-    <row r="145" spans="1:17" ht="22">
+    <row r="145" spans="1:17" ht="22.5">
       <c r="A145" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -27536,7 +27522,7 @@
       <c r="P145" s="157"/>
       <c r="Q145" s="157"/>
     </row>
-    <row r="146" spans="1:17" ht="22">
+    <row r="146" spans="1:17" ht="22.5">
       <c r="A146" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -27570,7 +27556,7 @@
       <c r="P146" s="157"/>
       <c r="Q146" s="157"/>
     </row>
-    <row r="147" spans="1:17" ht="22">
+    <row r="147" spans="1:17" ht="22.5">
       <c r="A147" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -27604,7 +27590,7 @@
       <c r="P147" s="157"/>
       <c r="Q147" s="157"/>
     </row>
-    <row r="148" spans="1:17" ht="22">
+    <row r="148" spans="1:17" ht="22.5">
       <c r="A148" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -27638,7 +27624,7 @@
       <c r="P148" s="157"/>
       <c r="Q148" s="157"/>
     </row>
-    <row r="149" spans="1:17" ht="22">
+    <row r="149" spans="1:17" ht="22.5">
       <c r="A149" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -27676,7 +27662,7 @@
       <c r="P149" s="157"/>
       <c r="Q149" s="157"/>
     </row>
-    <row r="150" spans="1:17" ht="22">
+    <row r="150" spans="1:17" ht="22.5">
       <c r="A150" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -27710,7 +27696,7 @@
       <c r="P150" s="157"/>
       <c r="Q150" s="157"/>
     </row>
-    <row r="151" spans="1:17" ht="33">
+    <row r="151" spans="1:17" ht="33.75">
       <c r="A151" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -27746,7 +27732,7 @@
       <c r="P151" s="157"/>
       <c r="Q151" s="157"/>
     </row>
-    <row r="152" spans="1:17" ht="33">
+    <row r="152" spans="1:17" ht="33.75">
       <c r="A152" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -27780,7 +27766,7 @@
       <c r="P152" s="157"/>
       <c r="Q152" s="157"/>
     </row>
-    <row r="153" spans="1:17" ht="33">
+    <row r="153" spans="1:17" ht="33.75">
       <c r="A153" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -27814,7 +27800,7 @@
       <c r="P153" s="157"/>
       <c r="Q153" s="157"/>
     </row>
-    <row r="154" spans="1:17" ht="33">
+    <row r="154" spans="1:17" ht="33.75">
       <c r="A154" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -27848,7 +27834,7 @@
       <c r="P154" s="157"/>
       <c r="Q154" s="157"/>
     </row>
-    <row r="155" spans="1:17" ht="33">
+    <row r="155" spans="1:17" ht="33.75">
       <c r="A155" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -27882,7 +27868,7 @@
       <c r="P155" s="157"/>
       <c r="Q155" s="157"/>
     </row>
-    <row r="156" spans="1:17" ht="22">
+    <row r="156" spans="1:17" ht="22.5">
       <c r="A156" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -27916,7 +27902,7 @@
       <c r="P156" s="157"/>
       <c r="Q156" s="157"/>
     </row>
-    <row r="157" spans="1:17" ht="22">
+    <row r="157" spans="1:17" ht="22.5">
       <c r="A157" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -27950,7 +27936,7 @@
       <c r="P157" s="157"/>
       <c r="Q157" s="157"/>
     </row>
-    <row r="158" spans="1:17" ht="33">
+    <row r="158" spans="1:17" ht="33.75">
       <c r="A158" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -27984,7 +27970,7 @@
       <c r="P158" s="157"/>
       <c r="Q158" s="157"/>
     </row>
-    <row r="159" spans="1:17" ht="33">
+    <row r="159" spans="1:17" ht="33.75">
       <c r="A159" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -28018,7 +28004,7 @@
       <c r="P159" s="157"/>
       <c r="Q159" s="157"/>
     </row>
-    <row r="160" spans="1:17" ht="33">
+    <row r="160" spans="1:17" ht="33.75">
       <c r="A160" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -28052,7 +28038,7 @@
       <c r="P160" s="157"/>
       <c r="Q160" s="157"/>
     </row>
-    <row r="161" spans="1:17" ht="33">
+    <row r="161" spans="1:17" ht="33.75">
       <c r="A161" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -28086,7 +28072,7 @@
       <c r="P161" s="157"/>
       <c r="Q161" s="157"/>
     </row>
-    <row r="162" spans="1:17" ht="22">
+    <row r="162" spans="1:17" ht="22.5">
       <c r="A162" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -28122,7 +28108,7 @@
       <c r="P162" s="157"/>
       <c r="Q162" s="157"/>
     </row>
-    <row r="163" spans="1:17" ht="22">
+    <row r="163" spans="1:17" ht="22.5">
       <c r="A163" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -28156,7 +28142,7 @@
       <c r="P163" s="157"/>
       <c r="Q163" s="157"/>
     </row>
-    <row r="164" spans="1:17" ht="22">
+    <row r="164" spans="1:17" ht="22.5">
       <c r="A164" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -28190,7 +28176,7 @@
       <c r="P164" s="157"/>
       <c r="Q164" s="157"/>
     </row>
-    <row r="165" spans="1:17" ht="22">
+    <row r="165" spans="1:17" ht="22.5">
       <c r="A165" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -28224,7 +28210,7 @@
       <c r="P165" s="157"/>
       <c r="Q165" s="157"/>
     </row>
-    <row r="166" spans="1:17" ht="22">
+    <row r="166" spans="1:17" ht="22.5">
       <c r="A166" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -28258,7 +28244,7 @@
       <c r="P166" s="157"/>
       <c r="Q166" s="157"/>
     </row>
-    <row r="167" spans="1:17" ht="33">
+    <row r="167" spans="1:17" ht="33.75">
       <c r="A167" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -28292,7 +28278,7 @@
       <c r="P167" s="157"/>
       <c r="Q167" s="157"/>
     </row>
-    <row r="168" spans="1:17" ht="22">
+    <row r="168" spans="1:17" ht="22.5">
       <c r="A168" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -28326,7 +28312,7 @@
       <c r="P168" s="157"/>
       <c r="Q168" s="157"/>
     </row>
-    <row r="169" spans="1:17" ht="22">
+    <row r="169" spans="1:17" ht="22.5">
       <c r="A169" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -28362,7 +28348,7 @@
       <c r="P169" s="157"/>
       <c r="Q169" s="157"/>
     </row>
-    <row r="170" spans="1:17" ht="33">
+    <row r="170" spans="1:17" ht="33.75">
       <c r="A170" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -28396,7 +28382,7 @@
       <c r="P170" s="157"/>
       <c r="Q170" s="157"/>
     </row>
-    <row r="171" spans="1:17" ht="33">
+    <row r="171" spans="1:17" ht="33.75">
       <c r="A171" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -28430,7 +28416,7 @@
       <c r="P171" s="157"/>
       <c r="Q171" s="157"/>
     </row>
-    <row r="172" spans="1:17" ht="44">
+    <row r="172" spans="1:17" ht="45">
       <c r="A172" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -28464,7 +28450,7 @@
       <c r="P172" s="157"/>
       <c r="Q172" s="157"/>
     </row>
-    <row r="173" spans="1:17" ht="44">
+    <row r="173" spans="1:17" ht="45">
       <c r="A173" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -28498,7 +28484,7 @@
       <c r="P173" s="157"/>
       <c r="Q173" s="157"/>
     </row>
-    <row r="174" spans="1:17" ht="33">
+    <row r="174" spans="1:17" ht="33.75">
       <c r="A174" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -28530,7 +28516,7 @@
       <c r="P174" s="34"/>
       <c r="Q174" s="34"/>
     </row>
-    <row r="175" spans="1:17" ht="44">
+    <row r="175" spans="1:17" ht="45">
       <c r="A175" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -28564,7 +28550,7 @@
       <c r="P175" s="157"/>
       <c r="Q175" s="157"/>
     </row>
-    <row r="176" spans="1:17" ht="44">
+    <row r="176" spans="1:17" ht="45">
       <c r="A176" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -28598,7 +28584,7 @@
       <c r="P176" s="157"/>
       <c r="Q176" s="157"/>
     </row>
-    <row r="177" spans="1:17" ht="33">
+    <row r="177" spans="1:17" ht="33.75">
       <c r="A177" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -28632,7 +28618,7 @@
       <c r="P177" s="157"/>
       <c r="Q177" s="157"/>
     </row>
-    <row r="178" spans="1:17" ht="33">
+    <row r="178" spans="1:17" ht="33.75">
       <c r="A178" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -28668,7 +28654,7 @@
       <c r="P178" s="157"/>
       <c r="Q178" s="157"/>
     </row>
-    <row r="179" spans="1:17" ht="22">
+    <row r="179" spans="1:17" ht="22.5">
       <c r="A179" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -28704,7 +28690,7 @@
       <c r="P179" s="157"/>
       <c r="Q179" s="157"/>
     </row>
-    <row r="180" spans="1:17" ht="22">
+    <row r="180" spans="1:17" ht="22.5">
       <c r="A180" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -28746,7 +28732,7 @@
       <c r="P180" s="157"/>
       <c r="Q180" s="157"/>
     </row>
-    <row r="181" spans="1:17" ht="22">
+    <row r="181" spans="1:17" ht="22.5">
       <c r="A181" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -28784,7 +28770,7 @@
       <c r="P181" s="157"/>
       <c r="Q181" s="157"/>
     </row>
-    <row r="182" spans="1:17" ht="22">
+    <row r="182" spans="1:17" ht="22.5">
       <c r="A182" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -28822,7 +28808,7 @@
       <c r="P182" s="157"/>
       <c r="Q182" s="157"/>
     </row>
-    <row r="183" spans="1:17" ht="22">
+    <row r="183" spans="1:17" ht="22.5">
       <c r="A183" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -28864,7 +28850,7 @@
       <c r="P183" s="157"/>
       <c r="Q183" s="157"/>
     </row>
-    <row r="184" spans="1:17" ht="22">
+    <row r="184" spans="1:17" ht="22.5">
       <c r="A184" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -28900,7 +28886,7 @@
       <c r="P184" s="157"/>
       <c r="Q184" s="157"/>
     </row>
-    <row r="185" spans="1:17" ht="22">
+    <row r="185" spans="1:17" ht="22.5">
       <c r="A185" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -28934,7 +28920,7 @@
       <c r="P185" s="157"/>
       <c r="Q185" s="157"/>
     </row>
-    <row r="186" spans="1:17" ht="22">
+    <row r="186" spans="1:17" ht="22.5">
       <c r="A186" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -28970,7 +28956,7 @@
       <c r="P186" s="157"/>
       <c r="Q186" s="157"/>
     </row>
-    <row r="187" spans="1:17" ht="22">
+    <row r="187" spans="1:17" ht="22.5">
       <c r="A187" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -29004,7 +28990,7 @@
       <c r="P187" s="157"/>
       <c r="Q187" s="157"/>
     </row>
-    <row r="188" spans="1:17" ht="33">
+    <row r="188" spans="1:17" ht="33.75">
       <c r="A188" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -29042,7 +29028,7 @@
       <c r="P188" s="157"/>
       <c r="Q188" s="157"/>
     </row>
-    <row r="189" spans="1:17" ht="22">
+    <row r="189" spans="1:17" ht="22.5">
       <c r="A189" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -29082,7 +29068,7 @@
       <c r="P189" s="157"/>
       <c r="Q189" s="157"/>
     </row>
-    <row r="190" spans="1:17" ht="22">
+    <row r="190" spans="1:17" ht="22.5">
       <c r="A190" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -29116,7 +29102,7 @@
       <c r="P190" s="157"/>
       <c r="Q190" s="157"/>
     </row>
-    <row r="191" spans="1:17" ht="22">
+    <row r="191" spans="1:17" ht="22.5">
       <c r="A191" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -29150,7 +29136,7 @@
       <c r="P191" s="157"/>
       <c r="Q191" s="157"/>
     </row>
-    <row r="192" spans="1:17" ht="22">
+    <row r="192" spans="1:17" ht="22.5">
       <c r="A192" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -29184,7 +29170,7 @@
       <c r="P192" s="157"/>
       <c r="Q192" s="157"/>
     </row>
-    <row r="193" spans="1:17" ht="22">
+    <row r="193" spans="1:17" ht="22.5">
       <c r="A193" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -29218,7 +29204,7 @@
       <c r="P193" s="157"/>
       <c r="Q193" s="157"/>
     </row>
-    <row r="194" spans="1:17" ht="22">
+    <row r="194" spans="1:17" ht="22.5">
       <c r="A194" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -29252,7 +29238,7 @@
       <c r="P194" s="157"/>
       <c r="Q194" s="157"/>
     </row>
-    <row r="195" spans="1:17" ht="22">
+    <row r="195" spans="1:17" ht="22.5">
       <c r="A195" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -29286,7 +29272,7 @@
       <c r="P195" s="157"/>
       <c r="Q195" s="157"/>
     </row>
-    <row r="196" spans="1:17" ht="22">
+    <row r="196" spans="1:17" ht="22.5">
       <c r="A196" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -29322,7 +29308,7 @@
       <c r="P196" s="157"/>
       <c r="Q196" s="157"/>
     </row>
-    <row r="197" spans="1:17" ht="22">
+    <row r="197" spans="1:17" ht="22.5">
       <c r="A197" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -29360,7 +29346,7 @@
       <c r="P197" s="157"/>
       <c r="Q197" s="157"/>
     </row>
-    <row r="198" spans="1:17" ht="22">
+    <row r="198" spans="1:17" ht="22.5">
       <c r="A198" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -29394,7 +29380,7 @@
       <c r="P198" s="157"/>
       <c r="Q198" s="157"/>
     </row>
-    <row r="199" spans="1:17" ht="22">
+    <row r="199" spans="1:17" ht="22.5">
       <c r="A199" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -29428,7 +29414,7 @@
       <c r="P199" s="157"/>
       <c r="Q199" s="157"/>
     </row>
-    <row r="200" spans="1:17" ht="22">
+    <row r="200" spans="1:17" ht="22.5">
       <c r="A200" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -29462,7 +29448,7 @@
       <c r="P200" s="157"/>
       <c r="Q200" s="157"/>
     </row>
-    <row r="201" spans="1:17" ht="33">
+    <row r="201" spans="1:17" ht="33.75">
       <c r="A201" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -29496,7 +29482,7 @@
       <c r="P201" s="157"/>
       <c r="Q201" s="157"/>
     </row>
-    <row r="202" spans="1:17" ht="33">
+    <row r="202" spans="1:17" ht="33.75">
       <c r="A202" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -29530,7 +29516,7 @@
       <c r="P202" s="157"/>
       <c r="Q202" s="157"/>
     </row>
-    <row r="203" spans="1:17" ht="44">
+    <row r="203" spans="1:17" ht="45">
       <c r="A203" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -29564,7 +29550,7 @@
       <c r="P203" s="157"/>
       <c r="Q203" s="157"/>
     </row>
-    <row r="204" spans="1:17" ht="33">
+    <row r="204" spans="1:17" ht="33.75">
       <c r="A204" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -29598,7 +29584,7 @@
       <c r="P204" s="157"/>
       <c r="Q204" s="157"/>
     </row>
-    <row r="205" spans="1:17" ht="33">
+    <row r="205" spans="1:17" ht="33.75">
       <c r="A205" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -29632,7 +29618,7 @@
       <c r="P205" s="157"/>
       <c r="Q205" s="157"/>
     </row>
-    <row r="206" spans="1:17" ht="22">
+    <row r="206" spans="1:17" ht="22.5">
       <c r="A206" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -29666,7 +29652,7 @@
       <c r="P206" s="157"/>
       <c r="Q206" s="157"/>
     </row>
-    <row r="207" spans="1:17" ht="22">
+    <row r="207" spans="1:17" ht="22.5">
       <c r="A207" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -29700,7 +29686,7 @@
       <c r="P207" s="157"/>
       <c r="Q207" s="157"/>
     </row>
-    <row r="208" spans="1:17" ht="33">
+    <row r="208" spans="1:17" ht="33.75">
       <c r="A208" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -29734,7 +29720,7 @@
       <c r="P208" s="157"/>
       <c r="Q208" s="157"/>
     </row>
-    <row r="209" spans="1:17" ht="22">
+    <row r="209" spans="1:17" ht="22.5">
       <c r="A209" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -29768,7 +29754,7 @@
       <c r="P209" s="157"/>
       <c r="Q209" s="157"/>
     </row>
-    <row r="210" spans="1:17" ht="22">
+    <row r="210" spans="1:17" ht="22.5">
       <c r="A210" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -29806,7 +29792,7 @@
       <c r="P210" s="157"/>
       <c r="Q210" s="157"/>
     </row>
-    <row r="211" spans="1:17" ht="22">
+    <row r="211" spans="1:17" ht="22.5">
       <c r="A211" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -29840,7 +29826,7 @@
       <c r="P211" s="157"/>
       <c r="Q211" s="157"/>
     </row>
-    <row r="212" spans="1:17" ht="22">
+    <row r="212" spans="1:17" ht="22.5">
       <c r="A212" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -29874,7 +29860,7 @@
       <c r="P212" s="157"/>
       <c r="Q212" s="157"/>
     </row>
-    <row r="213" spans="1:17" ht="22">
+    <row r="213" spans="1:17" ht="22.5">
       <c r="A213" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -29908,7 +29894,7 @@
       <c r="P213" s="157"/>
       <c r="Q213" s="157"/>
     </row>
-    <row r="214" spans="1:17" ht="22">
+    <row r="214" spans="1:17" ht="22.5">
       <c r="A214" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -29942,7 +29928,7 @@
       <c r="P214" s="157"/>
       <c r="Q214" s="157"/>
     </row>
-    <row r="215" spans="1:17" ht="44">
+    <row r="215" spans="1:17" ht="45">
       <c r="A215" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -29976,7 +29962,7 @@
       <c r="P215" s="157"/>
       <c r="Q215" s="157"/>
     </row>
-    <row r="216" spans="1:17" ht="33">
+    <row r="216" spans="1:17" ht="33.75">
       <c r="A216" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -30010,7 +29996,7 @@
       <c r="P216" s="157"/>
       <c r="Q216" s="157"/>
     </row>
-    <row r="217" spans="1:17" ht="33">
+    <row r="217" spans="1:17" ht="33.75">
       <c r="A217" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -30044,7 +30030,7 @@
       <c r="P217" s="157"/>
       <c r="Q217" s="157"/>
     </row>
-    <row r="218" spans="1:17" ht="44">
+    <row r="218" spans="1:17" ht="45">
       <c r="A218" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -30078,7 +30064,7 @@
       <c r="P218" s="157"/>
       <c r="Q218" s="157"/>
     </row>
-    <row r="219" spans="1:17" ht="33">
+    <row r="219" spans="1:17" ht="33.75">
       <c r="A219" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -30112,7 +30098,7 @@
       <c r="P219" s="157"/>
       <c r="Q219" s="157"/>
     </row>
-    <row r="220" spans="1:17" ht="33">
+    <row r="220" spans="1:17" ht="33.75">
       <c r="A220" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -30146,7 +30132,7 @@
       <c r="P220" s="157"/>
       <c r="Q220" s="157"/>
     </row>
-    <row r="221" spans="1:17" ht="22">
+    <row r="221" spans="1:17" ht="22.5">
       <c r="A221" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -30180,7 +30166,7 @@
       <c r="P221" s="157"/>
       <c r="Q221" s="157"/>
     </row>
-    <row r="222" spans="1:17" ht="22">
+    <row r="222" spans="1:17" ht="22.5">
       <c r="A222" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -30214,7 +30200,7 @@
       <c r="P222" s="157"/>
       <c r="Q222" s="157"/>
     </row>
-    <row r="223" spans="1:17" ht="33">
+    <row r="223" spans="1:17" ht="33.75">
       <c r="A223" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -30248,7 +30234,7 @@
       <c r="P223" s="157"/>
       <c r="Q223" s="157"/>
     </row>
-    <row r="224" spans="1:17" ht="22">
+    <row r="224" spans="1:17" ht="22.5">
       <c r="A224" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -30282,7 +30268,7 @@
       <c r="P224" s="157"/>
       <c r="Q224" s="157"/>
     </row>
-    <row r="225" spans="1:17" ht="44">
+    <row r="225" spans="1:17" ht="45">
       <c r="A225" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -30318,7 +30304,7 @@
       <c r="P225" s="157"/>
       <c r="Q225" s="157"/>
     </row>
-    <row r="226" spans="1:17" ht="44">
+    <row r="226" spans="1:17" ht="45">
       <c r="A226" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -30352,7 +30338,7 @@
       <c r="P226" s="157"/>
       <c r="Q226" s="157"/>
     </row>
-    <row r="227" spans="1:17" ht="33">
+    <row r="227" spans="1:17" ht="33.75">
       <c r="A227" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -30386,7 +30372,7 @@
       <c r="P227" s="157"/>
       <c r="Q227" s="157"/>
     </row>
-    <row r="228" spans="1:17" ht="33">
+    <row r="228" spans="1:17" ht="33.75">
       <c r="A228" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -30422,7 +30408,7 @@
       <c r="P228" s="157"/>
       <c r="Q228" s="157"/>
     </row>
-    <row r="229" spans="1:17" ht="22">
+    <row r="229" spans="1:17" ht="22.5">
       <c r="A229" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -30458,7 +30444,7 @@
       <c r="P229" s="157"/>
       <c r="Q229" s="157"/>
     </row>
-    <row r="230" spans="1:17" ht="22">
+    <row r="230" spans="1:17" ht="22.5">
       <c r="A230" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -30500,7 +30486,7 @@
       <c r="P230" s="157"/>
       <c r="Q230" s="157"/>
     </row>
-    <row r="231" spans="1:17" ht="22">
+    <row r="231" spans="1:17" ht="22.5">
       <c r="A231" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -30536,7 +30522,7 @@
       <c r="P231" s="157"/>
       <c r="Q231" s="157"/>
     </row>
-    <row r="232" spans="1:17" ht="22">
+    <row r="232" spans="1:17" ht="22.5">
       <c r="A232" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -30570,7 +30556,7 @@
       <c r="P232" s="157"/>
       <c r="Q232" s="157"/>
     </row>
-    <row r="233" spans="1:17" ht="22">
+    <row r="233" spans="1:17" ht="22.5">
       <c r="A233" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -30604,7 +30590,7 @@
       <c r="P233" s="157"/>
       <c r="Q233" s="157"/>
     </row>
-    <row r="234" spans="1:17" ht="22">
+    <row r="234" spans="1:17" ht="22.5">
       <c r="A234" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -30638,7 +30624,7 @@
       <c r="P234" s="157"/>
       <c r="Q234" s="157"/>
     </row>
-    <row r="235" spans="1:17" ht="33">
+    <row r="235" spans="1:17" ht="33.75">
       <c r="A235" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -30672,7 +30658,7 @@
       <c r="P235" s="157"/>
       <c r="Q235" s="157"/>
     </row>
-    <row r="236" spans="1:17" ht="33">
+    <row r="236" spans="1:17" ht="33.75">
       <c r="A236" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -30708,7 +30694,7 @@
       <c r="P236" s="157"/>
       <c r="Q236" s="157"/>
     </row>
-    <row r="237" spans="1:17" ht="33">
+    <row r="237" spans="1:17" ht="33.75">
       <c r="A237" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -30742,7 +30728,7 @@
       <c r="P237" s="157"/>
       <c r="Q237" s="157"/>
     </row>
-    <row r="238" spans="1:17" ht="44">
+    <row r="238" spans="1:17" ht="45">
       <c r="A238" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -30776,7 +30762,7 @@
       <c r="P238" s="157"/>
       <c r="Q238" s="157"/>
     </row>
-    <row r="239" spans="1:17" ht="44">
+    <row r="239" spans="1:17" ht="45">
       <c r="A239" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -30810,7 +30796,7 @@
       <c r="P239" s="157"/>
       <c r="Q239" s="157"/>
     </row>
-    <row r="240" spans="1:17" ht="33">
+    <row r="240" spans="1:17" ht="33.75">
       <c r="A240" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -30844,7 +30830,7 @@
       <c r="P240" s="157"/>
       <c r="Q240" s="157"/>
     </row>
-    <row r="241" spans="1:17" ht="33">
+    <row r="241" spans="1:17" ht="33.75">
       <c r="A241" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -30880,7 +30866,7 @@
       <c r="P241" s="157"/>
       <c r="Q241" s="157"/>
     </row>
-    <row r="242" spans="1:17" ht="33">
+    <row r="242" spans="1:17" ht="33.75">
       <c r="A242" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -30920,7 +30906,7 @@
       <c r="P242" s="157"/>
       <c r="Q242" s="157"/>
     </row>
-    <row r="243" spans="1:17" ht="22">
+    <row r="243" spans="1:17" ht="22.5">
       <c r="A243" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -30962,7 +30948,7 @@
       <c r="P243" s="157"/>
       <c r="Q243" s="157"/>
     </row>
-    <row r="244" spans="1:17" ht="22">
+    <row r="244" spans="1:17" ht="22.5">
       <c r="A244" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -30996,7 +30982,7 @@
       <c r="P244" s="157"/>
       <c r="Q244" s="157"/>
     </row>
-    <row r="245" spans="1:17" ht="33">
+    <row r="245" spans="1:17" ht="33.75">
       <c r="A245" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -31034,7 +31020,7 @@
       <c r="P245" s="157"/>
       <c r="Q245" s="157"/>
     </row>
-    <row r="246" spans="1:17" ht="33">
+    <row r="246" spans="1:17" ht="33.75">
       <c r="A246" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -31068,7 +31054,7 @@
       <c r="P246" s="157"/>
       <c r="Q246" s="157"/>
     </row>
-    <row r="247" spans="1:17" ht="33">
+    <row r="247" spans="1:17" ht="33.75">
       <c r="A247" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -31108,7 +31094,7 @@
       <c r="P247" s="157"/>
       <c r="Q247" s="157"/>
     </row>
-    <row r="248" spans="1:17" ht="33">
+    <row r="248" spans="1:17" ht="33.75">
       <c r="A248" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -31144,7 +31130,7 @@
       <c r="P248" s="157"/>
       <c r="Q248" s="157"/>
     </row>
-    <row r="249" spans="1:17" ht="33">
+    <row r="249" spans="1:17" ht="33.75">
       <c r="A249" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -31180,7 +31166,7 @@
       <c r="P249" s="157"/>
       <c r="Q249" s="157"/>
     </row>
-    <row r="250" spans="1:17" ht="33">
+    <row r="250" spans="1:17" ht="33.75">
       <c r="A250" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -31216,7 +31202,7 @@
       <c r="P250" s="157"/>
       <c r="Q250" s="157"/>
     </row>
-    <row r="251" spans="1:17" ht="22">
+    <row r="251" spans="1:17" ht="22.5">
       <c r="A251" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -31254,7 +31240,7 @@
       <c r="P251" s="157"/>
       <c r="Q251" s="157"/>
     </row>
-    <row r="252" spans="1:17" ht="22">
+    <row r="252" spans="1:17" ht="22.5">
       <c r="A252" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -31288,7 +31274,7 @@
       <c r="P252" s="157"/>
       <c r="Q252" s="157"/>
     </row>
-    <row r="253" spans="1:17" ht="33">
+    <row r="253" spans="1:17" ht="33.75">
       <c r="A253" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -31324,7 +31310,7 @@
       <c r="P253" s="157"/>
       <c r="Q253" s="157"/>
     </row>
-    <row r="254" spans="1:17" ht="33">
+    <row r="254" spans="1:17" ht="33.75">
       <c r="A254" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -31358,7 +31344,7 @@
       <c r="P254" s="157"/>
       <c r="Q254" s="157"/>
     </row>
-    <row r="255" spans="1:17" ht="33">
+    <row r="255" spans="1:17" ht="33.75">
       <c r="A255" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -31392,7 +31378,7 @@
       <c r="P255" s="157"/>
       <c r="Q255" s="157"/>
     </row>
-    <row r="256" spans="1:17" ht="33">
+    <row r="256" spans="1:17" ht="33.75">
       <c r="A256" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -31426,7 +31412,7 @@
       <c r="P256" s="157"/>
       <c r="Q256" s="157"/>
     </row>
-    <row r="257" spans="1:17" ht="33">
+    <row r="257" spans="1:17" ht="33.75">
       <c r="A257" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -31460,7 +31446,7 @@
       <c r="P257" s="157"/>
       <c r="Q257" s="157"/>
     </row>
-    <row r="258" spans="1:17" ht="22">
+    <row r="258" spans="1:17" ht="22.5">
       <c r="A258" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -31494,7 +31480,7 @@
       <c r="P258" s="157"/>
       <c r="Q258" s="157"/>
     </row>
-    <row r="259" spans="1:17" ht="22">
+    <row r="259" spans="1:17" ht="22.5">
       <c r="A259" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -31528,7 +31514,7 @@
       <c r="P259" s="157"/>
       <c r="Q259" s="157"/>
     </row>
-    <row r="260" spans="1:17" ht="33">
+    <row r="260" spans="1:17" ht="33.75">
       <c r="A260" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -31562,7 +31548,7 @@
       <c r="P260" s="157"/>
       <c r="Q260" s="157"/>
     </row>
-    <row r="261" spans="1:17" ht="33">
+    <row r="261" spans="1:17" ht="33.75">
       <c r="A261" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -31596,7 +31582,7 @@
       <c r="P261" s="157"/>
       <c r="Q261" s="157"/>
     </row>
-    <row r="262" spans="1:17" ht="33">
+    <row r="262" spans="1:17" ht="33.75">
       <c r="A262" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -31630,7 +31616,7 @@
       <c r="P262" s="157"/>
       <c r="Q262" s="157"/>
     </row>
-    <row r="263" spans="1:17" ht="33">
+    <row r="263" spans="1:17" ht="33.75">
       <c r="A263" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -31734,7 +31720,7 @@
       <c r="P265" s="157"/>
       <c r="Q265" s="157"/>
     </row>
-    <row r="266" spans="1:17" ht="22">
+    <row r="266" spans="1:17" ht="22.5">
       <c r="A266" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -31768,7 +31754,7 @@
       <c r="P266" s="157"/>
       <c r="Q266" s="157"/>
     </row>
-    <row r="267" spans="1:17" ht="22">
+    <row r="267" spans="1:17" ht="22.5">
       <c r="A267" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -31802,7 +31788,7 @@
       <c r="P267" s="157"/>
       <c r="Q267" s="157"/>
     </row>
-    <row r="268" spans="1:17" ht="22">
+    <row r="268" spans="1:17" ht="22.5">
       <c r="A268" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -31836,7 +31822,7 @@
       <c r="P268" s="157"/>
       <c r="Q268" s="157"/>
     </row>
-    <row r="269" spans="1:17" ht="33">
+    <row r="269" spans="1:17" ht="33.75">
       <c r="A269" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -31870,7 +31856,7 @@
       <c r="P269" s="157"/>
       <c r="Q269" s="157"/>
     </row>
-    <row r="270" spans="1:17" ht="22">
+    <row r="270" spans="1:17" ht="22.5">
       <c r="A270" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -31906,7 +31892,7 @@
       <c r="P270" s="157"/>
       <c r="Q270" s="157"/>
     </row>
-    <row r="271" spans="1:17" ht="33">
+    <row r="271" spans="1:17" ht="33.75">
       <c r="A271" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -31940,7 +31926,7 @@
       <c r="P271" s="157"/>
       <c r="Q271" s="157"/>
     </row>
-    <row r="272" spans="1:17" ht="44">
+    <row r="272" spans="1:17" ht="45">
       <c r="A272" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -31974,7 +31960,7 @@
       <c r="P272" s="157"/>
       <c r="Q272" s="157"/>
     </row>
-    <row r="273" spans="1:17" ht="44">
+    <row r="273" spans="1:17" ht="45">
       <c r="A273" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -32008,7 +31994,7 @@
       <c r="P273" s="157"/>
       <c r="Q273" s="157"/>
     </row>
-    <row r="274" spans="1:17" ht="22">
+    <row r="274" spans="1:17" ht="22.5">
       <c r="A274" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -32042,7 +32028,7 @@
       <c r="P274" s="157"/>
       <c r="Q274" s="157"/>
     </row>
-    <row r="275" spans="1:17" ht="44">
+    <row r="275" spans="1:17" ht="45">
       <c r="A275" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -32076,7 +32062,7 @@
       <c r="P275" s="157"/>
       <c r="Q275" s="157"/>
     </row>
-    <row r="276" spans="1:17" ht="44">
+    <row r="276" spans="1:17" ht="45">
       <c r="A276" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -32110,7 +32096,7 @@
       <c r="P276" s="157"/>
       <c r="Q276" s="157"/>
     </row>
-    <row r="277" spans="1:17" ht="22">
+    <row r="277" spans="1:17" ht="22.5">
       <c r="A277" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -32144,7 +32130,7 @@
       <c r="P277" s="157"/>
       <c r="Q277" s="157"/>
     </row>
-    <row r="278" spans="1:17" ht="22">
+    <row r="278" spans="1:17" ht="22.5">
       <c r="A278" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -32180,7 +32166,7 @@
       <c r="P278" s="157"/>
       <c r="Q278" s="157"/>
     </row>
-    <row r="279" spans="1:17" ht="22">
+    <row r="279" spans="1:17" ht="22.5">
       <c r="A279" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -32220,7 +32206,7 @@
       <c r="P279" s="34"/>
       <c r="Q279" s="34"/>
     </row>
-    <row r="280" spans="1:17" ht="22">
+    <row r="280" spans="1:17" ht="22.5">
       <c r="A280" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -32252,7 +32238,7 @@
       <c r="P280" s="34"/>
       <c r="Q280" s="34"/>
     </row>
-    <row r="281" spans="1:17" ht="22">
+    <row r="281" spans="1:17" ht="22.5">
       <c r="A281" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -32284,7 +32270,7 @@
       <c r="P281" s="34"/>
       <c r="Q281" s="34"/>
     </row>
-    <row r="282" spans="1:17" ht="22">
+    <row r="282" spans="1:17" ht="22.5">
       <c r="A282" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -32316,7 +32302,7 @@
       <c r="P282" s="34"/>
       <c r="Q282" s="34"/>
     </row>
-    <row r="283" spans="1:17" ht="22">
+    <row r="283" spans="1:17" ht="22.5">
       <c r="A283" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -32354,7 +32340,7 @@
       <c r="P283" s="34"/>
       <c r="Q283" s="34"/>
     </row>
-    <row r="284" spans="1:17" ht="22">
+    <row r="284" spans="1:17" ht="22.5">
       <c r="A284" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -32388,7 +32374,7 @@
       <c r="P284" s="34"/>
       <c r="Q284" s="34"/>
     </row>
-    <row r="285" spans="1:17" ht="22">
+    <row r="285" spans="1:17" ht="22.5">
       <c r="A285" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -32422,7 +32408,7 @@
       <c r="P285" s="34"/>
       <c r="Q285" s="34"/>
     </row>
-    <row r="286" spans="1:17" ht="22">
+    <row r="286" spans="1:17" ht="22.5">
       <c r="A286" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -32456,7 +32442,7 @@
       <c r="P286" s="34"/>
       <c r="Q286" s="34"/>
     </row>
-    <row r="287" spans="1:17" ht="22">
+    <row r="287" spans="1:17" ht="22.5">
       <c r="A287" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -32492,7 +32478,7 @@
       <c r="P287" s="34"/>
       <c r="Q287" s="34"/>
     </row>
-    <row r="288" spans="1:17" ht="22">
+    <row r="288" spans="1:17" ht="22.5">
       <c r="A288" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -32524,7 +32510,7 @@
       <c r="P288" s="34"/>
       <c r="Q288" s="34"/>
     </row>
-    <row r="289" spans="1:17" ht="33">
+    <row r="289" spans="1:17" ht="33.75">
       <c r="A289" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -32556,7 +32542,7 @@
       <c r="P289" s="34"/>
       <c r="Q289" s="34"/>
     </row>
-    <row r="290" spans="1:17" ht="33">
+    <row r="290" spans="1:17" ht="33.75">
       <c r="A290" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -32588,7 +32574,7 @@
       <c r="P290" s="34"/>
       <c r="Q290" s="34"/>
     </row>
-    <row r="291" spans="1:17" ht="33">
+    <row r="291" spans="1:17" ht="33.75">
       <c r="A291" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -32620,7 +32606,7 @@
       <c r="P291" s="34"/>
       <c r="Q291" s="34"/>
     </row>
-    <row r="292" spans="1:17" ht="33">
+    <row r="292" spans="1:17" ht="33.75">
       <c r="A292" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -32652,7 +32638,7 @@
       <c r="P292" s="34"/>
       <c r="Q292" s="34"/>
     </row>
-    <row r="293" spans="1:17" ht="33">
+    <row r="293" spans="1:17" ht="33.75">
       <c r="A293" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -32684,7 +32670,7 @@
       <c r="P293" s="34"/>
       <c r="Q293" s="34"/>
     </row>
-    <row r="294" spans="1:17" ht="22">
+    <row r="294" spans="1:17" ht="22.5">
       <c r="A294" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -32716,7 +32702,7 @@
       <c r="P294" s="34"/>
       <c r="Q294" s="34"/>
     </row>
-    <row r="295" spans="1:17" ht="22">
+    <row r="295" spans="1:17" ht="22.5">
       <c r="A295" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -32748,7 +32734,7 @@
       <c r="P295" s="34"/>
       <c r="Q295" s="34"/>
     </row>
-    <row r="296" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="296" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A296" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -33048,7 +33034,7 @@
       <c r="P304" s="41"/>
       <c r="Q304" s="41"/>
     </row>
-    <row r="305" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="305" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A305" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -33176,7 +33162,7 @@
       <c r="P308" s="41"/>
       <c r="Q308" s="41"/>
     </row>
-    <row r="309" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="309" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A309" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -33208,7 +33194,7 @@
       <c r="P309" s="41"/>
       <c r="Q309" s="41"/>
     </row>
-    <row r="310" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="310" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A310" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -33240,7 +33226,7 @@
       <c r="P310" s="41"/>
       <c r="Q310" s="41"/>
     </row>
-    <row r="311" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="311" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A311" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -33272,7 +33258,7 @@
       <c r="P311" s="41"/>
       <c r="Q311" s="41"/>
     </row>
-    <row r="312" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="312" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A312" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -33304,7 +33290,7 @@
       <c r="P312" s="41"/>
       <c r="Q312" s="41"/>
     </row>
-    <row r="313" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="313" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A313" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -33336,7 +33322,7 @@
       <c r="P313" s="41"/>
       <c r="Q313" s="41"/>
     </row>
-    <row r="314" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="314" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A314" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
@@ -33368,7 +33354,7 @@
       <c r="P314" s="41"/>
       <c r="Q314" s="41"/>
     </row>
-    <row r="315" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="315" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A315" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
@@ -33400,7 +33386,7 @@
       <c r="P315" s="41"/>
       <c r="Q315" s="41"/>
     </row>
-    <row r="316" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="316" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A316" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -33434,7 +33420,7 @@
       <c r="P316" s="161"/>
       <c r="Q316" s="161"/>
     </row>
-    <row r="317" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="317" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A317" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
@@ -33468,7 +33454,7 @@
       <c r="P317" s="41"/>
       <c r="Q317" s="41"/>
     </row>
-    <row r="318" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="318" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A318" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
@@ -33500,7 +33486,7 @@
       <c r="P318" s="41"/>
       <c r="Q318" s="41"/>
     </row>
-    <row r="319" spans="1:17" ht="22">
+    <row r="319" spans="1:17" ht="22.5">
       <c r="A319" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),
@@ -33534,7 +33520,7 @@
       <c r="P319" s="94"/>
       <c r="Q319" s="94"/>
     </row>
-    <row r="320" spans="1:17" ht="22">
+    <row r="320" spans="1:17" ht="22.5">
       <c r="A320" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E320),
@@ -33566,7 +33552,7 @@
       <c r="P320" s="94"/>
       <c r="Q320" s="94"/>
     </row>
-    <row r="321" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="321" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A321" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A321" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E321),
@@ -33600,7 +33586,7 @@
       <c r="P321" s="41"/>
       <c r="Q321" s="41"/>
     </row>
-    <row r="322" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="322" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A322" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E322),
@@ -33634,7 +33620,7 @@
       <c r="P322" s="41"/>
       <c r="Q322" s="41"/>
     </row>
-    <row r="323" spans="1:17" ht="22">
+    <row r="323" spans="1:17" ht="22.5">
       <c r="A323" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E323),
@@ -33666,7 +33652,7 @@
       <c r="P323" s="32"/>
       <c r="Q323" s="32"/>
     </row>
-    <row r="324" spans="1:17" ht="33">
+    <row r="324" spans="1:17" ht="33.75">
       <c r="A324" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A324" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E324),
@@ -33698,7 +33684,7 @@
       <c r="P324" s="32"/>
       <c r="Q324" s="32"/>
     </row>
-    <row r="325" spans="1:17" ht="44">
+    <row r="325" spans="1:17" ht="45">
       <c r="A325" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A325" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E325),
@@ -33730,7 +33716,7 @@
       <c r="P325" s="32"/>
       <c r="Q325" s="32"/>
     </row>
-    <row r="326" spans="1:17" ht="33">
+    <row r="326" spans="1:17" ht="33.75">
       <c r="A326" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E326),
@@ -33762,7 +33748,7 @@
       <c r="P326" s="32"/>
       <c r="Q326" s="32"/>
     </row>
-    <row r="327" spans="1:17" ht="44">
+    <row r="327" spans="1:17" ht="45">
       <c r="A327" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A327" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E327),
@@ -33794,7 +33780,7 @@
       <c r="P327" s="32"/>
       <c r="Q327" s="32"/>
     </row>
-    <row r="328" spans="1:17" ht="33">
+    <row r="328" spans="1:17" ht="33.75">
       <c r="A328" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A328" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E328),
@@ -33826,7 +33812,7 @@
       <c r="P328" s="32"/>
       <c r="Q328" s="32"/>
     </row>
-    <row r="329" spans="1:17" ht="44">
+    <row r="329" spans="1:17" ht="45">
       <c r="A329" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A329" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E329),
@@ -33858,7 +33844,7 @@
       <c r="P329" s="32"/>
       <c r="Q329" s="32"/>
     </row>
-    <row r="330" spans="1:17" ht="22">
+    <row r="330" spans="1:17" ht="22.5">
       <c r="A330" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A330" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E330),
@@ -33890,7 +33876,7 @@
       <c r="P330" s="32"/>
       <c r="Q330" s="32"/>
     </row>
-    <row r="331" spans="1:17" ht="22">
+    <row r="331" spans="1:17" ht="22.5">
       <c r="A331" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A331" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E331),
@@ -33924,7 +33910,7 @@
       <c r="P331" s="32"/>
       <c r="Q331" s="32"/>
     </row>
-    <row r="332" spans="1:17" ht="22">
+    <row r="332" spans="1:17" ht="22.5">
       <c r="A332" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A332" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E332),
@@ -33958,7 +33944,7 @@
       <c r="P332" s="32"/>
       <c r="Q332" s="32"/>
     </row>
-    <row r="333" spans="1:17" ht="22">
+    <row r="333" spans="1:17" ht="22.5">
       <c r="A333" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A333" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E333),
@@ -33994,7 +33980,7 @@
       <c r="P333" s="32"/>
       <c r="Q333" s="32"/>
     </row>
-    <row r="334" spans="1:17" ht="22">
+    <row r="334" spans="1:17" ht="22.5">
       <c r="A334" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A334" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E334),
@@ -34028,7 +34014,7 @@
       <c r="P334" s="32"/>
       <c r="Q334" s="32"/>
     </row>
-    <row r="335" spans="1:17" ht="22">
+    <row r="335" spans="1:17" ht="22.5">
       <c r="A335" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A335" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E335),
@@ -34060,7 +34046,7 @@
       <c r="P335" s="32"/>
       <c r="Q335" s="32"/>
     </row>
-    <row r="336" spans="1:17" ht="22">
+    <row r="336" spans="1:17" ht="22.5">
       <c r="A336" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
@@ -34092,7 +34078,7 @@
       <c r="P336" s="32"/>
       <c r="Q336" s="32"/>
     </row>
-    <row r="337" spans="1:17" ht="22">
+    <row r="337" spans="1:17" ht="22.5">
       <c r="A337" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
@@ -34160,7 +34146,7 @@
       <c r="P338" s="32"/>
       <c r="Q338" s="32"/>
     </row>
-    <row r="339" spans="1:17" ht="22">
+    <row r="339" spans="1:17" ht="22.5">
       <c r="A339" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A339" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E339),
@@ -34192,7 +34178,7 @@
       <c r="P339" s="32"/>
       <c r="Q339" s="32"/>
     </row>
-    <row r="340" spans="1:17" ht="22">
+    <row r="340" spans="1:17" ht="22.5">
       <c r="A340" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A340" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E340),
@@ -34260,7 +34246,7 @@
       <c r="P341" s="32"/>
       <c r="Q341" s="32"/>
     </row>
-    <row r="342" spans="1:17" ht="22">
+    <row r="342" spans="1:17" ht="22.5">
       <c r="A342" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A342" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E342),
@@ -34292,7 +34278,7 @@
       <c r="P342" s="32"/>
       <c r="Q342" s="32"/>
     </row>
-    <row r="343" spans="1:17" ht="22">
+    <row r="343" spans="1:17" ht="22.5">
       <c r="A343" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A343" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E343),
@@ -34324,7 +34310,7 @@
       <c r="P343" s="32"/>
       <c r="Q343" s="32"/>
     </row>
-    <row r="344" spans="1:17" ht="22">
+    <row r="344" spans="1:17" ht="22.5">
       <c r="A344" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A344" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E344),
@@ -34356,7 +34342,7 @@
       <c r="P344" s="32"/>
       <c r="Q344" s="32"/>
     </row>
-    <row r="345" spans="1:17" ht="22">
+    <row r="345" spans="1:17" ht="22.5">
       <c r="A345" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A345" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E345),
@@ -34388,7 +34374,7 @@
       <c r="P345" s="32"/>
       <c r="Q345" s="32"/>
     </row>
-    <row r="346" spans="1:17" ht="33">
+    <row r="346" spans="1:17" ht="33.75">
       <c r="A346" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A346" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E346),
@@ -34422,7 +34408,7 @@
       <c r="P346" s="154"/>
       <c r="Q346" s="154"/>
     </row>
-    <row r="347" spans="1:17" ht="22">
+    <row r="347" spans="1:17" ht="22.5">
       <c r="A347" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A347" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E347),
@@ -34454,7 +34440,7 @@
       <c r="P347" s="32"/>
       <c r="Q347" s="32"/>
     </row>
-    <row r="348" spans="1:17" ht="22">
+    <row r="348" spans="1:17" ht="22.5">
       <c r="A348" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A348" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E348),
@@ -34486,7 +34472,7 @@
       <c r="P348" s="32"/>
       <c r="Q348" s="32"/>
     </row>
-    <row r="349" spans="1:17" ht="22">
+    <row r="349" spans="1:17" ht="22.5">
       <c r="A349" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A349" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E349),
@@ -34518,7 +34504,7 @@
       <c r="P349" s="32"/>
       <c r="Q349" s="32"/>
     </row>
-    <row r="350" spans="1:17" ht="22">
+    <row r="350" spans="1:17" ht="22.5">
       <c r="A350" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A350" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E350),
@@ -34550,7 +34536,7 @@
       <c r="P350" s="32"/>
       <c r="Q350" s="32"/>
     </row>
-    <row r="351" spans="1:17" ht="22">
+    <row r="351" spans="1:17" ht="22.5">
       <c r="A351" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A351" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E351),
@@ -34582,7 +34568,7 @@
       <c r="P351" s="32"/>
       <c r="Q351" s="32"/>
     </row>
-    <row r="352" spans="1:17" ht="22">
+    <row r="352" spans="1:17" ht="22.5">
       <c r="A352" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A352" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E352),
@@ -34614,7 +34600,7 @@
       <c r="P352" s="32"/>
       <c r="Q352" s="32"/>
     </row>
-    <row r="353" spans="1:17" ht="22">
+    <row r="353" spans="1:17" ht="22.5">
       <c r="A353" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A353" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E353),
@@ -34646,7 +34632,7 @@
       <c r="P353" s="32"/>
       <c r="Q353" s="32"/>
     </row>
-    <row r="354" spans="1:17" ht="22">
+    <row r="354" spans="1:17" ht="22.5">
       <c r="A354" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A354" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E354),
@@ -34678,7 +34664,7 @@
       <c r="P354" s="32"/>
       <c r="Q354" s="32"/>
     </row>
-    <row r="355" spans="1:17" ht="22">
+    <row r="355" spans="1:17" ht="22.5">
       <c r="A355" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A355" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E355),
@@ -34712,7 +34698,7 @@
       <c r="P355" s="32"/>
       <c r="Q355" s="32"/>
     </row>
-    <row r="356" spans="1:17" ht="33">
+    <row r="356" spans="1:17" ht="33.75">
       <c r="A356" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A356" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E356),
@@ -34744,7 +34730,7 @@
       <c r="P356" s="32"/>
       <c r="Q356" s="32"/>
     </row>
-    <row r="357" spans="1:17" ht="33">
+    <row r="357" spans="1:17" ht="33.75">
       <c r="A357" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A357" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E357),
@@ -34776,7 +34762,7 @@
       <c r="P357" s="32"/>
       <c r="Q357" s="32"/>
     </row>
-    <row r="358" spans="1:17" ht="33">
+    <row r="358" spans="1:17" ht="33.75">
       <c r="A358" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A358" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E358),
@@ -34808,7 +34794,7 @@
       <c r="P358" s="32"/>
       <c r="Q358" s="32"/>
     </row>
-    <row r="359" spans="1:17" ht="22">
+    <row r="359" spans="1:17" ht="22.5">
       <c r="A359" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A359" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E359),
@@ -34840,7 +34826,7 @@
       <c r="P359" s="32"/>
       <c r="Q359" s="32"/>
     </row>
-    <row r="360" spans="1:17" ht="22">
+    <row r="360" spans="1:17" ht="22.5">
       <c r="A360" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A360" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E360),
@@ -34872,7 +34858,7 @@
       <c r="P360" s="32"/>
       <c r="Q360" s="32"/>
     </row>
-    <row r="361" spans="1:17" ht="22">
+    <row r="361" spans="1:17" ht="22.5">
       <c r="A361" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A361" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E361),
@@ -34904,7 +34890,7 @@
       <c r="P361" s="32"/>
       <c r="Q361" s="32"/>
     </row>
-    <row r="362" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="362" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A362" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A362" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E362),
@@ -34944,7 +34930,7 @@
       <c r="P362" s="42"/>
       <c r="Q362" s="42"/>
     </row>
-    <row r="363" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="363" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A363" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A363" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E363),
@@ -34976,7 +34962,7 @@
       <c r="P363" s="122"/>
       <c r="Q363" s="122"/>
     </row>
-    <row r="364" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="364" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A364" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A364" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E364),
@@ -35008,7 +34994,7 @@
       <c r="P364" s="122"/>
       <c r="Q364" s="122"/>
     </row>
-    <row r="365" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="365" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A365" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A365" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E365),
@@ -35040,7 +35026,7 @@
       <c r="P365" s="122"/>
       <c r="Q365" s="122"/>
     </row>
-    <row r="366" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="366" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A366" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A366" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E366),
@@ -35142,7 +35128,7 @@
       <c r="P368" s="122"/>
       <c r="Q368" s="122"/>
     </row>
-    <row r="369" spans="1:17" s="31" customFormat="1" ht="33">
+    <row r="369" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A369" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A369" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E369),
@@ -35176,7 +35162,7 @@
       <c r="P369" s="252"/>
       <c r="Q369" s="252"/>
     </row>
-    <row r="370" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="370" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A370" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A370" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E370),
@@ -35240,7 +35226,7 @@
       <c r="P371" s="122"/>
       <c r="Q371" s="122"/>
     </row>
-    <row r="372" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="372" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A372" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A372" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E372),
@@ -35278,7 +35264,7 @@
       <c r="P372" s="44"/>
       <c r="Q372" s="44"/>
     </row>
-    <row r="373" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="373" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A373" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A373" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E373),
@@ -35374,7 +35360,7 @@
       <c r="P375" s="44"/>
       <c r="Q375" s="44"/>
     </row>
-    <row r="376" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="376" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A376" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A376" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E376),
@@ -35408,7 +35394,7 @@
       <c r="P376" s="255"/>
       <c r="Q376" s="255"/>
     </row>
-    <row r="377" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="377" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A377" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A377" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E377),
@@ -35440,7 +35426,7 @@
       <c r="P377" s="44"/>
       <c r="Q377" s="44"/>
     </row>
-    <row r="378" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="378" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A378" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A378" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E378),
@@ -35476,7 +35462,7 @@
       <c r="P378" s="44"/>
       <c r="Q378" s="44"/>
     </row>
-    <row r="379" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="379" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A379" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A379" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E379),
@@ -35512,7 +35498,7 @@
       <c r="P379" s="44"/>
       <c r="Q379" s="44"/>
     </row>
-    <row r="380" spans="1:17" s="31" customFormat="1" ht="22">
+    <row r="380" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A380" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="A380" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E380),
@@ -35548,7 +35534,7 @@
       <c r="P380" s="126"/>
       <c r="Q380" s="126"/>
     </row>
-    <row r="381" spans="1:17" ht="22">
+    <row r="381" spans="1:17" ht="22.5">
       <c r="A381" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A381" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E381),
@@ -35588,7 +35574,7 @@
       <c r="P381" s="32"/>
       <c r="Q381" s="32"/>
     </row>
-    <row r="382" spans="1:17" ht="22">
+    <row r="382" spans="1:17" ht="22.5">
       <c r="A382" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A382" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E382),
@@ -35666,18 +35652,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="25" customWidth="1"/>
-    <col min="2" max="3" width="10.58203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="25" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="57" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="16.33203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="31" style="25" customWidth="1"/>
     <col min="11" max="11" width="17.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.58203125" style="25" customWidth="1"/>
+    <col min="12" max="14" width="8.625" style="25" customWidth="1"/>
     <col min="15" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -35720,7 +35706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="11.5" thickBot="1">
+    <row r="8" spans="1:16" ht="12" thickBot="1">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -35739,7 +35725,7 @@
       <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" ht="12" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:16" s="31" customFormat="1" ht="10" customHeight="1">
+    <row r="10" spans="1:16" s="31" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>548</v>
       </c>
@@ -35789,7 +35775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="11" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A11" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D11),
@@ -35857,7 +35843,7 @@
       <c r="O12" s="71"/>
       <c r="P12" s="86"/>
     </row>
-    <row r="13" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="13" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A13" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D13),
@@ -35957,7 +35943,7 @@
       <c r="O15" s="78"/>
       <c r="P15" s="87"/>
     </row>
-    <row r="16" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="16" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A16" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D16),
@@ -35991,7 +35977,7 @@
       <c r="O16" s="203"/>
       <c r="P16" s="204"/>
     </row>
-    <row r="17" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="17" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A17" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D17),
@@ -36025,7 +36011,7 @@
       <c r="O17" s="203"/>
       <c r="P17" s="204"/>
     </row>
-    <row r="18" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="18" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A18" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D18),
@@ -36059,7 +36045,7 @@
       <c r="O18" s="203"/>
       <c r="P18" s="204"/>
     </row>
-    <row r="19" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="19" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A19" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D19),
@@ -36129,7 +36115,7 @@
       <c r="O20" s="90"/>
       <c r="P20" s="91"/>
     </row>
-    <row r="21" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="21" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A21" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D21),
@@ -36162,7 +36148,7 @@
       <c r="N21" s="211"/>
       <c r="O21" s="211"/>
     </row>
-    <row r="22" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="22" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A22" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D22),
@@ -36197,7 +36183,7 @@
       <c r="N22" s="211"/>
       <c r="O22" s="211"/>
     </row>
-    <row r="23" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="23" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A23" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D23),
@@ -36230,7 +36216,7 @@
       <c r="N23" s="211"/>
       <c r="O23" s="211"/>
     </row>
-    <row r="24" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="24" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A24" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D24),
@@ -36296,7 +36282,7 @@
       <c r="N25" s="221"/>
       <c r="O25" s="221"/>
     </row>
-    <row r="26" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="26" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A26" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D26),
@@ -36360,7 +36346,7 @@
       <c r="N27" s="221"/>
       <c r="O27" s="221"/>
     </row>
-    <row r="28" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="28" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A28" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D28),
@@ -36397,7 +36383,7 @@
       <c r="N28" s="211"/>
       <c r="O28" s="211"/>
     </row>
-    <row r="29" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="29" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A29" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D29),
